--- a/data/add_factors.xlsx
+++ b/data/add_factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/add-ons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F2670-DA75-7940-8B0C-49671FEDBFEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7568D871-9387-864C-AB9D-4247AA728875}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="383">
   <si>
     <t>Corporate Taxes</t>
   </si>
@@ -1798,9 +1798,6 @@
     <t>All other subsidies (aviation, employee retention, paid sick)</t>
   </si>
   <si>
-    <t>federal_cgrants_override</t>
-  </si>
-  <si>
     <t>FY 2024</t>
   </si>
   <si>
@@ -1846,15 +1843,6 @@
     <t>unemployment_insurance</t>
   </si>
   <si>
-    <t>unemployment_insurance_override</t>
-  </si>
-  <si>
-    <t>federal_unemployment_insurance_override</t>
-  </si>
-  <si>
-    <t>state_unemployment_insurance_override</t>
-  </si>
-  <si>
     <t>gdp</t>
   </si>
   <si>
@@ -2123,6 +2111,21 @@
   </si>
   <si>
     <t>federal nom purchases override growth rate</t>
+  </si>
+  <si>
+    <t>add_consumption_grants</t>
+  </si>
+  <si>
+    <t>consumption_grants_override</t>
+  </si>
+  <si>
+    <t>ui_override</t>
+  </si>
+  <si>
+    <t>federal_ui_override</t>
+  </si>
+  <si>
+    <t>state_ui_override</t>
   </si>
 </sst>
 </file>
@@ -4129,7 +4132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="M62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -4157,14 +4160,14 @@
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="328" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B1" s="328"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AC1" s="334" t="s">
         <v>248</v>
@@ -4178,13 +4181,13 @@
         <v>28</v>
       </c>
       <c r="AI1" s="330" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AJ1" s="330"/>
       <c r="AK1" s="330"/>
       <c r="AL1" s="330"/>
       <c r="AM1" s="329" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AN1" s="329"/>
       <c r="AO1" s="329"/>
@@ -4373,10 +4376,10 @@
         <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F5" s="198">
         <v>20909.900000000001</v>
@@ -4557,10 +4560,10 @@
         <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F7" s="198">
         <v>18813.900000000001</v>
@@ -4857,10 +4860,10 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D12"/>
       <c r="F12" s="198">
@@ -4968,7 +4971,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="212" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -5031,7 +5034,7 @@
     </row>
     <row r="14" spans="1:43" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="212" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C14" s="269"/>
       <c r="D14" s="269"/>
@@ -5090,10 +5093,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D15"/>
       <c r="F15" s="198">
@@ -5197,7 +5200,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="212" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -5324,10 +5327,10 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D18"/>
       <c r="F18" s="198">
@@ -5435,7 +5438,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="212" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -5557,10 +5560,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D21"/>
       <c r="F21" s="198">
@@ -5667,7 +5670,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="177" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -5940,7 +5943,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D27"/>
       <c r="F27" s="197">
@@ -6009,7 +6012,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D28"/>
       <c r="F28" s="197">
@@ -6078,7 +6081,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D29"/>
       <c r="F29" s="197">
@@ -6147,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D30"/>
       <c r="F30" s="197">
@@ -6335,10 +6338,10 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D34"/>
       <c r="F34" s="202">
@@ -6436,10 +6439,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C35" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D35"/>
       <c r="F35" s="202">
@@ -6558,13 +6561,13 @@
     </row>
     <row r="36" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="93" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D36"/>
       <c r="F36" s="202"/>
@@ -6626,7 +6629,7 @@
     </row>
     <row r="37" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="281" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F37" s="202"/>
       <c r="G37" s="202"/>
@@ -6662,7 +6665,7 @@
     </row>
     <row r="38" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="281" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F38" s="202"/>
       <c r="G38" s="202"/>
@@ -6698,7 +6701,7 @@
     </row>
     <row r="39" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="281" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F39" s="202"/>
       <c r="G39" s="202"/>
@@ -6842,13 +6845,13 @@
     </row>
     <row r="41" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="115" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D41"/>
       <c r="F41" s="202"/>
@@ -7073,7 +7076,7 @@
     </row>
     <row r="45" spans="1:39" s="274" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="273" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F45" s="202"/>
       <c r="G45" s="202"/>
@@ -7274,10 +7277,10 @@
         <v>205</v>
       </c>
       <c r="B48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D48"/>
       <c r="F48" s="202"/>
@@ -7334,10 +7337,10 @@
         <v>206</v>
       </c>
       <c r="B49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C49" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D49"/>
       <c r="F49" s="202"/>
@@ -7666,10 +7669,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="141" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C54" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D54"/>
       <c r="E54" s="141"/>
@@ -7825,7 +7828,7 @@
     </row>
     <row r="56" spans="1:41" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="219" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F56" s="197"/>
       <c r="G56" s="197"/>
@@ -7859,10 +7862,10 @@
     </row>
     <row r="57" spans="1:41" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="271" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C57" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D57"/>
       <c r="F57" s="197"/>
@@ -7925,7 +7928,7 @@
         <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D58"/>
       <c r="F58" s="197"/>
@@ -7985,13 +7988,13 @@
     </row>
     <row r="59" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="272" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B59" s="185" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D59"/>
       <c r="F59" s="207"/>
@@ -8033,13 +8036,13 @@
     </row>
     <row r="60" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="272" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B60" s="185" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C60" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D60"/>
       <c r="F60" s="207"/>
@@ -8081,13 +8084,13 @@
     </row>
     <row r="61" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="272" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B61" s="185" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C61" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D61"/>
       <c r="F61" s="207"/>
@@ -8129,7 +8132,7 @@
     </row>
     <row r="62" spans="1:41" s="185" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="219" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -8165,7 +8168,7 @@
     </row>
     <row r="63" spans="1:41" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="273" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F63" s="197"/>
       <c r="G63" s="197"/>
@@ -8205,7 +8208,7 @@
     </row>
     <row r="64" spans="1:41" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="273" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F64" s="197"/>
       <c r="G64" s="197"/>
@@ -8248,7 +8251,7 @@
     </row>
     <row r="65" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="273" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F65" s="197"/>
       <c r="G65" s="197"/>
@@ -8294,7 +8297,7 @@
     </row>
     <row r="66" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="273" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F66" s="197"/>
       <c r="G66" s="197"/>
@@ -8387,10 +8390,10 @@
         <v>16</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C68" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D68"/>
       <c r="F68" s="197">
@@ -8587,10 +8590,10 @@
         <v>209</v>
       </c>
       <c r="B71" s="138" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C71" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D71"/>
       <c r="F71" s="204"/>
@@ -8710,7 +8713,7 @@
     </row>
     <row r="73" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="219" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F73" s="197"/>
       <c r="G73" s="197"/>
@@ -8783,7 +8786,7 @@
         <v>197</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F74" s="197"/>
       <c r="G74" s="197"/>
@@ -8844,7 +8847,7 @@
         <v>198</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F75" s="197"/>
       <c r="G75" s="197"/>
@@ -8895,7 +8898,7 @@
         <v>201</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F76" s="197"/>
       <c r="G76" s="197"/>
@@ -8943,7 +8946,7 @@
     </row>
     <row r="77" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="220" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F77" s="197"/>
       <c r="G77" s="197"/>
@@ -9013,7 +9016,7 @@
     </row>
     <row r="78" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="282" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F78" s="197"/>
       <c r="G78" s="197"/>
@@ -9083,7 +9086,7 @@
     </row>
     <row r="79" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="282" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F79" s="197"/>
       <c r="G79" s="197"/>
@@ -9153,7 +9156,7 @@
     </row>
     <row r="80" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="282" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F80" s="197"/>
       <c r="G80" s="197"/>
@@ -9223,7 +9226,7 @@
     </row>
     <row r="81" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="282" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F81" s="197"/>
       <c r="G81" s="197"/>
@@ -9410,10 +9413,10 @@
         <v>17</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C84" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D84"/>
       <c r="F84" s="206">
@@ -9474,10 +9477,10 @@
         <v>203</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C85" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D85"/>
       <c r="F85" s="197"/>
@@ -9549,7 +9552,7 @@
     </row>
     <row r="86" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="114" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -9681,7 +9684,7 @@
     </row>
     <row r="88" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="114" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F88" s="207"/>
       <c r="G88" s="207"/>
@@ -9729,7 +9732,7 @@
     </row>
     <row r="89" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="284" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F89" s="300"/>
       <c r="G89" s="300"/>
@@ -9777,7 +9780,7 @@
     </row>
     <row r="90" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="284" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F90" s="300"/>
       <c r="G90" s="300"/>
@@ -9825,7 +9828,7 @@
     </row>
     <row r="91" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="284" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F91" s="300"/>
       <c r="G91" s="300"/>
@@ -9876,10 +9879,10 @@
         <v>204</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C92" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D92"/>
       <c r="F92" s="206">
@@ -10163,10 +10166,10 @@
         <v>15</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C96" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D96"/>
       <c r="F96" s="197">
@@ -10321,10 +10324,10 @@
         <v>227</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C99" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D99"/>
       <c r="F99" s="197">
@@ -10503,10 +10506,10 @@
         <v>18</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C102" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D102"/>
       <c r="F102" s="197">
@@ -10573,7 +10576,7 @@
     </row>
     <row r="103" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="169" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B103" s="35"/>
       <c r="C103" s="35"/>
@@ -10625,10 +10628,10 @@
     </row>
     <row r="104" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="169" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
@@ -10684,10 +10687,10 @@
         <v>216</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C105" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D105"/>
       <c r="F105" s="197"/>
@@ -10794,7 +10797,7 @@
     </row>
     <row r="107" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="169" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
@@ -10834,7 +10837,7 @@
     </row>
     <row r="108" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="169" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F108" s="207"/>
       <c r="G108" s="207"/>
@@ -10885,7 +10888,7 @@
     </row>
     <row r="109" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="169" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F109" s="207"/>
       <c r="G109" s="207"/>
@@ -16133,7 +16136,7 @@
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.2">
       <c r="O42" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.2">
@@ -21758,18 +21761,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="97" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C1" s="97" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="289" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B2" s="289">
         <v>325</v>
@@ -21781,7 +21784,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="289" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B3" s="289">
         <v>120</v>
@@ -21817,7 +21820,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="289" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B6" s="289">
         <v>63</v>
@@ -21829,7 +21832,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="291" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -21841,7 +21844,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="176" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -21853,7 +21856,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="176" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -21878,7 +21881,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="292" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B11" s="289">
         <v>45</v>
@@ -21890,7 +21893,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="291" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B12" s="289">
         <v>16</v>
@@ -21915,7 +21918,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="292" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B14" s="289">
         <v>80</v>
@@ -21927,7 +21930,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="291" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B15" s="289">
         <v>26</v>
@@ -21952,7 +21955,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="292" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -21964,7 +21967,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="291" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -21976,7 +21979,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="291" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -21988,7 +21991,7 @@
     </row>
     <row r="20" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="293" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B20" s="294">
         <v>5</v>
@@ -22048,7 +22051,7 @@
       <c r="H1"/>
       <c r="I1" s="240"/>
       <c r="J1" s="343" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V1" s="327"/>
       <c r="W1" s="327"/>
@@ -22115,19 +22118,19 @@
       <c r="Q7" s="341"/>
       <c r="R7" s="341"/>
       <c r="S7" s="340" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T7" s="341"/>
       <c r="U7" s="341"/>
       <c r="V7" s="341"/>
       <c r="W7" s="340" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X7" s="341"/>
       <c r="Y7" s="341"/>
       <c r="Z7" s="341"/>
       <c r="AA7" s="222" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23587,7 +23590,7 @@
     </row>
     <row r="23" spans="1:47" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B23" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D23" s="228"/>
       <c r="E23" s="242"/>
@@ -24029,7 +24032,7 @@
     </row>
     <row r="30" spans="1:47" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B30" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D30" s="228"/>
       <c r="E30" s="242"/>
@@ -24986,7 +24989,7 @@
     </row>
     <row r="49" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B49" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D49" s="228"/>
       <c r="E49" s="242"/>
@@ -25440,7 +25443,7 @@
     </row>
     <row r="56" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B56" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D56" s="228"/>
       <c r="E56" s="242"/>
@@ -25898,7 +25901,7 @@
     </row>
     <row r="63" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B63" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D63" s="228"/>
       <c r="E63" s="242"/>
@@ -26344,7 +26347,7 @@
     </row>
     <row r="70" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B70" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D70" s="228"/>
       <c r="E70" s="242"/>
@@ -26557,9 +26560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26594,28 +26597,28 @@
         <v>255</v>
       </c>
       <c r="I1" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
       <c r="J1" t="s">
-        <v>273</v>
+        <v>379</v>
       </c>
       <c r="K1" t="s">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="L1" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="M1" t="s">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="N1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -28157,7 +28160,7 @@
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
       <c r="J1" s="343" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V1" s="327"/>
       <c r="W1" s="327"/>
@@ -28237,19 +28240,19 @@
       <c r="Q7" s="341"/>
       <c r="R7" s="341"/>
       <c r="S7" s="340" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T7" s="341"/>
       <c r="U7" s="341"/>
       <c r="V7" s="341"/>
       <c r="W7" s="340" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X7" s="341"/>
       <c r="Y7" s="341"/>
       <c r="Z7" s="341"/>
       <c r="AA7" s="222" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="257" customFormat="1" x14ac:dyDescent="0.2">
@@ -29456,7 +29459,7 @@
     </row>
     <row r="26" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B26" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D26" s="228"/>
       <c r="E26" s="242"/>
@@ -29898,7 +29901,7 @@
     </row>
     <row r="33" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B33" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D33" s="228"/>
       <c r="E33" s="242"/>
@@ -30353,7 +30356,7 @@
     </row>
     <row r="40" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B40" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D40" s="228"/>
       <c r="E40" s="242"/>
@@ -30807,7 +30810,7 @@
     </row>
     <row r="47" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B47" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D47" s="228"/>
       <c r="E47" s="242"/>
@@ -31099,7 +31102,7 @@
         <v>255</v>
       </c>
       <c r="I1" s="259" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -31765,39 +31768,39 @@
   <sheetData>
     <row r="1" spans="1:10" s="297" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="297" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="297" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="297" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" s="297" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="297" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="297" t="s">
+      <c r="F1" s="297" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="297" t="s">
+      <c r="G1" s="297" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="297" t="s">
+      <c r="H1" s="297" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="297" t="s">
+      <c r="I1" s="297" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="297" t="s">
-        <v>327</v>
-      </c>
-      <c r="G1" s="297" t="s">
-        <v>328</v>
-      </c>
-      <c r="H1" s="297" t="s">
-        <v>329</v>
-      </c>
-      <c r="I1" s="297" t="s">
-        <v>330</v>
-      </c>
       <c r="J1" s="297" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B2">
         <v>20909.900000000001</v>
@@ -31829,7 +31832,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B3">
         <v>18813.900000000001</v>
@@ -31861,7 +31864,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B4">
         <v>1634.2</v>
@@ -31893,7 +31896,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B5">
         <v>183.5</v>
@@ -31925,7 +31928,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B6">
         <v>1355.2</v>
@@ -31957,7 +31960,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B7">
         <v>234.7</v>
@@ -31986,7 +31989,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B8">
         <v>456.5</v>
@@ -32018,7 +32021,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B9">
         <v>1295.5</v>
@@ -32050,7 +32053,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B10">
         <v>8600</v>
@@ -32082,7 +32085,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B11">
         <v>12969</v>
@@ -32114,7 +32117,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B12">
         <v>63.5</v>
@@ -32143,7 +32146,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B13">
         <v>2220523</v>
@@ -32175,7 +32178,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B14">
         <v>753311</v>
@@ -32207,7 +32210,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H15">
         <v>1078100</v>
@@ -32221,7 +32224,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B16">
         <v>27025</v>
@@ -32253,7 +32256,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H17">
         <v>19100</v>
@@ -32267,7 +32270,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H18">
         <v>160900</v>
@@ -32281,7 +32284,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B19">
         <v>79458</v>
@@ -32313,7 +32316,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H20">
         <v>609300</v>
@@ -32327,7 +32330,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H21">
         <v>63800</v>
@@ -32341,7 +32344,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H22">
         <v>73300</v>
@@ -32355,7 +32358,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H23">
         <v>140000</v>
@@ -32369,7 +32372,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B24">
         <v>586475</v>
@@ -32401,7 +32404,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B25">
         <v>1368395</v>
@@ -32433,7 +32436,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B26">
         <v>1241599</v>
@@ -32465,7 +32468,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B27">
         <v>389624</v>
@@ -32497,7 +32500,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B28">
         <v>728844</v>
@@ -32529,7 +32532,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B29">
         <v>589819</v>
@@ -32561,7 +32564,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B30">
         <v>1997129</v>
@@ -32593,7 +32596,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B31">
         <v>2279638</v>
@@ -32625,7 +32628,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B32">
         <v>21.568999999999999</v>
@@ -32657,7 +32660,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H33">
         <v>277100</v>
@@ -32671,7 +32674,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H34">
         <v>690700</v>
@@ -32703,7 +32706,7 @@
         <v>256</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -32784,21 +32787,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33015,7 +33003,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -33032,29 +33054,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/add_factors.xlsx
+++ b/data/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA63A15-9245-AB4C-90AF-52E3D54BF3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5577F356-1010-9E4E-A57A-72EBFB0ED8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19720" activeTab="4" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="2100" yWindow="500" windowWidth="33600" windowHeight="19720" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3602,21 +3602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3638,14 +3623,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15189,68 +15189,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="381" t="s">
+      <c r="A2" s="376" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
+      <c r="B2" s="376"/>
+      <c r="C2" s="376"/>
+      <c r="D2" s="376"/>
+      <c r="E2" s="376"/>
+      <c r="F2" s="376"/>
+      <c r="G2" s="376"/>
+      <c r="H2" s="376"/>
+      <c r="I2" s="376"/>
+      <c r="J2" s="376"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="381" t="s">
+      <c r="A3" s="376" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="381"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="382"/>
-      <c r="B4" s="382"/>
-      <c r="C4" s="382"/>
-      <c r="D4" s="382"/>
-      <c r="E4" s="382"/>
-      <c r="F4" s="382"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="382"/>
-      <c r="I4" s="382"/>
-      <c r="J4" s="382"/>
-      <c r="K4" s="387" t="s">
+      <c r="A4" s="377"/>
+      <c r="B4" s="377"/>
+      <c r="C4" s="377"/>
+      <c r="D4" s="377"/>
+      <c r="E4" s="377"/>
+      <c r="F4" s="377"/>
+      <c r="G4" s="377"/>
+      <c r="H4" s="377"/>
+      <c r="I4" s="377"/>
+      <c r="J4" s="377"/>
+      <c r="K4" s="382" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="387"/>
-      <c r="M4" s="387"/>
-      <c r="N4" s="387"/>
+      <c r="L4" s="382"/>
+      <c r="M4" s="382"/>
+      <c r="N4" s="382"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="383" t="s">
+      <c r="C5" s="378" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="384"/>
-      <c r="E5" s="384"/>
-      <c r="F5" s="384"/>
-      <c r="G5" s="384"/>
-      <c r="H5" s="384"/>
-      <c r="I5" s="384"/>
-      <c r="J5" s="385"/>
+      <c r="D5" s="379"/>
+      <c r="E5" s="379"/>
+      <c r="F5" s="379"/>
+      <c r="G5" s="379"/>
+      <c r="H5" s="379"/>
+      <c r="I5" s="379"/>
+      <c r="J5" s="380"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="386" t="s">
+      <c r="L5" s="381" t="s">
         <v>106</v>
       </c>
       <c r="M5" s="352"/>
@@ -15261,16 +15261,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="377">
+      <c r="C6" s="384">
         <v>2020</v>
       </c>
-      <c r="D6" s="378"/>
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
-      <c r="H6" s="378"/>
-      <c r="I6" s="378"/>
-      <c r="J6" s="379"/>
+      <c r="D6" s="385"/>
+      <c r="E6" s="385"/>
+      <c r="F6" s="385"/>
+      <c r="G6" s="385"/>
+      <c r="H6" s="385"/>
+      <c r="I6" s="385"/>
+      <c r="J6" s="386"/>
       <c r="K6" s="78" t="s">
         <v>134</v>
       </c>
@@ -15742,12 +15742,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="380" t="s">
+      <c r="K23" s="387" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="380"/>
-      <c r="M23" s="380"/>
-      <c r="N23" s="380"/>
+      <c r="L23" s="387"/>
+      <c r="M23" s="387"/>
+      <c r="N23" s="387"/>
       <c r="O23" s="35" t="s">
         <v>145</v>
       </c>
@@ -15916,7 +15916,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="376" t="s">
+      <c r="I28" s="383" t="s">
         <v>252</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15966,7 +15966,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="376"/>
+      <c r="I29" s="383"/>
       <c r="J29" s="82" t="s">
         <v>142</v>
       </c>
@@ -16014,7 +16014,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="376"/>
+      <c r="I30" s="383"/>
       <c r="J30" s="82" t="s">
         <v>141</v>
       </c>
@@ -16062,7 +16062,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="376"/>
+      <c r="I31" s="383"/>
       <c r="J31" s="35" t="s">
         <v>139</v>
       </c>
@@ -16124,7 +16124,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="376" t="s">
+      <c r="I33" s="383" t="s">
         <v>140</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16172,7 +16172,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="376"/>
+      <c r="I34" s="383"/>
       <c r="J34" t="s">
         <v>253</v>
       </c>
@@ -16409,12 +16409,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16422,6 +16416,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16528,22 +16528,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="389" t="s">
+      <c r="E6" s="391" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="389"/>
-      <c r="G6" s="389"/>
-      <c r="H6" s="389"/>
-      <c r="I6" s="389"/>
-      <c r="J6" s="389"/>
-      <c r="K6" s="389"/>
-      <c r="L6" s="389"/>
-      <c r="M6" s="389"/>
-      <c r="N6" s="389"/>
-      <c r="O6" s="389"/>
-      <c r="P6" s="389"/>
-      <c r="Q6" s="389"/>
-      <c r="R6" s="389"/>
+      <c r="F6" s="391"/>
+      <c r="G6" s="391"/>
+      <c r="H6" s="391"/>
+      <c r="I6" s="391"/>
+      <c r="J6" s="391"/>
+      <c r="K6" s="391"/>
+      <c r="L6" s="391"/>
+      <c r="M6" s="391"/>
+      <c r="N6" s="391"/>
+      <c r="O6" s="391"/>
+      <c r="P6" s="391"/>
+      <c r="Q6" s="391"/>
+      <c r="R6" s="391"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="388" t="s">
@@ -17279,21 +17279,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="390" t="s">
+      <c r="H27" s="389" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="390"/>
-      <c r="J27" s="390"/>
-      <c r="K27" s="390"/>
-      <c r="L27" s="390"/>
-      <c r="M27" s="390"/>
-      <c r="N27" s="390"/>
-      <c r="O27" s="390"/>
-      <c r="P27" s="390"/>
-      <c r="Q27" s="390"/>
-      <c r="R27" s="390"/>
-      <c r="S27" s="390"/>
-      <c r="T27" s="390"/>
+      <c r="I27" s="389"/>
+      <c r="J27" s="389"/>
+      <c r="K27" s="389"/>
+      <c r="L27" s="389"/>
+      <c r="M27" s="389"/>
+      <c r="N27" s="389"/>
+      <c r="O27" s="389"/>
+      <c r="P27" s="389"/>
+      <c r="Q27" s="389"/>
+      <c r="R27" s="389"/>
+      <c r="S27" s="389"/>
+      <c r="T27" s="389"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -17609,21 +17609,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="391" t="s">
+      <c r="F37" s="390" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="391"/>
-      <c r="H37" s="391"/>
-      <c r="I37" s="391"/>
-      <c r="J37" s="391"/>
-      <c r="K37" s="391"/>
-      <c r="L37" s="391"/>
-      <c r="M37" s="391"/>
-      <c r="N37" s="391"/>
-      <c r="O37" s="391"/>
-      <c r="P37" s="391"/>
-      <c r="Q37" s="391"/>
-      <c r="R37" s="391"/>
+      <c r="G37" s="390"/>
+      <c r="H37" s="390"/>
+      <c r="I37" s="390"/>
+      <c r="J37" s="390"/>
+      <c r="K37" s="390"/>
+      <c r="L37" s="390"/>
+      <c r="M37" s="390"/>
+      <c r="N37" s="390"/>
+      <c r="O37" s="390"/>
+      <c r="P37" s="390"/>
+      <c r="Q37" s="390"/>
+      <c r="R37" s="390"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -17939,21 +17939,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="390" t="s">
+      <c r="F48" s="389" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="390"/>
-      <c r="H48" s="390"/>
-      <c r="I48" s="390"/>
-      <c r="J48" s="390"/>
-      <c r="K48" s="390"/>
-      <c r="L48" s="390"/>
-      <c r="M48" s="390"/>
-      <c r="N48" s="390"/>
-      <c r="O48" s="390"/>
-      <c r="P48" s="390"/>
-      <c r="Q48" s="390"/>
-      <c r="R48" s="390"/>
+      <c r="G48" s="389"/>
+      <c r="H48" s="389"/>
+      <c r="I48" s="389"/>
+      <c r="J48" s="389"/>
+      <c r="K48" s="389"/>
+      <c r="L48" s="389"/>
+      <c r="M48" s="389"/>
+      <c r="N48" s="389"/>
+      <c r="O48" s="389"/>
+      <c r="P48" s="389"/>
+      <c r="Q48" s="389"/>
+      <c r="R48" s="389"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -18265,6 +18265,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18273,12 +18279,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22524,13 +22524,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
-  <dimension ref="A1:AW73"/>
+  <dimension ref="A1:AX73"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22548,7 +22548,7 @@
     <col min="27" max="27" width="8.6640625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="360" t="s">
         <v>203</v>
       </c>
@@ -22564,7 +22564,7 @@
       <c r="X1" s="352"/>
       <c r="Y1" s="352"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="362" t="s">
         <v>189</v>
       </c>
@@ -22575,7 +22575,7 @@
       <c r="I2" s="241"/>
       <c r="J2" s="368"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="363"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -22584,21 +22584,21 @@
       <c r="I3" s="241"/>
       <c r="J3" s="368"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="363"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="364"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C7" s="365" t="s">
         <v>159</v>
       </c>
@@ -22639,7 +22639,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>197</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>162</v>
       </c>
@@ -22741,1151 +22741,1175 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>168</v>
       </c>
       <c r="D10">
+        <v>200.67099999999999</v>
+      </c>
+      <c r="E10">
         <v>156.16</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>197.62799999999999</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>170.20699999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>164.137</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>168.283382790221</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>172.42976558044199</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>173.014858331521</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>173.599951082601</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>174.18504383368</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>174.77013658476</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>172.87701948733101</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>170.983902389902</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>169.09078529247299</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>167.197668195044</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>168.18650468764599</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>169.17534118024699</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>170.16417767284801</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>171.15301416545</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>173.69648926200901</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>176.23996435856799</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>178.783439455127</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>181.326914551686</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>183.85985203006999</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>186.392789508455</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>188.92572698683901</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>191.45866446522299</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>194.36254309952099</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>197.26642173381799</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>200.17030036811499</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>203.07417900241299</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>206.00159731602</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>208.929015629627</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>211.856433943235</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>214.78385225684201</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>217.808743538567</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>220.833634820291</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>223.85852610201599</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>226.883417383741</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>230.07495599805301</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>233.26649461236599</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>236.458033226678</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>239.649571840991</v>
       </c>
-      <c r="AT10">
+      <c r="AU10">
         <v>242.96586225756701</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>246.28215267414299</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>249.598443090719</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <v>252.91473350729501</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>169</v>
       </c>
       <c r="D11">
-        <v>440</v>
+        <v>143</v>
       </c>
       <c r="E11">
-        <v>363.8</v>
+        <v>143.4</v>
       </c>
       <c r="F11">
-        <v>243.1</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="G11">
-        <v>216.8</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="H11">
-        <v>221.238806677822</v>
+        <v>145.9</v>
       </c>
       <c r="I11">
-        <v>221.863490042297</v>
+        <v>148.62914612772201</v>
       </c>
       <c r="J11">
-        <v>234.39138633050499</v>
+        <v>147.84327450886599</v>
       </c>
       <c r="K11">
-        <v>247.15695601015699</v>
+        <v>159.196596921229</v>
       </c>
       <c r="L11">
-        <v>260.16397055036401</v>
+        <v>170.768954252019</v>
       </c>
       <c r="M11">
-        <v>272.23431764689798</v>
+        <v>182.563822209747</v>
       </c>
       <c r="N11">
-        <v>293.691342591298</v>
+        <v>193.49547667995401</v>
       </c>
       <c r="O11">
-        <v>314.10658648539999</v>
+        <v>213.89148204176601</v>
       </c>
       <c r="P11">
-        <v>334.67508713304699</v>
+        <v>233.327403374037</v>
       </c>
       <c r="Q11">
-        <v>355.23230513680301</v>
+        <v>252.90456298421299</v>
       </c>
       <c r="R11">
-        <v>364.17283208422799</v>
+        <v>272.47132474139602</v>
       </c>
       <c r="S11">
-        <v>373.56443272323401</v>
+        <v>280.38602200487202</v>
       </c>
       <c r="T11">
-        <v>383.36610035458602</v>
+        <v>288.71641952254998</v>
       </c>
       <c r="U11">
-        <v>392.59367419665398</v>
+        <v>297.42472636223198</v>
       </c>
       <c r="V11">
-        <v>394.69632275445201</v>
+        <v>305.60396015110899</v>
       </c>
       <c r="W11">
-        <v>396.75796461301599</v>
+        <v>306.70650516123197</v>
       </c>
       <c r="X11">
-        <v>398.77859977234499</v>
+        <v>307.77125923915401</v>
       </c>
       <c r="Y11">
-        <v>400.79923493167399</v>
+        <v>308.79822238487702</v>
       </c>
       <c r="Z11">
-        <v>402.863994846369</v>
+        <v>309.82518553059901</v>
       </c>
       <c r="AA11">
-        <v>404.928754761064</v>
+        <v>310.89627343168797</v>
       </c>
       <c r="AB11">
-        <v>407.03452137499397</v>
+        <v>311.96736133277602</v>
       </c>
       <c r="AC11">
-        <v>409.140287988924</v>
+        <v>313.07624016606502</v>
       </c>
       <c r="AD11">
-        <v>409.73379874423102</v>
+        <v>314.18511899935402</v>
       </c>
       <c r="AE11">
-        <v>410.32730949953702</v>
+        <v>313.77852620698599</v>
       </c>
       <c r="AF11">
-        <v>410.96182695407902</v>
+        <v>313.37193341461699</v>
       </c>
       <c r="AG11">
-        <v>411.63735110785501</v>
+        <v>313.003131554449</v>
       </c>
       <c r="AH11">
-        <v>412.21430625165902</v>
+        <v>312.67212062648099</v>
       </c>
       <c r="AI11">
-        <v>412.79126139546298</v>
+        <v>312.242540688541</v>
       </c>
       <c r="AJ11">
-        <v>413.40922323850202</v>
+        <v>311.81296075060101</v>
       </c>
       <c r="AK11">
-        <v>414.02718508154101</v>
+        <v>311.42117174486202</v>
       </c>
       <c r="AL11">
-        <v>414.27799963667502</v>
+        <v>311.02938273912201</v>
       </c>
       <c r="AM11">
-        <v>414.52881419180898</v>
+        <v>310.26723067844398</v>
       </c>
       <c r="AN11">
-        <v>414.77962874694299</v>
+        <v>309.505078617766</v>
       </c>
       <c r="AO11">
-        <v>415.07145000131197</v>
+        <v>308.742926557087</v>
       </c>
       <c r="AP11">
-        <v>414.74747299871802</v>
+        <v>308.01856542860901</v>
       </c>
       <c r="AQ11">
-        <v>414.46450269535899</v>
+        <v>306.67197450909902</v>
       </c>
       <c r="AR11">
-        <v>414.26354579046898</v>
+        <v>305.363174521791</v>
       </c>
       <c r="AS11">
-        <v>414.14460228404897</v>
+        <v>304.12995639888197</v>
       </c>
       <c r="AT11">
-        <v>413.58529200772699</v>
+        <v>302.97232014037399</v>
       </c>
       <c r="AU11">
-        <v>413.10799512987501</v>
+        <v>301.36788557789703</v>
       </c>
       <c r="AV11">
-        <v>412.753718349726</v>
+        <v>299.83903287982002</v>
       </c>
       <c r="AW11">
-        <v>412.44044826881299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+        <v>298.42355297834399</v>
+      </c>
+      <c r="AX11">
+        <v>297.04586400906902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>170</v>
       </c>
       <c r="D12">
+        <v>1862.4</v>
+      </c>
+      <c r="E12">
         <v>1779.8</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1871.3</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1907.1</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1958.3</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1978.3751090344099</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2007.0179878174299</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2033.6981662082601</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2058.9444082394798</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2079.7902580671698</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2102.1686273791902</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2124.25124731704</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2144.5772952143798</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2167.3231107185502</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2191.2429616171398</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2215.89770490003</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2239.1633223345498</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2263.8359898219301</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>2288.6968614565099</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2314.5704506450502</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>2339.87046528976</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>2365.3049114681799</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>2390.1837073072502</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2414.9370337148598</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2439.8964884741599</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>2464.3361413031098</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>2488.5158931668698</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>2512.2565020205102</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>2535.6655130909999</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>2559.0834862637298</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>2582.8330572196101</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2607.0934680036098</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2631.7661354909901</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>2656.7704007615298</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2681.7298555208299</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>2706.7878934048499</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>2731.9265902091001</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>2757.0204765021099</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>2782.0157796704102</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>2807.24409749713</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>2832.5441121418398</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>2858.14883826296</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>2884.24648000769</v>
       </c>
-      <c r="AT12">
+      <c r="AU12">
         <v>2910.8011889670502</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>2937.8756998567601</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>2965.0487938711899</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>2992.3742436238399</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>171</v>
       </c>
       <c r="D13">
+        <v>62.7</v>
+      </c>
+      <c r="E13">
         <v>54.2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>90.2</v>
-      </c>
-      <c r="F13">
-        <v>95.9</v>
       </c>
       <c r="G13">
         <v>95.9</v>
       </c>
       <c r="H13">
+        <v>95.9</v>
+      </c>
+      <c r="I13">
         <v>96.883099094316506</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>98.285770837814496</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>99.592327089502007</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>100.82866197731001</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>101.849505054712</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>102.94539721476001</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>104.026806218508</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>105.022194051504</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>106.136080436046</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>107.30746056226501</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>108.514829137473</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>109.654170766422</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>110.86241710867699</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>112.07988000494301</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>113.346936739448</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>114.58590492840101</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>115.83145637021801</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>117.049797033532</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>118.261993327506</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>119.484283942538</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>120.68111931316299</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>121.865227061586</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>123.02782951732</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>124.174193282657</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>125.320995931518</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>126.484037270776</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>127.672094970917</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>128.88034131317301</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>130.10482634582601</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>131.32711696085801</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>132.554235294656</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>133.78530358017301</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>135.01417744806901</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>136.23822359719799</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>137.473680717957</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>138.71264890691</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>139.96653913568801</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>141.244567958299</v>
       </c>
-      <c r="AT13">
+      <c r="AU13">
         <v>142.54497984064699</v>
       </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>143.870846967402</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>145.20154181292301</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>146.53969767835699</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>173</v>
       </c>
       <c r="D14">
+        <v>1228.1289999999999</v>
+      </c>
+      <c r="E14">
         <v>1336.74</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1328.7719999999999</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1372.7929999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1403.2629999999999</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1394.63952711825</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1386.0160542364999</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1416.24742986613</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1446.4788054957501</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1476.7101811253699</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1506.941556755</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1519.7601557667999</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1532.5787547785901</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1545.3973537903901</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1558.21595280219</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1568.7825477363999</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1579.34914267061</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1589.9157376048099</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1600.48233253902</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1639.9186754518</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1679.35501836459</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1718.79136127737</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1758.22770419015</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1787.6196955994999</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1817.01168700885</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1846.4036784181901</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1875.79566982754</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1908.2148727936301</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1940.63407575972</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1973.0532787258101</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>2005.4724816918999</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2057.1759873287501</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>2108.8794929656101</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>2160.5829986024601</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>2212.28650423931</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>2211.5343138466101</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>2210.7821234539101</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2210.0299330612002</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>2209.2777426685002</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>2261.6493087725698</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>2314.0208748766299</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>2366.3924409807</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>2418.7640070847701</v>
       </c>
-      <c r="AT14">
+      <c r="AU14">
         <v>2464.36520513099</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>2509.9664031771999</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>2555.5676012234098</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>2601.1687992696202</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>164</v>
       </c>
       <c r="D15">
+        <v>1574.4</v>
+      </c>
+      <c r="E15">
         <v>1828.5</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1861.4</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1756.2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1808.7</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1629.3563571043301</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1501.6652887165701</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1514.2729452476999</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1515.61502429495</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1509.9264163187599</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1493.71783405563</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1512.9609535468801</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1522.99399388232</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1526.52581787499</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1522.58327322214</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1530.28560256998</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1538.9373350641299</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1547.1929515766401</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1555.9808389633299</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1592.1555871790999</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1622.7235946783901</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1646.251758186</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1663.41962105019</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1671.4306991660901</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1682.1431104472799</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1694.6607802102701</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1709.3896382183</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1722.3726155766301</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1735.04294744297</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1746.49533930811</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1757.18821215652</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1788.9509959744801</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1816.7189541257301</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1839.6922791597999</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1858.25973323063</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1832.42941895323</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1818.5767493211199</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1816.44046526276</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>1826.1076220744501</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>1883.5218401063901</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>1928.4971849546901</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>1962.1388593722199</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>1983.8010497242601</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>1944.7885028241201</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>1906.4485972733501</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>1870.23933365998</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>1835.4218257479599</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>167</v>
       </c>
       <c r="D16">
+        <v>74.5</v>
+      </c>
+      <c r="E16">
         <v>1085.9000000000001</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1212.9000000000001</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>609.79999999999995</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>402.3</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>404.18538158623397</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>406.11408156777497</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>408.08197438316603</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>410.07255778657401</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>412.05076450561</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>413.998029513711</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>415.93291783743899</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>417.86368059970903</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>419.80063170416599</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>421.75614783518301</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>423.73022899275998</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>425.71668683471103</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>427.69901911520401</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>429.68753973788398</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>431.68018592202202</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>433.67076932543</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>435.63659936009202</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>437.58798992965097</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>439.524941034108</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>441.44951545419099</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>443.35552484771398</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>445.259471460508</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>447.16548085403099</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>449.07355302828302</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>450.98368798326402</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>452.90619962261798</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>454.83283682343102</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>456.76772514715901</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>458.72736683963302</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>460.70763633939799</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>462.71059642718001</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>464.73212154152202</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>466.76808612096698</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>468.801987919684</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>470.83176415694197</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>472.86360317492898</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>474.89544219291599</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <v>476.927281210903</v>
       </c>
-      <c r="AT16">
+      <c r="AU16">
         <v>478.965308571077</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>481.00539871197998</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>483.04961441434102</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>485.09176733597201</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>193</v>
       </c>
       <c r="D17">
+        <v>204.37100000000001</v>
+      </c>
+      <c r="E17">
         <v>884.26</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>242.12799999999999</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>225.90700000000001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>260.73700000000002</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>255.59948840017799</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>254.55541346215</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>256.89572380491899</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>259.47104592492298</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>261.94028245643398</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>264.42386516359801</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>266.96509198785299</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>269.50680093709798</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>272.09622896230098</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>274.73279727509299</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>277.43299355096599</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>280.18660377739002</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>282.96027933542803</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>285.76787991439801</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>288.60599468885499</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>291.45669283695003</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>294.32349490703803</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>297.203923810513</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>300.10743213158901</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>303.03076239752602</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>305.96732781542198</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>308.933269814786</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>311.92682031928803</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>314.95057777842101</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>317.99988617750199</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>321.08460698104102</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>324.19918656622298</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>327.32952746436501</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>330.49490821139301</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>333.69267244823402</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>336.92458346914202</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>340.18041466745098</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>343.46484362914902</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>346.76592631979901</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>350.08468421354098</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>353.42318738029297</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>356.77995072225002</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <v>360.15500702948498</v>
       </c>
-      <c r="AT17">
+      <c r="AU17">
         <v>363.555644240942</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>366.97627559402702</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>370.42373968929098</v>
       </c>
-      <c r="AW17">
+      <c r="AX17">
         <v>373.88820823868502</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="E19" s="95"/>
       <c r="F19" s="95"/>
       <c r="L19" s="95"/>
@@ -23902,7 +23926,7 @@
       <c r="Z19" s="95"/>
       <c r="AB19" s="95"/>
     </row>
-    <row r="20" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="110" t="s">
         <v>182</v>
       </c>
@@ -23923,7 +23947,7 @@
       <c r="Z20" s="95"/>
       <c r="AB20" s="95"/>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>182</v>
       </c>
@@ -24022,7 +24046,7 @@
       </c>
       <c r="AB21" s="95"/>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>175</v>
       </c>
@@ -24031,14 +24055,14 @@
         <v>#REF!</v>
       </c>
       <c r="E22" s="104">
-        <f t="shared" ref="E22:AA22" si="1">D10</f>
+        <f>E10</f>
         <v>156.16</v>
       </c>
       <c r="F22" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F22:AA22" si="1">F10</f>
         <v>197.62799999999999</v>
       </c>
-      <c r="G22" s="149">
+      <c r="G22" s="104">
         <f t="shared" si="1"/>
         <v>170.20699999999999</v>
       </c>
@@ -24054,7 +24078,7 @@
         <f t="shared" si="1"/>
         <v>172.42976558044199</v>
       </c>
-      <c r="K22" s="149">
+      <c r="K22" s="104">
         <f t="shared" si="1"/>
         <v>173.014858331521</v>
       </c>
@@ -24062,7 +24086,7 @@
         <f t="shared" si="1"/>
         <v>173.599951082601</v>
       </c>
-      <c r="M22" s="223">
+      <c r="M22" s="104">
         <f t="shared" si="1"/>
         <v>174.18504383368</v>
       </c>
@@ -24070,7 +24094,7 @@
         <f t="shared" si="1"/>
         <v>174.77013658476</v>
       </c>
-      <c r="O22" s="149">
+      <c r="O22" s="104">
         <f t="shared" si="1"/>
         <v>172.87701948733101</v>
       </c>
@@ -24086,7 +24110,7 @@
         <f t="shared" si="1"/>
         <v>167.197668195044</v>
       </c>
-      <c r="S22" s="149">
+      <c r="S22" s="104">
         <f t="shared" si="1"/>
         <v>168.18650468764599</v>
       </c>
@@ -24102,7 +24126,7 @@
         <f t="shared" si="1"/>
         <v>171.15301416545</v>
       </c>
-      <c r="W22" s="149">
+      <c r="W22" s="104">
         <f t="shared" si="1"/>
         <v>173.69648926200901</v>
       </c>
@@ -24118,13 +24142,13 @@
         <f t="shared" si="1"/>
         <v>181.326914551686</v>
       </c>
-      <c r="AA22" s="149">
+      <c r="AA22" s="104">
         <f t="shared" si="1"/>
         <v>183.85985203006999</v>
       </c>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:49" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:50" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B23" s="210" t="s">
         <v>271</v>
       </c>
@@ -24196,7 +24220,7 @@
       </c>
       <c r="AB23" s="243"/>
     </row>
-    <row r="24" spans="1:49" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="99" t="s">
         <v>176</v>
       </c>
@@ -24292,7 +24316,7 @@
       </c>
       <c r="AB24" s="244"/>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="D25" s="102"/>
       <c r="E25" s="104"/>
       <c r="F25" s="104"/>
@@ -24315,7 +24339,7 @@
       <c r="Z25" s="95"/>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="D26" s="102"/>
       <c r="E26" s="104"/>
       <c r="F26" s="104"/>
@@ -24338,7 +24362,7 @@
       <c r="Z26" s="95"/>
       <c r="AB26" s="95"/>
     </row>
-    <row r="27" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="110" t="s">
         <v>185</v>
       </c>
@@ -24365,7 +24389,7 @@
       <c r="Z27" s="95"/>
       <c r="AB27" s="95"/>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>185</v>
       </c>
@@ -24404,67 +24428,67 @@
       </c>
       <c r="M28" s="104">
         <f>L28*(1 + M30)</f>
-        <v>203.30373636403701</v>
+        <v>206.47945574985528</v>
       </c>
       <c r="N28" s="104">
         <f t="shared" ref="N28:AA28" si="22">M28*(1 + N30)</f>
-        <v>212.73604422259618</v>
+        <v>218.84314335309011</v>
       </c>
       <c r="O28" s="104">
         <f t="shared" si="22"/>
-        <v>229.50352103049028</v>
+        <v>241.91100003796859</v>
       </c>
       <c r="P28" s="104">
         <f t="shared" si="22"/>
-        <v>245.45690363636709</v>
+        <v>263.89300288009605</v>
       </c>
       <c r="Q28" s="104">
         <f t="shared" si="22"/>
-        <v>261.53004790852236</v>
+        <v>286.03474603878726</v>
       </c>
       <c r="R28" s="104">
         <f t="shared" si="22"/>
-        <v>277.59437541925496</v>
+        <v>308.16472923868179</v>
       </c>
       <c r="S28" s="104">
         <f t="shared" si="22"/>
-        <v>284.58090214557194</v>
+        <v>317.11624199518968</v>
       </c>
       <c r="T28" s="104">
         <f t="shared" si="22"/>
-        <v>291.91991798358237</v>
+        <v>326.53791122193229</v>
       </c>
       <c r="U28" s="104">
         <f t="shared" si="22"/>
-        <v>299.57937846858658</v>
+        <v>336.38699542161817</v>
       </c>
       <c r="V28" s="104">
         <f t="shared" si="22"/>
-        <v>306.79021644779976</v>
+        <v>345.63769865918431</v>
       </c>
       <c r="W28" s="104">
         <f t="shared" si="22"/>
-        <v>308.433319861222</v>
+        <v>346.88467569370516</v>
       </c>
       <c r="X28" s="104">
         <f t="shared" si="22"/>
-        <v>310.04437880994533</v>
+        <v>348.0889112309311</v>
       </c>
       <c r="Y28" s="104">
         <f t="shared" si="22"/>
-        <v>311.623393293969</v>
+        <v>349.25040527086435</v>
       </c>
       <c r="Z28" s="104">
         <f t="shared" si="22"/>
-        <v>313.20240777799268</v>
+        <v>350.4118993107964</v>
       </c>
       <c r="AA28" s="104">
         <f t="shared" si="22"/>
-        <v>314.81590331491952</v>
+        <v>351.62329839414281</v>
       </c>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>175</v>
       </c>
@@ -24473,100 +24497,100 @@
         <v>#REF!</v>
       </c>
       <c r="E29" s="104">
-        <f t="shared" ref="E29:AA29" si="23">D11</f>
-        <v>440</v>
+        <f>E11</f>
+        <v>143.4</v>
       </c>
       <c r="F29" s="104">
+        <f t="shared" ref="F29:U30" si="23">F11</f>
+        <v>144.80000000000001</v>
+      </c>
+      <c r="G29" s="104">
         <f t="shared" si="23"/>
-        <v>363.8</v>
-      </c>
-      <c r="G29" s="149">
-        <f t="shared" si="23"/>
-        <v>243.1</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="H29" s="104">
         <f t="shared" si="23"/>
-        <v>216.8</v>
+        <v>145.9</v>
       </c>
       <c r="I29" s="104">
         <f t="shared" si="23"/>
-        <v>221.238806677822</v>
+        <v>148.62914612772201</v>
       </c>
       <c r="J29" s="104">
         <f t="shared" si="23"/>
-        <v>221.863490042297</v>
-      </c>
-      <c r="K29" s="149">
+        <v>147.84327450886599</v>
+      </c>
+      <c r="K29" s="104">
         <f t="shared" si="23"/>
-        <v>234.39138633050499</v>
-      </c>
-      <c r="L29" s="223">
+        <v>159.196596921229</v>
+      </c>
+      <c r="L29" s="104">
         <f t="shared" si="23"/>
-        <v>247.15695601015699</v>
+        <v>170.768954252019</v>
       </c>
       <c r="M29" s="104">
         <f t="shared" si="23"/>
-        <v>260.16397055036401</v>
+        <v>182.563822209747</v>
       </c>
       <c r="N29" s="104">
         <f t="shared" si="23"/>
-        <v>272.23431764689798</v>
-      </c>
-      <c r="O29" s="149">
+        <v>193.49547667995401</v>
+      </c>
+      <c r="O29" s="104">
         <f t="shared" si="23"/>
-        <v>293.691342591298</v>
+        <v>213.89148204176601</v>
       </c>
       <c r="P29" s="104">
         <f t="shared" si="23"/>
-        <v>314.10658648539999</v>
+        <v>233.327403374037</v>
       </c>
       <c r="Q29" s="104">
         <f t="shared" si="23"/>
-        <v>334.67508713304699</v>
+        <v>252.90456298421299</v>
       </c>
       <c r="R29" s="104">
         <f t="shared" si="23"/>
-        <v>355.23230513680301</v>
-      </c>
-      <c r="S29" s="149">
+        <v>272.47132474139602</v>
+      </c>
+      <c r="S29" s="104">
         <f t="shared" si="23"/>
-        <v>364.17283208422799</v>
+        <v>280.38602200487202</v>
       </c>
       <c r="T29" s="104">
         <f t="shared" si="23"/>
-        <v>373.56443272323401</v>
+        <v>288.71641952254998</v>
       </c>
       <c r="U29" s="104">
         <f t="shared" si="23"/>
-        <v>383.36610035458602</v>
+        <v>297.42472636223198</v>
       </c>
       <c r="V29" s="104">
-        <f t="shared" si="23"/>
-        <v>392.59367419665398</v>
-      </c>
-      <c r="W29" s="149">
-        <f t="shared" si="23"/>
-        <v>394.69632275445201</v>
+        <f t="shared" ref="V29:AA29" si="24">V11</f>
+        <v>305.60396015110899</v>
+      </c>
+      <c r="W29" s="104">
+        <f t="shared" si="24"/>
+        <v>306.70650516123197</v>
       </c>
       <c r="X29" s="104">
-        <f t="shared" si="23"/>
-        <v>396.75796461301599</v>
+        <f t="shared" si="24"/>
+        <v>307.77125923915401</v>
       </c>
       <c r="Y29" s="104">
-        <f t="shared" si="23"/>
-        <v>398.77859977234499</v>
+        <f t="shared" si="24"/>
+        <v>308.79822238487702</v>
       </c>
       <c r="Z29" s="104">
-        <f t="shared" si="23"/>
-        <v>400.79923493167399</v>
-      </c>
-      <c r="AA29" s="149">
-        <f t="shared" si="23"/>
-        <v>402.863994846369</v>
+        <f t="shared" si="24"/>
+        <v>309.82518553059901</v>
+      </c>
+      <c r="AA29" s="104">
+        <f t="shared" si="24"/>
+        <v>310.89627343168797</v>
       </c>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:49" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:50" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B30" s="210" t="s">
         <v>271</v>
       </c>
@@ -24580,164 +24604,164 @@
       <c r="K30" s="246"/>
       <c r="L30" s="230"/>
       <c r="M30" s="230">
-        <f t="shared" ref="M30" si="24">(M29/L29)-1</f>
-        <v>5.2626536392819556E-2</v>
+        <f t="shared" ref="M30" si="25">(M29/L29)-1</f>
+        <v>6.9069158439192924E-2</v>
       </c>
       <c r="N30" s="230">
-        <f t="shared" ref="N30" si="25">(N29/M29)-1</f>
-        <v>4.6395152530151362E-2</v>
+        <f t="shared" ref="N30" si="26">(N29/M29)-1</f>
+        <v>5.9878536381910763E-2</v>
       </c>
       <c r="O30" s="246">
-        <f t="shared" ref="O30" si="26">(O29/N29)-1</f>
-        <v>7.8818222220722767E-2</v>
+        <f t="shared" ref="O30" si="27">(O29/N29)-1</f>
+        <v>0.10540817652056789</v>
       </c>
       <c r="P30" s="230">
-        <f t="shared" ref="P30" si="27">(P29/O29)-1</f>
-        <v>6.951258322419096E-2</v>
+        <f t="shared" ref="P30" si="28">(P29/O29)-1</f>
+        <v>9.0868140922394369E-2</v>
       </c>
       <c r="Q30" s="230">
-        <f t="shared" ref="Q30" si="28">(Q29/P29)-1</f>
-        <v>6.5482551250491072E-2</v>
+        <f t="shared" ref="Q30" si="29">(Q29/P29)-1</f>
+        <v>8.3904244966857444E-2</v>
       </c>
       <c r="R30" s="230">
-        <f t="shared" ref="R30" si="29">(R29/Q29)-1</f>
-        <v>6.1424404725959336E-2</v>
+        <f t="shared" ref="R30" si="30">(R29/Q29)-1</f>
+        <v>7.7368164205105394E-2</v>
       </c>
       <c r="S30" s="246">
-        <f t="shared" ref="S30" si="30">(S29/R29)-1</f>
-        <v>2.5168113423642335E-2</v>
+        <f t="shared" ref="S30" si="31">(S29/R29)-1</f>
+        <v>2.9047817310639434E-2</v>
       </c>
       <c r="T30" s="230">
-        <f t="shared" ref="T30" si="31">(T29/S29)-1</f>
-        <v>2.5788855761853968E-2</v>
+        <f t="shared" ref="T30" si="32">(T29/S29)-1</f>
+        <v>2.9710459380650533E-2</v>
       </c>
       <c r="U30" s="230">
-        <f t="shared" ref="U30" si="32">(U29/T29)-1</f>
-        <v>2.6238224982767289E-2</v>
+        <f t="shared" ref="U30" si="33">(U29/T29)-1</f>
+        <v>3.0162146143551283E-2</v>
       </c>
       <c r="V30" s="230">
-        <f t="shared" ref="V30" si="33">(V29/U29)-1</f>
-        <v>2.4069874288658033E-2</v>
+        <f t="shared" ref="V30" si="34">(V29/U29)-1</f>
+        <v>2.7500180932891194E-2</v>
       </c>
       <c r="W30" s="246">
-        <f t="shared" ref="W30" si="34">(W29/V29)-1</f>
-        <v>5.3557881748873548E-3</v>
+        <f t="shared" ref="W30" si="35">(W29/V29)-1</f>
+        <v>3.607757600974093E-3</v>
       </c>
       <c r="X30" s="230">
-        <f t="shared" ref="X30" si="35">(X29/W29)-1</f>
-        <v>5.2233622147186409E-3</v>
+        <f t="shared" ref="X30" si="36">(X29/W29)-1</f>
+        <v>3.4715731815413431E-3</v>
       </c>
       <c r="Y30" s="230">
-        <f t="shared" ref="Y30" si="36">(Y29/X29)-1</f>
-        <v>5.0928660280327165E-3</v>
+        <f t="shared" ref="Y30" si="37">(Y29/X29)-1</f>
+        <v>3.3367740323180239E-3</v>
       </c>
       <c r="Z30" s="230">
-        <f t="shared" ref="Z30" si="37">(Z29/Y29)-1</f>
-        <v>5.0670601694338124E-3</v>
+        <f t="shared" ref="Z30" si="38">(Z29/Y29)-1</f>
+        <v>3.3256769996623525E-3</v>
       </c>
       <c r="AA30" s="246">
-        <f t="shared" ref="AA30" si="38">(AA29/Z29)-1</f>
-        <v>5.1516064272103534E-3</v>
+        <f t="shared" ref="AA30" si="39">(AA29/Z29)-1</f>
+        <v>3.4570717653397143E-3</v>
       </c>
       <c r="AB30" s="243"/>
     </row>
-    <row r="31" spans="1:49" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="99" t="s">
         <v>176</v>
       </c>
       <c r="D31" s="103"/>
       <c r="E31" s="217"/>
       <c r="F31" s="217">
-        <f t="shared" ref="F31" si="39">F28-F29</f>
-        <v>-33.023000000000025</v>
+        <f t="shared" ref="F31" si="40">F28-F29</f>
+        <v>185.97699999999998</v>
       </c>
       <c r="G31" s="150">
-        <f t="shared" ref="G31" si="40">G28-G29</f>
-        <v>-61.292000000000002</v>
+        <f t="shared" ref="G31" si="41">G28-G29</f>
+        <v>36.608000000000004</v>
       </c>
       <c r="H31" s="217">
-        <f t="shared" ref="H31" si="41">H28-H29</f>
-        <v>-10.88900000000001</v>
+        <f t="shared" ref="H31" si="42">H28-H29</f>
+        <v>60.010999999999996</v>
       </c>
       <c r="I31" s="217">
-        <f t="shared" ref="I31" si="42">I28-I29</f>
-        <v>-31.404359752822046</v>
+        <f t="shared" ref="I31" si="43">I28-I29</f>
+        <v>41.205300797277943</v>
       </c>
       <c r="J31" s="217">
-        <f t="shared" ref="J31" si="43">J28-J29</f>
-        <v>-31.299870882672082</v>
+        <f t="shared" ref="J31" si="44">J28-J29</f>
+        <v>42.720344650758932</v>
       </c>
       <c r="K31" s="150">
-        <f t="shared" ref="K31:N31" si="44">K28-K29</f>
-        <v>-42.728540027182873</v>
+        <f t="shared" ref="K31:N31" si="45">K28-K29</f>
+        <v>32.46624938209311</v>
       </c>
       <c r="L31" s="239">
-        <f t="shared" si="44"/>
-        <v>-54.017481243801626</v>
+        <f t="shared" si="45"/>
+        <v>22.370520514336363</v>
       </c>
       <c r="M31" s="217">
-        <f t="shared" si="44"/>
-        <v>-56.860234186327006</v>
+        <f t="shared" si="45"/>
+        <v>23.915633540108274</v>
       </c>
       <c r="N31" s="217">
-        <f t="shared" si="44"/>
-        <v>-59.4982734243018</v>
+        <f t="shared" si="45"/>
+        <v>25.347666673136104</v>
       </c>
       <c r="O31" s="150">
-        <f t="shared" ref="O31:AA31" si="45">O28-O29</f>
-        <v>-64.18782156080772</v>
+        <f t="shared" ref="O31:AA31" si="46">O28-O29</f>
+        <v>28.01951799620258</v>
       </c>
       <c r="P31" s="150">
-        <f t="shared" si="45"/>
-        <v>-68.649682849032899</v>
+        <f t="shared" si="46"/>
+        <v>30.565599506059044</v>
       </c>
       <c r="Q31" s="150">
-        <f t="shared" si="45"/>
-        <v>-73.145039224524623</v>
+        <f t="shared" si="46"/>
+        <v>33.130183054574275</v>
       </c>
       <c r="R31" s="150">
-        <f t="shared" si="45"/>
-        <v>-77.637929717548047</v>
+        <f t="shared" si="46"/>
+        <v>35.693404497285769</v>
       </c>
       <c r="S31" s="150">
-        <f t="shared" si="45"/>
-        <v>-79.591929938656051</v>
+        <f t="shared" si="46"/>
+        <v>36.730219990317664</v>
       </c>
       <c r="T31" s="150">
-        <f t="shared" si="45"/>
-        <v>-81.64451473965164</v>
+        <f t="shared" si="46"/>
+        <v>37.821491699382307</v>
       </c>
       <c r="U31" s="150">
-        <f t="shared" si="45"/>
-        <v>-83.786721885999441</v>
+        <f t="shared" si="46"/>
+        <v>38.962269059386188</v>
       </c>
       <c r="V31" s="150">
-        <f t="shared" si="45"/>
-        <v>-85.803457748854214</v>
+        <f t="shared" si="46"/>
+        <v>40.033738508075317</v>
       </c>
       <c r="W31" s="150">
-        <f t="shared" si="45"/>
-        <v>-86.263002893230009</v>
+        <f t="shared" si="46"/>
+        <v>40.178170532473189</v>
       </c>
       <c r="X31" s="150">
-        <f t="shared" si="45"/>
-        <v>-86.713585803070657</v>
+        <f t="shared" si="46"/>
+        <v>40.317651991777097</v>
       </c>
       <c r="Y31" s="150">
-        <f t="shared" si="45"/>
-        <v>-87.155206478375987</v>
+        <f t="shared" si="46"/>
+        <v>40.452182885987327</v>
       </c>
       <c r="Z31" s="150">
-        <f t="shared" si="45"/>
-        <v>-87.596827153681318</v>
+        <f t="shared" si="46"/>
+        <v>40.586713780197385</v>
       </c>
       <c r="AA31" s="150">
-        <f t="shared" si="45"/>
-        <v>-88.048091531449472</v>
+        <f t="shared" si="46"/>
+        <v>40.727024962454834</v>
       </c>
       <c r="AB31" s="244"/>
     </row>
-    <row r="32" spans="1:49" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="99"/>
       <c r="D32" s="103"/>
       <c r="E32" s="217"/>
@@ -24876,31 +24900,31 @@
         <v>#REF!</v>
       </c>
       <c r="E36" s="104">
-        <f t="shared" ref="E36:K36" si="46">D12</f>
+        <f>E12</f>
         <v>1779.8</v>
       </c>
       <c r="F36" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="F36:K36" si="47">F12</f>
         <v>1871.3</v>
       </c>
-      <c r="G36" s="149">
-        <f t="shared" si="46"/>
+      <c r="G36" s="104">
+        <f t="shared" si="47"/>
         <v>1907.1</v>
       </c>
       <c r="H36" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1958.3</v>
       </c>
       <c r="I36" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1978.3751090344099</v>
       </c>
       <c r="J36" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2007.0179878174299</v>
       </c>
-      <c r="K36" s="149">
-        <f t="shared" si="46"/>
+      <c r="K36" s="104">
+        <f t="shared" si="47"/>
         <v>2033.6981662082601</v>
       </c>
       <c r="L36" s="104"/>
@@ -24928,23 +24952,23 @@
         <v>4.8999999999978172E-2</v>
       </c>
       <c r="G37" s="150">
-        <f t="shared" ref="G37:K37" si="47">G35-G36</f>
+        <f t="shared" ref="G37:K37" si="48">G35-G36</f>
         <v>-34.161000000000058</v>
       </c>
       <c r="H37" s="217">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-27.260999999999967</v>
       </c>
       <c r="I37" s="217">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-27.540460525652634</v>
       </c>
       <c r="J37" s="217">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-27.939190811356866</v>
       </c>
       <c r="K37" s="150">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-28.310598840325156</v>
       </c>
       <c r="L37" s="217">
@@ -25126,31 +25150,31 @@
         <v>#REF!</v>
       </c>
       <c r="E42" s="104">
-        <f t="shared" ref="E42:K42" si="48">D13</f>
+        <f>E13</f>
         <v>54.2</v>
       </c>
       <c r="F42" s="104">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="F42:K42" si="49">F13</f>
         <v>90.2</v>
       </c>
-      <c r="G42" s="149">
-        <f t="shared" si="48"/>
+      <c r="G42" s="104">
+        <f t="shared" si="49"/>
         <v>95.9</v>
       </c>
       <c r="H42" s="104">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>95.9</v>
       </c>
       <c r="I42" s="104">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>96.883099094316506</v>
       </c>
       <c r="J42" s="104">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>98.285770837814496</v>
       </c>
-      <c r="K42" s="149">
-        <f t="shared" si="48"/>
+      <c r="K42" s="104">
+        <f t="shared" si="49"/>
         <v>99.592327089502007</v>
       </c>
       <c r="L42" s="104"/>
@@ -25180,23 +25204,23 @@
         <v>0</v>
       </c>
       <c r="G43" s="150">
-        <f t="shared" ref="G43:K43" si="49">G41-G42</f>
+        <f t="shared" ref="G43:K43" si="50">G41-G42</f>
         <v>-4.3825959008611193</v>
       </c>
       <c r="H43" s="217">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-1.9565613146719585</v>
       </c>
       <c r="I43" s="217">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-1.9766185999319248</v>
       </c>
       <c r="J43" s="217">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-2.0052360480081859</v>
       </c>
       <c r="K43" s="150">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-2.0318925382843958</v>
       </c>
       <c r="L43" s="217">
@@ -25356,67 +25380,67 @@
         <v>1470.9965270419164</v>
       </c>
       <c r="L47" s="104">
-        <f t="shared" ref="L47:AA47" si="50">K47*(1+L49)</f>
+        <f t="shared" ref="L47:AA47" si="51">K47*(1+L49)</f>
         <v>1502.3965830074721</v>
       </c>
       <c r="M47" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1533.7966389730275</v>
       </c>
       <c r="N47" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1565.1966949385935</v>
       </c>
       <c r="O47" s="149">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1578.5108335772657</v>
       </c>
       <c r="P47" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1591.8249722159278</v>
       </c>
       <c r="Q47" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1605.1391108545999</v>
       </c>
       <c r="R47" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1618.4532494932719</v>
       </c>
       <c r="S47" s="149">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1629.4283263923351</v>
       </c>
       <c r="T47" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1640.4034032913987</v>
       </c>
       <c r="U47" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1651.3784801904515</v>
       </c>
       <c r="V47" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1662.3535570895151</v>
       </c>
       <c r="W47" s="149">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1703.3144246897598</v>
       </c>
       <c r="X47" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1744.2752922900149</v>
       </c>
       <c r="Y47" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1785.2361598902596</v>
       </c>
       <c r="Z47" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1826.1970274905045</v>
       </c>
       <c r="AA47" s="149">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1856.7252504367495</v>
       </c>
       <c r="AB47" s="95"/>
@@ -25430,95 +25454,95 @@
         <v>#REF!</v>
       </c>
       <c r="E48" s="104">
-        <f t="shared" ref="E48:AA48" si="51">D14</f>
+        <f>E14</f>
         <v>1336.74</v>
       </c>
       <c r="F48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="F48:AA48" si="52">F14</f>
         <v>1328.7719999999999</v>
       </c>
-      <c r="G48" s="149">
-        <f t="shared" si="51"/>
+      <c r="G48" s="104">
+        <f t="shared" si="52"/>
         <v>1372.7929999999999</v>
       </c>
       <c r="H48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1403.2629999999999</v>
       </c>
       <c r="I48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1394.63952711825</v>
       </c>
-      <c r="J48" s="223">
-        <f t="shared" si="51"/>
+      <c r="J48" s="104">
+        <f t="shared" si="52"/>
         <v>1386.0160542364999</v>
       </c>
-      <c r="K48" s="149">
-        <f t="shared" si="51"/>
+      <c r="K48" s="104">
+        <f t="shared" si="52"/>
         <v>1416.24742986613</v>
       </c>
       <c r="L48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1446.4788054957501</v>
       </c>
       <c r="M48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1476.7101811253699</v>
       </c>
       <c r="N48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1506.941556755</v>
       </c>
-      <c r="O48" s="149">
-        <f t="shared" si="51"/>
+      <c r="O48" s="104">
+        <f t="shared" si="52"/>
         <v>1519.7601557667999</v>
       </c>
       <c r="P48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1532.5787547785901</v>
       </c>
       <c r="Q48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1545.3973537903901</v>
       </c>
       <c r="R48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1558.21595280219</v>
       </c>
-      <c r="S48" s="149">
-        <f t="shared" si="51"/>
+      <c r="S48" s="104">
+        <f t="shared" si="52"/>
         <v>1568.7825477363999</v>
       </c>
       <c r="T48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1579.34914267061</v>
       </c>
       <c r="U48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1589.9157376048099</v>
       </c>
       <c r="V48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1600.48233253902</v>
       </c>
-      <c r="W48" s="149">
-        <f t="shared" si="51"/>
+      <c r="W48" s="104">
+        <f t="shared" si="52"/>
         <v>1639.9186754518</v>
       </c>
       <c r="X48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1679.35501836459</v>
       </c>
       <c r="Y48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1718.79136127737</v>
       </c>
       <c r="Z48" s="104">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1758.22770419015</v>
       </c>
-      <c r="AA48" s="149">
-        <f t="shared" si="51"/>
+      <c r="AA48" s="104">
+        <f t="shared" si="52"/>
         <v>1787.6196955994999</v>
       </c>
       <c r="AB48" s="95"/>
@@ -25535,71 +25559,71 @@
       <c r="I49" s="242"/>
       <c r="J49" s="242"/>
       <c r="K49" s="246">
-        <f t="shared" ref="K49" si="52">(K48/J48)-1</f>
+        <f t="shared" ref="K49" si="53">(K48/J48)-1</f>
         <v>2.1811706680615162E-2</v>
       </c>
       <c r="L49" s="230">
-        <f t="shared" ref="L49" si="53">(L48/K48)-1</f>
+        <f t="shared" ref="L49" si="54">(L48/K48)-1</f>
         <v>2.1346111556564518E-2</v>
       </c>
       <c r="M49" s="230">
-        <f t="shared" ref="M49" si="54">(M48/L48)-1</f>
+        <f t="shared" ref="M49" si="55">(M48/L48)-1</f>
         <v>2.0899978288488441E-2</v>
       </c>
       <c r="N49" s="230">
-        <f t="shared" ref="N49" si="55">(N48/M48)-1</f>
+        <f t="shared" ref="N49" si="56">(N48/M48)-1</f>
         <v>2.0472111600525089E-2</v>
       </c>
       <c r="O49" s="246">
-        <f t="shared" ref="O49" si="56">(O48/N48)-1</f>
+        <f t="shared" ref="O49" si="57">(O48/N48)-1</f>
         <v>8.5063677183361275E-3</v>
       </c>
       <c r="P49" s="230">
-        <f t="shared" ref="P49" si="57">(P48/O48)-1</f>
+        <f t="shared" ref="P49" si="58">(P48/O48)-1</f>
         <v>8.4346197412463741E-3</v>
       </c>
       <c r="Q49" s="230">
-        <f t="shared" ref="Q49" si="58">(Q48/P48)-1</f>
+        <f t="shared" ref="Q49" si="59">(Q48/P48)-1</f>
         <v>8.3640719746580494E-3</v>
       </c>
       <c r="R49" s="230">
-        <f t="shared" ref="R49" si="59">(R48/Q48)-1</f>
+        <f t="shared" ref="R49" si="60">(R48/Q48)-1</f>
         <v>8.2946945524138282E-3</v>
       </c>
       <c r="S49" s="246">
-        <f t="shared" ref="S49" si="60">(S48/R48)-1</f>
+        <f t="shared" ref="S49" si="61">(S48/R48)-1</f>
         <v>6.781213422444754E-3</v>
       </c>
       <c r="T49" s="230">
-        <f t="shared" ref="T49" si="61">(T48/S48)-1</f>
+        <f t="shared" ref="T49" si="62">(T48/S48)-1</f>
         <v>6.7355382997196234E-3</v>
       </c>
       <c r="U49" s="230">
-        <f t="shared" ref="U49" si="62">(U48/T48)-1</f>
+        <f t="shared" ref="U49" si="63">(U48/T48)-1</f>
         <v>6.6904743534619282E-3</v>
       </c>
       <c r="V49" s="230">
-        <f t="shared" ref="V49" si="63">(V48/U48)-1</f>
+        <f t="shared" ref="V49" si="64">(V48/U48)-1</f>
         <v>6.6460093980380552E-3</v>
       </c>
       <c r="W49" s="246">
-        <f t="shared" ref="W49" si="64">(W48/V48)-1</f>
+        <f t="shared" ref="W49" si="65">(W48/V48)-1</f>
         <v>2.4640286313075244E-2</v>
       </c>
       <c r="X49" s="230">
-        <f t="shared" ref="X49" si="65">(X48/W48)-1</f>
+        <f t="shared" ref="X49" si="66">(X48/W48)-1</f>
         <v>2.4047743039407266E-2</v>
       </c>
       <c r="Y49" s="230">
-        <f t="shared" ref="Y49" si="66">(Y48/X48)-1</f>
+        <f t="shared" ref="Y49" si="67">(Y48/X48)-1</f>
         <v>2.3483029187708171E-2</v>
       </c>
       <c r="Z49" s="230">
-        <f t="shared" ref="Z49" si="67">(Z48/Y48)-1</f>
+        <f t="shared" ref="Z49" si="68">(Z48/Y48)-1</f>
         <v>2.2944229184088893E-2</v>
       </c>
       <c r="AA49" s="246">
-        <f t="shared" ref="AA49" si="68">(AA48/Z48)-1</f>
+        <f t="shared" ref="AA49" si="69">(AA48/Z48)-1</f>
         <v>1.6716828735722888E-2</v>
       </c>
       <c r="AB49" s="243"/>
@@ -25611,91 +25635,91 @@
       <c r="D50" s="103"/>
       <c r="E50" s="217"/>
       <c r="F50" s="217">
-        <f t="shared" ref="F50" si="69">F47-F48</f>
+        <f t="shared" ref="F50" si="70">F47-F48</f>
         <v>3.3000000000129148E-2</v>
       </c>
       <c r="G50" s="150">
-        <f t="shared" ref="G50" si="70">G47-G48</f>
+        <f t="shared" ref="G50" si="71">G47-G48</f>
         <v>-5.9999999998581188E-3</v>
       </c>
       <c r="H50" s="217">
-        <f t="shared" ref="H50" si="71">H47-H48</f>
+        <f t="shared" ref="H50" si="72">H47-H48</f>
         <v>4.0000000001327862E-3</v>
       </c>
       <c r="I50" s="217">
-        <f t="shared" ref="I50" si="72">I47-I48</f>
+        <f t="shared" ref="I50" si="73">I47-I48</f>
         <v>21.90016870089994</v>
       </c>
       <c r="J50" s="239">
-        <f t="shared" ref="J50" si="73">J47-J48</f>
+        <f t="shared" ref="J50" si="74">J47-J48</f>
         <v>53.580416839850386</v>
       </c>
       <c r="K50" s="150">
-        <f t="shared" ref="K50:AA50" si="74">K47-K48</f>
+        <f t="shared" ref="K50:AA50" si="75">K47-K48</f>
         <v>54.749097175786346</v>
       </c>
       <c r="L50" s="217">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>55.917777511722079</v>
       </c>
       <c r="M50" s="217">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>57.086457847657584</v>
       </c>
       <c r="N50" s="217">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>58.255138183593544</v>
       </c>
       <c r="O50" s="150">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>58.750677810465731</v>
       </c>
       <c r="P50" s="217">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>59.246217437337691</v>
       </c>
       <c r="Q50" s="217">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>59.741757064209878</v>
       </c>
       <c r="R50" s="217">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>60.237296691081838</v>
       </c>
       <c r="S50" s="150">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>60.645778655935146</v>
       </c>
       <c r="T50" s="217">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>61.054260620788682</v>
       </c>
       <c r="U50" s="217">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>61.462742585641536</v>
       </c>
       <c r="V50" s="217">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>61.871224550495072</v>
       </c>
       <c r="W50" s="150">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>63.395749237959762</v>
       </c>
       <c r="X50" s="217">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>64.920273925424908</v>
       </c>
       <c r="Y50" s="217">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>66.444798612889599</v>
       </c>
       <c r="Z50" s="217">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>67.969323300354517</v>
       </c>
       <c r="AA50" s="150">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>69.105554837249656</v>
       </c>
       <c r="AB50" s="244"/>
@@ -25814,63 +25838,63 @@
         <v>1684.5361789840949</v>
       </c>
       <c r="M54" s="104">
-        <f t="shared" ref="M54:AA54" si="75">L54*(1+M56)</f>
+        <f t="shared" ref="M54:AA54" si="76">L54*(1+M56)</f>
         <v>1678.2135536535579</v>
       </c>
       <c r="N54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1660.1984622255854</v>
       </c>
       <c r="O54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1681.5863017890024</v>
       </c>
       <c r="P54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1692.7375632632791</v>
       </c>
       <c r="Q54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1696.6630226959769</v>
       </c>
       <c r="R54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1692.281066197442</v>
       </c>
       <c r="S54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1700.8418499326938</v>
       </c>
       <c r="T54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1710.4578514658454</v>
       </c>
       <c r="U54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1719.6335883595932</v>
       </c>
       <c r="V54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1729.4009197745108</v>
       </c>
       <c r="W54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1769.6074835511222</v>
       </c>
       <c r="X54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1803.5824136795466</v>
       </c>
       <c r="Y54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1829.732881983369</v>
       </c>
       <c r="Z54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1848.8141695445154</v>
       </c>
       <c r="AA54" s="104">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1857.7181132918261</v>
       </c>
       <c r="AB54" s="95"/>
@@ -25884,95 +25908,95 @@
         <v>#REF!</v>
       </c>
       <c r="E55" s="104">
-        <f t="shared" ref="E55:AA55" si="76">D15</f>
+        <f>E15</f>
         <v>1828.5</v>
       </c>
       <c r="F55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="F55:AA55" si="77">F15</f>
         <v>1861.4</v>
       </c>
-      <c r="G55" s="149">
-        <f t="shared" si="76"/>
+      <c r="G55" s="104">
+        <f t="shared" si="77"/>
         <v>1756.2</v>
       </c>
       <c r="H55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1808.7</v>
       </c>
       <c r="I55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1629.3563571043301</v>
       </c>
       <c r="J55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1501.6652887165701</v>
       </c>
-      <c r="K55" s="263">
-        <f t="shared" si="76"/>
+      <c r="K55" s="104">
+        <f t="shared" si="77"/>
         <v>1514.2729452476999</v>
       </c>
       <c r="L55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1515.61502429495</v>
       </c>
       <c r="M55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1509.9264163187599</v>
       </c>
       <c r="N55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1493.71783405563</v>
       </c>
-      <c r="O55" s="149">
-        <f t="shared" si="76"/>
+      <c r="O55" s="104">
+        <f t="shared" si="77"/>
         <v>1512.9609535468801</v>
       </c>
       <c r="P55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1522.99399388232</v>
       </c>
       <c r="Q55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1526.52581787499</v>
       </c>
       <c r="R55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1522.58327322214</v>
       </c>
-      <c r="S55" s="149">
-        <f t="shared" si="76"/>
+      <c r="S55" s="104">
+        <f t="shared" si="77"/>
         <v>1530.28560256998</v>
       </c>
       <c r="T55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1538.9373350641299</v>
       </c>
       <c r="U55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1547.1929515766401</v>
       </c>
       <c r="V55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1555.9808389633299</v>
       </c>
-      <c r="W55" s="149">
-        <f t="shared" si="76"/>
+      <c r="W55" s="104">
+        <f t="shared" si="77"/>
         <v>1592.1555871790999</v>
       </c>
       <c r="X55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1622.7235946783901</v>
       </c>
       <c r="Y55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1646.251758186</v>
       </c>
       <c r="Z55" s="104">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1663.41962105019</v>
       </c>
-      <c r="AA55" s="149">
-        <f t="shared" si="76"/>
+      <c r="AA55" s="104">
+        <f t="shared" si="77"/>
         <v>1671.4306991660901</v>
       </c>
       <c r="AB55" s="95"/>
@@ -25990,67 +26014,67 @@
       <c r="J56" s="242"/>
       <c r="K56" s="246"/>
       <c r="L56" s="230">
-        <f t="shared" ref="L56" si="77">(L55/K55)-1</f>
+        <f t="shared" ref="L56" si="78">(L55/K55)-1</f>
         <v>8.8628608961283106E-4</v>
       </c>
       <c r="M56" s="230">
-        <f t="shared" ref="M56" si="78">(M55/L55)-1</f>
+        <f t="shared" ref="M56" si="79">(M55/L55)-1</f>
         <v>-3.7533330595190817E-3</v>
       </c>
       <c r="N56" s="230">
-        <f t="shared" ref="N56" si="79">(N55/M55)-1</f>
+        <f t="shared" ref="N56" si="80">(N55/M55)-1</f>
         <v>-1.0734683550107649E-2</v>
       </c>
       <c r="O56" s="246">
-        <f t="shared" ref="O56" si="80">(O55/N55)-1</f>
+        <f t="shared" ref="O56" si="81">(O55/N55)-1</f>
         <v>1.2882700502411915E-2</v>
       </c>
       <c r="P56" s="230">
-        <f t="shared" ref="P56" si="81">(P55/O55)-1</f>
+        <f t="shared" ref="P56" si="82">(P55/O55)-1</f>
         <v>6.6313940964035645E-3</v>
       </c>
       <c r="Q56" s="230">
-        <f t="shared" ref="Q56" si="82">(Q55/P55)-1</f>
+        <f t="shared" ref="Q56" si="83">(Q55/P55)-1</f>
         <v>2.3190006046360789E-3</v>
       </c>
       <c r="R56" s="230">
-        <f t="shared" ref="R56" si="83">(R55/Q55)-1</f>
+        <f t="shared" ref="R56" si="84">(R55/Q55)-1</f>
         <v>-2.5826911059639857E-3</v>
       </c>
       <c r="S56" s="246">
-        <f t="shared" ref="S56" si="84">(S55/R55)-1</f>
+        <f t="shared" ref="S56" si="85">(S55/R55)-1</f>
         <v>5.0587245264688274E-3</v>
       </c>
       <c r="T56" s="230">
-        <f t="shared" ref="T56" si="85">(T55/S55)-1</f>
+        <f t="shared" ref="T56" si="86">(T55/S55)-1</f>
         <v>5.6536717588011598E-3</v>
       </c>
       <c r="U56" s="230">
-        <f t="shared" ref="U56" si="86">(U55/T55)-1</f>
+        <f t="shared" ref="U56" si="87">(U55/T55)-1</f>
         <v>5.3644916686397259E-3</v>
       </c>
       <c r="V56" s="230">
-        <f t="shared" ref="V56" si="87">(V55/U55)-1</f>
+        <f t="shared" ref="V56" si="88">(V55/U55)-1</f>
         <v>5.6798910425068794E-3</v>
       </c>
       <c r="W56" s="246">
-        <f t="shared" ref="W56" si="88">(W55/V55)-1</f>
+        <f t="shared" ref="W56" si="89">(W55/V55)-1</f>
         <v>2.3248839130867172E-2</v>
       </c>
       <c r="X56" s="230">
-        <f t="shared" ref="X56" si="89">(X55/W55)-1</f>
+        <f t="shared" ref="X56" si="90">(X55/W55)-1</f>
         <v>1.9199133392138412E-2</v>
       </c>
       <c r="Y56" s="230">
-        <f t="shared" ref="Y56" si="90">(Y55/X55)-1</f>
+        <f t="shared" ref="Y56" si="91">(Y55/X55)-1</f>
         <v>1.4499181243662784E-2</v>
       </c>
       <c r="Z56" s="230">
-        <f t="shared" ref="Z56" si="91">(Z55/Y55)-1</f>
+        <f t="shared" ref="Z56" si="92">(Z55/Y55)-1</f>
         <v>1.0428455294776651E-2</v>
       </c>
       <c r="AA56" s="246">
-        <f t="shared" ref="AA56" si="92">(AA55/Z55)-1</f>
+        <f t="shared" ref="AA56" si="93">(AA55/Z55)-1</f>
         <v>4.8160295902017758E-3</v>
       </c>
       <c r="AB56" s="243"/>
@@ -26062,91 +26086,91 @@
       <c r="D57" s="103"/>
       <c r="E57" s="217"/>
       <c r="F57" s="217">
-        <f t="shared" ref="F57" si="93">F54-F55</f>
+        <f t="shared" ref="F57" si="94">F54-F55</f>
         <v>604.60100000000011</v>
       </c>
       <c r="G57" s="150">
-        <f t="shared" ref="G57" si="94">G54-G55</f>
+        <f t="shared" ref="G57" si="95">G54-G55</f>
         <v>271.59299999999985</v>
       </c>
       <c r="H57" s="217">
-        <f t="shared" ref="H57" si="95">H54-H55</f>
+        <f t="shared" ref="H57" si="96">H54-H55</f>
         <v>1309.4238025000002</v>
       </c>
       <c r="I57" s="217">
-        <f t="shared" ref="I57" si="96">I54-I55</f>
+        <f t="shared" ref="I57" si="97">I54-I55</f>
         <v>245.49251687691981</v>
       </c>
       <c r="J57" s="217">
-        <f t="shared" ref="J57" si="97">J54-J55</f>
+        <f t="shared" ref="J57" si="98">J54-J55</f>
         <v>184.80221870982064</v>
       </c>
       <c r="K57" s="264">
-        <f t="shared" ref="K57" si="98">K54-K55</f>
+        <f t="shared" ref="K57" si="99">K54-K55</f>
         <v>168.77157479008633</v>
       </c>
       <c r="L57" s="217">
-        <f t="shared" ref="L57:AA57" si="99">L54-L55</f>
+        <f t="shared" ref="L57:AA57" si="100">L54-L55</f>
         <v>168.92115468914494</v>
       </c>
       <c r="M57" s="217">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>168.28713733479799</v>
       </c>
       <c r="N57" s="217">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>166.48062816995548</v>
       </c>
       <c r="O57" s="150">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>168.6253482421223</v>
       </c>
       <c r="P57" s="217">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>169.74356938095912</v>
       </c>
       <c r="Q57" s="217">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>170.13720482098688</v>
       </c>
       <c r="R57" s="217">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>169.69779297530204</v>
       </c>
       <c r="S57" s="150">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>170.55624736271375</v>
       </c>
       <c r="T57" s="217">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>171.52051640171544</v>
       </c>
       <c r="U57" s="217">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>172.44063678295311</v>
       </c>
       <c r="V57" s="217">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>173.42008081118092</v>
       </c>
       <c r="W57" s="150">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>177.45189637202225</v>
       </c>
       <c r="X57" s="217">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>180.85881900115646</v>
       </c>
       <c r="Y57" s="217">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>183.48112379736904</v>
       </c>
       <c r="Z57" s="217">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>185.39454849432536</v>
       </c>
       <c r="AA57" s="150">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>186.28741412573595</v>
       </c>
       <c r="AB57" s="244"/>
@@ -26288,47 +26312,47 @@
         <v>78.79947651486961</v>
       </c>
       <c r="Q61" s="231">
-        <f t="shared" ref="Q61:AA61" si="100">P61*(1+Q63)</f>
+        <f t="shared" ref="Q61:AA61" si="101">P61*(1+Q63)</f>
         <v>79.164740930401138</v>
       </c>
       <c r="R61" s="231">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>79.5335062828227</v>
       </c>
       <c r="S61" s="247">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>79.905772572134268</v>
       </c>
       <c r="T61" s="231">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>80.280372819372673</v>
       </c>
       <c r="U61" s="231">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>80.654195080635461</v>
       </c>
       <c r="V61" s="231">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>81.029184320861646</v>
       </c>
       <c r="W61" s="247">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>81.404951547063447</v>
       </c>
       <c r="X61" s="231">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>81.780329780277256</v>
       </c>
       <c r="Y61" s="231">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>82.151040097637818</v>
       </c>
       <c r="Z61" s="231">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>82.519027464083777</v>
       </c>
       <c r="AA61" s="247">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>82.884291879615319</v>
       </c>
       <c r="AB61" s="95"/>
@@ -26342,95 +26366,95 @@
         <v>#REF!</v>
       </c>
       <c r="E62" s="104">
-        <f t="shared" ref="E62:AA62" si="101">D16</f>
+        <f>E16</f>
         <v>1085.9000000000001</v>
       </c>
       <c r="F62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" ref="F62:AA62" si="102">F16</f>
         <v>1212.9000000000001</v>
       </c>
-      <c r="G62" s="149">
-        <f t="shared" si="101"/>
+      <c r="G62" s="104">
+        <f t="shared" si="102"/>
         <v>609.79999999999995</v>
       </c>
       <c r="H62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>402.3</v>
       </c>
       <c r="I62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>404.18538158623397</v>
       </c>
       <c r="J62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>406.11408156777497</v>
       </c>
-      <c r="K62" s="149">
-        <f t="shared" si="101"/>
+      <c r="K62" s="104">
+        <f t="shared" si="102"/>
         <v>408.08197438316603</v>
       </c>
-      <c r="L62" s="223">
-        <f t="shared" si="101"/>
+      <c r="L62" s="104">
+        <f t="shared" si="102"/>
         <v>410.07255778657401</v>
       </c>
       <c r="M62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>412.05076450561</v>
       </c>
       <c r="N62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>413.998029513711</v>
       </c>
-      <c r="O62" s="149">
-        <f t="shared" si="101"/>
+      <c r="O62" s="104">
+        <f t="shared" si="102"/>
         <v>415.93291783743899</v>
       </c>
       <c r="P62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>417.86368059970903</v>
       </c>
       <c r="Q62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>419.80063170416599</v>
       </c>
       <c r="R62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>421.75614783518301</v>
       </c>
-      <c r="S62" s="149">
-        <f t="shared" si="101"/>
+      <c r="S62" s="104">
+        <f t="shared" si="102"/>
         <v>423.73022899275998</v>
       </c>
       <c r="T62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>425.71668683471103</v>
       </c>
       <c r="U62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>427.69901911520401</v>
       </c>
       <c r="V62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>429.68753973788398</v>
       </c>
-      <c r="W62" s="149">
-        <f t="shared" si="101"/>
+      <c r="W62" s="104">
+        <f t="shared" si="102"/>
         <v>431.68018592202202</v>
       </c>
       <c r="X62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>433.67076932543</v>
       </c>
       <c r="Y62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>435.63659936009202</v>
       </c>
       <c r="Z62" s="104">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>437.58798992965097</v>
       </c>
-      <c r="AA62" s="149">
-        <f t="shared" si="101"/>
+      <c r="AA62" s="104">
+        <f t="shared" si="102"/>
         <v>439.524941034108</v>
       </c>
       <c r="AB62" s="95"/>
@@ -26449,63 +26473,63 @@
       <c r="K63" s="229"/>
       <c r="L63" s="230"/>
       <c r="M63" s="230">
-        <f t="shared" ref="M63:AA63" si="102">(M62/L62)-1</f>
+        <f t="shared" ref="M63:AA63" si="103">(M62/L62)-1</f>
         <v>4.8240407251674E-3</v>
       </c>
       <c r="N63" s="230">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.7257890916363454E-3</v>
       </c>
       <c r="O63" s="246">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.6736655389416626E-3</v>
       </c>
       <c r="P63" s="230">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.6420051875399881E-3</v>
       </c>
       <c r="Q63" s="230">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.6353660162019583E-3</v>
       </c>
       <c r="R63" s="230">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.6582019733478752E-3</v>
       </c>
       <c r="S63" s="246">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.6806221265762726E-3</v>
       </c>
       <c r="T63" s="230">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.6880248470189123E-3</v>
       </c>
       <c r="U63" s="230">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.6564589592013039E-3</v>
       </c>
       <c r="V63" s="230">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.6493457637422075E-3</v>
       </c>
       <c r="W63" s="246">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.637430690574762E-3</v>
       </c>
       <c r="X63" s="230">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.6112457053277822E-3</v>
       </c>
       <c r="Y63" s="230">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.5330010083912686E-3</v>
       </c>
       <c r="Z63" s="230">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.4793999687477992E-3</v>
       </c>
       <c r="AA63" s="246">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.4264265679878623E-3</v>
       </c>
       <c r="AB63" s="243"/>
@@ -26521,87 +26545,87 @@
         <v>0.57999999999992724</v>
       </c>
       <c r="G64" s="150">
-        <f t="shared" ref="G64:AA64" si="103">G61-G62</f>
+        <f t="shared" ref="G64:AA64" si="104">G61-G62</f>
         <v>0.73599999999999</v>
       </c>
       <c r="H64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2.5539999999999736</v>
       </c>
       <c r="I64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>443.1982017470994</v>
       </c>
       <c r="J64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-298.69716490110829</v>
       </c>
       <c r="K64" s="150">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-305.33172438316603</v>
       </c>
       <c r="L64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-332.74230778657397</v>
       </c>
       <c r="M64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-334.34747023032264</v>
       </c>
       <c r="N64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-335.92752585795324</v>
       </c>
       <c r="O64" s="150">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-337.49753875913751</v>
       </c>
       <c r="P64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-339.06420408483939</v>
       </c>
       <c r="Q64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-340.63589077376486</v>
       </c>
       <c r="R64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-342.2226415523603</v>
       </c>
       <c r="S64" s="150">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-343.82445642062572</v>
       </c>
       <c r="T64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-345.43631401533833</v>
       </c>
       <c r="U64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-347.04482403456853</v>
       </c>
       <c r="V64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-348.65835541702234</v>
       </c>
       <c r="W64" s="150">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-350.27523437495859</v>
       </c>
       <c r="X64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-351.89043954515273</v>
       </c>
       <c r="Y64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-353.48555926245422</v>
       </c>
       <c r="Z64" s="217">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-355.06896246556721</v>
       </c>
       <c r="AA64" s="150">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-356.64064915449268</v>
       </c>
       <c r="AB64" s="217"/>
@@ -26746,35 +26770,35 @@
         <v>330.50545802602733</v>
       </c>
       <c r="T68" s="248">
-        <f t="shared" ref="T68:AA68" si="104">S68*(1+T70)</f>
+        <f t="shared" ref="T68:AA68" si="105">S68*(1+T70)</f>
         <v>333.78582925174538</v>
       </c>
       <c r="U68" s="248">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>337.09010427322568</v>
       </c>
       <c r="V68" s="248">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>340.43479411501323</v>
       </c>
       <c r="W68" s="249">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>343.81583546649915</v>
       </c>
       <c r="X68" s="248">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>347.21186736980997</v>
       </c>
       <c r="Y68" s="248">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>350.62708384827226</v>
       </c>
       <c r="Z68" s="248">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>354.05853395040117</v>
       </c>
       <c r="AA68" s="249">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>357.51747852385301</v>
       </c>
       <c r="AB68" s="95"/>
@@ -26788,95 +26812,95 @@
         <v>#REF!</v>
       </c>
       <c r="E69" s="104">
-        <f t="shared" ref="E69:AA69" si="105">D17</f>
+        <f>E17</f>
         <v>884.26</v>
       </c>
       <c r="F69" s="104">
-        <f t="shared" si="105"/>
+        <f t="shared" ref="F69:AA69" si="106">F17</f>
         <v>242.12799999999999</v>
       </c>
-      <c r="G69" s="149">
-        <f t="shared" si="105"/>
+      <c r="G69" s="104">
+        <f t="shared" si="106"/>
         <v>225.90700000000001</v>
       </c>
       <c r="H69" s="104">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>260.73700000000002</v>
       </c>
       <c r="I69" s="104">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>255.59948840017799</v>
       </c>
       <c r="J69" s="104">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>254.55541346215</v>
       </c>
-      <c r="K69" s="149">
-        <f t="shared" si="105"/>
+      <c r="K69" s="104">
+        <f t="shared" si="106"/>
         <v>256.89572380491899</v>
       </c>
       <c r="L69" s="104">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>259.47104592492298</v>
       </c>
       <c r="M69" s="104">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>261.94028245643398</v>
       </c>
       <c r="N69" s="104">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>264.42386516359801</v>
       </c>
-      <c r="O69" s="149">
-        <f t="shared" si="105"/>
+      <c r="O69" s="104">
+        <f t="shared" si="106"/>
         <v>266.96509198785299</v>
       </c>
-      <c r="P69" s="231">
-        <f t="shared" si="105"/>
+      <c r="P69" s="104">
+        <f t="shared" si="106"/>
         <v>269.50680093709798</v>
       </c>
-      <c r="Q69" s="231">
-        <f t="shared" si="105"/>
+      <c r="Q69" s="104">
+        <f t="shared" si="106"/>
         <v>272.09622896230098</v>
       </c>
-      <c r="R69" s="231">
-        <f t="shared" si="105"/>
+      <c r="R69" s="104">
+        <f t="shared" si="106"/>
         <v>274.73279727509299</v>
       </c>
-      <c r="S69" s="245">
-        <f t="shared" si="105"/>
+      <c r="S69" s="104">
+        <f t="shared" si="106"/>
         <v>277.43299355096599</v>
       </c>
-      <c r="T69" s="231">
-        <f t="shared" si="105"/>
+      <c r="T69" s="104">
+        <f t="shared" si="106"/>
         <v>280.18660377739002</v>
       </c>
-      <c r="U69" s="231">
-        <f t="shared" si="105"/>
+      <c r="U69" s="104">
+        <f t="shared" si="106"/>
         <v>282.96027933542803</v>
       </c>
-      <c r="V69" s="231">
-        <f t="shared" si="105"/>
+      <c r="V69" s="104">
+        <f t="shared" si="106"/>
         <v>285.76787991439801</v>
       </c>
-      <c r="W69" s="247">
-        <f t="shared" si="105"/>
+      <c r="W69" s="104">
+        <f t="shared" si="106"/>
         <v>288.60599468885499</v>
       </c>
-      <c r="X69" s="231">
-        <f t="shared" si="105"/>
+      <c r="X69" s="104">
+        <f t="shared" si="106"/>
         <v>291.45669283695003</v>
       </c>
-      <c r="Y69" s="231">
-        <f t="shared" si="105"/>
+      <c r="Y69" s="104">
+        <f t="shared" si="106"/>
         <v>294.32349490703803</v>
       </c>
-      <c r="Z69" s="231">
-        <f t="shared" si="105"/>
+      <c r="Z69" s="104">
+        <f t="shared" si="106"/>
         <v>297.203923810513</v>
       </c>
-      <c r="AA69" s="247">
-        <f t="shared" si="105"/>
+      <c r="AA69" s="104">
+        <f t="shared" si="106"/>
         <v>300.10743213158901</v>
       </c>
       <c r="AB69" s="95"/>
@@ -26899,47 +26923,47 @@
       <c r="O70" s="246"/>
       <c r="P70" s="230"/>
       <c r="Q70" s="230">
-        <f t="shared" ref="Q70" si="106">(Q69/P69)-1</f>
+        <f t="shared" ref="Q70" si="107">(Q69/P69)-1</f>
         <v>9.6080247926930706E-3</v>
       </c>
       <c r="R70" s="230">
-        <f t="shared" ref="R70" si="107">(R69/Q69)-1</f>
+        <f t="shared" ref="R70" si="108">(R69/Q69)-1</f>
         <v>9.6898377564700322E-3</v>
       </c>
       <c r="S70" s="246">
-        <f t="shared" ref="S70" si="108">(S69/R69)-1</f>
+        <f t="shared" ref="S70" si="109">(S69/R69)-1</f>
         <v>9.8284453208885569E-3</v>
       </c>
       <c r="T70" s="230">
-        <f t="shared" ref="T70" si="109">(T69/S69)-1</f>
+        <f t="shared" ref="T70" si="110">(T69/S69)-1</f>
         <v>9.9253163482091455E-3</v>
       </c>
       <c r="U70" s="230">
-        <f t="shared" ref="U70" si="110">(U69/T69)-1</f>
+        <f t="shared" ref="U70" si="111">(U69/T69)-1</f>
         <v>9.8993867681187453E-3</v>
       </c>
       <c r="V70" s="230">
-        <f t="shared" ref="V70" si="111">(V69/U69)-1</f>
+        <f t="shared" ref="V70" si="112">(V69/U69)-1</f>
         <v>9.9222427457452689E-3</v>
       </c>
       <c r="W70" s="246">
-        <f t="shared" ref="W70" si="112">(W69/V69)-1</f>
+        <f t="shared" ref="W70" si="113">(W69/V69)-1</f>
         <v>9.9315387555352075E-3</v>
       </c>
       <c r="X70" s="230">
-        <f t="shared" ref="X70" si="113">(X69/W69)-1</f>
+        <f t="shared" ref="X70" si="114">(X69/W69)-1</f>
         <v>9.877473789719371E-3</v>
       </c>
       <c r="Y70" s="230">
-        <f t="shared" ref="Y70" si="114">(Y69/X69)-1</f>
+        <f t="shared" ref="Y70" si="115">(Y69/X69)-1</f>
         <v>9.8361167903999736E-3</v>
       </c>
       <c r="Z70" s="230">
-        <f t="shared" ref="Z70" si="115">(Z69/Y69)-1</f>
+        <f t="shared" ref="Z70" si="116">(Z69/Y69)-1</f>
         <v>9.7866087937856783E-3</v>
       </c>
       <c r="AA70" s="246">
-        <f t="shared" ref="AA70" si="116">(AA69/Z69)-1</f>
+        <f t="shared" ref="AA70" si="117">(AA69/Z69)-1</f>
         <v>9.7694144944304728E-3</v>
       </c>
       <c r="AB70" s="243"/>
@@ -26955,87 +26979,87 @@
         <v>49.271999999999991</v>
       </c>
       <c r="G71" s="150">
-        <f t="shared" ref="G71:K71" si="117">G68-G69</f>
+        <f t="shared" ref="G71:K71" si="118">G68-G69</f>
         <v>68.244</v>
       </c>
       <c r="H71" s="217">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>61.90180399999997</v>
       </c>
       <c r="I71" s="217">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>68.930270815822013</v>
       </c>
       <c r="J71" s="217">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>64.768464790714006</v>
       </c>
       <c r="K71" s="150">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>62.225449960956496</v>
       </c>
       <c r="L71" s="217">
-        <f t="shared" ref="L71:N71" si="118">L68-L69</f>
+        <f t="shared" ref="L71:N71" si="119">L68-L69</f>
         <v>50.450612536015967</v>
       </c>
       <c r="M71" s="217">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>48.785062638348734</v>
       </c>
       <c r="N71" s="217">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>47.108381311563846</v>
       </c>
       <c r="O71" s="150">
-        <f t="shared" ref="O71:AA71" si="119">O68-O69</f>
+        <f t="shared" ref="O71:AA71" si="120">O68-O69</f>
         <v>45.377283473209502</v>
       </c>
       <c r="P71" s="250">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>43.648944025808703</v>
       </c>
       <c r="Q71" s="250">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>58.409229063726343</v>
       </c>
       <c r="R71" s="250">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>55.772660750934335</v>
       </c>
       <c r="S71" s="239">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>53.072464475061338</v>
       </c>
       <c r="T71" s="250">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>53.599225474355364</v>
       </c>
       <c r="U71" s="250">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>54.12982493779765</v>
       </c>
       <c r="V71" s="250">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>54.666914200615224</v>
       </c>
       <c r="W71" s="251">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>55.20984077764416</v>
       </c>
       <c r="X71" s="250">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>55.75517453285994</v>
       </c>
       <c r="Y71" s="250">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>56.303588941234239</v>
       </c>
       <c r="Z71" s="250">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>56.854610139888166</v>
       </c>
       <c r="AA71" s="251">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>57.410046392264007</v>
       </c>
       <c r="AB71" s="244"/>
@@ -27096,7 +27120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M25" sqref="M25"/>
     </sheetView>
@@ -27219,7 +27243,7 @@
       </c>
       <c r="C3">
         <f t="array" ref="C3:C24">TRANSPOSE('add-ons calculations'!F31:AA31)</f>
-        <v>-33.023000000000025</v>
+        <v>185.97699999999998</v>
       </c>
       <c r="D3">
         <f t="array" ref="D3:D24">TRANSPOSE('add-ons calculations'!F37:AA37)</f>
@@ -27277,7 +27301,7 @@
         <v>-8.7680000000000007</v>
       </c>
       <c r="C4">
-        <v>-61.292000000000002</v>
+        <v>36.608000000000004</v>
       </c>
       <c r="D4">
         <v>-34.161000000000058</v>
@@ -27329,7 +27353,7 @@
         <v>-2.6000000000010459E-2</v>
       </c>
       <c r="C5">
-        <v>-10.88900000000001</v>
+        <v>60.010999999999996</v>
       </c>
       <c r="D5">
         <v>-27.260999999999967</v>
@@ -27382,7 +27406,7 @@
         <v>12.191000475937102</v>
       </c>
       <c r="C6">
-        <v>-31.404359752822046</v>
+        <v>41.205300797277943</v>
       </c>
       <c r="D6">
         <v>-27.540460525652634</v>
@@ -27437,7 +27461,7 @@
         <v>8.0446176857161049</v>
       </c>
       <c r="C7">
-        <v>-31.299870882672082</v>
+        <v>42.720344650758932</v>
       </c>
       <c r="D7">
         <v>-27.939190811356866</v>
@@ -27492,7 +27516,7 @@
         <v>7.459524934637102</v>
       </c>
       <c r="C8">
-        <v>-42.728540027182873</v>
+        <v>32.46624938209311</v>
       </c>
       <c r="D8">
         <v>-28.310598840325156</v>
@@ -27547,7 +27571,7 @@
         <v>6.8744321835571043</v>
       </c>
       <c r="C9">
-        <v>-54.017481243801626</v>
+        <v>22.370520514336363</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -27602,7 +27626,7 @@
         <v>47.937274032360733</v>
       </c>
       <c r="C10">
-        <v>-56.860234186327006</v>
+        <v>23.915633540108274</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -27657,7 +27681,7 @@
         <v>47.352181281280735</v>
       </c>
       <c r="C11">
-        <v>-59.4982734243018</v>
+        <v>25.347666673136104</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -27712,7 +27736,7 @@
         <v>49.24529837870972</v>
       </c>
       <c r="C12">
-        <v>-64.18782156080772</v>
+        <v>28.01951799620258</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -27767,7 +27791,7 @@
         <v>48.706029963479068</v>
       </c>
       <c r="C13">
-        <v>-68.649682849032899</v>
+        <v>30.565599506059044</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -27820,7 +27844,7 @@
         <v>48.166761548248445</v>
       </c>
       <c r="C14">
-        <v>-73.145039224524623</v>
+        <v>33.130183054574275</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -27872,7 +27896,7 @@
         <v>47.627493133017822</v>
       </c>
       <c r="C15">
-        <v>-77.637929717548047</v>
+        <v>35.693404497285769</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -27924,7 +27948,7 @@
         <v>47.909170525827761</v>
       </c>
       <c r="C16">
-        <v>-79.591929938656051</v>
+        <v>36.730219990317664</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -27976,7 +28000,7 @@
         <v>48.190847918637417</v>
       </c>
       <c r="C17">
-        <v>-81.64451473965164</v>
+        <v>37.821491699382307</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -28028,7 +28052,7 @@
         <v>48.472525311447043</v>
       </c>
       <c r="C18">
-        <v>-83.786721885999441</v>
+        <v>38.962269059386188</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -28080,7 +28104,7 @@
         <v>48.754202704256983</v>
       </c>
       <c r="C19">
-        <v>-85.803457748854214</v>
+        <v>40.033738508075317</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -28132,7 +28156,7 @@
         <v>49.478730408519283</v>
       </c>
       <c r="C20">
-        <v>-86.263002893230009</v>
+        <v>40.178170532473189</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -28184,7 +28208,7 @@
         <v>50.203258112781555</v>
       </c>
       <c r="C21">
-        <v>-86.713585803070657</v>
+        <v>40.317651991777097</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -28236,7 +28260,7 @@
         <v>50.927785817043855</v>
       </c>
       <c r="C22">
-        <v>-87.155206478375987</v>
+        <v>40.452182885987327</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -28288,7 +28312,7 @@
         <v>51.652313521306155</v>
       </c>
       <c r="C23">
-        <v>-87.596827153681318</v>
+        <v>40.586713780197385</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -28340,7 +28364,7 @@
         <v>52.373839507047563</v>
       </c>
       <c r="C24">
-        <v>-88.048091531449472</v>
+        <v>40.727024962454834</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -33479,6 +33503,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33695,12 +33725,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -33711,6 +33735,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33729,23 +33770,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>

--- a/data/add_factors.xlsx
+++ b/data/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96BE70E-88B8-FC47-84AA-03A71330D30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1CB03C-0EAD-2743-B096-146652CA4CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19720" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19720" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -4415,6 +4415,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4436,29 +4451,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4973,11 +4973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="M95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
+      <selection pane="bottomRight" activeCell="P113" sqref="P113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11885,32 +11885,32 @@
         <v>377160</v>
       </c>
       <c r="P111" s="215">
-        <f t="shared" si="65"/>
-        <v>372226.2732629471</v>
+        <f>P97-P93</f>
+        <v>328226.2732629471</v>
       </c>
       <c r="Q111" s="215">
-        <f t="shared" si="65"/>
-        <v>372955.6515238533</v>
+        <f t="shared" ref="Q111:V111" si="66">Q97-Q93</f>
+        <v>328955.6515238533</v>
       </c>
       <c r="R111" s="215">
-        <f t="shared" si="65"/>
-        <v>374055.18925216945</v>
+        <f t="shared" si="66"/>
+        <v>330055.18925216945</v>
       </c>
       <c r="S111" s="215">
-        <f t="shared" si="65"/>
-        <v>375532.23493387422</v>
+        <f t="shared" si="66"/>
+        <v>331532.23493387422</v>
       </c>
       <c r="T111" s="215">
-        <f t="shared" si="65"/>
-        <v>418958.62727356335</v>
+        <f t="shared" si="66"/>
+        <v>374958.62727356335</v>
       </c>
       <c r="U111" s="215">
-        <f t="shared" si="65"/>
-        <v>420390.51401443902</v>
+        <f t="shared" si="66"/>
+        <v>376390.51401443902</v>
       </c>
       <c r="V111" s="215">
-        <f t="shared" si="65"/>
-        <v>421884.12001138687</v>
+        <f t="shared" si="66"/>
+        <v>377884.12001138687</v>
       </c>
       <c r="W111" s="215">
         <f t="shared" si="65"/>
@@ -11933,31 +11933,31 @@
       <c r="B112" s="141"/>
       <c r="E112" s="141"/>
       <c r="F112" s="201">
-        <f t="shared" ref="F112:L112" si="66">F100-F93</f>
+        <f t="shared" ref="F112:L112" si="67">F100-F93</f>
         <v>200195</v>
       </c>
       <c r="G112" s="201">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>194843</v>
       </c>
       <c r="H112" s="201">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>195304</v>
       </c>
       <c r="I112" s="201">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>203441</v>
       </c>
       <c r="J112" s="201">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>208223</v>
       </c>
       <c r="K112" s="201">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>200667</v>
       </c>
       <c r="L112" s="201">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>156183</v>
       </c>
       <c r="M112" s="301">
@@ -11968,47 +11968,47 @@
         <v>170235</v>
       </c>
       <c r="O112" s="298">
-        <f t="shared" ref="O112:Y112" si="67">O100-O93</f>
+        <f t="shared" ref="O112:Y112" si="68">O100-O93</f>
         <v>171256</v>
       </c>
       <c r="P112" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>182350.62108169706</v>
       </c>
       <c r="Q112" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>182350.62108169706</v>
       </c>
       <c r="R112" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>182350.62108169706</v>
       </c>
       <c r="S112" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>182350.62108169706</v>
       </c>
       <c r="T112" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>224431.53363901173</v>
       </c>
       <c r="U112" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>224431.53363901173</v>
       </c>
       <c r="V112" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>224431.53363901173</v>
       </c>
       <c r="W112" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="X112" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Y112" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AM112" s="233"/>
@@ -12020,27 +12020,27 @@
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
       <c r="F113" s="201">
-        <f t="shared" ref="F113:K113" si="68">F111-F112</f>
+        <f t="shared" ref="F113:K113" si="69">F111-F112</f>
         <v>139025</v>
       </c>
       <c r="G113" s="201">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>139342</v>
       </c>
       <c r="H113" s="201">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>140228</v>
       </c>
       <c r="I113" s="201">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>141105</v>
       </c>
       <c r="J113" s="201">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>141335</v>
       </c>
       <c r="K113" s="201">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>142991</v>
       </c>
       <c r="L113" s="201">
@@ -12055,47 +12055,47 @@
         <v>181849</v>
       </c>
       <c r="O113" s="298">
-        <f t="shared" ref="O113:Y113" si="69">O111-O112</f>
+        <f t="shared" ref="O113:Y113" si="70">O111-O112</f>
         <v>205904</v>
       </c>
       <c r="P113" s="142">
-        <f t="shared" si="69"/>
-        <v>189875.65218125004</v>
+        <f t="shared" si="70"/>
+        <v>145875.65218125004</v>
       </c>
       <c r="Q113" s="142">
-        <f t="shared" si="69"/>
-        <v>190605.03044215625</v>
+        <f t="shared" si="70"/>
+        <v>146605.03044215625</v>
       </c>
       <c r="R113" s="142">
-        <f t="shared" si="69"/>
-        <v>191704.5681704724</v>
+        <f t="shared" si="70"/>
+        <v>147704.5681704724</v>
       </c>
       <c r="S113" s="142">
-        <f t="shared" si="69"/>
-        <v>193181.61385217716</v>
+        <f t="shared" si="70"/>
+        <v>149181.61385217716</v>
       </c>
       <c r="T113" s="142">
-        <f t="shared" si="69"/>
-        <v>194527.09363455162</v>
+        <f t="shared" si="70"/>
+        <v>150527.09363455162</v>
       </c>
       <c r="U113" s="142">
-        <f t="shared" si="69"/>
-        <v>195958.98037542729</v>
+        <f t="shared" si="70"/>
+        <v>151958.98037542729</v>
       </c>
       <c r="V113" s="142">
-        <f t="shared" si="69"/>
-        <v>197452.58637237514</v>
+        <f t="shared" si="70"/>
+        <v>153452.58637237514</v>
       </c>
       <c r="W113" s="142">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="X113" s="142">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Y113" s="142">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AM113" s="256"/>
@@ -16002,68 +16002,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="376" t="s">
+      <c r="A2" s="381" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="376"/>
-      <c r="C2" s="376"/>
-      <c r="D2" s="376"/>
-      <c r="E2" s="376"/>
-      <c r="F2" s="376"/>
-      <c r="G2" s="376"/>
-      <c r="H2" s="376"/>
-      <c r="I2" s="376"/>
-      <c r="J2" s="376"/>
+      <c r="B2" s="381"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+      <c r="H2" s="381"/>
+      <c r="I2" s="381"/>
+      <c r="J2" s="381"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="376" t="s">
+      <c r="A3" s="381" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="376"/>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
-      <c r="H3" s="376"/>
-      <c r="I3" s="376"/>
-      <c r="J3" s="376"/>
+      <c r="B3" s="381"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="381"/>
+      <c r="H3" s="381"/>
+      <c r="I3" s="381"/>
+      <c r="J3" s="381"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="377"/>
-      <c r="B4" s="377"/>
-      <c r="C4" s="377"/>
-      <c r="D4" s="377"/>
-      <c r="E4" s="377"/>
-      <c r="F4" s="377"/>
-      <c r="G4" s="377"/>
-      <c r="H4" s="377"/>
-      <c r="I4" s="377"/>
-      <c r="J4" s="377"/>
-      <c r="K4" s="382" t="s">
+      <c r="A4" s="382"/>
+      <c r="B4" s="382"/>
+      <c r="C4" s="382"/>
+      <c r="D4" s="382"/>
+      <c r="E4" s="382"/>
+      <c r="F4" s="382"/>
+      <c r="G4" s="382"/>
+      <c r="H4" s="382"/>
+      <c r="I4" s="382"/>
+      <c r="J4" s="382"/>
+      <c r="K4" s="387" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="382"/>
-      <c r="M4" s="382"/>
-      <c r="N4" s="382"/>
+      <c r="L4" s="387"/>
+      <c r="M4" s="387"/>
+      <c r="N4" s="387"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="378" t="s">
+      <c r="C5" s="383" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="379"/>
-      <c r="E5" s="379"/>
-      <c r="F5" s="379"/>
-      <c r="G5" s="379"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="379"/>
-      <c r="J5" s="380"/>
+      <c r="D5" s="384"/>
+      <c r="E5" s="384"/>
+      <c r="F5" s="384"/>
+      <c r="G5" s="384"/>
+      <c r="H5" s="384"/>
+      <c r="I5" s="384"/>
+      <c r="J5" s="385"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="381" t="s">
+      <c r="L5" s="386" t="s">
         <v>106</v>
       </c>
       <c r="M5" s="352"/>
@@ -16074,16 +16074,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="384">
+      <c r="C6" s="377">
         <v>2020</v>
       </c>
-      <c r="D6" s="385"/>
-      <c r="E6" s="385"/>
-      <c r="F6" s="385"/>
-      <c r="G6" s="385"/>
-      <c r="H6" s="385"/>
-      <c r="I6" s="385"/>
-      <c r="J6" s="386"/>
+      <c r="D6" s="378"/>
+      <c r="E6" s="378"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="378"/>
+      <c r="H6" s="378"/>
+      <c r="I6" s="378"/>
+      <c r="J6" s="379"/>
       <c r="K6" s="78" t="s">
         <v>134</v>
       </c>
@@ -16555,12 +16555,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="387" t="s">
+      <c r="K23" s="380" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="387"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="387"/>
+      <c r="L23" s="380"/>
+      <c r="M23" s="380"/>
+      <c r="N23" s="380"/>
       <c r="O23" s="35" t="s">
         <v>145</v>
       </c>
@@ -16729,7 +16729,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="383" t="s">
+      <c r="I28" s="376" t="s">
         <v>252</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -16779,7 +16779,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="383"/>
+      <c r="I29" s="376"/>
       <c r="J29" s="82" t="s">
         <v>142</v>
       </c>
@@ -16827,7 +16827,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="383"/>
+      <c r="I30" s="376"/>
       <c r="J30" s="82" t="s">
         <v>141</v>
       </c>
@@ -16875,7 +16875,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="383"/>
+      <c r="I31" s="376"/>
       <c r="J31" s="35" t="s">
         <v>139</v>
       </c>
@@ -16937,7 +16937,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="383" t="s">
+      <c r="I33" s="376" t="s">
         <v>140</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16985,7 +16985,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="383"/>
+      <c r="I34" s="376"/>
       <c r="J34" t="s">
         <v>253</v>
       </c>
@@ -17222,6 +17222,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -17229,12 +17235,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17341,22 +17341,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="391" t="s">
+      <c r="E6" s="389" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="391"/>
-      <c r="G6" s="391"/>
-      <c r="H6" s="391"/>
-      <c r="I6" s="391"/>
-      <c r="J6" s="391"/>
-      <c r="K6" s="391"/>
-      <c r="L6" s="391"/>
-      <c r="M6" s="391"/>
-      <c r="N6" s="391"/>
-      <c r="O6" s="391"/>
-      <c r="P6" s="391"/>
-      <c r="Q6" s="391"/>
-      <c r="R6" s="391"/>
+      <c r="F6" s="389"/>
+      <c r="G6" s="389"/>
+      <c r="H6" s="389"/>
+      <c r="I6" s="389"/>
+      <c r="J6" s="389"/>
+      <c r="K6" s="389"/>
+      <c r="L6" s="389"/>
+      <c r="M6" s="389"/>
+      <c r="N6" s="389"/>
+      <c r="O6" s="389"/>
+      <c r="P6" s="389"/>
+      <c r="Q6" s="389"/>
+      <c r="R6" s="389"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="388" t="s">
@@ -18092,21 +18092,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="389" t="s">
+      <c r="H27" s="390" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="389"/>
-      <c r="J27" s="389"/>
-      <c r="K27" s="389"/>
-      <c r="L27" s="389"/>
-      <c r="M27" s="389"/>
-      <c r="N27" s="389"/>
-      <c r="O27" s="389"/>
-      <c r="P27" s="389"/>
-      <c r="Q27" s="389"/>
-      <c r="R27" s="389"/>
-      <c r="S27" s="389"/>
-      <c r="T27" s="389"/>
+      <c r="I27" s="390"/>
+      <c r="J27" s="390"/>
+      <c r="K27" s="390"/>
+      <c r="L27" s="390"/>
+      <c r="M27" s="390"/>
+      <c r="N27" s="390"/>
+      <c r="O27" s="390"/>
+      <c r="P27" s="390"/>
+      <c r="Q27" s="390"/>
+      <c r="R27" s="390"/>
+      <c r="S27" s="390"/>
+      <c r="T27" s="390"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -18422,21 +18422,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="390" t="s">
+      <c r="F37" s="391" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="390"/>
-      <c r="H37" s="390"/>
-      <c r="I37" s="390"/>
-      <c r="J37" s="390"/>
-      <c r="K37" s="390"/>
-      <c r="L37" s="390"/>
-      <c r="M37" s="390"/>
-      <c r="N37" s="390"/>
-      <c r="O37" s="390"/>
-      <c r="P37" s="390"/>
-      <c r="Q37" s="390"/>
-      <c r="R37" s="390"/>
+      <c r="G37" s="391"/>
+      <c r="H37" s="391"/>
+      <c r="I37" s="391"/>
+      <c r="J37" s="391"/>
+      <c r="K37" s="391"/>
+      <c r="L37" s="391"/>
+      <c r="M37" s="391"/>
+      <c r="N37" s="391"/>
+      <c r="O37" s="391"/>
+      <c r="P37" s="391"/>
+      <c r="Q37" s="391"/>
+      <c r="R37" s="391"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -18752,21 +18752,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="389" t="s">
+      <c r="F48" s="390" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="389"/>
-      <c r="H48" s="389"/>
-      <c r="I48" s="389"/>
-      <c r="J48" s="389"/>
-      <c r="K48" s="389"/>
-      <c r="L48" s="389"/>
-      <c r="M48" s="389"/>
-      <c r="N48" s="389"/>
-      <c r="O48" s="389"/>
-      <c r="P48" s="389"/>
-      <c r="Q48" s="389"/>
-      <c r="R48" s="389"/>
+      <c r="G48" s="390"/>
+      <c r="H48" s="390"/>
+      <c r="I48" s="390"/>
+      <c r="J48" s="390"/>
+      <c r="K48" s="390"/>
+      <c r="L48" s="390"/>
+      <c r="M48" s="390"/>
+      <c r="N48" s="390"/>
+      <c r="O48" s="390"/>
+      <c r="P48" s="390"/>
+      <c r="Q48" s="390"/>
+      <c r="R48" s="390"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -19078,12 +19078,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -19092,6 +19086,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23339,11 +23339,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AX73"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25225,79 +25225,79 @@
       </c>
       <c r="I28" s="104">
         <f>main!P113/1000</f>
-        <v>189.87565218125005</v>
+        <v>145.87565218125005</v>
       </c>
       <c r="J28" s="104">
         <f>main!Q113/1000</f>
-        <v>190.60503044215625</v>
+        <v>146.60503044215625</v>
       </c>
       <c r="K28" s="104">
         <f>main!R113/1000</f>
-        <v>191.70456817047238</v>
+        <v>147.70456817047238</v>
       </c>
       <c r="L28" s="104">
         <f>main!S113/1000</f>
-        <v>193.18161385217715</v>
+        <v>149.18161385217715</v>
       </c>
       <c r="M28" s="104">
         <f>L28*(1 + M30)</f>
-        <v>206.62215379317183</v>
+        <v>159.56086992867171</v>
       </c>
       <c r="N28" s="104">
         <f t="shared" ref="N28:AA28" si="22">M28*(1 + N30)</f>
-        <v>219.07867428158957</v>
+        <v>169.1802316908466</v>
       </c>
       <c r="O28" s="104">
         <f t="shared" si="22"/>
-        <v>242.34529081208237</v>
+        <v>187.14752854527001</v>
       </c>
       <c r="P28" s="104">
         <f t="shared" si="22"/>
-        <v>264.51746040119474</v>
+        <v>204.26965510768184</v>
       </c>
       <c r="Q28" s="104">
         <f t="shared" si="22"/>
-        <v>286.85063444043971</v>
+        <v>221.51611495020876</v>
       </c>
       <c r="R28" s="104">
         <f t="shared" si="22"/>
-        <v>309.17195545635269</v>
+        <v>238.75342147263223</v>
       </c>
       <c r="S28" s="104">
         <f t="shared" si="22"/>
-        <v>318.18584152316771</v>
+        <v>245.71426025906086</v>
       </c>
       <c r="T28" s="104">
         <f t="shared" si="22"/>
-        <v>327.67360472755092</v>
+        <v>253.04104358203412</v>
       </c>
       <c r="U28" s="104">
         <f t="shared" si="22"/>
-        <v>337.59216532972505</v>
+        <v>260.70050375641284</v>
       </c>
       <c r="V28" s="104">
         <f t="shared" si="22"/>
-        <v>346.90760957499356</v>
+        <v>267.89421633882517</v>
       </c>
       <c r="W28" s="104">
         <f t="shared" si="22"/>
-        <v>348.14267840256628</v>
+        <v>268.84797978060283</v>
       </c>
       <c r="X28" s="104">
         <f t="shared" si="22"/>
-        <v>349.33466749035949</v>
+        <v>269.76847553723962</v>
       </c>
       <c r="Y28" s="104">
         <f t="shared" si="22"/>
-        <v>350.48357683837429</v>
+        <v>270.65570360873642</v>
       </c>
       <c r="Z28" s="104">
         <f t="shared" si="22"/>
-        <v>351.63248618639028</v>
+        <v>271.54293168023412</v>
       </c>
       <c r="AA28" s="104">
         <f t="shared" si="22"/>
-        <v>352.8317857298677</v>
+        <v>272.46907282700522</v>
       </c>
       <c r="AB28" s="95"/>
     </row>
@@ -25498,79 +25498,79 @@
       </c>
       <c r="I31" s="217">
         <f t="shared" ref="I31" si="43">I28-I29</f>
-        <v>41.254657067338059</v>
+        <v>-2.7453429326619414</v>
       </c>
       <c r="J31" s="217">
         <f t="shared" ref="J31" si="44">J28-J29</f>
-        <v>42.808010704549247</v>
+        <v>-1.1919892954507532</v>
       </c>
       <c r="K31" s="150">
         <f t="shared" ref="K31:N31" si="45">K28-K29</f>
-        <v>32.461912059248391</v>
+        <v>-11.538087940751609</v>
       </c>
       <c r="L31" s="239">
         <f t="shared" si="45"/>
-        <v>22.272419972768148</v>
+        <v>-21.727580027231852</v>
       </c>
       <c r="M31" s="217">
         <f t="shared" si="45"/>
-        <v>23.822015424722821</v>
+        <v>-23.239268439777305</v>
       </c>
       <c r="N31" s="217">
         <f t="shared" si="45"/>
-        <v>25.258160667456565</v>
+        <v>-24.640281923286409</v>
       </c>
       <c r="O31" s="150">
         <f t="shared" ref="O31:AA31" si="46">O28-O29</f>
-        <v>27.940630517351366</v>
+        <v>-27.257131749460996</v>
       </c>
       <c r="P31" s="150">
         <f t="shared" si="46"/>
-        <v>30.496918680333749</v>
+        <v>-29.750886613179148</v>
       </c>
       <c r="Q31" s="150">
         <f t="shared" si="46"/>
-        <v>33.071769472850718</v>
+        <v>-32.262750017380228</v>
       </c>
       <c r="R31" s="150">
         <f t="shared" si="46"/>
-        <v>35.645253698910665</v>
+        <v>-34.7732802848098</v>
       </c>
       <c r="S31" s="150">
         <f t="shared" si="46"/>
-        <v>36.684488500108728</v>
+        <v>-35.787092763998118</v>
       </c>
       <c r="T31" s="150">
         <f t="shared" si="46"/>
-        <v>37.778357851732949</v>
+        <v>-36.854203293783854</v>
       </c>
       <c r="U31" s="150">
         <f t="shared" si="46"/>
-        <v>38.921894976472061</v>
+        <v>-37.969766596840145</v>
       </c>
       <c r="V31" s="150">
         <f t="shared" si="46"/>
-        <v>39.99589721885053</v>
+        <v>-39.017496017317853</v>
       </c>
       <c r="W31" s="150">
         <f t="shared" si="46"/>
-        <v>40.138291575510266</v>
+        <v>-39.156407046453182</v>
       </c>
       <c r="X31" s="150">
         <f t="shared" si="46"/>
-        <v>40.275719154858507</v>
+        <v>-39.290472798261362</v>
       </c>
       <c r="Y31" s="150">
         <f t="shared" si="46"/>
-        <v>40.40817995689531</v>
+        <v>-39.419693272742563</v>
       </c>
       <c r="Z31" s="150">
         <f t="shared" si="46"/>
-        <v>40.540640758932284</v>
+        <v>-39.548913747223878</v>
       </c>
       <c r="AA31" s="150">
         <f t="shared" si="46"/>
-        <v>40.678911180080718</v>
+        <v>-39.683801722781766</v>
       </c>
       <c r="AB31" s="244"/>
     </row>
@@ -28219,7 +28219,7 @@
         <v>6.7878800857670569</v>
       </c>
       <c r="C6">
-        <v>41.254657067338059</v>
+        <v>-2.7453429326619414</v>
       </c>
       <c r="D6">
         <v>-27.737459527982537</v>
@@ -28274,7 +28274,7 @@
         <v>2.4621390898360573</v>
       </c>
       <c r="C7">
-        <v>42.808010704549247</v>
+        <v>-1.1919892954507532</v>
       </c>
       <c r="D7">
         <v>-28.139041961662997</v>
@@ -28329,7 +28329,7 @@
         <v>1.8517372461530499</v>
       </c>
       <c r="C8">
-        <v>32.461912059248391</v>
+        <v>-11.538087940751609</v>
       </c>
       <c r="D8">
         <v>-28.5131067004138</v>
@@ -28384,7 +28384,7 @@
         <v>1.2413354024700425</v>
       </c>
       <c r="C9">
-        <v>22.272419972768148</v>
+        <v>-21.727580027231852</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -28439,7 +28439,7 @@
         <v>42.711846116101725</v>
       </c>
       <c r="C10">
-        <v>23.822015424722821</v>
+        <v>-23.239268439777305</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>42.101444272418718</v>
       </c>
       <c r="C11">
-        <v>25.258160667456565</v>
+        <v>-24.640281923286409</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -28549,7 +28549,7 @@
         <v>44.076451080221716</v>
       </c>
       <c r="C12">
-        <v>27.940630517351366</v>
+        <v>-27.257131749460996</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -28604,7 +28604,7 @@
         <v>43.593784943441761</v>
       </c>
       <c r="C13">
-        <v>30.496918680333749</v>
+        <v>-29.750886613179148</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -28657,7 +28657,7 @@
         <v>43.111118806662063</v>
       </c>
       <c r="C14">
-        <v>33.071769472850718</v>
+        <v>-32.262750017380228</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>42.628452669882108</v>
       </c>
       <c r="C15">
-        <v>35.645253698910665</v>
+        <v>-34.7732802848098</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>42.880564855884273</v>
       </c>
       <c r="C16">
-        <v>36.684488500108728</v>
+        <v>-35.787092763998118</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>43.132677041886438</v>
       </c>
       <c r="C17">
-        <v>37.778357851732949</v>
+        <v>-36.854203293783854</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -28865,7 +28865,7 @@
         <v>43.384789227888604</v>
       </c>
       <c r="C18">
-        <v>38.921894976472061</v>
+        <v>-37.969766596840145</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -28917,7 +28917,7 @@
         <v>43.63690141389074</v>
       </c>
       <c r="C19">
-        <v>39.99589721885053</v>
+        <v>-39.017496017317853</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -28969,7 +28969,7 @@
         <v>44.285381796070624</v>
       </c>
       <c r="C20">
-        <v>40.138291575510266</v>
+        <v>-39.156407046453182</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -29021,7 +29021,7 @@
         <v>44.933862178250251</v>
       </c>
       <c r="C21">
-        <v>40.275719154858507</v>
+        <v>-39.290472798261362</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -29073,7 +29073,7 @@
         <v>45.582342560430135</v>
       </c>
       <c r="C22">
-        <v>40.40817995689531</v>
+        <v>-39.419693272742563</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -29125,7 +29125,7 @@
         <v>46.230822942609791</v>
       </c>
       <c r="C23">
-        <v>40.540640758932284</v>
+        <v>-39.548913747223878</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -29177,7 +29177,7 @@
         <v>46.876616670349648</v>
       </c>
       <c r="C24">
-        <v>40.678911180080718</v>
+        <v>-39.683801722781766</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -34331,18 +34331,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34563,14 +34563,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -34583,6 +34575,14 @@
     <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/add_factors.xlsx
+++ b/data/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1CB03C-0EAD-2743-B096-146652CA4CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE08EB7-92B2-2740-BB3A-DD8521BF57BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19720" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="33600" windowHeight="19720" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -4415,21 +4415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4451,14 +4436,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4973,11 +4973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ121"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M95" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="N45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P113" sqref="P113"/>
+      <selection pane="bottomRight" activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8564,7 +8564,7 @@
       </c>
       <c r="Q54" s="144">
         <f t="shared" si="36"/>
-        <v>107416.91666666667</v>
+        <v>757416.91666666663</v>
       </c>
       <c r="R54" s="144">
         <f t="shared" si="36"/>
@@ -8633,15 +8633,15 @@
       </c>
       <c r="O55" s="299">
         <f>O57+O58+SUM(O63:O66)</f>
-        <v>963020</v>
+        <v>323820</v>
       </c>
       <c r="P55" s="116">
-        <f t="shared" ref="P55:V55" si="38">P57+P58+SUM(P63:P66)</f>
+        <f>P57+P58+SUM(P63:P66)</f>
         <v>772553.33333333337</v>
       </c>
       <c r="Q55" s="116">
-        <f t="shared" si="38"/>
-        <v>32586.666666666672</v>
+        <f t="shared" ref="P55:V55" si="38">Q57+Q58+SUM(Q63:Q66)</f>
+        <v>682586.66666666663</v>
       </c>
       <c r="R55" s="116">
         <f t="shared" si="38"/>
@@ -9041,15 +9041,15 @@
       <c r="L63" s="202"/>
       <c r="M63" s="301"/>
       <c r="N63" s="308"/>
-      <c r="O63" s="299">
-        <f>'Stimulus Round 2'!$C$2*4/2 -O48</f>
-        <v>639200</v>
-      </c>
-      <c r="P63" s="279">
-        <f>'Stimulus Round 2'!$C$2*4/2</f>
+      <c r="O63" s="299"/>
+      <c r="P63" s="299">
+        <f>'Stimulus Round 2'!$C$2*4/2 -P48</f>
         <v>650000</v>
       </c>
-      <c r="Q63" s="279"/>
+      <c r="Q63" s="299">
+        <f>'Stimulus Round 2'!$C$2*4/2 -Q48</f>
+        <v>650000</v>
+      </c>
       <c r="R63" s="279"/>
       <c r="S63" s="279"/>
       <c r="T63" s="279"/>
@@ -15646,7 +15646,7 @@
       </c>
       <c r="J70" s="102">
         <f>main!Q54/1000</f>
-        <v>107.41691666666667</v>
+        <v>757.41691666666668</v>
       </c>
       <c r="K70" s="102">
         <f>main!R54/1000</f>
@@ -15714,7 +15714,7 @@
       </c>
       <c r="J72" s="103">
         <f t="shared" si="23"/>
-        <v>-997.91791393977326</v>
+        <v>-347.91791393977326</v>
       </c>
       <c r="K72" s="103">
         <f t="shared" si="23"/>
@@ -16002,68 +16002,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="381" t="s">
+      <c r="A2" s="376" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
+      <c r="B2" s="376"/>
+      <c r="C2" s="376"/>
+      <c r="D2" s="376"/>
+      <c r="E2" s="376"/>
+      <c r="F2" s="376"/>
+      <c r="G2" s="376"/>
+      <c r="H2" s="376"/>
+      <c r="I2" s="376"/>
+      <c r="J2" s="376"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="381" t="s">
+      <c r="A3" s="376" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="381"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="382"/>
-      <c r="B4" s="382"/>
-      <c r="C4" s="382"/>
-      <c r="D4" s="382"/>
-      <c r="E4" s="382"/>
-      <c r="F4" s="382"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="382"/>
-      <c r="I4" s="382"/>
-      <c r="J4" s="382"/>
-      <c r="K4" s="387" t="s">
+      <c r="A4" s="377"/>
+      <c r="B4" s="377"/>
+      <c r="C4" s="377"/>
+      <c r="D4" s="377"/>
+      <c r="E4" s="377"/>
+      <c r="F4" s="377"/>
+      <c r="G4" s="377"/>
+      <c r="H4" s="377"/>
+      <c r="I4" s="377"/>
+      <c r="J4" s="377"/>
+      <c r="K4" s="382" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="387"/>
-      <c r="M4" s="387"/>
-      <c r="N4" s="387"/>
+      <c r="L4" s="382"/>
+      <c r="M4" s="382"/>
+      <c r="N4" s="382"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="383" t="s">
+      <c r="C5" s="378" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="384"/>
-      <c r="E5" s="384"/>
-      <c r="F5" s="384"/>
-      <c r="G5" s="384"/>
-      <c r="H5" s="384"/>
-      <c r="I5" s="384"/>
-      <c r="J5" s="385"/>
+      <c r="D5" s="379"/>
+      <c r="E5" s="379"/>
+      <c r="F5" s="379"/>
+      <c r="G5" s="379"/>
+      <c r="H5" s="379"/>
+      <c r="I5" s="379"/>
+      <c r="J5" s="380"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="386" t="s">
+      <c r="L5" s="381" t="s">
         <v>106</v>
       </c>
       <c r="M5" s="352"/>
@@ -16074,16 +16074,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="377">
+      <c r="C6" s="384">
         <v>2020</v>
       </c>
-      <c r="D6" s="378"/>
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
-      <c r="H6" s="378"/>
-      <c r="I6" s="378"/>
-      <c r="J6" s="379"/>
+      <c r="D6" s="385"/>
+      <c r="E6" s="385"/>
+      <c r="F6" s="385"/>
+      <c r="G6" s="385"/>
+      <c r="H6" s="385"/>
+      <c r="I6" s="385"/>
+      <c r="J6" s="386"/>
       <c r="K6" s="78" t="s">
         <v>134</v>
       </c>
@@ -16555,12 +16555,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="380" t="s">
+      <c r="K23" s="387" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="380"/>
-      <c r="M23" s="380"/>
-      <c r="N23" s="380"/>
+      <c r="L23" s="387"/>
+      <c r="M23" s="387"/>
+      <c r="N23" s="387"/>
       <c r="O23" s="35" t="s">
         <v>145</v>
       </c>
@@ -16729,7 +16729,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="376" t="s">
+      <c r="I28" s="383" t="s">
         <v>252</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -16779,7 +16779,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="376"/>
+      <c r="I29" s="383"/>
       <c r="J29" s="82" t="s">
         <v>142</v>
       </c>
@@ -16827,7 +16827,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="376"/>
+      <c r="I30" s="383"/>
       <c r="J30" s="82" t="s">
         <v>141</v>
       </c>
@@ -16875,7 +16875,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="376"/>
+      <c r="I31" s="383"/>
       <c r="J31" s="35" t="s">
         <v>139</v>
       </c>
@@ -16937,7 +16937,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="376" t="s">
+      <c r="I33" s="383" t="s">
         <v>140</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16985,7 +16985,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="376"/>
+      <c r="I34" s="383"/>
       <c r="J34" t="s">
         <v>253</v>
       </c>
@@ -17222,12 +17222,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -17235,6 +17229,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17341,22 +17341,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="389" t="s">
+      <c r="E6" s="391" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="389"/>
-      <c r="G6" s="389"/>
-      <c r="H6" s="389"/>
-      <c r="I6" s="389"/>
-      <c r="J6" s="389"/>
-      <c r="K6" s="389"/>
-      <c r="L6" s="389"/>
-      <c r="M6" s="389"/>
-      <c r="N6" s="389"/>
-      <c r="O6" s="389"/>
-      <c r="P6" s="389"/>
-      <c r="Q6" s="389"/>
-      <c r="R6" s="389"/>
+      <c r="F6" s="391"/>
+      <c r="G6" s="391"/>
+      <c r="H6" s="391"/>
+      <c r="I6" s="391"/>
+      <c r="J6" s="391"/>
+      <c r="K6" s="391"/>
+      <c r="L6" s="391"/>
+      <c r="M6" s="391"/>
+      <c r="N6" s="391"/>
+      <c r="O6" s="391"/>
+      <c r="P6" s="391"/>
+      <c r="Q6" s="391"/>
+      <c r="R6" s="391"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="388" t="s">
@@ -18092,21 +18092,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="390" t="s">
+      <c r="H27" s="389" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="390"/>
-      <c r="J27" s="390"/>
-      <c r="K27" s="390"/>
-      <c r="L27" s="390"/>
-      <c r="M27" s="390"/>
-      <c r="N27" s="390"/>
-      <c r="O27" s="390"/>
-      <c r="P27" s="390"/>
-      <c r="Q27" s="390"/>
-      <c r="R27" s="390"/>
-      <c r="S27" s="390"/>
-      <c r="T27" s="390"/>
+      <c r="I27" s="389"/>
+      <c r="J27" s="389"/>
+      <c r="K27" s="389"/>
+      <c r="L27" s="389"/>
+      <c r="M27" s="389"/>
+      <c r="N27" s="389"/>
+      <c r="O27" s="389"/>
+      <c r="P27" s="389"/>
+      <c r="Q27" s="389"/>
+      <c r="R27" s="389"/>
+      <c r="S27" s="389"/>
+      <c r="T27" s="389"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -18422,21 +18422,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="391" t="s">
+      <c r="F37" s="390" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="391"/>
-      <c r="H37" s="391"/>
-      <c r="I37" s="391"/>
-      <c r="J37" s="391"/>
-      <c r="K37" s="391"/>
-      <c r="L37" s="391"/>
-      <c r="M37" s="391"/>
-      <c r="N37" s="391"/>
-      <c r="O37" s="391"/>
-      <c r="P37" s="391"/>
-      <c r="Q37" s="391"/>
-      <c r="R37" s="391"/>
+      <c r="G37" s="390"/>
+      <c r="H37" s="390"/>
+      <c r="I37" s="390"/>
+      <c r="J37" s="390"/>
+      <c r="K37" s="390"/>
+      <c r="L37" s="390"/>
+      <c r="M37" s="390"/>
+      <c r="N37" s="390"/>
+      <c r="O37" s="390"/>
+      <c r="P37" s="390"/>
+      <c r="Q37" s="390"/>
+      <c r="R37" s="390"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -18752,21 +18752,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="390" t="s">
+      <c r="F48" s="389" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="390"/>
-      <c r="H48" s="390"/>
-      <c r="I48" s="390"/>
-      <c r="J48" s="390"/>
-      <c r="K48" s="390"/>
-      <c r="L48" s="390"/>
-      <c r="M48" s="390"/>
-      <c r="N48" s="390"/>
-      <c r="O48" s="390"/>
-      <c r="P48" s="390"/>
-      <c r="Q48" s="390"/>
-      <c r="R48" s="390"/>
+      <c r="G48" s="389"/>
+      <c r="H48" s="389"/>
+      <c r="I48" s="389"/>
+      <c r="J48" s="389"/>
+      <c r="K48" s="389"/>
+      <c r="L48" s="389"/>
+      <c r="M48" s="389"/>
+      <c r="N48" s="389"/>
+      <c r="O48" s="389"/>
+      <c r="P48" s="389"/>
+      <c r="Q48" s="389"/>
+      <c r="R48" s="389"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -19078,6 +19078,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -19086,12 +19092,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22765,7 +22765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9439CCE-42A9-4A07-8071-0CF6958B7C48}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -23068,7 +23068,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23339,11 +23339,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AX73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27098,7 +27098,7 @@
       </c>
       <c r="J61" s="104">
         <f>main!Q54/1000</f>
-        <v>107.41691666666667</v>
+        <v>757.41691666666668</v>
       </c>
       <c r="K61" s="149">
         <f>main!R54/1000</f>
@@ -27371,7 +27371,7 @@
       </c>
       <c r="J64" s="217">
         <f t="shared" si="104"/>
-        <v>-299.1009571770893</v>
+        <v>350.8990428229107</v>
       </c>
       <c r="K64" s="150">
         <f t="shared" si="104"/>
@@ -28289,7 +28289,7 @@
         <v>231.3499254633241</v>
       </c>
       <c r="H7">
-        <v>-299.1009571770893</v>
+        <v>350.8990428229107</v>
       </c>
       <c r="I7">
         <v>63.106744514582999</v>
@@ -32779,7 +32779,7 @@
         <v>946.34373813540742</v>
       </c>
       <c r="H6" s="259">
-        <v>-299.1009571770893</v>
+        <v>350.8990428229107</v>
       </c>
       <c r="I6" s="259">
         <v>63.106744514582999</v>
@@ -34337,15 +34337,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -34562,6 +34553,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
@@ -34580,14 +34580,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34604,4 +34596,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/add_factors.xlsx
+++ b/data/add_factors.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE08EB7-92B2-2740-BB3A-DD8521BF57BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D906FEA-ECB3-DC41-B3CE-8C40C2C0F076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="33600" windowHeight="19720" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="1860" yWindow="760" windowWidth="33600" windowHeight="19720" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="PPP" sheetId="17" r:id="rId2"/>
-    <sheet name="Stimulus Round 2" sheetId="16" r:id="rId3"/>
-    <sheet name="add-ons calculations" sheetId="5" r:id="rId4"/>
-    <sheet name="FIM Add Factors" sheetId="9" r:id="rId5"/>
-    <sheet name="main_nipas" sheetId="10" r:id="rId6"/>
-    <sheet name="add-ons calculations nipas" sheetId="11" r:id="rId7"/>
-    <sheet name="NIPA Add Factors" sheetId="12" r:id="rId8"/>
-    <sheet name="Haver NA" sheetId="14" r:id="rId9"/>
-    <sheet name="ui" sheetId="13" r:id="rId10"/>
-    <sheet name="MPC" sheetId="8" r:id="rId11"/>
-    <sheet name="MPC - round (2)" sheetId="15" r:id="rId12"/>
-    <sheet name="figuring out Medicaid" sheetId="7" r:id="rId13"/>
-    <sheet name="add-ons - Kadija b4" sheetId="6" state="hidden" r:id="rId14"/>
-    <sheet name="figuring out UI" sheetId="4" r:id="rId15"/>
-    <sheet name="figuring NIPA tax changes" sheetId="3" r:id="rId16"/>
-    <sheet name="figuring out social benefits" sheetId="2" r:id="rId17"/>
+    <sheet name="new ui" sheetId="18" r:id="rId2"/>
+    <sheet name="PPP" sheetId="17" r:id="rId3"/>
+    <sheet name="Stimulus Round 2" sheetId="16" r:id="rId4"/>
+    <sheet name="add-ons calculations" sheetId="5" r:id="rId5"/>
+    <sheet name="FIM Add Factors" sheetId="9" r:id="rId6"/>
+    <sheet name="main_nipas" sheetId="10" r:id="rId7"/>
+    <sheet name="add-ons calculations nipas" sheetId="11" r:id="rId8"/>
+    <sheet name="NIPA Add Factors" sheetId="12" r:id="rId9"/>
+    <sheet name="Haver NA" sheetId="14" r:id="rId10"/>
+    <sheet name="ui" sheetId="13" r:id="rId11"/>
+    <sheet name="MPC" sheetId="8" r:id="rId12"/>
+    <sheet name="MPC - round (2)" sheetId="15" r:id="rId13"/>
+    <sheet name="figuring out Medicaid" sheetId="7" r:id="rId14"/>
+    <sheet name="add-ons - Kadija b4" sheetId="6" state="hidden" r:id="rId15"/>
+    <sheet name="figuring out UI" sheetId="4" r:id="rId16"/>
+    <sheet name="figuring NIPA tax changes" sheetId="3" r:id="rId17"/>
+    <sheet name="figuring out social benefits" sheetId="2" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -664,7 +665,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="708">
   <si>
     <t>Corporate Taxes</t>
   </si>
@@ -2933,6 +2934,131 @@
   <si>
     <t xml:space="preserve"> 46000</t>
   </si>
+  <si>
+    <t>ARP Subsidies</t>
+  </si>
+  <si>
+    <t>1. CBO calls of UI Federal, as does NIPA</t>
+  </si>
+  <si>
+    <t>2. Usually, almost all UI comes out of state trust funds, and FIM calls it state</t>
+  </si>
+  <si>
+    <t>3. In recessions, EUC (emergency unemployment compensation) kicks in; fed pays 1/2 also changes in law</t>
+  </si>
+  <si>
+    <t>4. Laws usually change to increase Federal Share of UI during Recessions</t>
+  </si>
+  <si>
+    <t>5. We need to split UI into federal and state</t>
+  </si>
+  <si>
+    <t>Table 1-3. 
+Mandatory Outlays Projected in CBO's Baseline</t>
+  </si>
+  <si>
+    <t>2022-</t>
+  </si>
+  <si>
+    <t>CBO</t>
+  </si>
+  <si>
+    <t>Unemployment compensation (Doesn't Include ARP)</t>
+  </si>
+  <si>
+    <t>ARP (ours)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">??? </t>
+  </si>
+  <si>
+    <t>NIPA Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unemployment insurance</t>
+  </si>
+  <si>
+    <t>Extended Unemployment Benefits</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Pandemic Emergency Unemployment Compensation</t>
+  </si>
+  <si>
+    <t>Pandemic Unemployment Assistance</t>
+  </si>
+  <si>
+    <t>Pandemic Unemployment Compensation Payments</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trump: Lost wages supplemental payments </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>PROJECTION</t>
+  </si>
+  <si>
+    <t>Our Total UI</t>
+  </si>
+  <si>
+    <t>Normal Federal</t>
+  </si>
+  <si>
+    <t>Legislation Federal</t>
+  </si>
+  <si>
+    <t>* Q2: With same UR and same legislation, keep same #s but take some off for states ending extra $</t>
+  </si>
+  <si>
+    <t>Total Federal</t>
+  </si>
+  <si>
+    <t>* Q3 - $ run out sep 6 -- assume 2/3 of the quarter. Plus UR lower, so adjust downward. Alos, take 20 off for states that end it.</t>
+  </si>
+  <si>
+    <t>Total State</t>
+  </si>
+  <si>
+    <t>*Q4 - PUA over.</t>
+  </si>
+  <si>
+    <t>CBO Unemployment Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** compare to CBO with our ARP </t>
+  </si>
+  <si>
+    <t>* take off trump</t>
+  </si>
+  <si>
+    <t>We get</t>
+  </si>
+  <si>
+    <t>About right</t>
+  </si>
+  <si>
+    <t>federal_ui</t>
+  </si>
+  <si>
+    <t>federal_ui_arp</t>
+  </si>
+  <si>
+    <t>state_ui</t>
+  </si>
 </sst>
 </file>
 
@@ -2950,7 +3076,7 @@
     <numFmt numFmtId="171" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3179,8 +3305,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3289,8 +3429,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -3714,8 +3860,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3727,8 +3882,10 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="426">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4340,6 +4497,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4463,15 +4624,93 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 14" xfId="6" xr:uid="{20A556EA-3C2B-456F-BCE0-EA6BE7284776}"/>
+    <cellStyle name="Normal 14 3" xfId="11" xr:uid="{282F9B89-4716-BF49-BEEF-B9F5CD91FCE8}"/>
     <cellStyle name="Normal 2" xfId="9" xr:uid="{9B348D39-219D-422D-AE28-884C1962DBE8}"/>
     <cellStyle name="Normal 2 2" xfId="5" xr:uid="{34635A16-64EE-43B6-9283-92F6862D9874}"/>
     <cellStyle name="Normal 2 3" xfId="3" xr:uid="{D1A6EB91-840E-4034-8263-00365D12B104}"/>
+    <cellStyle name="Normal 2 3 2" xfId="12" xr:uid="{11B7CE03-8D00-784C-B68F-2D0220F50FDE}"/>
     <cellStyle name="Normal 5" xfId="4" xr:uid="{6F641E95-6A68-4E33-875B-2EBC402F3D5A}"/>
     <cellStyle name="Percent" xfId="7" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="8" xr:uid="{0034A050-0C90-4052-BF61-AA0807DBF01F}"/>
@@ -4974,10 +5213,10 @@
   <dimension ref="A1:AQ121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q61" sqref="Q61"/>
+      <selection pane="bottomRight" activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5000,86 +5239,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="355" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="353"/>
+      <c r="B1" s="355"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
         <v>362</v>
       </c>
-      <c r="AC1" s="359" t="s">
+      <c r="AC1" s="361" t="s">
         <v>242</v>
       </c>
-      <c r="AD1" s="359"/>
-      <c r="AE1" s="357" t="s">
+      <c r="AD1" s="361"/>
+      <c r="AE1" s="359" t="s">
         <v>240</v>
       </c>
-      <c r="AF1" s="358"/>
+      <c r="AF1" s="360"/>
       <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="355" t="s">
+      <c r="AI1" s="357" t="s">
         <v>272</v>
       </c>
-      <c r="AJ1" s="355"/>
-      <c r="AK1" s="355"/>
-      <c r="AL1" s="355"/>
-      <c r="AM1" s="354" t="s">
+      <c r="AJ1" s="357"/>
+      <c r="AK1" s="357"/>
+      <c r="AL1" s="357"/>
+      <c r="AM1" s="356" t="s">
         <v>270</v>
       </c>
-      <c r="AN1" s="354"/>
-      <c r="AO1" s="354"/>
-      <c r="AP1" s="354"/>
+      <c r="AN1" s="356"/>
+      <c r="AO1" s="356"/>
+      <c r="AP1" s="356"/>
     </row>
     <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="352" t="s">
+      <c r="F2" s="354" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="352"/>
-      <c r="H2" s="352"/>
-      <c r="I2" s="352"/>
-      <c r="J2" s="352" t="s">
+      <c r="G2" s="354"/>
+      <c r="H2" s="354"/>
+      <c r="I2" s="354"/>
+      <c r="J2" s="354" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="352"/>
-      <c r="L2" s="352"/>
-      <c r="M2" s="352"/>
-      <c r="N2" s="352" t="s">
+      <c r="K2" s="354"/>
+      <c r="L2" s="354"/>
+      <c r="M2" s="354"/>
+      <c r="N2" s="354" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="352"/>
-      <c r="P2" s="352"/>
-      <c r="Q2" s="352"/>
-      <c r="R2" s="352" t="s">
+      <c r="O2" s="354"/>
+      <c r="P2" s="354"/>
+      <c r="Q2" s="354"/>
+      <c r="R2" s="354" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="352"/>
-      <c r="T2" s="352"/>
-      <c r="U2" s="352"/>
-      <c r="V2" s="352" t="s">
+      <c r="S2" s="354"/>
+      <c r="T2" s="354"/>
+      <c r="U2" s="354"/>
+      <c r="V2" s="354" t="s">
         <v>260</v>
       </c>
-      <c r="W2" s="352"/>
-      <c r="X2" s="352"/>
-      <c r="Y2" s="352"/>
+      <c r="W2" s="354"/>
+      <c r="X2" s="354"/>
+      <c r="Y2" s="354"/>
       <c r="Z2" s="221"/>
       <c r="AA2" s="283"/>
       <c r="AB2" s="221"/>
-      <c r="AC2" s="352" t="s">
+      <c r="AC2" s="354" t="s">
         <v>101</v>
       </c>
-      <c r="AD2" s="352"/>
-      <c r="AE2" s="352"/>
-      <c r="AF2" s="352"/>
-      <c r="AG2" s="352"/>
-      <c r="AH2" s="352"/>
-      <c r="AI2" s="352"/>
-      <c r="AJ2" s="352"/>
-      <c r="AK2" s="352"/>
-      <c r="AL2" s="356"/>
+      <c r="AD2" s="354"/>
+      <c r="AE2" s="354"/>
+      <c r="AF2" s="354"/>
+      <c r="AG2" s="354"/>
+      <c r="AH2" s="354"/>
+      <c r="AI2" s="354"/>
+      <c r="AJ2" s="354"/>
+      <c r="AK2" s="354"/>
+      <c r="AL2" s="358"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="F3" s="197" t="s">
@@ -5186,10 +5425,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="351" t="s">
+      <c r="A4" s="353" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="351"/>
+      <c r="B4" s="353"/>
       <c r="C4" s="268"/>
       <c r="D4" s="268"/>
       <c r="F4" s="197"/>
@@ -7227,27 +7466,27 @@
       </c>
       <c r="P34" s="133">
         <f t="shared" ref="P34:U34" si="26">P35+P40+P50</f>
-        <v>2749476.0727414312</v>
+        <v>2669676.0727414307</v>
       </c>
       <c r="Q34" s="133">
         <f t="shared" si="26"/>
-        <v>2651823.3912212253</v>
+        <v>2675644.7174458168</v>
       </c>
       <c r="R34" s="133">
         <f t="shared" si="26"/>
-        <v>2719329.4377647843</v>
+        <v>2739277.3218034385</v>
       </c>
       <c r="S34" s="133">
         <f t="shared" si="26"/>
-        <v>2776596.3725474421</v>
+        <v>2777012.4671825636</v>
       </c>
       <c r="T34" s="133">
         <f t="shared" si="26"/>
-        <v>2835282.6832986092</v>
+        <v>2835194.3460776829</v>
       </c>
       <c r="U34" s="133">
         <f t="shared" si="26"/>
-        <v>2895427.984567659</v>
+        <v>2894400.3604423674</v>
       </c>
       <c r="V34" s="87"/>
       <c r="W34" s="44"/>
@@ -7629,31 +7868,31 @@
       </c>
       <c r="P40" s="87">
         <f t="shared" si="27"/>
-        <v>152000</v>
+        <v>72199.999999999942</v>
       </c>
       <c r="Q40" s="87">
         <f t="shared" si="27"/>
-        <v>44000</v>
+        <v>67821.326224591743</v>
       </c>
       <c r="R40" s="87">
         <f t="shared" si="27"/>
-        <v>44000</v>
+        <v>63947.884038653719</v>
       </c>
       <c r="S40" s="87">
         <f t="shared" si="27"/>
-        <v>44000</v>
+        <v>44416.094635121575</v>
       </c>
       <c r="T40" s="87">
         <f t="shared" si="27"/>
-        <v>44000</v>
+        <v>43911.662779073587</v>
       </c>
       <c r="U40" s="87">
         <f t="shared" si="27"/>
-        <v>44000</v>
+        <v>42972.375874708378</v>
       </c>
       <c r="V40" s="87">
         <f t="shared" si="27"/>
-        <v>44000</v>
+        <v>42259.213595468129</v>
       </c>
       <c r="W40" s="44"/>
       <c r="X40" s="3"/>
@@ -7671,11 +7910,11 @@
       </c>
       <c r="AE40" s="45">
         <f>AVERAGE(N40:Q40)/1000</f>
-        <v>313.08575000000002</v>
+        <v>299.09108155614797</v>
       </c>
       <c r="AF40" s="45">
         <f t="shared" ref="AF40:AF50" si="28">AVERAGE(R40:U40)/1000</f>
-        <v>44</v>
+        <v>48.812004331889312</v>
       </c>
       <c r="AH40">
         <v>27.6</v>
@@ -7773,15 +8012,15 @@
       </c>
       <c r="P42" s="87">
         <f>SUM(P43:P45)</f>
-        <v>108000</v>
+        <v>20000</v>
       </c>
       <c r="Q42" s="87">
         <f t="shared" ref="Q42" si="29">Q43+Q44+Q45</f>
-        <v>0</v>
+        <v>18787.07097634122</v>
       </c>
       <c r="R42" s="87">
         <f t="shared" ref="R42" si="30">R43+R44</f>
-        <v>0</v>
+        <v>17714.095301566143</v>
       </c>
       <c r="S42" s="87"/>
       <c r="T42" s="87"/>
@@ -7834,33 +8073,42 @@
         <v>184000</v>
       </c>
       <c r="P43" s="87">
-        <f>1000*'figuring out UI'!Q17</f>
-        <v>108000</v>
+        <f>'new ui'!H28*1000</f>
+        <v>20000</v>
       </c>
       <c r="Q43" s="87">
-        <f>1000*'figuring out UI'!R17</f>
-        <v>0</v>
+        <f>'new ui'!I28*1000</f>
+        <v>18787.07097634122</v>
       </c>
       <c r="R43" s="87">
-        <f>1000*'figuring out UI'!S17</f>
-        <v>0</v>
+        <f>'new ui'!J28*1000</f>
+        <v>17714.095301566143</v>
       </c>
       <c r="S43" s="87">
-        <f>1000*'figuring out UI'!T17</f>
-        <v>0</v>
+        <f>'new ui'!K28*1000</f>
+        <v>17017.660779740083</v>
       </c>
       <c r="T43" s="87">
-        <f>1000*'figuring out UI'!U17</f>
-        <v>0</v>
+        <f>'new ui'!L28*1000</f>
+        <v>16824.391869376872</v>
       </c>
       <c r="U43" s="87">
-        <f>1000*'figuring out UI'!V17</f>
-        <v>0</v>
-      </c>
-      <c r="V43" s="3"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
+        <f>'new ui'!M28*1000</f>
+        <v>16464.511829390198</v>
+      </c>
+      <c r="V43" s="87">
+        <f>'new ui'!N30*1000</f>
+        <v>16191.269576807726</v>
+      </c>
+      <c r="W43" s="87">
+        <f>'new ui'!O30*1000</f>
+        <v>16151.282905698099</v>
+      </c>
+      <c r="X43" s="87">
+        <f>'new ui'!P30*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="87"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
@@ -7871,11 +8119,11 @@
       </c>
       <c r="AE43" s="45">
         <f>AVERAGE(N43:Q43)/1000</f>
-        <v>139.42500000000001</v>
+        <v>122.1217677440853</v>
       </c>
       <c r="AF43" s="45">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>17.005164945018326</v>
       </c>
       <c r="AG43" s="3"/>
       <c r="AI43" s="3"/>
@@ -7997,36 +8245,42 @@
         <v>60000</v>
       </c>
       <c r="P46" s="87">
-        <f>1000*'figuring out UI'!Q18</f>
-        <v>44000</v>
+        <f>'new ui'!H31*1000</f>
+        <v>52199.999999999935</v>
       </c>
       <c r="Q46" s="87">
-        <f>1000*'figuring out UI'!R18</f>
-        <v>44000</v>
+        <f>'new ui'!I31*1000</f>
+        <v>49034.255248250527</v>
       </c>
       <c r="R46" s="87">
-        <f>1000*'figuring out UI'!S18</f>
-        <v>44000</v>
+        <f>'new ui'!J31*1000</f>
+        <v>46233.788737087576</v>
       </c>
       <c r="S46" s="87">
-        <f>1000*'figuring out UI'!T18</f>
-        <v>44000</v>
+        <f>'new ui'!K31*1000</f>
+        <v>44416.094635121575</v>
       </c>
       <c r="T46" s="87">
-        <f>1000*'figuring out UI'!U18</f>
-        <v>44000</v>
+        <f>'new ui'!L31*1000</f>
+        <v>43911.662779073587</v>
       </c>
       <c r="U46" s="87">
-        <f>1000*'figuring out UI'!V18</f>
-        <v>44000</v>
+        <f>'new ui'!M31*1000</f>
+        <v>42972.375874708378</v>
       </c>
       <c r="V46" s="87">
-        <f>1000*'figuring out UI'!W18</f>
-        <v>44000</v>
-      </c>
-      <c r="W46" s="44"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
+        <f>'new ui'!N31*1000</f>
+        <v>42259.213595468129</v>
+      </c>
+      <c r="W46" s="87">
+        <f>'new ui'!O31*1000</f>
+        <v>42154.848383871991</v>
+      </c>
+      <c r="X46" s="87">
+        <f>'new ui'!P31*1000</f>
+        <v>41519.96001332884</v>
+      </c>
+      <c r="Y46" s="87"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
@@ -8037,11 +8291,11 @@
       </c>
       <c r="AE46" s="45">
         <f>AVERAGE(N46:Q46)/1000</f>
-        <v>46.174999999999997</v>
+        <v>49.483563812062613</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" si="28"/>
-        <v>44</v>
+        <v>44.383480506497776</v>
       </c>
       <c r="AG46" s="3"/>
       <c r="AI46" s="3"/>
@@ -8560,15 +8814,15 @@
       </c>
       <c r="P54" s="144">
         <f t="shared" ref="P54:Z54" si="36">P55+AVERAGE($H$54:$K$54)</f>
-        <v>847383.58333333337</v>
+        <v>813630.25</v>
       </c>
       <c r="Q54" s="144">
         <f t="shared" si="36"/>
-        <v>757416.91666666663</v>
+        <v>813630.25</v>
       </c>
       <c r="R54" s="144">
         <f t="shared" si="36"/>
-        <v>102750.25</v>
+        <v>77330.25</v>
       </c>
       <c r="S54" s="144">
         <f t="shared" si="36"/>
@@ -8583,7 +8837,7 @@
         <v>77330.25</v>
       </c>
       <c r="V54" s="144">
-        <f t="shared" si="36"/>
+        <f>V55+AVERAGE($H$54:$K$54)</f>
         <v>77330.25</v>
       </c>
       <c r="W54" s="144">
@@ -8633,19 +8887,19 @@
       </c>
       <c r="O55" s="299">
         <f>O57+O58+SUM(O63:O66)</f>
-        <v>323820</v>
+        <v>250520</v>
       </c>
       <c r="P55" s="116">
         <f>P57+P58+SUM(P63:P66)</f>
-        <v>772553.33333333337</v>
+        <v>738800</v>
       </c>
       <c r="Q55" s="116">
         <f t="shared" ref="P55:V55" si="38">Q57+Q58+SUM(Q63:Q66)</f>
-        <v>682586.66666666663</v>
+        <v>738800</v>
       </c>
       <c r="R55" s="116">
         <f t="shared" si="38"/>
-        <v>27920</v>
+        <v>2500</v>
       </c>
       <c r="S55" s="116">
         <f t="shared" si="38"/>
@@ -8804,15 +9058,9 @@
       <c r="O58" s="299">
         <v>25420</v>
       </c>
-      <c r="P58" s="116">
-        <v>25420</v>
-      </c>
-      <c r="Q58" s="116">
-        <v>25420</v>
-      </c>
-      <c r="R58" s="116">
-        <v>25420</v>
-      </c>
+      <c r="P58" s="116"/>
+      <c r="Q58" s="116"/>
+      <c r="R58" s="116"/>
       <c r="S58" s="116"/>
       <c r="T58" s="116">
         <f>'[1]Revised Add Factors'!J$14*1000</f>
@@ -8866,10 +9114,7 @@
         <f>VLOOKUP($C$59,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v xml:space="preserve">  100</v>
       </c>
-      <c r="O59" s="309" t="str">
-        <f>VLOOKUP($C$59,'Haver NA'!$A$1:$K$34,11,0)</f>
-        <v>38000</v>
-      </c>
+      <c r="O59" s="309"/>
       <c r="P59" s="254"/>
       <c r="Q59" s="254"/>
       <c r="R59" s="254"/>
@@ -9085,14 +9330,14 @@
         <v>38000</v>
       </c>
       <c r="P64" s="279">
-        <f>'Stimulus Round 2'!$C$12*4/3</f>
-        <v>21333.333333333332</v>
+        <f>('Stimulus Round 2'!$C$12*4-O64)/2</f>
+        <v>13000</v>
       </c>
       <c r="Q64" s="279">
         <f>('Stimulus Round 2'!$C$12*4-SUM(O64:P64))</f>
-        <v>4666.6666666666715</v>
-      </c>
-      <c r="R64" s="279"/>
+        <v>13000</v>
+      </c>
+      <c r="R64" s="396"/>
       <c r="S64" s="279"/>
       <c r="T64" s="279"/>
       <c r="U64" s="279"/>
@@ -9123,13 +9368,13 @@
       <c r="L65" s="202"/>
       <c r="M65" s="301"/>
       <c r="N65" s="308"/>
-      <c r="O65" s="299">
-        <v>73300</v>
-      </c>
+      <c r="O65" s="299"/>
       <c r="P65" s="279">
         <v>73300</v>
       </c>
-      <c r="Q65" s="279"/>
+      <c r="Q65" s="279">
+        <v>73300</v>
+      </c>
       <c r="R65" s="279"/>
       <c r="S65" s="279"/>
       <c r="T65" s="279"/>
@@ -9206,8 +9451,10 @@
       <c r="AG66" s="276"/>
       <c r="AM66" s="280"/>
     </row>
-    <row r="67" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="134"/>
+    <row r="67" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="134" t="s">
+        <v>671</v>
+      </c>
       <c r="F67" s="197"/>
       <c r="G67" s="197"/>
       <c r="H67" s="197"/>
@@ -9218,24 +9465,63 @@
       <c r="M67" s="301"/>
       <c r="N67" s="308"/>
       <c r="O67" s="299"/>
-      <c r="P67" s="116"/>
-      <c r="Q67" s="116"/>
-      <c r="R67" s="116"/>
-      <c r="S67" s="44"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="44"/>
-      <c r="V67" s="44"/>
-      <c r="W67" s="44"/>
-      <c r="X67" s="44"/>
-      <c r="Y67" s="44"/>
-      <c r="Z67" s="44"/>
-      <c r="AA67" s="44"/>
-      <c r="AB67" s="44"/>
-      <c r="AC67" s="44"/>
-      <c r="AD67" s="44"/>
-      <c r="AE67" s="44"/>
-      <c r="AF67" s="44"/>
-      <c r="AG67" s="44"/>
+      <c r="P67">
+        <v>163.68600000000001</v>
+      </c>
+      <c r="Q67">
+        <v>163.68600000000001</v>
+      </c>
+      <c r="R67">
+        <v>110.248</v>
+      </c>
+      <c r="S67">
+        <v>110.248</v>
+      </c>
+      <c r="T67">
+        <v>110.248</v>
+      </c>
+      <c r="U67">
+        <v>110.248</v>
+      </c>
+      <c r="V67">
+        <v>12.726000000000001</v>
+      </c>
+      <c r="W67">
+        <v>12.726000000000001</v>
+      </c>
+      <c r="X67">
+        <v>12.726000000000001</v>
+      </c>
+      <c r="Y67">
+        <v>12.726000000000001</v>
+      </c>
+      <c r="Z67">
+        <v>1.365</v>
+      </c>
+      <c r="AA67">
+        <v>1.365</v>
+      </c>
+      <c r="AB67">
+        <v>1.365</v>
+      </c>
+      <c r="AC67">
+        <v>1.365</v>
+      </c>
+      <c r="AD67">
+        <v>-0.90100000000000002</v>
+      </c>
+      <c r="AE67">
+        <v>-0.90100000000000002</v>
+      </c>
+      <c r="AF67">
+        <v>-0.90100000000000002</v>
+      </c>
+      <c r="AG67">
+        <v>-0.90100000000000002</v>
+      </c>
+      <c r="AH67">
+        <v>-2.15</v>
+      </c>
       <c r="AM67" s="233"/>
     </row>
     <row r="68" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -10950,15 +11236,15 @@
       </c>
       <c r="P94" s="142">
         <f t="shared" si="48"/>
-        <v>1918594.2369875002</v>
+        <v>1830594.2369875002</v>
       </c>
       <c r="Q94" s="142">
         <f t="shared" si="48"/>
-        <v>1729884.7802100941</v>
+        <v>1748671.8511864352</v>
       </c>
       <c r="R94" s="142">
         <f t="shared" si="48"/>
-        <v>1727113.0519132453</v>
+        <v>1744827.1472148115</v>
       </c>
       <c r="S94" s="142">
         <f t="shared" si="48"/>
@@ -11914,11 +12200,11 @@
       </c>
       <c r="W111" s="215">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>42154.848383871991</v>
       </c>
       <c r="X111" s="215">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>41519.96001332884</v>
       </c>
       <c r="Y111" s="215">
         <f t="shared" si="65"/>
@@ -12088,11 +12374,11 @@
       </c>
       <c r="W113" s="142">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>42154.848383871991</v>
       </c>
       <c r="X113" s="142">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>41519.96001332884</v>
       </c>
       <c r="Y113" s="142">
         <f t="shared" si="70"/>
@@ -12319,6 +12605,1053 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCD553-49A9-442A-A3CE-215FCFDE89C7}">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="297" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="350" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="350" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="350" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="350" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="350" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="350" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="350" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="350" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" s="350" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="350" t="s">
+        <v>363</v>
+      </c>
+      <c r="K1" s="350" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J2" t="s">
+        <v>409</v>
+      </c>
+      <c r="K2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G3" t="s">
+        <v>416</v>
+      </c>
+      <c r="H3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H4" t="s">
+        <v>427</v>
+      </c>
+      <c r="I4" t="s">
+        <v>428</v>
+      </c>
+      <c r="J4" t="s">
+        <v>429</v>
+      </c>
+      <c r="K4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G5" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" t="s">
+        <v>437</v>
+      </c>
+      <c r="I5" t="s">
+        <v>438</v>
+      </c>
+      <c r="J5" t="s">
+        <v>439</v>
+      </c>
+      <c r="K5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H6" t="s">
+        <v>447</v>
+      </c>
+      <c r="I6" t="s">
+        <v>448</v>
+      </c>
+      <c r="J6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H7" t="s">
+        <v>457</v>
+      </c>
+      <c r="I7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" t="s">
+        <v>463</v>
+      </c>
+      <c r="E8" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" t="s">
+        <v>465</v>
+      </c>
+      <c r="G8" t="s">
+        <v>466</v>
+      </c>
+      <c r="H8" t="s">
+        <v>467</v>
+      </c>
+      <c r="I8" t="s">
+        <v>468</v>
+      </c>
+      <c r="J8" t="s">
+        <v>469</v>
+      </c>
+      <c r="K8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" t="s">
+        <v>474</v>
+      </c>
+      <c r="F9" t="s">
+        <v>475</v>
+      </c>
+      <c r="G9" t="s">
+        <v>476</v>
+      </c>
+      <c r="H9" t="s">
+        <v>477</v>
+      </c>
+      <c r="I9" t="s">
+        <v>478</v>
+      </c>
+      <c r="J9" t="s">
+        <v>479</v>
+      </c>
+      <c r="K9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" t="s">
+        <v>485</v>
+      </c>
+      <c r="G10" t="s">
+        <v>486</v>
+      </c>
+      <c r="H10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I10" t="s">
+        <v>488</v>
+      </c>
+      <c r="J10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E11" t="s">
+        <v>494</v>
+      </c>
+      <c r="F11" t="s">
+        <v>495</v>
+      </c>
+      <c r="G11" t="s">
+        <v>496</v>
+      </c>
+      <c r="H11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I11" t="s">
+        <v>498</v>
+      </c>
+      <c r="J11" t="s">
+        <v>499</v>
+      </c>
+      <c r="K11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E12" t="s">
+        <v>504</v>
+      </c>
+      <c r="F12" t="s">
+        <v>505</v>
+      </c>
+      <c r="G12" t="s">
+        <v>506</v>
+      </c>
+      <c r="H12" t="s">
+        <v>507</v>
+      </c>
+      <c r="I12" t="s">
+        <v>508</v>
+      </c>
+      <c r="J12" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" t="s">
+        <v>513</v>
+      </c>
+      <c r="E13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F13" t="s">
+        <v>515</v>
+      </c>
+      <c r="G13" t="s">
+        <v>516</v>
+      </c>
+      <c r="H13" t="s">
+        <v>517</v>
+      </c>
+      <c r="I13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J13" t="s">
+        <v>519</v>
+      </c>
+      <c r="K13" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" t="s">
+        <v>522</v>
+      </c>
+      <c r="D14" t="s">
+        <v>523</v>
+      </c>
+      <c r="E14" t="s">
+        <v>524</v>
+      </c>
+      <c r="F14" t="s">
+        <v>525</v>
+      </c>
+      <c r="G14" t="s">
+        <v>526</v>
+      </c>
+      <c r="H14" t="s">
+        <v>527</v>
+      </c>
+      <c r="I14" t="s">
+        <v>528</v>
+      </c>
+      <c r="J14" t="s">
+        <v>529</v>
+      </c>
+      <c r="K14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H15" t="s">
+        <v>531</v>
+      </c>
+      <c r="I15" t="s">
+        <v>532</v>
+      </c>
+      <c r="J15" t="s">
+        <v>533</v>
+      </c>
+      <c r="K15" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" t="s">
+        <v>535</v>
+      </c>
+      <c r="C16" t="s">
+        <v>536</v>
+      </c>
+      <c r="D16" t="s">
+        <v>537</v>
+      </c>
+      <c r="E16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F16" t="s">
+        <v>539</v>
+      </c>
+      <c r="G16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H16" t="s">
+        <v>541</v>
+      </c>
+      <c r="I16" t="s">
+        <v>542</v>
+      </c>
+      <c r="J16" t="s">
+        <v>543</v>
+      </c>
+      <c r="K16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" t="s">
+        <v>545</v>
+      </c>
+      <c r="I17" t="s">
+        <v>546</v>
+      </c>
+      <c r="J17" t="s">
+        <v>547</v>
+      </c>
+      <c r="K17" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" t="s">
+        <v>548</v>
+      </c>
+      <c r="I18" t="s">
+        <v>549</v>
+      </c>
+      <c r="J18" t="s">
+        <v>550</v>
+      </c>
+      <c r="K18" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" t="s">
+        <v>552</v>
+      </c>
+      <c r="C19" t="s">
+        <v>553</v>
+      </c>
+      <c r="D19" t="s">
+        <v>554</v>
+      </c>
+      <c r="E19" t="s">
+        <v>555</v>
+      </c>
+      <c r="F19" t="s">
+        <v>556</v>
+      </c>
+      <c r="G19" t="s">
+        <v>557</v>
+      </c>
+      <c r="H19" t="s">
+        <v>558</v>
+      </c>
+      <c r="I19" t="s">
+        <v>559</v>
+      </c>
+      <c r="J19" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>299</v>
+      </c>
+      <c r="H20" t="s">
+        <v>562</v>
+      </c>
+      <c r="I20" t="s">
+        <v>563</v>
+      </c>
+      <c r="J20" t="s">
+        <v>564</v>
+      </c>
+      <c r="K20" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>300</v>
+      </c>
+      <c r="H21" t="s">
+        <v>566</v>
+      </c>
+      <c r="I21" t="s">
+        <v>567</v>
+      </c>
+      <c r="J21" t="s">
+        <v>568</v>
+      </c>
+      <c r="K21" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H22" t="s">
+        <v>570</v>
+      </c>
+      <c r="I22" t="s">
+        <v>570</v>
+      </c>
+      <c r="J22" t="s">
+        <v>570</v>
+      </c>
+      <c r="K22" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>302</v>
+      </c>
+      <c r="H23" t="s">
+        <v>571</v>
+      </c>
+      <c r="I23" t="s">
+        <v>571</v>
+      </c>
+      <c r="J23" t="s">
+        <v>571</v>
+      </c>
+      <c r="K23" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C24" t="s">
+        <v>574</v>
+      </c>
+      <c r="D24" t="s">
+        <v>575</v>
+      </c>
+      <c r="E24" t="s">
+        <v>576</v>
+      </c>
+      <c r="F24" t="s">
+        <v>577</v>
+      </c>
+      <c r="G24" t="s">
+        <v>578</v>
+      </c>
+      <c r="H24" t="s">
+        <v>579</v>
+      </c>
+      <c r="I24" t="s">
+        <v>580</v>
+      </c>
+      <c r="J24" t="s">
+        <v>581</v>
+      </c>
+      <c r="K24" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" t="s">
+        <v>583</v>
+      </c>
+      <c r="C25" t="s">
+        <v>584</v>
+      </c>
+      <c r="D25" t="s">
+        <v>585</v>
+      </c>
+      <c r="E25" t="s">
+        <v>586</v>
+      </c>
+      <c r="F25" t="s">
+        <v>587</v>
+      </c>
+      <c r="G25" t="s">
+        <v>588</v>
+      </c>
+      <c r="H25" t="s">
+        <v>589</v>
+      </c>
+      <c r="I25" t="s">
+        <v>590</v>
+      </c>
+      <c r="J25" t="s">
+        <v>591</v>
+      </c>
+      <c r="K25" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>593</v>
+      </c>
+      <c r="C26" t="s">
+        <v>594</v>
+      </c>
+      <c r="D26" t="s">
+        <v>595</v>
+      </c>
+      <c r="E26" t="s">
+        <v>596</v>
+      </c>
+      <c r="F26" t="s">
+        <v>597</v>
+      </c>
+      <c r="G26" t="s">
+        <v>598</v>
+      </c>
+      <c r="H26" t="s">
+        <v>599</v>
+      </c>
+      <c r="I26" t="s">
+        <v>600</v>
+      </c>
+      <c r="J26" t="s">
+        <v>601</v>
+      </c>
+      <c r="K26" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27" t="s">
+        <v>603</v>
+      </c>
+      <c r="C27" t="s">
+        <v>604</v>
+      </c>
+      <c r="D27" t="s">
+        <v>605</v>
+      </c>
+      <c r="E27" t="s">
+        <v>606</v>
+      </c>
+      <c r="F27" t="s">
+        <v>607</v>
+      </c>
+      <c r="G27" t="s">
+        <v>608</v>
+      </c>
+      <c r="H27" t="s">
+        <v>609</v>
+      </c>
+      <c r="I27" t="s">
+        <v>610</v>
+      </c>
+      <c r="J27" t="s">
+        <v>611</v>
+      </c>
+      <c r="K27" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28" t="s">
+        <v>613</v>
+      </c>
+      <c r="C28" t="s">
+        <v>614</v>
+      </c>
+      <c r="D28" t="s">
+        <v>615</v>
+      </c>
+      <c r="E28" t="s">
+        <v>616</v>
+      </c>
+      <c r="F28" t="s">
+        <v>617</v>
+      </c>
+      <c r="G28" t="s">
+        <v>618</v>
+      </c>
+      <c r="H28" t="s">
+        <v>619</v>
+      </c>
+      <c r="I28" t="s">
+        <v>620</v>
+      </c>
+      <c r="J28" t="s">
+        <v>621</v>
+      </c>
+      <c r="K28" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29" t="s">
+        <v>623</v>
+      </c>
+      <c r="C29" t="s">
+        <v>624</v>
+      </c>
+      <c r="D29" t="s">
+        <v>625</v>
+      </c>
+      <c r="E29" t="s">
+        <v>626</v>
+      </c>
+      <c r="F29" t="s">
+        <v>627</v>
+      </c>
+      <c r="G29" t="s">
+        <v>628</v>
+      </c>
+      <c r="H29" t="s">
+        <v>629</v>
+      </c>
+      <c r="I29" t="s">
+        <v>630</v>
+      </c>
+      <c r="J29" t="s">
+        <v>631</v>
+      </c>
+      <c r="K29" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30" t="s">
+        <v>633</v>
+      </c>
+      <c r="C30" t="s">
+        <v>634</v>
+      </c>
+      <c r="D30" t="s">
+        <v>635</v>
+      </c>
+      <c r="E30" t="s">
+        <v>636</v>
+      </c>
+      <c r="F30" t="s">
+        <v>637</v>
+      </c>
+      <c r="G30" t="s">
+        <v>638</v>
+      </c>
+      <c r="H30" t="s">
+        <v>639</v>
+      </c>
+      <c r="I30" t="s">
+        <v>640</v>
+      </c>
+      <c r="J30" t="s">
+        <v>641</v>
+      </c>
+      <c r="K30" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31" t="s">
+        <v>643</v>
+      </c>
+      <c r="C31" t="s">
+        <v>644</v>
+      </c>
+      <c r="D31" t="s">
+        <v>645</v>
+      </c>
+      <c r="E31" t="s">
+        <v>646</v>
+      </c>
+      <c r="F31" t="s">
+        <v>647</v>
+      </c>
+      <c r="G31" t="s">
+        <v>648</v>
+      </c>
+      <c r="H31" t="s">
+        <v>649</v>
+      </c>
+      <c r="I31" t="s">
+        <v>650</v>
+      </c>
+      <c r="J31" t="s">
+        <v>651</v>
+      </c>
+      <c r="K31" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" t="s">
+        <v>653</v>
+      </c>
+      <c r="C32" t="s">
+        <v>654</v>
+      </c>
+      <c r="D32" t="s">
+        <v>655</v>
+      </c>
+      <c r="E32" t="s">
+        <v>656</v>
+      </c>
+      <c r="F32" t="s">
+        <v>657</v>
+      </c>
+      <c r="G32" t="s">
+        <v>658</v>
+      </c>
+      <c r="H32" t="s">
+        <v>659</v>
+      </c>
+      <c r="I32" t="s">
+        <v>660</v>
+      </c>
+      <c r="J32" t="s">
+        <v>661</v>
+      </c>
+      <c r="K32" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>324</v>
+      </c>
+      <c r="H33" t="s">
+        <v>663</v>
+      </c>
+      <c r="I33" t="s">
+        <v>664</v>
+      </c>
+      <c r="J33" t="s">
+        <v>665</v>
+      </c>
+      <c r="K33" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>304</v>
+      </c>
+      <c r="H34" t="s">
+        <v>667</v>
+      </c>
+      <c r="I34" t="s">
+        <v>668</v>
+      </c>
+      <c r="J34" t="s">
+        <v>669</v>
+      </c>
+      <c r="K34" t="s">
+        <v>670</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="33" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE6A138-E000-4F43-8051-048875C71ACF}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -12413,7 +13746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59415D66-99E1-48A7-908E-6DD000577D4F}">
   <dimension ref="A2:P28"/>
   <sheetViews>
@@ -13038,7 +14371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1770F9-06FB-4DC0-BB6E-D3D452EF4E7C}">
   <dimension ref="A2:P28"/>
   <sheetViews>
@@ -13663,7 +14996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87327C4-CC87-4828-867B-1480BE7C2A8D}">
   <dimension ref="A1:S19"/>
   <sheetViews>
@@ -13694,50 +15027,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="369" t="s">
+      <c r="A5" s="371" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="370"/>
-      <c r="C5" s="370"/>
-      <c r="D5" s="370"/>
-      <c r="E5" s="370"/>
-      <c r="F5" s="370"/>
-      <c r="G5" s="370"/>
-      <c r="H5" s="370"/>
-      <c r="I5" s="370"/>
-      <c r="J5" s="370"/>
-      <c r="K5" s="370"/>
-      <c r="L5" s="370"/>
-      <c r="M5" s="370"/>
-      <c r="N5" s="370"/>
-      <c r="O5" s="370"/>
-      <c r="P5" s="370"/>
-      <c r="Q5" s="370"/>
-      <c r="R5" s="370"/>
-      <c r="S5" s="370"/>
+      <c r="B5" s="372"/>
+      <c r="C5" s="372"/>
+      <c r="D5" s="372"/>
+      <c r="E5" s="372"/>
+      <c r="F5" s="372"/>
+      <c r="G5" s="372"/>
+      <c r="H5" s="372"/>
+      <c r="I5" s="372"/>
+      <c r="J5" s="372"/>
+      <c r="K5" s="372"/>
+      <c r="L5" s="372"/>
+      <c r="M5" s="372"/>
+      <c r="N5" s="372"/>
+      <c r="O5" s="372"/>
+      <c r="P5" s="372"/>
+      <c r="Q5" s="372"/>
+      <c r="R5" s="372"/>
+      <c r="S5" s="372"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="371" t="s">
+      <c r="A6" s="373" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="371"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
-      <c r="G6" s="371"/>
-      <c r="H6" s="371"/>
-      <c r="I6" s="371"/>
-      <c r="J6" s="371"/>
-      <c r="K6" s="371"/>
-      <c r="L6" s="371"/>
-      <c r="M6" s="371"/>
-      <c r="N6" s="371"/>
-      <c r="O6" s="371"/>
-      <c r="P6" s="371"/>
-      <c r="Q6" s="371"/>
-      <c r="R6" s="371"/>
-      <c r="S6" s="371"/>
+      <c r="B6" s="373"/>
+      <c r="C6" s="373"/>
+      <c r="D6" s="373"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="373"/>
+      <c r="I6" s="373"/>
+      <c r="J6" s="373"/>
+      <c r="K6" s="373"/>
+      <c r="L6" s="373"/>
+      <c r="M6" s="373"/>
+      <c r="N6" s="373"/>
+      <c r="O6" s="373"/>
+      <c r="P6" s="373"/>
+      <c r="Q6" s="373"/>
+      <c r="R6" s="373"/>
+      <c r="S6" s="373"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -13778,8 +15111,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="372"/>
-      <c r="S8" s="373"/>
+      <c r="R8" s="374"/>
+      <c r="S8" s="375"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="130"/>
@@ -14032,7 +15365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446ECC41-09B2-4226-9DFF-DDF76E08500C}">
   <dimension ref="A1:AF82"/>
   <sheetViews>
@@ -14051,10 +15384,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="355" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="353"/>
+      <c r="B1" s="355"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -14062,18 +15395,18 @@
       <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="374" t="s">
+      <c r="Z1" s="376" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="374"/>
-      <c r="AB1" s="374"/>
-      <c r="AC1" s="352"/>
-      <c r="AD1" s="352"/>
-      <c r="AE1" s="352"/>
-      <c r="AF1" s="352"/>
+      <c r="AA1" s="376"/>
+      <c r="AB1" s="376"/>
+      <c r="AC1" s="354"/>
+      <c r="AD1" s="354"/>
+      <c r="AE1" s="354"/>
+      <c r="AF1" s="354"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="375" t="s">
+      <c r="A2" s="377" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="107"/>
@@ -14082,45 +15415,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="375"/>
+      <c r="A3" s="377"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="375"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="375"/>
+      <c r="A5" s="377"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C7" s="365" t="s">
+      <c r="C7" s="367" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="366"/>
-      <c r="E7" s="366"/>
-      <c r="F7" s="367"/>
-      <c r="G7" s="365" t="s">
+      <c r="D7" s="368"/>
+      <c r="E7" s="368"/>
+      <c r="F7" s="369"/>
+      <c r="G7" s="367" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="366"/>
-      <c r="I7" s="366"/>
-      <c r="J7" s="367"/>
-      <c r="K7" s="365" t="s">
+      <c r="H7" s="368"/>
+      <c r="I7" s="368"/>
+      <c r="J7" s="369"/>
+      <c r="K7" s="367" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="366"/>
-      <c r="M7" s="366"/>
-      <c r="N7" s="367"/>
+      <c r="L7" s="368"/>
+      <c r="M7" s="368"/>
+      <c r="N7" s="369"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -15642,15 +16975,15 @@
       </c>
       <c r="I70" s="102">
         <f>main!P54/1000</f>
-        <v>847.38358333333338</v>
+        <v>813.63025000000005</v>
       </c>
       <c r="J70" s="102">
         <f>main!Q54/1000</f>
-        <v>757.41691666666668</v>
+        <v>813.63025000000005</v>
       </c>
       <c r="K70" s="102">
         <f>main!R54/1000</f>
-        <v>102.75024999999999</v>
+        <v>77.330250000000007</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -15710,15 +17043,15 @@
       </c>
       <c r="I72" s="103">
         <f t="shared" si="23"/>
-        <v>-253.66952490565666</v>
+        <v>-287.42285823898999</v>
       </c>
       <c r="J72" s="103">
         <f t="shared" si="23"/>
-        <v>-347.91791393977326</v>
+        <v>-291.70458060643989</v>
       </c>
       <c r="K72" s="103">
         <f t="shared" si="23"/>
-        <v>-1007.2000171346299</v>
+        <v>-1032.62001713463</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -15980,7 +17313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
   <dimension ref="A1:X50"/>
   <sheetViews>
@@ -16002,88 +17335,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="376" t="s">
+      <c r="A2" s="378" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="376"/>
-      <c r="C2" s="376"/>
-      <c r="D2" s="376"/>
-      <c r="E2" s="376"/>
-      <c r="F2" s="376"/>
-      <c r="G2" s="376"/>
-      <c r="H2" s="376"/>
-      <c r="I2" s="376"/>
-      <c r="J2" s="376"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
+      <c r="H2" s="378"/>
+      <c r="I2" s="378"/>
+      <c r="J2" s="378"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="376" t="s">
+      <c r="A3" s="378" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="376"/>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
-      <c r="H3" s="376"/>
-      <c r="I3" s="376"/>
-      <c r="J3" s="376"/>
+      <c r="B3" s="378"/>
+      <c r="C3" s="378"/>
+      <c r="D3" s="378"/>
+      <c r="E3" s="378"/>
+      <c r="F3" s="378"/>
+      <c r="G3" s="378"/>
+      <c r="H3" s="378"/>
+      <c r="I3" s="378"/>
+      <c r="J3" s="378"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="377"/>
-      <c r="B4" s="377"/>
-      <c r="C4" s="377"/>
-      <c r="D4" s="377"/>
-      <c r="E4" s="377"/>
-      <c r="F4" s="377"/>
-      <c r="G4" s="377"/>
-      <c r="H4" s="377"/>
-      <c r="I4" s="377"/>
-      <c r="J4" s="377"/>
-      <c r="K4" s="382" t="s">
+      <c r="A4" s="379"/>
+      <c r="B4" s="379"/>
+      <c r="C4" s="379"/>
+      <c r="D4" s="379"/>
+      <c r="E4" s="379"/>
+      <c r="F4" s="379"/>
+      <c r="G4" s="379"/>
+      <c r="H4" s="379"/>
+      <c r="I4" s="379"/>
+      <c r="J4" s="379"/>
+      <c r="K4" s="384" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="382"/>
-      <c r="M4" s="382"/>
-      <c r="N4" s="382"/>
+      <c r="L4" s="384"/>
+      <c r="M4" s="384"/>
+      <c r="N4" s="384"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="378" t="s">
+      <c r="C5" s="380" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="379"/>
-      <c r="E5" s="379"/>
-      <c r="F5" s="379"/>
-      <c r="G5" s="379"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="379"/>
-      <c r="J5" s="380"/>
+      <c r="D5" s="381"/>
+      <c r="E5" s="381"/>
+      <c r="F5" s="381"/>
+      <c r="G5" s="381"/>
+      <c r="H5" s="381"/>
+      <c r="I5" s="381"/>
+      <c r="J5" s="382"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="381" t="s">
+      <c r="L5" s="383" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="352"/>
-      <c r="N5" s="352"/>
+      <c r="M5" s="354"/>
+      <c r="N5" s="354"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="384">
+      <c r="C6" s="386">
         <v>2020</v>
       </c>
-      <c r="D6" s="385"/>
-      <c r="E6" s="385"/>
-      <c r="F6" s="385"/>
-      <c r="G6" s="385"/>
-      <c r="H6" s="385"/>
-      <c r="I6" s="385"/>
-      <c r="J6" s="386"/>
+      <c r="D6" s="387"/>
+      <c r="E6" s="387"/>
+      <c r="F6" s="387"/>
+      <c r="G6" s="387"/>
+      <c r="H6" s="387"/>
+      <c r="I6" s="387"/>
+      <c r="J6" s="388"/>
       <c r="K6" s="78" t="s">
         <v>134</v>
       </c>
@@ -16521,24 +17854,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="352" t="s">
+      <c r="K22" s="354" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="352"/>
-      <c r="M22" s="352"/>
-      <c r="N22" s="352"/>
-      <c r="O22" s="352" t="s">
+      <c r="L22" s="354"/>
+      <c r="M22" s="354"/>
+      <c r="N22" s="354"/>
+      <c r="O22" s="354" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="352"/>
-      <c r="Q22" s="352"/>
-      <c r="R22" s="352"/>
-      <c r="S22" s="352" t="s">
+      <c r="P22" s="354"/>
+      <c r="Q22" s="354"/>
+      <c r="R22" s="354"/>
+      <c r="S22" s="354" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="352"/>
-      <c r="U22" s="352"/>
-      <c r="V22" s="352"/>
+      <c r="T22" s="354"/>
+      <c r="U22" s="354"/>
+      <c r="V22" s="354"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="67"/>
@@ -16555,12 +17888,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="387" t="s">
+      <c r="K23" s="389" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="387"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="387"/>
+      <c r="L23" s="389"/>
+      <c r="M23" s="389"/>
+      <c r="N23" s="389"/>
       <c r="O23" s="35" t="s">
         <v>145</v>
       </c>
@@ -16729,7 +18062,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="383" t="s">
+      <c r="I28" s="385" t="s">
         <v>252</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -16779,7 +18112,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="383"/>
+      <c r="I29" s="385"/>
       <c r="J29" s="82" t="s">
         <v>142</v>
       </c>
@@ -16827,7 +18160,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="383"/>
+      <c r="I30" s="385"/>
       <c r="J30" s="82" t="s">
         <v>141</v>
       </c>
@@ -16875,7 +18208,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="383"/>
+      <c r="I31" s="385"/>
       <c r="J31" s="35" t="s">
         <v>139</v>
       </c>
@@ -16937,7 +18270,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="383" t="s">
+      <c r="I33" s="385" t="s">
         <v>140</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16985,7 +18318,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="383"/>
+      <c r="I34" s="385"/>
       <c r="J34" t="s">
         <v>253</v>
       </c>
@@ -17240,7 +18573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29A2277-50A8-4EC7-9AFE-96BB2900F5B9}">
   <dimension ref="A1:T55"/>
   <sheetViews>
@@ -17341,30 +18674,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="391" t="s">
+      <c r="E6" s="393" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="391"/>
-      <c r="G6" s="391"/>
-      <c r="H6" s="391"/>
-      <c r="I6" s="391"/>
-      <c r="J6" s="391"/>
-      <c r="K6" s="391"/>
-      <c r="L6" s="391"/>
-      <c r="M6" s="391"/>
-      <c r="N6" s="391"/>
-      <c r="O6" s="391"/>
-      <c r="P6" s="391"/>
-      <c r="Q6" s="391"/>
-      <c r="R6" s="391"/>
+      <c r="F6" s="393"/>
+      <c r="G6" s="393"/>
+      <c r="H6" s="393"/>
+      <c r="I6" s="393"/>
+      <c r="J6" s="393"/>
+      <c r="K6" s="393"/>
+      <c r="L6" s="393"/>
+      <c r="M6" s="393"/>
+      <c r="N6" s="393"/>
+      <c r="O6" s="393"/>
+      <c r="P6" s="393"/>
+      <c r="Q6" s="393"/>
+      <c r="R6" s="393"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="388" t="s">
+      <c r="A7" s="390" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="388"/>
-      <c r="C7" s="388"/>
-      <c r="D7" s="388"/>
+      <c r="B7" s="390"/>
+      <c r="C7" s="390"/>
+      <c r="D7" s="390"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -17382,11 +18715,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
-      <c r="B8" s="388" t="s">
+      <c r="B8" s="390" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="388"/>
-      <c r="D8" s="388"/>
+      <c r="C8" s="390"/>
+      <c r="D8" s="390"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -17432,11 +18765,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
-      <c r="B9" s="388" t="s">
+      <c r="B9" s="390" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
+      <c r="C9" s="390"/>
+      <c r="D9" s="390"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -17482,11 +18815,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
-      <c r="B10" s="388" t="s">
+      <c r="B10" s="390" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
+      <c r="C10" s="390"/>
+      <c r="D10" s="390"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -17532,11 +18865,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
-      <c r="B11" s="388" t="s">
+      <c r="B11" s="390" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="388"/>
-      <c r="D11" s="388"/>
+      <c r="C11" s="390"/>
+      <c r="D11" s="390"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -17631,10 +18964,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="388" t="s">
+      <c r="C13" s="390" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="388"/>
+      <c r="D13" s="390"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -17785,11 +19118,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
-      <c r="B19" s="388" t="s">
+      <c r="B19" s="390" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="388"/>
-      <c r="D19" s="388"/>
+      <c r="C19" s="390"/>
+      <c r="D19" s="390"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -17848,11 +19181,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
-      <c r="B20" s="388" t="s">
+      <c r="B20" s="390" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="388"/>
-      <c r="D20" s="388"/>
+      <c r="C20" s="390"/>
+      <c r="D20" s="390"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -17912,11 +19245,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
-      <c r="B21" s="388" t="s">
+      <c r="B21" s="390" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="388"/>
-      <c r="D21" s="388"/>
+      <c r="C21" s="390"/>
+      <c r="D21" s="390"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -17975,11 +19308,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
-      <c r="B22" s="388" t="s">
+      <c r="B22" s="390" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="388"/>
-      <c r="D22" s="388"/>
+      <c r="C22" s="390"/>
+      <c r="D22" s="390"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -18092,21 +19425,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="389" t="s">
+      <c r="H27" s="391" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="389"/>
-      <c r="J27" s="389"/>
-      <c r="K27" s="389"/>
-      <c r="L27" s="389"/>
-      <c r="M27" s="389"/>
-      <c r="N27" s="389"/>
-      <c r="O27" s="389"/>
-      <c r="P27" s="389"/>
-      <c r="Q27" s="389"/>
-      <c r="R27" s="389"/>
-      <c r="S27" s="389"/>
-      <c r="T27" s="389"/>
+      <c r="I27" s="391"/>
+      <c r="J27" s="391"/>
+      <c r="K27" s="391"/>
+      <c r="L27" s="391"/>
+      <c r="M27" s="391"/>
+      <c r="N27" s="391"/>
+      <c r="O27" s="391"/>
+      <c r="P27" s="391"/>
+      <c r="Q27" s="391"/>
+      <c r="R27" s="391"/>
+      <c r="S27" s="391"/>
+      <c r="T27" s="391"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -18422,21 +19755,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="390" t="s">
+      <c r="F37" s="392" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="390"/>
-      <c r="H37" s="390"/>
-      <c r="I37" s="390"/>
-      <c r="J37" s="390"/>
-      <c r="K37" s="390"/>
-      <c r="L37" s="390"/>
-      <c r="M37" s="390"/>
-      <c r="N37" s="390"/>
-      <c r="O37" s="390"/>
-      <c r="P37" s="390"/>
-      <c r="Q37" s="390"/>
-      <c r="R37" s="390"/>
+      <c r="G37" s="392"/>
+      <c r="H37" s="392"/>
+      <c r="I37" s="392"/>
+      <c r="J37" s="392"/>
+      <c r="K37" s="392"/>
+      <c r="L37" s="392"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
+      <c r="O37" s="392"/>
+      <c r="P37" s="392"/>
+      <c r="Q37" s="392"/>
+      <c r="R37" s="392"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -18752,21 +20085,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="389" t="s">
+      <c r="F48" s="391" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="389"/>
-      <c r="H48" s="389"/>
-      <c r="I48" s="389"/>
-      <c r="J48" s="389"/>
-      <c r="K48" s="389"/>
-      <c r="L48" s="389"/>
-      <c r="M48" s="389"/>
-      <c r="N48" s="389"/>
-      <c r="O48" s="389"/>
-      <c r="P48" s="389"/>
-      <c r="Q48" s="389"/>
-      <c r="R48" s="389"/>
+      <c r="G48" s="391"/>
+      <c r="H48" s="391"/>
+      <c r="I48" s="391"/>
+      <c r="J48" s="391"/>
+      <c r="K48" s="391"/>
+      <c r="L48" s="391"/>
+      <c r="M48" s="391"/>
+      <c r="N48" s="391"/>
+      <c r="O48" s="391"/>
+      <c r="P48" s="391"/>
+      <c r="Q48" s="391"/>
+      <c r="R48" s="391"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -19097,7 +20430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010B404F-448D-4E36-A88E-C07F48F0DCD8}">
   <dimension ref="A1:X91"/>
   <sheetViews>
@@ -19130,50 +20463,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="369" t="s">
+      <c r="A5" s="371" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="370"/>
-      <c r="C5" s="370"/>
-      <c r="D5" s="370"/>
-      <c r="E5" s="370"/>
-      <c r="F5" s="370"/>
-      <c r="G5" s="370"/>
-      <c r="H5" s="370"/>
-      <c r="I5" s="370"/>
-      <c r="J5" s="370"/>
-      <c r="K5" s="370"/>
-      <c r="L5" s="370"/>
-      <c r="M5" s="370"/>
-      <c r="N5" s="370"/>
-      <c r="O5" s="370"/>
-      <c r="P5" s="370"/>
-      <c r="Q5" s="370"/>
-      <c r="R5" s="370"/>
-      <c r="S5" s="370"/>
+      <c r="B5" s="372"/>
+      <c r="C5" s="372"/>
+      <c r="D5" s="372"/>
+      <c r="E5" s="372"/>
+      <c r="F5" s="372"/>
+      <c r="G5" s="372"/>
+      <c r="H5" s="372"/>
+      <c r="I5" s="372"/>
+      <c r="J5" s="372"/>
+      <c r="K5" s="372"/>
+      <c r="L5" s="372"/>
+      <c r="M5" s="372"/>
+      <c r="N5" s="372"/>
+      <c r="O5" s="372"/>
+      <c r="P5" s="372"/>
+      <c r="Q5" s="372"/>
+      <c r="R5" s="372"/>
+      <c r="S5" s="372"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="371" t="s">
+      <c r="A6" s="373" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="371"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
-      <c r="G6" s="371"/>
-      <c r="H6" s="371"/>
-      <c r="I6" s="371"/>
-      <c r="J6" s="371"/>
-      <c r="K6" s="371"/>
-      <c r="L6" s="371"/>
-      <c r="M6" s="371"/>
-      <c r="N6" s="371"/>
-      <c r="O6" s="371"/>
-      <c r="P6" s="371"/>
-      <c r="Q6" s="371"/>
-      <c r="R6" s="371"/>
-      <c r="S6" s="371"/>
+      <c r="B6" s="373"/>
+      <c r="C6" s="373"/>
+      <c r="D6" s="373"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="373"/>
+      <c r="I6" s="373"/>
+      <c r="J6" s="373"/>
+      <c r="K6" s="373"/>
+      <c r="L6" s="373"/>
+      <c r="M6" s="373"/>
+      <c r="N6" s="373"/>
+      <c r="O6" s="373"/>
+      <c r="P6" s="373"/>
+      <c r="Q6" s="373"/>
+      <c r="R6" s="373"/>
+      <c r="S6" s="373"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -19213,10 +20546,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="372" t="s">
+      <c r="R8" s="374" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="373"/>
+      <c r="S8" s="375"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
@@ -22087,10 +23420,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="392" t="s">
+      <c r="D75" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="393"/>
+      <c r="E75" s="395"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -22762,6 +24095,1201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1080C27-49DC-3443-9865-714EC3B80B84}">
+  <dimension ref="A1:Z46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="22" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="397" t="s">
+        <v>677</v>
+      </c>
+      <c r="B6" s="397"/>
+      <c r="C6" s="397"/>
+      <c r="D6" s="397"/>
+      <c r="E6" s="397"/>
+      <c r="F6" s="397"/>
+      <c r="G6" s="397"/>
+      <c r="H6" s="397"/>
+      <c r="I6" s="397"/>
+      <c r="J6" s="397"/>
+      <c r="K6" s="397"/>
+      <c r="L6" s="397"/>
+      <c r="M6" s="397"/>
+      <c r="N6" s="352"/>
+      <c r="O6" s="352"/>
+    </row>
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="398" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="399"/>
+      <c r="C7" s="399"/>
+      <c r="D7" s="399"/>
+      <c r="E7" s="400"/>
+      <c r="F7" s="400"/>
+      <c r="G7" s="400"/>
+      <c r="H7" s="400"/>
+      <c r="I7" s="400"/>
+      <c r="J7" s="400"/>
+      <c r="K7" s="400"/>
+      <c r="L7" s="400"/>
+      <c r="M7" s="400"/>
+      <c r="N7" s="400"/>
+      <c r="O7" s="400"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="401"/>
+      <c r="B8" s="402"/>
+      <c r="C8" s="402"/>
+      <c r="D8" s="402"/>
+      <c r="E8" s="403"/>
+      <c r="F8" s="403"/>
+      <c r="G8" s="403"/>
+      <c r="H8" s="403"/>
+      <c r="I8" s="403"/>
+      <c r="J8" s="403"/>
+      <c r="K8" s="403"/>
+      <c r="L8" s="403"/>
+      <c r="M8" s="403"/>
+      <c r="N8" s="403"/>
+      <c r="O8" s="403"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="401"/>
+      <c r="B9" s="402"/>
+      <c r="C9" s="402"/>
+      <c r="D9" s="402"/>
+      <c r="E9" s="403"/>
+      <c r="F9" s="403"/>
+      <c r="G9" s="403"/>
+      <c r="H9" s="403"/>
+      <c r="I9" s="403"/>
+      <c r="J9" s="403"/>
+      <c r="K9" s="403"/>
+      <c r="L9" s="403"/>
+      <c r="M9" s="403"/>
+      <c r="N9" s="404" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="404"/>
+    </row>
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="405"/>
+      <c r="B10" s="406" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="407"/>
+      <c r="D10" s="407"/>
+      <c r="E10" s="408"/>
+      <c r="F10" s="408"/>
+      <c r="G10" s="408"/>
+      <c r="H10" s="408"/>
+      <c r="I10" s="408"/>
+      <c r="J10" s="408"/>
+      <c r="K10" s="408"/>
+      <c r="L10" s="408"/>
+      <c r="M10" s="408"/>
+      <c r="N10" s="409" t="s">
+        <v>678</v>
+      </c>
+      <c r="O10" s="409" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="410" t="s">
+        <v>679</v>
+      </c>
+      <c r="B11" s="411">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="411">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="411">
+        <v>2022</v>
+      </c>
+      <c r="E11" s="411">
+        <v>2023</v>
+      </c>
+      <c r="F11" s="411">
+        <v>2024</v>
+      </c>
+      <c r="G11" s="411">
+        <v>2025</v>
+      </c>
+      <c r="H11" s="411">
+        <v>2026</v>
+      </c>
+      <c r="I11" s="411">
+        <v>2027</v>
+      </c>
+      <c r="J11" s="411">
+        <v>2028</v>
+      </c>
+      <c r="K11" s="411">
+        <v>2029</v>
+      </c>
+      <c r="L11" s="411">
+        <v>2030</v>
+      </c>
+      <c r="M11" s="411">
+        <v>2031</v>
+      </c>
+      <c r="N11" s="411">
+        <v>2026</v>
+      </c>
+      <c r="O11" s="411">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="31" x14ac:dyDescent="0.2">
+      <c r="A12" s="412" t="s">
+        <v>680</v>
+      </c>
+      <c r="B12" s="43">
+        <v>473.16500000000002</v>
+      </c>
+      <c r="C12" s="43">
+        <v>242.08699999999999</v>
+      </c>
+      <c r="D12" s="43">
+        <v>40.164000000000001</v>
+      </c>
+      <c r="E12" s="43">
+        <v>37.088999999999999</v>
+      </c>
+      <c r="F12" s="43">
+        <v>36.167000000000002</v>
+      </c>
+      <c r="G12" s="43">
+        <v>34.216999999999999</v>
+      </c>
+      <c r="H12" s="43">
+        <v>33.183999999999997</v>
+      </c>
+      <c r="I12" s="43">
+        <v>33.901000000000003</v>
+      </c>
+      <c r="J12" s="43">
+        <v>35.832000000000001</v>
+      </c>
+      <c r="K12" s="43">
+        <v>37.915999999999997</v>
+      </c>
+      <c r="L12" s="43">
+        <v>40.545000000000002</v>
+      </c>
+      <c r="M12" s="43">
+        <v>45.503</v>
+      </c>
+      <c r="N12" s="43">
+        <v>180.821</v>
+      </c>
+      <c r="O12" s="43">
+        <v>374.51799999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="413" t="s">
+        <v>681</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="414">
+        <f>(425+350)/4</f>
+        <v>193.75</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="413"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43">
+        <f>C13+C12</f>
+        <v>435.83699999999999</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="413"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>683</v>
+      </c>
+      <c r="B16" s="415" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="415"/>
+      <c r="D16" s="415"/>
+      <c r="E16" s="415"/>
+      <c r="F16" s="415"/>
+      <c r="G16" s="415"/>
+      <c r="H16" s="416"/>
+      <c r="I16" s="416"/>
+      <c r="J16" s="416"/>
+      <c r="K16" s="416"/>
+      <c r="L16" s="416"/>
+      <c r="M16" s="416"/>
+      <c r="N16" s="416"/>
+      <c r="O16" s="416"/>
+    </row>
+    <row r="17" spans="1:17" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="417">
+        <v>2019</v>
+      </c>
+      <c r="C17" s="415">
+        <v>2020</v>
+      </c>
+      <c r="D17" s="415"/>
+      <c r="E17" s="415"/>
+      <c r="F17" s="415"/>
+      <c r="G17" s="415">
+        <v>2021</v>
+      </c>
+      <c r="H17" s="415"/>
+      <c r="I17" s="415"/>
+      <c r="J17" s="415"/>
+      <c r="K17" s="415">
+        <v>2022</v>
+      </c>
+      <c r="L17" s="415"/>
+      <c r="M17" s="415"/>
+      <c r="N17" s="415"/>
+      <c r="O17" s="416"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="417" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="417" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="417" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="417" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="417" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="417" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="417" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="417" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="417" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="417" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="417" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="417" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" s="417" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" s="417"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="418" t="s">
+        <v>684</v>
+      </c>
+      <c r="B20" s="419">
+        <v>27.9</v>
+      </c>
+      <c r="C20" s="419">
+        <v>43.4</v>
+      </c>
+      <c r="D20" s="419">
+        <v>1084.5999999999999</v>
+      </c>
+      <c r="E20" s="419">
+        <v>775.2</v>
+      </c>
+      <c r="F20" s="419">
+        <v>296.39999999999998</v>
+      </c>
+      <c r="G20" s="419">
+        <v>544.29999999999995</v>
+      </c>
+      <c r="H20" s="64"/>
+      <c r="I20" s="420"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+    </row>
+    <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="115" t="s">
+        <v>685</v>
+      </c>
+      <c r="B21" s="351"/>
+      <c r="C21" s="419" t="s">
+        <v>686</v>
+      </c>
+      <c r="D21" s="419" t="s">
+        <v>686</v>
+      </c>
+      <c r="E21" s="419">
+        <v>3.1</v>
+      </c>
+      <c r="F21" s="419">
+        <v>11</v>
+      </c>
+      <c r="G21" s="419">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+    </row>
+    <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="421" t="s">
+        <v>687</v>
+      </c>
+      <c r="B22" s="422"/>
+      <c r="C22" s="419" t="s">
+        <v>686</v>
+      </c>
+      <c r="D22" s="419">
+        <v>7.2</v>
+      </c>
+      <c r="E22" s="419">
+        <v>23.9</v>
+      </c>
+      <c r="F22" s="419">
+        <v>63.6</v>
+      </c>
+      <c r="G22" s="419">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+    </row>
+    <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="421" t="s">
+        <v>688</v>
+      </c>
+      <c r="B23" s="422"/>
+      <c r="C23" s="419" t="s">
+        <v>686</v>
+      </c>
+      <c r="D23" s="419">
+        <v>101.5</v>
+      </c>
+      <c r="E23" s="419">
+        <v>156.1</v>
+      </c>
+      <c r="F23" s="419">
+        <v>110.3</v>
+      </c>
+      <c r="G23" s="419">
+        <v>97.2</v>
+      </c>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+    </row>
+    <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="421" t="s">
+        <v>689</v>
+      </c>
+      <c r="B24" s="422"/>
+      <c r="C24" s="419" t="s">
+        <v>686</v>
+      </c>
+      <c r="D24" s="419">
+        <v>679.2</v>
+      </c>
+      <c r="E24" s="419">
+        <v>373.1</v>
+      </c>
+      <c r="F24" s="419">
+        <v>13.6</v>
+      </c>
+      <c r="G24" s="419">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+    </row>
+    <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="423" t="s">
+        <v>690</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="419">
+        <v>106.2</v>
+      </c>
+      <c r="F25" s="419">
+        <v>35.9</v>
+      </c>
+      <c r="G25" s="419">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H26" s="415" t="s">
+        <v>691</v>
+      </c>
+      <c r="I26" s="415"/>
+      <c r="J26" s="415"/>
+      <c r="K26" s="415"/>
+      <c r="L26" s="415"/>
+      <c r="M26" s="415"/>
+      <c r="N26" s="415"/>
+      <c r="O26" s="415"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>692</v>
+      </c>
+      <c r="B27" s="420">
+        <f t="shared" ref="B27:G27" si="0">B20+B25</f>
+        <v>27.9</v>
+      </c>
+      <c r="C27" s="420">
+        <f t="shared" si="0"/>
+        <v>43.4</v>
+      </c>
+      <c r="D27" s="420">
+        <f t="shared" si="0"/>
+        <v>1084.5999999999999</v>
+      </c>
+      <c r="E27" s="420">
+        <f t="shared" si="0"/>
+        <v>881.40000000000009</v>
+      </c>
+      <c r="F27" s="420">
+        <f t="shared" si="0"/>
+        <v>332.29999999999995</v>
+      </c>
+      <c r="G27" s="420">
+        <f t="shared" si="0"/>
+        <v>545.9</v>
+      </c>
+      <c r="H27" s="420">
+        <f>H30+H31</f>
+        <v>497.19999999999993</v>
+      </c>
+      <c r="I27" s="420">
+        <f t="shared" ref="I27:O27" si="1">I30+I31</f>
+        <v>417.82132622459176</v>
+      </c>
+      <c r="J27" s="420">
+        <f t="shared" si="1"/>
+        <v>63.947884038653726</v>
+      </c>
+      <c r="K27" s="420">
+        <f t="shared" si="1"/>
+        <v>61.433755414861658</v>
+      </c>
+      <c r="L27" s="420">
+        <f t="shared" si="1"/>
+        <v>60.736054648450462</v>
+      </c>
+      <c r="M27" s="420">
+        <f t="shared" si="1"/>
+        <v>59.436887704098574</v>
+      </c>
+      <c r="N27" s="420">
+        <f t="shared" si="1"/>
+        <v>58.450483172275852</v>
+      </c>
+      <c r="O27" s="420">
+        <f t="shared" si="1"/>
+        <v>58.306131289570089</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>693</v>
+      </c>
+      <c r="E28" s="420">
+        <f>E21</f>
+        <v>3.1</v>
+      </c>
+      <c r="F28" s="420">
+        <f>F21</f>
+        <v>11</v>
+      </c>
+      <c r="G28" s="420">
+        <f>G21</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" ref="I28:O28" si="2">H28*I34/H34</f>
+        <v>18.787070976341219</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="2"/>
+        <v>17.714095301566143</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="2"/>
+        <v>17.017660779740083</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="2"/>
+        <v>16.824391869376871</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="2"/>
+        <v>16.464511829390197</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="2"/>
+        <v>16.191269576807727</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="2"/>
+        <v>16.1512829056981</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>694</v>
+      </c>
+      <c r="D29" s="420">
+        <f>SUM(D21:D24)</f>
+        <v>787.90000000000009</v>
+      </c>
+      <c r="E29" s="420">
+        <f>SUM(E21:E24)+E25</f>
+        <v>662.40000000000009</v>
+      </c>
+      <c r="F29" s="420">
+        <f>SUM(F21:F24)+F25</f>
+        <v>234.39999999999998</v>
+      </c>
+      <c r="G29" s="420">
+        <f>SUM(G21:G24)+G25</f>
+        <v>475.1</v>
+      </c>
+      <c r="H29" s="420">
+        <v>425</v>
+      </c>
+      <c r="I29">
+        <v>350</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>696</v>
+      </c>
+      <c r="D30" s="420">
+        <f>D29+D28</f>
+        <v>787.90000000000009</v>
+      </c>
+      <c r="E30" s="420">
+        <f t="shared" ref="E30:O30" si="3">E29+E28</f>
+        <v>665.50000000000011</v>
+      </c>
+      <c r="F30" s="420">
+        <f t="shared" si="3"/>
+        <v>245.39999999999998</v>
+      </c>
+      <c r="G30" s="420">
+        <f t="shared" si="3"/>
+        <v>493.70000000000005</v>
+      </c>
+      <c r="H30" s="420">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+      <c r="I30" s="420">
+        <f t="shared" si="3"/>
+        <v>368.78707097634123</v>
+      </c>
+      <c r="J30" s="420">
+        <f t="shared" si="3"/>
+        <v>17.714095301566143</v>
+      </c>
+      <c r="K30" s="420">
+        <f t="shared" si="3"/>
+        <v>17.017660779740083</v>
+      </c>
+      <c r="L30" s="420">
+        <f t="shared" si="3"/>
+        <v>16.824391869376871</v>
+      </c>
+      <c r="M30" s="420">
+        <f t="shared" si="3"/>
+        <v>16.464511829390197</v>
+      </c>
+      <c r="N30" s="420">
+        <f t="shared" si="3"/>
+        <v>16.191269576807727</v>
+      </c>
+      <c r="O30" s="420">
+        <f t="shared" si="3"/>
+        <v>16.1512829056981</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>698</v>
+      </c>
+      <c r="B31" s="420">
+        <f>B27</f>
+        <v>27.9</v>
+      </c>
+      <c r="C31" s="420">
+        <f>C27</f>
+        <v>43.4</v>
+      </c>
+      <c r="D31" s="420">
+        <f>D27-D30</f>
+        <v>296.69999999999982</v>
+      </c>
+      <c r="E31" s="420">
+        <f t="shared" ref="E31:G31" si="4">E27-E30</f>
+        <v>215.89999999999998</v>
+      </c>
+      <c r="F31" s="420">
+        <f t="shared" si="4"/>
+        <v>86.899999999999977</v>
+      </c>
+      <c r="G31" s="420">
+        <f t="shared" si="4"/>
+        <v>52.199999999999932</v>
+      </c>
+      <c r="H31" s="420">
+        <f>G31</f>
+        <v>52.199999999999932</v>
+      </c>
+      <c r="I31" s="420">
+        <f t="shared" ref="I31:P31" si="5">I34/H34*H31</f>
+        <v>49.034255248250524</v>
+      </c>
+      <c r="J31" s="420">
+        <f t="shared" si="5"/>
+        <v>46.233788737087579</v>
+      </c>
+      <c r="K31" s="420">
+        <f t="shared" si="5"/>
+        <v>44.416094635121574</v>
+      </c>
+      <c r="L31" s="420">
+        <f t="shared" si="5"/>
+        <v>43.911662779073588</v>
+      </c>
+      <c r="M31" s="420">
+        <f t="shared" si="5"/>
+        <v>42.972375874708376</v>
+      </c>
+      <c r="N31" s="420">
+        <f t="shared" si="5"/>
+        <v>42.259213595468125</v>
+      </c>
+      <c r="O31" s="420">
+        <f t="shared" si="5"/>
+        <v>42.154848383871993</v>
+      </c>
+      <c r="P31" s="420">
+        <f t="shared" si="5"/>
+        <v>41.519960013328841</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>700</v>
+      </c>
+      <c r="C34" s="424">
+        <v>3.8</v>
+      </c>
+      <c r="D34" s="424">
+        <v>13.066000000000001</v>
+      </c>
+      <c r="E34" s="424">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F34" s="424">
+        <v>6.766</v>
+      </c>
+      <c r="G34" s="424">
+        <v>6.0119999999999996</v>
+      </c>
+      <c r="H34" s="424">
+        <v>6.0019999999999998</v>
+      </c>
+      <c r="I34" s="424">
+        <v>5.6379999999999999</v>
+      </c>
+      <c r="J34" s="424">
+        <v>5.3159999999999998</v>
+      </c>
+      <c r="K34" s="424">
+        <v>5.1070000000000002</v>
+      </c>
+      <c r="L34" s="424">
+        <v>5.0490000000000004</v>
+      </c>
+      <c r="M34" s="424">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="N34" s="424">
+        <v>4.859</v>
+      </c>
+      <c r="O34" s="424">
+        <v>4.8470000000000004</v>
+      </c>
+      <c r="P34" s="424">
+        <v>4.774</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q35" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q36" t="s">
+        <v>703</v>
+      </c>
+      <c r="R36" s="420">
+        <f>AVERAGE(F27:I27)-(F25+G25)/4</f>
+        <v>438.93033155614791</v>
+      </c>
+      <c r="S36" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C41" s="415">
+        <v>2020</v>
+      </c>
+      <c r="D41" s="415"/>
+      <c r="E41" s="415"/>
+      <c r="F41" s="415"/>
+      <c r="G41" s="415">
+        <v>2021</v>
+      </c>
+      <c r="H41" s="415"/>
+      <c r="I41" s="415"/>
+      <c r="J41" s="415"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C42" s="417" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="417" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="417" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="417" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="417" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" s="417" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="417" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="417" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>705</v>
+      </c>
+      <c r="C43" s="425"/>
+      <c r="D43" s="425">
+        <v>788</v>
+      </c>
+      <c r="E43" s="425">
+        <v>662.4</v>
+      </c>
+      <c r="F43" s="425">
+        <v>234.333333333333</v>
+      </c>
+      <c r="G43" s="425">
+        <v>475.13333333333298</v>
+      </c>
+      <c r="H43" s="425">
+        <v>108</v>
+      </c>
+      <c r="I43" s="425">
+        <v>0</v>
+      </c>
+      <c r="J43" s="425">
+        <v>0</v>
+      </c>
+      <c r="K43" s="425">
+        <v>0</v>
+      </c>
+      <c r="L43" s="425">
+        <v>0</v>
+      </c>
+      <c r="M43" s="425">
+        <v>0</v>
+      </c>
+      <c r="N43" s="425">
+        <v>0</v>
+      </c>
+      <c r="O43" s="425">
+        <v>0</v>
+      </c>
+      <c r="P43" s="425">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>706</v>
+      </c>
+      <c r="C44" s="425">
+        <v>0</v>
+      </c>
+      <c r="D44" s="425">
+        <v>0</v>
+      </c>
+      <c r="E44" s="425">
+        <v>0</v>
+      </c>
+      <c r="F44" s="425">
+        <v>0</v>
+      </c>
+      <c r="G44" s="425">
+        <v>0</v>
+      </c>
+      <c r="H44" s="425">
+        <v>425.20704000000001</v>
+      </c>
+      <c r="I44" s="425">
+        <v>350</v>
+      </c>
+      <c r="J44" s="425">
+        <v>0</v>
+      </c>
+      <c r="K44" s="425">
+        <v>0</v>
+      </c>
+      <c r="L44" s="425">
+        <v>0</v>
+      </c>
+      <c r="M44" s="425">
+        <v>0</v>
+      </c>
+      <c r="N44" s="425">
+        <v>0</v>
+      </c>
+      <c r="O44" s="425">
+        <v>0</v>
+      </c>
+      <c r="P44" s="425">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>707</v>
+      </c>
+      <c r="C45" s="425">
+        <v>43.4</v>
+      </c>
+      <c r="D45" s="425">
+        <v>296.60000000000002</v>
+      </c>
+      <c r="E45" s="425">
+        <v>112.8</v>
+      </c>
+      <c r="F45" s="425">
+        <v>62.066666666666599</v>
+      </c>
+      <c r="G45" s="425">
+        <v>69.1666666666666</v>
+      </c>
+      <c r="H45" s="425">
+        <v>44</v>
+      </c>
+      <c r="I45" s="425">
+        <v>44</v>
+      </c>
+      <c r="J45" s="425">
+        <v>44</v>
+      </c>
+      <c r="K45" s="425">
+        <v>44</v>
+      </c>
+      <c r="L45" s="425">
+        <v>44</v>
+      </c>
+      <c r="M45" s="425">
+        <v>44</v>
+      </c>
+      <c r="N45" s="425">
+        <v>44</v>
+      </c>
+      <c r="O45" s="425">
+        <v>0</v>
+      </c>
+      <c r="P45" s="425">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="425">
+        <v>0</v>
+      </c>
+      <c r="R45" s="425">
+        <v>0</v>
+      </c>
+      <c r="S45" s="425">
+        <v>0</v>
+      </c>
+      <c r="T45" s="425">
+        <v>0</v>
+      </c>
+      <c r="U45" s="425">
+        <v>0</v>
+      </c>
+      <c r="V45" s="425">
+        <v>0</v>
+      </c>
+      <c r="W45" s="425">
+        <v>0</v>
+      </c>
+      <c r="X45" s="425">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="425">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="94">
+        <f>SUM(C43:C45)</f>
+        <v>43.4</v>
+      </c>
+      <c r="D46" s="94">
+        <f t="shared" ref="D46:N46" si="6">SUM(D43:D45)</f>
+        <v>1084.5999999999999</v>
+      </c>
+      <c r="E46" s="94">
+        <f t="shared" si="6"/>
+        <v>775.19999999999993</v>
+      </c>
+      <c r="F46" s="94">
+        <f t="shared" si="6"/>
+        <v>296.39999999999958</v>
+      </c>
+      <c r="G46" s="94">
+        <f t="shared" si="6"/>
+        <v>544.29999999999961</v>
+      </c>
+      <c r="H46" s="94">
+        <f t="shared" si="6"/>
+        <v>577.20704000000001</v>
+      </c>
+      <c r="I46" s="94">
+        <f t="shared" si="6"/>
+        <v>394</v>
+      </c>
+      <c r="J46" s="94">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="K46" s="94">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="L46" s="94">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M46" s="94">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="N46" s="94">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:N17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9439CCE-42A9-4A07-8071-0CF6958B7C48}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -23063,12 +25591,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B706B7-5C89-488A-A410-11679BA03DE7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23335,15 +25863,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AX73"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
+      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23362,23 +25890,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="362" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="361"/>
+      <c r="B1" s="363"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="368" t="s">
+      <c r="J1" s="370" t="s">
         <v>273</v>
       </c>
-      <c r="V1" s="352"/>
-      <c r="W1" s="352"/>
-      <c r="X1" s="352"/>
-      <c r="Y1" s="352"/>
+      <c r="V1" s="354"/>
+      <c r="W1" s="354"/>
+      <c r="X1" s="354"/>
+      <c r="Y1" s="354"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A2" s="362" t="s">
+      <c r="A2" s="364" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="126"/>
@@ -23386,68 +25914,68 @@
         <v>190</v>
       </c>
       <c r="I2" s="241"/>
-      <c r="J2" s="368"/>
+      <c r="J2" s="370"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" s="363"/>
+      <c r="A3" s="365"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>191</v>
       </c>
       <c r="I3" s="241"/>
-      <c r="J3" s="368"/>
+      <c r="J3" s="370"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A4" s="363"/>
+      <c r="A4" s="365"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A5" s="364"/>
+      <c r="A5" s="366"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C7" s="365" t="s">
+      <c r="C7" s="367" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="366"/>
-      <c r="E7" s="366"/>
-      <c r="F7" s="367"/>
-      <c r="G7" s="365" t="s">
+      <c r="D7" s="368"/>
+      <c r="E7" s="368"/>
+      <c r="F7" s="369"/>
+      <c r="G7" s="367" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="366"/>
-      <c r="I7" s="366"/>
-      <c r="J7" s="367"/>
-      <c r="K7" s="365" t="s">
+      <c r="H7" s="368"/>
+      <c r="I7" s="368"/>
+      <c r="J7" s="369"/>
+      <c r="K7" s="367" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="366"/>
-      <c r="M7" s="366"/>
-      <c r="N7" s="366"/>
-      <c r="O7" s="365" t="s">
+      <c r="L7" s="368"/>
+      <c r="M7" s="368"/>
+      <c r="N7" s="368"/>
+      <c r="O7" s="367" t="s">
         <v>264</v>
       </c>
-      <c r="P7" s="366"/>
-      <c r="Q7" s="366"/>
-      <c r="R7" s="366"/>
-      <c r="S7" s="365" t="s">
+      <c r="P7" s="368"/>
+      <c r="Q7" s="368"/>
+      <c r="R7" s="368"/>
+      <c r="S7" s="367" t="s">
         <v>267</v>
       </c>
-      <c r="T7" s="366"/>
-      <c r="U7" s="366"/>
-      <c r="V7" s="366"/>
-      <c r="W7" s="365" t="s">
+      <c r="T7" s="368"/>
+      <c r="U7" s="368"/>
+      <c r="V7" s="368"/>
+      <c r="W7" s="367" t="s">
         <v>268</v>
       </c>
-      <c r="X7" s="366"/>
-      <c r="Y7" s="366"/>
-      <c r="Z7" s="366"/>
+      <c r="X7" s="368"/>
+      <c r="Y7" s="368"/>
+      <c r="Z7" s="368"/>
       <c r="AA7" s="222" t="s">
         <v>269</v>
       </c>
@@ -26636,79 +29164,79 @@
       </c>
       <c r="I54" s="104">
         <f>main!P94/1000</f>
-        <v>1918.5942369875002</v>
+        <v>1830.5942369875002</v>
       </c>
       <c r="J54" s="104">
         <f>main!Q94/1000</f>
-        <v>1729.884780210094</v>
+        <v>1748.6718511864351</v>
       </c>
       <c r="K54" s="263">
         <f>main!R94/1000</f>
-        <v>1727.1130519132453</v>
+        <v>1744.8271472148115</v>
       </c>
       <c r="L54" s="104">
         <f>K54*(1+L56)</f>
-        <v>1728.6015320065658</v>
+        <v>1746.3308938699811</v>
       </c>
       <c r="M54" s="104">
         <f t="shared" ref="M54:AA54" si="76">L54*(1+M56)</f>
-        <v>1722.0649756425535</v>
+        <v>1739.7272954659311</v>
       </c>
       <c r="N54" s="104">
         <f t="shared" si="76"/>
-        <v>1703.520605973604</v>
+        <v>1720.9927258959044</v>
       </c>
       <c r="O54" s="104">
         <f t="shared" si="76"/>
-        <v>1725.4564280329271</v>
+        <v>1743.1535322097593</v>
       </c>
       <c r="P54" s="104">
         <f t="shared" si="76"/>
-        <v>1736.8795902691238</v>
+        <v>1754.6938558467532</v>
       </c>
       <c r="Q54" s="104">
         <f t="shared" si="76"/>
-        <v>1740.8820697194501</v>
+        <v>1758.7373866355238</v>
       </c>
       <c r="R54" s="104">
         <f t="shared" si="76"/>
-        <v>1736.3530812384013</v>
+        <v>1754.1619466882642</v>
       </c>
       <c r="S54" s="104">
         <f t="shared" si="76"/>
-        <v>1745.1334034709955</v>
+        <v>1763.0323240939313</v>
       </c>
       <c r="T54" s="104">
         <f t="shared" si="76"/>
-        <v>1754.9974028515674</v>
+        <v>1772.9974933573251</v>
       </c>
       <c r="U54" s="104">
         <f t="shared" si="76"/>
-        <v>1764.4092636027997</v>
+        <v>1782.5058866419245</v>
       </c>
       <c r="V54" s="104">
         <f t="shared" si="76"/>
-        <v>1774.4286742501135</v>
+        <v>1792.6280611441437</v>
       </c>
       <c r="W54" s="104">
         <f t="shared" si="76"/>
-        <v>1815.6716706621512</v>
+        <v>1834.2940654004885</v>
       </c>
       <c r="X54" s="104">
         <f t="shared" si="76"/>
-        <v>1850.5149655220262</v>
+        <v>1869.4947297128638</v>
       </c>
       <c r="Y54" s="104">
         <f t="shared" si="76"/>
-        <v>1877.322771887124</v>
+        <v>1896.577489727493</v>
       </c>
       <c r="Z54" s="104">
         <f t="shared" si="76"/>
-        <v>1896.8707408603975</v>
+        <v>1916.3259519950307</v>
       </c>
       <c r="AA54" s="104">
         <f t="shared" si="76"/>
-        <v>1905.9822012622701</v>
+        <v>1925.530863880995</v>
       </c>
       <c r="AB54" s="95"/>
     </row>
@@ -26912,79 +29440,79 @@
       </c>
       <c r="I57" s="217">
         <f t="shared" ref="I57" si="97">I54-I55</f>
-        <v>292.56851838171019</v>
+        <v>204.56851838171019</v>
       </c>
       <c r="J57" s="217">
         <f t="shared" ref="J57" si="98">J54-J55</f>
-        <v>231.3499254633241</v>
+        <v>250.13699643966515</v>
       </c>
       <c r="K57" s="264">
         <f t="shared" ref="K57" si="99">K54-K55</f>
-        <v>216.02540037962535</v>
+        <v>233.73949568119156</v>
       </c>
       <c r="L57" s="217">
         <f t="shared" ref="L57:AA57" si="100">L54-L55</f>
-        <v>216.21157783208582</v>
+        <v>233.94093969550113</v>
       </c>
       <c r="M57" s="217">
         <f t="shared" si="100"/>
-        <v>215.39399255353351</v>
+        <v>233.05631237691114</v>
       </c>
       <c r="N57" s="217">
         <f t="shared" si="100"/>
-        <v>213.074483197684</v>
+        <v>230.54660311998441</v>
       </c>
       <c r="O57" s="150">
         <f t="shared" si="100"/>
-        <v>215.81819168727702</v>
+        <v>233.51529586410925</v>
       </c>
       <c r="P57" s="217">
         <f t="shared" si="100"/>
-        <v>217.24698825212386</v>
+        <v>235.06125382975324</v>
       </c>
       <c r="Q57" s="217">
         <f t="shared" si="100"/>
-        <v>217.74761397828001</v>
+        <v>235.60293089435368</v>
       </c>
       <c r="R57" s="217">
         <f t="shared" si="100"/>
-        <v>217.18113308182137</v>
+        <v>234.98999853168425</v>
       </c>
       <c r="S57" s="150">
         <f t="shared" si="100"/>
-        <v>218.27936612664553</v>
+        <v>236.17828674958128</v>
       </c>
       <c r="T57" s="217">
         <f t="shared" si="100"/>
-        <v>219.51314431688729</v>
+        <v>237.51323482264502</v>
       </c>
       <c r="U57" s="217">
         <f t="shared" si="100"/>
-        <v>220.69036950480972</v>
+        <v>238.7869925439345</v>
       </c>
       <c r="V57" s="217">
         <f t="shared" si="100"/>
-        <v>221.94358636531365</v>
+        <v>240.14297325934376</v>
       </c>
       <c r="W57" s="150">
         <f t="shared" si="100"/>
-        <v>227.10221498137116</v>
+        <v>245.7246097197085</v>
       </c>
       <c r="X57" s="217">
         <f t="shared" si="100"/>
-        <v>231.46037596817609</v>
+        <v>250.44014015901371</v>
       </c>
       <c r="Y57" s="217">
         <f t="shared" si="100"/>
-        <v>234.81346689462407</v>
+        <v>254.06818473499311</v>
       </c>
       <c r="Z57" s="217">
         <f t="shared" si="100"/>
-        <v>237.25850534730762</v>
+        <v>256.71371648194076</v>
       </c>
       <c r="AA57" s="150">
         <f t="shared" si="100"/>
-        <v>238.39815679003004</v>
+        <v>257.94681940875489</v>
       </c>
       <c r="AB57" s="244"/>
     </row>
@@ -27094,15 +29622,15 @@
       </c>
       <c r="I61" s="104">
         <f>main!P54/1000</f>
-        <v>847.38358333333338</v>
+        <v>813.63025000000005</v>
       </c>
       <c r="J61" s="104">
         <f>main!Q54/1000</f>
-        <v>757.41691666666668</v>
+        <v>813.63025000000005</v>
       </c>
       <c r="K61" s="149">
         <f>main!R54/1000</f>
-        <v>102.75024999999999</v>
+        <v>77.330250000000007</v>
       </c>
       <c r="L61" s="223">
         <f>main!S54/1000</f>
@@ -27367,15 +29895,15 @@
       </c>
       <c r="I64" s="217">
         <f t="shared" si="104"/>
-        <v>442.79632714447837</v>
+        <v>409.04299381114504</v>
       </c>
       <c r="J64" s="217">
         <f t="shared" si="104"/>
-        <v>350.8990428229107</v>
+        <v>407.11237615624407</v>
       </c>
       <c r="K64" s="150">
         <f t="shared" si="104"/>
-        <v>-305.73747330127003</v>
+        <v>-331.15747330126999</v>
       </c>
       <c r="L64" s="217">
         <f t="shared" si="104"/>
@@ -27929,13 +30457,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M25" sqref="M25"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28231,10 +30759,10 @@
         <v>27.240230175895476</v>
       </c>
       <c r="G6">
-        <v>292.56851838171019</v>
+        <v>204.56851838171019</v>
       </c>
       <c r="H6">
-        <v>442.79632714447837</v>
+        <v>409.04299381114504</v>
       </c>
       <c r="I6">
         <v>67.261751256205002</v>
@@ -28245,15 +30773,15 @@
       </c>
       <c r="K6" s="102">
         <f t="shared" ref="K6:K24" si="1">SUM(L6:M6)</f>
-        <v>152</v>
+        <v>72.199999999999932</v>
       </c>
       <c r="L6" s="102">
         <f>main!P$42/1000</f>
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="M6" s="102">
         <f>main!P$46/1000</f>
-        <v>44</v>
+        <v>52.199999999999932</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -28286,10 +30814,10 @@
         <v>58.920478314845923</v>
       </c>
       <c r="G7">
-        <v>231.3499254633241</v>
+        <v>250.13699643966515</v>
       </c>
       <c r="H7">
-        <v>350.8990428229107</v>
+        <v>407.11237615624407</v>
       </c>
       <c r="I7">
         <v>63.106744514582999</v>
@@ -28300,15 +30828,15 @@
       </c>
       <c r="K7" s="102">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>18836.10523158947</v>
       </c>
       <c r="L7" s="102">
         <f>main!Q$42</f>
-        <v>0</v>
+        <v>18787.07097634122</v>
       </c>
       <c r="M7" s="102">
         <f>main!Q$46/1000</f>
-        <v>44</v>
+        <v>49.034255248250524</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -28341,10 +30869,10 @@
         <v>60.205634505330863</v>
       </c>
       <c r="G8">
-        <v>216.02540037962535</v>
+        <v>233.73949568119156</v>
       </c>
       <c r="H8">
-        <v>-305.73747330127003</v>
+        <v>-331.15747330126999</v>
       </c>
       <c r="I8">
         <v>60.548462812038906</v>
@@ -28355,15 +30883,15 @@
       </c>
       <c r="K8" s="102">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>17760.329090303232</v>
       </c>
       <c r="L8" s="102">
         <f>main!R$42</f>
-        <v>0</v>
+        <v>17714.095301566143</v>
       </c>
       <c r="M8" s="102">
         <f>main!R$46/1000</f>
-        <v>44</v>
+        <v>46.233788737087579</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -28396,7 +30924,7 @@
         <v>61.490790695815576</v>
       </c>
       <c r="G9">
-        <v>216.21157783208582</v>
+        <v>233.94093969550113</v>
       </c>
       <c r="H9">
         <v>-333.15003590766503</v>
@@ -28410,7 +30938,7 @@
       </c>
       <c r="K9" s="102">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>44.416094635121574</v>
       </c>
       <c r="L9" s="102">
         <f>main!S$42</f>
@@ -28418,7 +30946,7 @@
       </c>
       <c r="M9" s="102">
         <f>main!S$46/1000</f>
-        <v>44</v>
+        <v>44.416094635121574</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -28451,7 +30979,7 @@
         <v>62.775946886300062</v>
       </c>
       <c r="G10">
-        <v>215.39399255353351</v>
+        <v>233.05631237691114</v>
       </c>
       <c r="H10">
         <v>-334.75716524847383</v>
@@ -28465,7 +30993,7 @@
       </c>
       <c r="K10" s="102">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>43.911662779073588</v>
       </c>
       <c r="L10" s="102">
         <f>main!T$42</f>
@@ -28473,7 +31001,7 @@
       </c>
       <c r="M10" s="102">
         <f>main!T$46/1000</f>
-        <v>44</v>
+        <v>43.911662779073588</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -28506,7 +31034,7 @@
         <v>64.06110307678523</v>
       </c>
       <c r="G11">
-        <v>213.074483197684</v>
+        <v>230.54660311998441</v>
       </c>
       <c r="H11">
         <v>-336.33915700835234</v>
@@ -28520,7 +31048,7 @@
       </c>
       <c r="K11" s="102">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>42.972375874708376</v>
       </c>
       <c r="L11" s="102">
         <f>main!U$42</f>
@@ -28528,7 +31056,7 @@
       </c>
       <c r="M11" s="102">
         <f>main!U$46/1000</f>
-        <v>44</v>
+        <v>42.972375874708376</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -28561,7 +31089,7 @@
         <v>64.606030375998671</v>
       </c>
       <c r="G12">
-        <v>215.81819168727702</v>
+        <v>233.51529586410925</v>
       </c>
       <c r="H12">
         <v>-337.91109373585869</v>
@@ -28575,7 +31103,7 @@
       </c>
       <c r="K12" s="102">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>42.259213595468125</v>
       </c>
       <c r="L12" s="102">
         <f>main!V$42</f>
@@ -28583,7 +31111,7 @@
       </c>
       <c r="M12" s="102">
         <f>main!V$46/1000</f>
-        <v>44</v>
+        <v>42.259213595468125</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -28616,7 +31144,7 @@
         <v>65.150957675211657</v>
       </c>
       <c r="G13">
-        <v>217.24698825212386</v>
+        <v>235.06125382975324</v>
       </c>
       <c r="H13">
         <v>-339.47967878590765</v>
@@ -28669,7 +31197,7 @@
         <v>65.695884974425098</v>
       </c>
       <c r="G14">
-        <v>217.74761397828001</v>
+        <v>235.60293089435368</v>
       </c>
       <c r="H14">
         <v>-341.05329135214311</v>
@@ -28721,7 +31249,7 @@
         <v>66.240812273638312</v>
       </c>
       <c r="G15">
-        <v>217.18113308182137</v>
+        <v>234.98999853168425</v>
       </c>
       <c r="H15">
         <v>-342.64198646693649</v>
@@ -28773,7 +31301,7 @@
         <v>66.690005358941789</v>
       </c>
       <c r="G16">
-        <v>218.27936612664553</v>
+        <v>236.17828674958128</v>
       </c>
       <c r="H16">
         <v>-344.24576413028785</v>
@@ -28825,7 +31353,7 @@
         <v>67.139198444245494</v>
       </c>
       <c r="G17">
-        <v>219.51314431688729</v>
+        <v>237.51323482264502</v>
       </c>
       <c r="H17">
         <v>-345.85959682601151</v>
@@ -28877,7 +31405,7 @@
         <v>67.588391529548517</v>
       </c>
       <c r="G18">
-        <v>220.69036950480972</v>
+        <v>238.7869925439345</v>
       </c>
       <c r="H18">
         <v>-347.47007784427768</v>
@@ -28929,7 +31457,7 @@
         <v>68.037584614852221</v>
       </c>
       <c r="G19">
-        <v>221.94358636531365</v>
+        <v>240.14297325934376</v>
       </c>
       <c r="H19">
         <v>-349.08558637873045</v>
@@ -28981,7 +31509,7 @@
         <v>69.714050179812148</v>
       </c>
       <c r="G20">
-        <v>227.10221498137116</v>
+        <v>245.7246097197085</v>
       </c>
       <c r="H20">
         <v>-350.7044465906398</v>
@@ -29033,7 +31561,7 @@
         <v>71.390515744772529</v>
       </c>
       <c r="G21">
-        <v>231.46037596817609</v>
+        <v>250.44014015901371</v>
       </c>
       <c r="H21">
         <v>-352.32163096382084</v>
@@ -29085,7 +31613,7 @@
         <v>73.066981309732455</v>
       </c>
       <c r="G22">
-        <v>234.81346689462407</v>
+        <v>254.06818473499311</v>
       </c>
       <c r="H22">
         <v>-353.91870527225819</v>
@@ -29137,7 +31665,7 @@
         <v>74.743446874692609</v>
       </c>
       <c r="G23">
-        <v>237.25850534730762</v>
+        <v>256.71371648194076</v>
       </c>
       <c r="H23">
         <v>-355.5040487095942</v>
@@ -29189,7 +31717,7 @@
         <v>75.992920275214601</v>
       </c>
       <c r="G24">
-        <v>238.39815679003004</v>
+        <v>257.94681940875489</v>
       </c>
       <c r="H24">
         <v>-357.07766127582966</v>
@@ -29226,7 +31754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C37CCB5-9AFD-AA42-ADF6-76E6C38F7458}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
@@ -29241,36 +31769,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D1" s="352" t="s">
+      <c r="D1" s="354" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352" t="s">
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352" t="s">
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="352"/>
-      <c r="N1" s="352"/>
-      <c r="O1" s="352"/>
-      <c r="P1" s="352" t="s">
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="352"/>
-      <c r="R1" s="352"/>
-      <c r="S1" s="352"/>
-      <c r="T1" s="352" t="s">
+      <c r="Q1" s="354"/>
+      <c r="R1" s="354"/>
+      <c r="S1" s="354"/>
+      <c r="T1" s="354" t="s">
         <v>260</v>
       </c>
-      <c r="U1" s="352"/>
-      <c r="V1" s="352"/>
-      <c r="W1" s="352"/>
+      <c r="U1" s="354"/>
+      <c r="V1" s="354"/>
+      <c r="W1" s="354"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D2" s="197" t="s">
@@ -29380,27 +31908,27 @@
       </c>
       <c r="N3" s="255">
         <f>main!P34</f>
-        <v>2749476.0727414312</v>
+        <v>2669676.0727414307</v>
       </c>
       <c r="O3" s="255">
         <f>main!Q34</f>
-        <v>2651823.3912212253</v>
+        <v>2675644.7174458168</v>
       </c>
       <c r="P3" s="255">
         <f>main!R34</f>
-        <v>2719329.4377647843</v>
+        <v>2739277.3218034385</v>
       </c>
       <c r="Q3" s="255">
         <f>main!S34</f>
-        <v>2776596.3725474421</v>
+        <v>2777012.4671825636</v>
       </c>
       <c r="R3" s="255">
         <f>main!T34</f>
-        <v>2835282.6832986092</v>
+        <v>2835194.3460776829</v>
       </c>
       <c r="S3" s="255">
         <f>main!U34</f>
-        <v>2895427.984567659</v>
+        <v>2894400.3604423674</v>
       </c>
       <c r="T3" s="255">
         <f>main!V34</f>
@@ -29660,7 +32188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E925F6-0F0F-EB4D-B82F-595726581F1A}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
@@ -29680,22 +32208,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="362" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="361"/>
+      <c r="B1" s="363"/>
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="368" t="s">
+      <c r="J1" s="370" t="s">
         <v>273</v>
       </c>
-      <c r="V1" s="352"/>
-      <c r="W1" s="352"/>
-      <c r="X1" s="352"/>
-      <c r="Y1" s="352"/>
+      <c r="V1" s="354"/>
+      <c r="W1" s="354"/>
+      <c r="X1" s="354"/>
+      <c r="Y1" s="354"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="362" t="s">
+      <c r="A2" s="364" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="126"/>
@@ -29704,20 +32232,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="241"/>
-      <c r="J2" s="368"/>
+      <c r="J2" s="370"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="363"/>
+      <c r="A3" s="365"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>191</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="241"/>
-      <c r="J3" s="368"/>
+      <c r="J3" s="370"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="363"/>
+      <c r="A4" s="365"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>192</v>
@@ -29727,7 +32255,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="364"/>
+      <c r="A5" s="366"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>179</v>
@@ -29742,42 +32270,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="365" t="s">
+      <c r="C7" s="367" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="366"/>
-      <c r="E7" s="366"/>
-      <c r="F7" s="367"/>
-      <c r="G7" s="365" t="s">
+      <c r="D7" s="368"/>
+      <c r="E7" s="368"/>
+      <c r="F7" s="369"/>
+      <c r="G7" s="367" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="366"/>
-      <c r="I7" s="366"/>
-      <c r="J7" s="367"/>
-      <c r="K7" s="365" t="s">
+      <c r="H7" s="368"/>
+      <c r="I7" s="368"/>
+      <c r="J7" s="369"/>
+      <c r="K7" s="367" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="366"/>
-      <c r="M7" s="366"/>
-      <c r="N7" s="366"/>
-      <c r="O7" s="365" t="s">
+      <c r="L7" s="368"/>
+      <c r="M7" s="368"/>
+      <c r="N7" s="368"/>
+      <c r="O7" s="367" t="s">
         <v>264</v>
       </c>
-      <c r="P7" s="366"/>
-      <c r="Q7" s="366"/>
-      <c r="R7" s="366"/>
-      <c r="S7" s="365" t="s">
+      <c r="P7" s="368"/>
+      <c r="Q7" s="368"/>
+      <c r="R7" s="368"/>
+      <c r="S7" s="367" t="s">
         <v>267</v>
       </c>
-      <c r="T7" s="366"/>
-      <c r="U7" s="366"/>
-      <c r="V7" s="366"/>
-      <c r="W7" s="365" t="s">
+      <c r="T7" s="368"/>
+      <c r="U7" s="368"/>
+      <c r="V7" s="368"/>
+      <c r="W7" s="367" t="s">
         <v>268</v>
       </c>
-      <c r="X7" s="366"/>
-      <c r="Y7" s="366"/>
-      <c r="Z7" s="366"/>
+      <c r="X7" s="368"/>
+      <c r="Y7" s="368"/>
+      <c r="Z7" s="368"/>
       <c r="AA7" s="222" t="s">
         <v>269</v>
       </c>
@@ -32157,79 +34685,79 @@
       </c>
       <c r="I45" s="102">
         <f>main_nipas!N3/1000</f>
-        <v>2749.4760727414314</v>
+        <v>2669.6760727414307</v>
       </c>
       <c r="J45" s="102">
         <f>main_nipas!O3/1000</f>
-        <v>2651.8233912212254</v>
+        <v>2675.6447174458167</v>
       </c>
       <c r="K45" s="263">
         <f>main_nipas!P3/1000</f>
-        <v>2719.3294377647844</v>
+        <v>2739.2773218034386</v>
       </c>
       <c r="L45" s="104">
         <f>K45*(1+L47)</f>
-        <v>2746.8635237459466</v>
+        <v>2767.0133865322414</v>
       </c>
       <c r="M45" s="104">
         <f t="shared" ref="M45:AA45" si="12">L45*(1+M47)</f>
-        <v>2746.0255879751949</v>
+        <v>2766.1693040087807</v>
       </c>
       <c r="N45" s="104">
         <f t="shared" si="12"/>
-        <v>2705.901502976767</v>
+        <v>2725.7508852001165</v>
       </c>
       <c r="O45" s="104">
         <f t="shared" si="12"/>
-        <v>2708.9392922866236</v>
+        <v>2728.8109584848548</v>
       </c>
       <c r="P45" s="104">
         <f t="shared" si="12"/>
-        <v>2713.6171469859569</v>
+        <v>2733.5231280052599</v>
       </c>
       <c r="Q45" s="104">
         <f t="shared" si="12"/>
-        <v>2719.4166409739951</v>
+        <v>2739.3651646995804</v>
       </c>
       <c r="R45" s="104">
         <f t="shared" si="12"/>
-        <v>2728.4298591419433</v>
+        <v>2748.4445001346503</v>
       </c>
       <c r="S45" s="104">
         <f t="shared" si="12"/>
-        <v>2756.0088021875922</v>
+        <v>2776.2257509809442</v>
       </c>
       <c r="T45" s="104">
         <f t="shared" si="12"/>
-        <v>2782.5088060069247</v>
+        <v>2802.9201479458334</v>
       </c>
       <c r="U45" s="104">
         <f t="shared" si="12"/>
-        <v>2803.9781337745972</v>
+        <v>2824.5469658854395</v>
       </c>
       <c r="V45" s="104">
         <f t="shared" si="12"/>
-        <v>2822.363811428108</v>
+        <v>2843.0675133199748</v>
       </c>
       <c r="W45" s="104">
         <f t="shared" si="12"/>
-        <v>2887.503281247346</v>
+        <v>2908.6848195397047</v>
       </c>
       <c r="X45" s="104">
         <f t="shared" si="12"/>
-        <v>2942.4926160993214</v>
+        <v>2964.0775335702951</v>
       </c>
       <c r="Y45" s="104">
         <f t="shared" si="12"/>
-        <v>2988.4903004301636</v>
+        <v>3010.4126380240309</v>
       </c>
       <c r="Z45" s="104">
         <f t="shared" si="12"/>
-        <v>3024.5287025966472</v>
+        <v>3046.7154031093178</v>
       </c>
       <c r="AA45" s="104">
         <f t="shared" si="12"/>
-        <v>3043.9442013480525</v>
+        <v>3066.2733259864162</v>
       </c>
       <c r="AB45" s="95"/>
     </row>
@@ -32433,79 +34961,79 @@
       </c>
       <c r="I48" s="217">
         <f t="shared" si="30"/>
-        <v>894.73597252476429</v>
+        <v>814.93597252476366</v>
       </c>
       <c r="J48" s="217">
         <f t="shared" si="30"/>
-        <v>946.34373813540742</v>
+        <v>970.16506435999872</v>
       </c>
       <c r="K48" s="264">
         <f t="shared" si="30"/>
-        <v>967.37032935143043</v>
+        <v>987.31821339008457</v>
       </c>
       <c r="L48" s="217">
         <f t="shared" si="30"/>
-        <v>977.16526535811067</v>
+        <v>997.31512814440543</v>
       </c>
       <c r="M48" s="217">
         <f t="shared" si="30"/>
-        <v>976.86717929642577</v>
+        <v>997.01089533001164</v>
       </c>
       <c r="N48" s="217">
         <f t="shared" si="30"/>
-        <v>962.593495210632</v>
+        <v>982.44287743398149</v>
       </c>
       <c r="O48" s="150">
         <f t="shared" si="30"/>
-        <v>963.67415399524475</v>
+        <v>983.54582019347595</v>
       </c>
       <c r="P48" s="217">
         <f t="shared" si="30"/>
-        <v>965.33824727438491</v>
+        <v>985.24422829368791</v>
       </c>
       <c r="Q48" s="217">
         <f t="shared" si="30"/>
-        <v>967.40135089521414</v>
+        <v>987.34987462079948</v>
       </c>
       <c r="R48" s="217">
         <f t="shared" si="30"/>
-        <v>970.60770011740033</v>
+        <v>990.6223411101073</v>
       </c>
       <c r="S48" s="150">
         <f t="shared" si="30"/>
-        <v>980.41859351145831</v>
+        <v>1000.6355423048103</v>
       </c>
       <c r="T48" s="217">
         <f t="shared" si="30"/>
-        <v>989.84566662239172</v>
+        <v>1010.2570085613004</v>
       </c>
       <c r="U48" s="217">
         <f t="shared" si="30"/>
-        <v>997.48313429553923</v>
+        <v>1018.0519664063816</v>
       </c>
       <c r="V48" s="217">
         <f t="shared" si="30"/>
-        <v>1004.0236287277419</v>
+        <v>1024.7273306196087</v>
       </c>
       <c r="W48" s="150">
         <f t="shared" si="30"/>
-        <v>1027.196249704702</v>
+        <v>1048.3777879970608</v>
       </c>
       <c r="X48" s="217">
         <f t="shared" si="30"/>
-        <v>1046.7580763182134</v>
+        <v>1068.3429937891872</v>
       </c>
       <c r="Y48" s="217">
         <f t="shared" si="30"/>
-        <v>1063.1212261530877</v>
+        <v>1085.043563746955</v>
       </c>
       <c r="Z48" s="217">
         <f t="shared" si="30"/>
-        <v>1075.9414753251583</v>
+        <v>1098.1281758378288</v>
       </c>
       <c r="AA48" s="150">
         <f t="shared" si="30"/>
-        <v>1082.8483168283735</v>
+        <v>1105.1774414667373</v>
       </c>
       <c r="AB48" s="244"/>
     </row>
@@ -32582,7 +35110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF91FBF1-BB27-2541-88CA-5AE1F2ACBE56}">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -32747,10 +35275,10 @@
         <v>98.551231642654102</v>
       </c>
       <c r="G5" s="259">
-        <v>894.73597252476429</v>
+        <v>814.93597252476366</v>
       </c>
       <c r="H5" s="259">
-        <v>442.79632714447837</v>
+        <v>409.04299381114504</v>
       </c>
       <c r="I5" s="259">
         <v>67.261751256205002</v>
@@ -32776,10 +35304,10 @@
         <v>134.39780552942921</v>
       </c>
       <c r="G6" s="259">
-        <v>946.34373813540742</v>
+        <v>970.16506435999872</v>
       </c>
       <c r="H6" s="259">
-        <v>350.8990428229107</v>
+        <v>407.11237615624407</v>
       </c>
       <c r="I6" s="259">
         <v>63.106744514582999</v>
@@ -32805,10 +35333,10 @@
         <v>141.18377161901594</v>
       </c>
       <c r="G7" s="259">
-        <v>967.37032935143043</v>
+        <v>987.31821339008457</v>
       </c>
       <c r="H7" s="259">
-        <v>-305.73747330127003</v>
+        <v>-331.15747330126999</v>
       </c>
       <c r="I7" s="259">
         <v>60.548462812038906</v>
@@ -32834,7 +35362,7 @@
         <v>147.96973770860268</v>
       </c>
       <c r="G8" s="259">
-        <v>977.16526535811067</v>
+        <v>997.31512814440543</v>
       </c>
       <c r="H8" s="259">
         <v>-333.15003590766503</v>
@@ -32863,7 +35391,7 @@
         <v>154.75570379818942</v>
       </c>
       <c r="G9" s="259">
-        <v>976.86717929642577</v>
+        <v>997.01089533001164</v>
       </c>
       <c r="H9" s="259">
         <v>-334.75716524847383</v>
@@ -32892,7 +35420,7 @@
         <v>161.54166988777604</v>
       </c>
       <c r="G10" s="259">
-        <v>962.593495210632</v>
+        <v>982.44287743398149</v>
       </c>
       <c r="H10" s="259">
         <v>-336.33915700835234</v>
@@ -32921,7 +35449,7 @@
         <v>163.19431211633355</v>
       </c>
       <c r="G11" s="259">
-        <v>963.67415399524475</v>
+        <v>983.54582019347595</v>
       </c>
       <c r="H11" s="259">
         <v>-337.91109373585869</v>
@@ -32950,7 +35478,7 @@
         <v>164.84695434489106</v>
       </c>
       <c r="G12" s="259">
-        <v>965.33824727438491</v>
+        <v>985.24422829368791</v>
       </c>
       <c r="H12" s="259">
         <v>-339.47967878590765</v>
@@ -32979,7 +35507,7 @@
         <v>166.49959657344857</v>
       </c>
       <c r="G13" s="259">
-        <v>967.40135089521414</v>
+        <v>987.34987462079948</v>
       </c>
       <c r="H13" s="259">
         <v>-341.05329135214311</v>
@@ -33008,7 +35536,7 @@
         <v>168.15223880200608</v>
       </c>
       <c r="G14" s="259">
-        <v>970.60770011740033</v>
+        <v>990.6223411101073</v>
       </c>
       <c r="H14" s="259">
         <v>-342.64198646693649</v>
@@ -33037,7 +35565,7 @@
         <v>169.11275307102915</v>
       </c>
       <c r="G15" s="259">
-        <v>980.41859351145831</v>
+        <v>1000.6355423048103</v>
       </c>
       <c r="H15" s="259">
         <v>-344.24576413028785</v>
@@ -33066,7 +35594,7 @@
         <v>170.0732673400521</v>
       </c>
       <c r="G16" s="259">
-        <v>989.84566662239172</v>
+        <v>1010.2570085613004</v>
       </c>
       <c r="H16" s="259">
         <v>-345.85959682601151</v>
@@ -33095,7 +35623,7 @@
         <v>171.03378160907505</v>
       </c>
       <c r="G17" s="259">
-        <v>997.48313429553923</v>
+        <v>1018.0519664063816</v>
       </c>
       <c r="H17" s="259">
         <v>-347.47007784427768</v>
@@ -33124,7 +35652,7 @@
         <v>171.99429587809789</v>
       </c>
       <c r="G18" s="259">
-        <v>1004.0236287277419</v>
+        <v>1024.7273306196087</v>
       </c>
       <c r="H18" s="259">
         <v>-349.08558637873045</v>
@@ -33153,7 +35681,7 @@
         <v>177.03782568010843</v>
       </c>
       <c r="G19" s="259">
-        <v>1027.196249704702</v>
+        <v>1048.3777879970608</v>
       </c>
       <c r="H19" s="259">
         <v>-350.7044465906398</v>
@@ -33182,7 +35710,7 @@
         <v>182.08135548211885</v>
       </c>
       <c r="G20" s="259">
-        <v>1046.7580763182134</v>
+        <v>1068.3429937891872</v>
       </c>
       <c r="H20" s="259">
         <v>-352.32163096382084</v>
@@ -33211,7 +35739,7 @@
         <v>187.1248852841295</v>
       </c>
       <c r="G21" s="259">
-        <v>1063.1212261530877</v>
+        <v>1085.043563746955</v>
       </c>
       <c r="H21" s="259">
         <v>-353.91870527225819</v>
@@ -33240,7 +35768,7 @@
         <v>192.16841508613993</v>
       </c>
       <c r="G22" s="259">
-        <v>1075.9414753251583</v>
+        <v>1098.1281758378288</v>
       </c>
       <c r="H22" s="259">
         <v>-355.5040487095942</v>
@@ -33269,7 +35797,7 @@
         <v>195.56822397322026</v>
       </c>
       <c r="G23" s="259">
-        <v>1082.8483168283735</v>
+        <v>1105.1774414667373</v>
       </c>
       <c r="H23" s="259">
         <v>-357.07766127582966</v>
@@ -33279,1053 +35807,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCD553-49A9-442A-A3CE-215FCFDE89C7}">
-  <dimension ref="A1:K34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="297" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="350" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="350" t="s">
-        <v>313</v>
-      </c>
-      <c r="C1" s="350" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1" s="350" t="s">
-        <v>315</v>
-      </c>
-      <c r="E1" s="350" t="s">
-        <v>316</v>
-      </c>
-      <c r="F1" s="350" t="s">
-        <v>317</v>
-      </c>
-      <c r="G1" s="350" t="s">
-        <v>318</v>
-      </c>
-      <c r="H1" s="350" t="s">
-        <v>319</v>
-      </c>
-      <c r="I1" s="350" t="s">
-        <v>320</v>
-      </c>
-      <c r="J1" s="350" t="s">
-        <v>363</v>
-      </c>
-      <c r="K1" s="350" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H2" t="s">
-        <v>407</v>
-      </c>
-      <c r="I2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J2" t="s">
-        <v>409</v>
-      </c>
-      <c r="K2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" t="s">
-        <v>413</v>
-      </c>
-      <c r="E3" t="s">
-        <v>414</v>
-      </c>
-      <c r="F3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G3" t="s">
-        <v>416</v>
-      </c>
-      <c r="H3" t="s">
-        <v>417</v>
-      </c>
-      <c r="I3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J3" t="s">
-        <v>419</v>
-      </c>
-      <c r="K3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D4" t="s">
-        <v>423</v>
-      </c>
-      <c r="E4" t="s">
-        <v>424</v>
-      </c>
-      <c r="F4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H4" t="s">
-        <v>427</v>
-      </c>
-      <c r="I4" t="s">
-        <v>428</v>
-      </c>
-      <c r="J4" t="s">
-        <v>429</v>
-      </c>
-      <c r="K4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D5" t="s">
-        <v>433</v>
-      </c>
-      <c r="E5" t="s">
-        <v>434</v>
-      </c>
-      <c r="F5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G5" t="s">
-        <v>436</v>
-      </c>
-      <c r="H5" t="s">
-        <v>437</v>
-      </c>
-      <c r="I5" t="s">
-        <v>438</v>
-      </c>
-      <c r="J5" t="s">
-        <v>439</v>
-      </c>
-      <c r="K5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C6" t="s">
-        <v>442</v>
-      </c>
-      <c r="D6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E6" t="s">
-        <v>444</v>
-      </c>
-      <c r="F6" t="s">
-        <v>445</v>
-      </c>
-      <c r="G6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H6" t="s">
-        <v>447</v>
-      </c>
-      <c r="I6" t="s">
-        <v>448</v>
-      </c>
-      <c r="J6" t="s">
-        <v>449</v>
-      </c>
-      <c r="K6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G7" t="s">
-        <v>456</v>
-      </c>
-      <c r="H7" t="s">
-        <v>457</v>
-      </c>
-      <c r="I7" t="s">
-        <v>458</v>
-      </c>
-      <c r="J7" t="s">
-        <v>459</v>
-      </c>
-      <c r="K7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D8" t="s">
-        <v>463</v>
-      </c>
-      <c r="E8" t="s">
-        <v>464</v>
-      </c>
-      <c r="F8" t="s">
-        <v>465</v>
-      </c>
-      <c r="G8" t="s">
-        <v>466</v>
-      </c>
-      <c r="H8" t="s">
-        <v>467</v>
-      </c>
-      <c r="I8" t="s">
-        <v>468</v>
-      </c>
-      <c r="J8" t="s">
-        <v>469</v>
-      </c>
-      <c r="K8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B9" t="s">
-        <v>471</v>
-      </c>
-      <c r="C9" t="s">
-        <v>472</v>
-      </c>
-      <c r="D9" t="s">
-        <v>473</v>
-      </c>
-      <c r="E9" t="s">
-        <v>474</v>
-      </c>
-      <c r="F9" t="s">
-        <v>475</v>
-      </c>
-      <c r="G9" t="s">
-        <v>476</v>
-      </c>
-      <c r="H9" t="s">
-        <v>477</v>
-      </c>
-      <c r="I9" t="s">
-        <v>478</v>
-      </c>
-      <c r="J9" t="s">
-        <v>479</v>
-      </c>
-      <c r="K9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C10" t="s">
-        <v>482</v>
-      </c>
-      <c r="D10" t="s">
-        <v>483</v>
-      </c>
-      <c r="E10" t="s">
-        <v>484</v>
-      </c>
-      <c r="F10" t="s">
-        <v>485</v>
-      </c>
-      <c r="G10" t="s">
-        <v>486</v>
-      </c>
-      <c r="H10" t="s">
-        <v>487</v>
-      </c>
-      <c r="I10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J10" t="s">
-        <v>489</v>
-      </c>
-      <c r="K10" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B11" t="s">
-        <v>491</v>
-      </c>
-      <c r="C11" t="s">
-        <v>492</v>
-      </c>
-      <c r="D11" t="s">
-        <v>493</v>
-      </c>
-      <c r="E11" t="s">
-        <v>494</v>
-      </c>
-      <c r="F11" t="s">
-        <v>495</v>
-      </c>
-      <c r="G11" t="s">
-        <v>496</v>
-      </c>
-      <c r="H11" t="s">
-        <v>497</v>
-      </c>
-      <c r="I11" t="s">
-        <v>498</v>
-      </c>
-      <c r="J11" t="s">
-        <v>499</v>
-      </c>
-      <c r="K11" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" t="s">
-        <v>501</v>
-      </c>
-      <c r="C12" t="s">
-        <v>502</v>
-      </c>
-      <c r="D12" t="s">
-        <v>503</v>
-      </c>
-      <c r="E12" t="s">
-        <v>504</v>
-      </c>
-      <c r="F12" t="s">
-        <v>505</v>
-      </c>
-      <c r="G12" t="s">
-        <v>506</v>
-      </c>
-      <c r="H12" t="s">
-        <v>507</v>
-      </c>
-      <c r="I12" t="s">
-        <v>508</v>
-      </c>
-      <c r="J12" t="s">
-        <v>509</v>
-      </c>
-      <c r="K12" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" t="s">
-        <v>512</v>
-      </c>
-      <c r="D13" t="s">
-        <v>513</v>
-      </c>
-      <c r="E13" t="s">
-        <v>514</v>
-      </c>
-      <c r="F13" t="s">
-        <v>515</v>
-      </c>
-      <c r="G13" t="s">
-        <v>516</v>
-      </c>
-      <c r="H13" t="s">
-        <v>517</v>
-      </c>
-      <c r="I13" t="s">
-        <v>518</v>
-      </c>
-      <c r="J13" t="s">
-        <v>519</v>
-      </c>
-      <c r="K13" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" t="s">
-        <v>521</v>
-      </c>
-      <c r="C14" t="s">
-        <v>522</v>
-      </c>
-      <c r="D14" t="s">
-        <v>523</v>
-      </c>
-      <c r="E14" t="s">
-        <v>524</v>
-      </c>
-      <c r="F14" t="s">
-        <v>525</v>
-      </c>
-      <c r="G14" t="s">
-        <v>526</v>
-      </c>
-      <c r="H14" t="s">
-        <v>527</v>
-      </c>
-      <c r="I14" t="s">
-        <v>528</v>
-      </c>
-      <c r="J14" t="s">
-        <v>529</v>
-      </c>
-      <c r="K14" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>294</v>
-      </c>
-      <c r="H15" t="s">
-        <v>531</v>
-      </c>
-      <c r="I15" t="s">
-        <v>532</v>
-      </c>
-      <c r="J15" t="s">
-        <v>533</v>
-      </c>
-      <c r="K15" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>295</v>
-      </c>
-      <c r="B16" t="s">
-        <v>535</v>
-      </c>
-      <c r="C16" t="s">
-        <v>536</v>
-      </c>
-      <c r="D16" t="s">
-        <v>537</v>
-      </c>
-      <c r="E16" t="s">
-        <v>538</v>
-      </c>
-      <c r="F16" t="s">
-        <v>539</v>
-      </c>
-      <c r="G16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H16" t="s">
-        <v>541</v>
-      </c>
-      <c r="I16" t="s">
-        <v>542</v>
-      </c>
-      <c r="J16" t="s">
-        <v>543</v>
-      </c>
-      <c r="K16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>296</v>
-      </c>
-      <c r="H17" t="s">
-        <v>545</v>
-      </c>
-      <c r="I17" t="s">
-        <v>546</v>
-      </c>
-      <c r="J17" t="s">
-        <v>547</v>
-      </c>
-      <c r="K17" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>297</v>
-      </c>
-      <c r="H18" t="s">
-        <v>548</v>
-      </c>
-      <c r="I18" t="s">
-        <v>549</v>
-      </c>
-      <c r="J18" t="s">
-        <v>550</v>
-      </c>
-      <c r="K18" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>298</v>
-      </c>
-      <c r="B19" t="s">
-        <v>552</v>
-      </c>
-      <c r="C19" t="s">
-        <v>553</v>
-      </c>
-      <c r="D19" t="s">
-        <v>554</v>
-      </c>
-      <c r="E19" t="s">
-        <v>555</v>
-      </c>
-      <c r="F19" t="s">
-        <v>556</v>
-      </c>
-      <c r="G19" t="s">
-        <v>557</v>
-      </c>
-      <c r="H19" t="s">
-        <v>558</v>
-      </c>
-      <c r="I19" t="s">
-        <v>559</v>
-      </c>
-      <c r="J19" t="s">
-        <v>560</v>
-      </c>
-      <c r="K19" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>299</v>
-      </c>
-      <c r="H20" t="s">
-        <v>562</v>
-      </c>
-      <c r="I20" t="s">
-        <v>563</v>
-      </c>
-      <c r="J20" t="s">
-        <v>564</v>
-      </c>
-      <c r="K20" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>300</v>
-      </c>
-      <c r="H21" t="s">
-        <v>566</v>
-      </c>
-      <c r="I21" t="s">
-        <v>567</v>
-      </c>
-      <c r="J21" t="s">
-        <v>568</v>
-      </c>
-      <c r="K21" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>301</v>
-      </c>
-      <c r="H22" t="s">
-        <v>570</v>
-      </c>
-      <c r="I22" t="s">
-        <v>570</v>
-      </c>
-      <c r="J22" t="s">
-        <v>570</v>
-      </c>
-      <c r="K22" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>302</v>
-      </c>
-      <c r="H23" t="s">
-        <v>571</v>
-      </c>
-      <c r="I23" t="s">
-        <v>571</v>
-      </c>
-      <c r="J23" t="s">
-        <v>571</v>
-      </c>
-      <c r="K23" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>303</v>
-      </c>
-      <c r="B24" t="s">
-        <v>573</v>
-      </c>
-      <c r="C24" t="s">
-        <v>574</v>
-      </c>
-      <c r="D24" t="s">
-        <v>575</v>
-      </c>
-      <c r="E24" t="s">
-        <v>576</v>
-      </c>
-      <c r="F24" t="s">
-        <v>577</v>
-      </c>
-      <c r="G24" t="s">
-        <v>578</v>
-      </c>
-      <c r="H24" t="s">
-        <v>579</v>
-      </c>
-      <c r="I24" t="s">
-        <v>580</v>
-      </c>
-      <c r="J24" t="s">
-        <v>581</v>
-      </c>
-      <c r="K24" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>306</v>
-      </c>
-      <c r="B25" t="s">
-        <v>583</v>
-      </c>
-      <c r="C25" t="s">
-        <v>584</v>
-      </c>
-      <c r="D25" t="s">
-        <v>585</v>
-      </c>
-      <c r="E25" t="s">
-        <v>586</v>
-      </c>
-      <c r="F25" t="s">
-        <v>587</v>
-      </c>
-      <c r="G25" t="s">
-        <v>588</v>
-      </c>
-      <c r="H25" t="s">
-        <v>589</v>
-      </c>
-      <c r="I25" t="s">
-        <v>590</v>
-      </c>
-      <c r="J25" t="s">
-        <v>591</v>
-      </c>
-      <c r="K25" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>305</v>
-      </c>
-      <c r="B26" t="s">
-        <v>593</v>
-      </c>
-      <c r="C26" t="s">
-        <v>594</v>
-      </c>
-      <c r="D26" t="s">
-        <v>595</v>
-      </c>
-      <c r="E26" t="s">
-        <v>596</v>
-      </c>
-      <c r="F26" t="s">
-        <v>597</v>
-      </c>
-      <c r="G26" t="s">
-        <v>598</v>
-      </c>
-      <c r="H26" t="s">
-        <v>599</v>
-      </c>
-      <c r="I26" t="s">
-        <v>600</v>
-      </c>
-      <c r="J26" t="s">
-        <v>601</v>
-      </c>
-      <c r="K26" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>307</v>
-      </c>
-      <c r="B27" t="s">
-        <v>603</v>
-      </c>
-      <c r="C27" t="s">
-        <v>604</v>
-      </c>
-      <c r="D27" t="s">
-        <v>605</v>
-      </c>
-      <c r="E27" t="s">
-        <v>606</v>
-      </c>
-      <c r="F27" t="s">
-        <v>607</v>
-      </c>
-      <c r="G27" t="s">
-        <v>608</v>
-      </c>
-      <c r="H27" t="s">
-        <v>609</v>
-      </c>
-      <c r="I27" t="s">
-        <v>610</v>
-      </c>
-      <c r="J27" t="s">
-        <v>611</v>
-      </c>
-      <c r="K27" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>308</v>
-      </c>
-      <c r="B28" t="s">
-        <v>613</v>
-      </c>
-      <c r="C28" t="s">
-        <v>614</v>
-      </c>
-      <c r="D28" t="s">
-        <v>615</v>
-      </c>
-      <c r="E28" t="s">
-        <v>616</v>
-      </c>
-      <c r="F28" t="s">
-        <v>617</v>
-      </c>
-      <c r="G28" t="s">
-        <v>618</v>
-      </c>
-      <c r="H28" t="s">
-        <v>619</v>
-      </c>
-      <c r="I28" t="s">
-        <v>620</v>
-      </c>
-      <c r="J28" t="s">
-        <v>621</v>
-      </c>
-      <c r="K28" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>309</v>
-      </c>
-      <c r="B29" t="s">
-        <v>623</v>
-      </c>
-      <c r="C29" t="s">
-        <v>624</v>
-      </c>
-      <c r="D29" t="s">
-        <v>625</v>
-      </c>
-      <c r="E29" t="s">
-        <v>626</v>
-      </c>
-      <c r="F29" t="s">
-        <v>627</v>
-      </c>
-      <c r="G29" t="s">
-        <v>628</v>
-      </c>
-      <c r="H29" t="s">
-        <v>629</v>
-      </c>
-      <c r="I29" t="s">
-        <v>630</v>
-      </c>
-      <c r="J29" t="s">
-        <v>631</v>
-      </c>
-      <c r="K29" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>310</v>
-      </c>
-      <c r="B30" t="s">
-        <v>633</v>
-      </c>
-      <c r="C30" t="s">
-        <v>634</v>
-      </c>
-      <c r="D30" t="s">
-        <v>635</v>
-      </c>
-      <c r="E30" t="s">
-        <v>636</v>
-      </c>
-      <c r="F30" t="s">
-        <v>637</v>
-      </c>
-      <c r="G30" t="s">
-        <v>638</v>
-      </c>
-      <c r="H30" t="s">
-        <v>639</v>
-      </c>
-      <c r="I30" t="s">
-        <v>640</v>
-      </c>
-      <c r="J30" t="s">
-        <v>641</v>
-      </c>
-      <c r="K30" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>311</v>
-      </c>
-      <c r="B31" t="s">
-        <v>643</v>
-      </c>
-      <c r="C31" t="s">
-        <v>644</v>
-      </c>
-      <c r="D31" t="s">
-        <v>645</v>
-      </c>
-      <c r="E31" t="s">
-        <v>646</v>
-      </c>
-      <c r="F31" t="s">
-        <v>647</v>
-      </c>
-      <c r="G31" t="s">
-        <v>648</v>
-      </c>
-      <c r="H31" t="s">
-        <v>649</v>
-      </c>
-      <c r="I31" t="s">
-        <v>650</v>
-      </c>
-      <c r="J31" t="s">
-        <v>651</v>
-      </c>
-      <c r="K31" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>290</v>
-      </c>
-      <c r="B32" t="s">
-        <v>653</v>
-      </c>
-      <c r="C32" t="s">
-        <v>654</v>
-      </c>
-      <c r="D32" t="s">
-        <v>655</v>
-      </c>
-      <c r="E32" t="s">
-        <v>656</v>
-      </c>
-      <c r="F32" t="s">
-        <v>657</v>
-      </c>
-      <c r="G32" t="s">
-        <v>658</v>
-      </c>
-      <c r="H32" t="s">
-        <v>659</v>
-      </c>
-      <c r="I32" t="s">
-        <v>660</v>
-      </c>
-      <c r="J32" t="s">
-        <v>661</v>
-      </c>
-      <c r="K32" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>324</v>
-      </c>
-      <c r="H33" t="s">
-        <v>663</v>
-      </c>
-      <c r="I33" t="s">
-        <v>664</v>
-      </c>
-      <c r="J33" t="s">
-        <v>665</v>
-      </c>
-      <c r="K33" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>304</v>
-      </c>
-      <c r="H34" t="s">
-        <v>667</v>
-      </c>
-      <c r="I34" t="s">
-        <v>668</v>
-      </c>
-      <c r="J34" t="s">
-        <v>669</v>
-      </c>
-      <c r="K34" t="s">
-        <v>670</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/add_factors.xlsx
+++ b/data/add_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D906FEA-ECB3-DC41-B3CE-8C40C2C0F076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FE7C7B-9714-5841-B807-FA19CB3D5B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="760" windowWidth="33600" windowHeight="19720" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="33600" windowHeight="19720" activeTab="4" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -603,6 +603,24 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={FBBB850E-DE70-AF43-9697-A8ACB4217F29}</author>
+  </authors>
+  <commentList>
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{FBBB850E-DE70-AF43-9697-A8ACB4217F29}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Why were these 30? 26.5 + 14/4</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={8BC26E33-999B-CB4A-87A5-22E26D662D33}</author>
   </authors>
   <commentList>
@@ -619,7 +637,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={0D11DB45-5F45-4101-88CC-04004C002B30}</author>
@@ -4501,6 +4519,73 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4526,6 +4611,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4624,82 +4718,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="12" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5184,6 +5202,14 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O6" dT="2021-06-01T20:43:50.64" personId="{CE7965FB-6D9A-C247-A3AE-EA28428512F3}" id="{FBBB850E-DE70-AF43-9697-A8ACB4217F29}">
+    <text>Why were these 30? 26.5 + 14/4</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="U2" dT="2020-11-18T17:27:07.54" personId="{CE7965FB-6D9A-C247-A3AE-EA28428512F3}" id="{8BC26E33-999B-CB4A-87A5-22E26D662D33}">
     <text xml:space="preserve">Extend medicaid estimates before Q4 update
 </text>
@@ -5191,7 +5217,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="E24" dT="2020-09-10T16:45:02.83" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{0D11DB45-5F45-4101-88CC-04004C002B30}">
     <text>remove the legislation pre-covid level</text>
@@ -5212,11 +5238,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N30" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="L78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P46" sqref="P46"/>
+      <selection pane="bottomRight" activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5239,86 +5265,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="355" t="s">
+      <c r="A1" s="382" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="355"/>
+      <c r="B1" s="382"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
         <v>362</v>
       </c>
-      <c r="AC1" s="361" t="s">
+      <c r="AC1" s="388" t="s">
         <v>242</v>
       </c>
-      <c r="AD1" s="361"/>
-      <c r="AE1" s="359" t="s">
+      <c r="AD1" s="388"/>
+      <c r="AE1" s="386" t="s">
         <v>240</v>
       </c>
-      <c r="AF1" s="360"/>
+      <c r="AF1" s="387"/>
       <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="357" t="s">
+      <c r="AI1" s="384" t="s">
         <v>272</v>
       </c>
-      <c r="AJ1" s="357"/>
-      <c r="AK1" s="357"/>
-      <c r="AL1" s="357"/>
-      <c r="AM1" s="356" t="s">
+      <c r="AJ1" s="384"/>
+      <c r="AK1" s="384"/>
+      <c r="AL1" s="384"/>
+      <c r="AM1" s="383" t="s">
         <v>270</v>
       </c>
-      <c r="AN1" s="356"/>
-      <c r="AO1" s="356"/>
-      <c r="AP1" s="356"/>
+      <c r="AN1" s="383"/>
+      <c r="AO1" s="383"/>
+      <c r="AP1" s="383"/>
     </row>
     <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="354" t="s">
+      <c r="F2" s="381" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="354"/>
-      <c r="H2" s="354"/>
-      <c r="I2" s="354"/>
-      <c r="J2" s="354" t="s">
+      <c r="G2" s="381"/>
+      <c r="H2" s="381"/>
+      <c r="I2" s="381"/>
+      <c r="J2" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="354"/>
-      <c r="L2" s="354"/>
-      <c r="M2" s="354"/>
-      <c r="N2" s="354" t="s">
+      <c r="K2" s="381"/>
+      <c r="L2" s="381"/>
+      <c r="M2" s="381"/>
+      <c r="N2" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="354"/>
-      <c r="P2" s="354"/>
-      <c r="Q2" s="354"/>
-      <c r="R2" s="354" t="s">
+      <c r="O2" s="381"/>
+      <c r="P2" s="381"/>
+      <c r="Q2" s="381"/>
+      <c r="R2" s="381" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="354"/>
-      <c r="T2" s="354"/>
-      <c r="U2" s="354"/>
-      <c r="V2" s="354" t="s">
+      <c r="S2" s="381"/>
+      <c r="T2" s="381"/>
+      <c r="U2" s="381"/>
+      <c r="V2" s="381" t="s">
         <v>260</v>
       </c>
-      <c r="W2" s="354"/>
-      <c r="X2" s="354"/>
-      <c r="Y2" s="354"/>
+      <c r="W2" s="381"/>
+      <c r="X2" s="381"/>
+      <c r="Y2" s="381"/>
       <c r="Z2" s="221"/>
       <c r="AA2" s="283"/>
       <c r="AB2" s="221"/>
-      <c r="AC2" s="354" t="s">
+      <c r="AC2" s="381" t="s">
         <v>101</v>
       </c>
-      <c r="AD2" s="354"/>
-      <c r="AE2" s="354"/>
-      <c r="AF2" s="354"/>
-      <c r="AG2" s="354"/>
-      <c r="AH2" s="354"/>
-      <c r="AI2" s="354"/>
-      <c r="AJ2" s="354"/>
-      <c r="AK2" s="354"/>
-      <c r="AL2" s="358"/>
+      <c r="AD2" s="381"/>
+      <c r="AE2" s="381"/>
+      <c r="AF2" s="381"/>
+      <c r="AG2" s="381"/>
+      <c r="AH2" s="381"/>
+      <c r="AI2" s="381"/>
+      <c r="AJ2" s="381"/>
+      <c r="AK2" s="381"/>
+      <c r="AL2" s="385"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="F3" s="197" t="s">
@@ -5425,10 +5451,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="353" t="s">
+      <c r="A4" s="380" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="353"/>
+      <c r="B4" s="380"/>
       <c r="C4" s="268"/>
       <c r="D4" s="268"/>
       <c r="F4" s="197"/>
@@ -8894,7 +8920,7 @@
         <v>738800</v>
       </c>
       <c r="Q55" s="116">
-        <f t="shared" ref="P55:V55" si="38">Q57+Q58+SUM(Q63:Q66)</f>
+        <f t="shared" ref="Q55:V55" si="38">Q57+Q58+SUM(Q63:Q66)</f>
         <v>738800</v>
       </c>
       <c r="R55" s="116">
@@ -9337,7 +9363,7 @@
         <f>('Stimulus Round 2'!$C$12*4-SUM(O64:P64))</f>
         <v>13000</v>
       </c>
-      <c r="R64" s="396"/>
+      <c r="R64" s="353"/>
       <c r="S64" s="279"/>
       <c r="T64" s="279"/>
       <c r="U64" s="279"/>
@@ -15027,50 +15053,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="371" t="s">
+      <c r="A5" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="372"/>
-      <c r="C5" s="372"/>
-      <c r="D5" s="372"/>
-      <c r="E5" s="372"/>
-      <c r="F5" s="372"/>
-      <c r="G5" s="372"/>
-      <c r="H5" s="372"/>
-      <c r="I5" s="372"/>
-      <c r="J5" s="372"/>
-      <c r="K5" s="372"/>
-      <c r="L5" s="372"/>
-      <c r="M5" s="372"/>
-      <c r="N5" s="372"/>
-      <c r="O5" s="372"/>
-      <c r="P5" s="372"/>
-      <c r="Q5" s="372"/>
-      <c r="R5" s="372"/>
-      <c r="S5" s="372"/>
+      <c r="B5" s="402"/>
+      <c r="C5" s="402"/>
+      <c r="D5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="402"/>
+      <c r="J5" s="402"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="402"/>
+      <c r="M5" s="402"/>
+      <c r="N5" s="402"/>
+      <c r="O5" s="402"/>
+      <c r="P5" s="402"/>
+      <c r="Q5" s="402"/>
+      <c r="R5" s="402"/>
+      <c r="S5" s="402"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="373" t="s">
+      <c r="A6" s="403" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="373"/>
-      <c r="C6" s="373"/>
-      <c r="D6" s="373"/>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="373"/>
-      <c r="I6" s="373"/>
-      <c r="J6" s="373"/>
-      <c r="K6" s="373"/>
-      <c r="L6" s="373"/>
-      <c r="M6" s="373"/>
-      <c r="N6" s="373"/>
-      <c r="O6" s="373"/>
-      <c r="P6" s="373"/>
-      <c r="Q6" s="373"/>
-      <c r="R6" s="373"/>
-      <c r="S6" s="373"/>
+      <c r="B6" s="403"/>
+      <c r="C6" s="403"/>
+      <c r="D6" s="403"/>
+      <c r="E6" s="403"/>
+      <c r="F6" s="403"/>
+      <c r="G6" s="403"/>
+      <c r="H6" s="403"/>
+      <c r="I6" s="403"/>
+      <c r="J6" s="403"/>
+      <c r="K6" s="403"/>
+      <c r="L6" s="403"/>
+      <c r="M6" s="403"/>
+      <c r="N6" s="403"/>
+      <c r="O6" s="403"/>
+      <c r="P6" s="403"/>
+      <c r="Q6" s="403"/>
+      <c r="R6" s="403"/>
+      <c r="S6" s="403"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -15111,8 +15137,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="374"/>
-      <c r="S8" s="375"/>
+      <c r="R8" s="404"/>
+      <c r="S8" s="405"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="130"/>
@@ -15384,10 +15410,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="355" t="s">
+      <c r="A1" s="382" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="355"/>
+      <c r="B1" s="382"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -15395,18 +15421,18 @@
       <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="376" t="s">
+      <c r="Z1" s="406" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="376"/>
-      <c r="AB1" s="376"/>
-      <c r="AC1" s="354"/>
-      <c r="AD1" s="354"/>
-      <c r="AE1" s="354"/>
-      <c r="AF1" s="354"/>
+      <c r="AA1" s="406"/>
+      <c r="AB1" s="406"/>
+      <c r="AC1" s="381"/>
+      <c r="AD1" s="381"/>
+      <c r="AE1" s="381"/>
+      <c r="AF1" s="381"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="377" t="s">
+      <c r="A2" s="407" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="107"/>
@@ -15415,45 +15441,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="377"/>
+      <c r="A3" s="407"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="377"/>
+      <c r="A4" s="407"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="377"/>
+      <c r="A5" s="407"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C7" s="367" t="s">
+      <c r="C7" s="397" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="368"/>
-      <c r="E7" s="368"/>
-      <c r="F7" s="369"/>
-      <c r="G7" s="367" t="s">
+      <c r="D7" s="398"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="399"/>
+      <c r="G7" s="397" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="368"/>
-      <c r="I7" s="368"/>
-      <c r="J7" s="369"/>
-      <c r="K7" s="367" t="s">
+      <c r="H7" s="398"/>
+      <c r="I7" s="398"/>
+      <c r="J7" s="399"/>
+      <c r="K7" s="397" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="368"/>
-      <c r="M7" s="368"/>
-      <c r="N7" s="369"/>
+      <c r="L7" s="398"/>
+      <c r="M7" s="398"/>
+      <c r="N7" s="399"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -17335,88 +17361,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="378" t="s">
+      <c r="A2" s="408" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
-      <c r="F2" s="378"/>
-      <c r="G2" s="378"/>
-      <c r="H2" s="378"/>
-      <c r="I2" s="378"/>
-      <c r="J2" s="378"/>
+      <c r="B2" s="408"/>
+      <c r="C2" s="408"/>
+      <c r="D2" s="408"/>
+      <c r="E2" s="408"/>
+      <c r="F2" s="408"/>
+      <c r="G2" s="408"/>
+      <c r="H2" s="408"/>
+      <c r="I2" s="408"/>
+      <c r="J2" s="408"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="378" t="s">
+      <c r="A3" s="408" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="378"/>
-      <c r="C3" s="378"/>
-      <c r="D3" s="378"/>
-      <c r="E3" s="378"/>
-      <c r="F3" s="378"/>
-      <c r="G3" s="378"/>
-      <c r="H3" s="378"/>
-      <c r="I3" s="378"/>
-      <c r="J3" s="378"/>
+      <c r="B3" s="408"/>
+      <c r="C3" s="408"/>
+      <c r="D3" s="408"/>
+      <c r="E3" s="408"/>
+      <c r="F3" s="408"/>
+      <c r="G3" s="408"/>
+      <c r="H3" s="408"/>
+      <c r="I3" s="408"/>
+      <c r="J3" s="408"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="379"/>
-      <c r="B4" s="379"/>
-      <c r="C4" s="379"/>
-      <c r="D4" s="379"/>
-      <c r="E4" s="379"/>
-      <c r="F4" s="379"/>
-      <c r="G4" s="379"/>
-      <c r="H4" s="379"/>
-      <c r="I4" s="379"/>
-      <c r="J4" s="379"/>
-      <c r="K4" s="384" t="s">
+      <c r="A4" s="409"/>
+      <c r="B4" s="409"/>
+      <c r="C4" s="409"/>
+      <c r="D4" s="409"/>
+      <c r="E4" s="409"/>
+      <c r="F4" s="409"/>
+      <c r="G4" s="409"/>
+      <c r="H4" s="409"/>
+      <c r="I4" s="409"/>
+      <c r="J4" s="409"/>
+      <c r="K4" s="414" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="384"/>
-      <c r="M4" s="384"/>
-      <c r="N4" s="384"/>
+      <c r="L4" s="414"/>
+      <c r="M4" s="414"/>
+      <c r="N4" s="414"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="380" t="s">
+      <c r="C5" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="381"/>
-      <c r="E5" s="381"/>
-      <c r="F5" s="381"/>
-      <c r="G5" s="381"/>
-      <c r="H5" s="381"/>
-      <c r="I5" s="381"/>
-      <c r="J5" s="382"/>
+      <c r="D5" s="411"/>
+      <c r="E5" s="411"/>
+      <c r="F5" s="411"/>
+      <c r="G5" s="411"/>
+      <c r="H5" s="411"/>
+      <c r="I5" s="411"/>
+      <c r="J5" s="412"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="383" t="s">
+      <c r="L5" s="413" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="354"/>
-      <c r="N5" s="354"/>
+      <c r="M5" s="381"/>
+      <c r="N5" s="381"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="386">
+      <c r="C6" s="416">
         <v>2020</v>
       </c>
-      <c r="D6" s="387"/>
-      <c r="E6" s="387"/>
-      <c r="F6" s="387"/>
-      <c r="G6" s="387"/>
-      <c r="H6" s="387"/>
-      <c r="I6" s="387"/>
-      <c r="J6" s="388"/>
+      <c r="D6" s="417"/>
+      <c r="E6" s="417"/>
+      <c r="F6" s="417"/>
+      <c r="G6" s="417"/>
+      <c r="H6" s="417"/>
+      <c r="I6" s="417"/>
+      <c r="J6" s="418"/>
       <c r="K6" s="78" t="s">
         <v>134</v>
       </c>
@@ -17854,24 +17880,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="354" t="s">
+      <c r="K22" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="354"/>
-      <c r="M22" s="354"/>
-      <c r="N22" s="354"/>
-      <c r="O22" s="354" t="s">
+      <c r="L22" s="381"/>
+      <c r="M22" s="381"/>
+      <c r="N22" s="381"/>
+      <c r="O22" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="354"/>
-      <c r="Q22" s="354"/>
-      <c r="R22" s="354"/>
-      <c r="S22" s="354" t="s">
+      <c r="P22" s="381"/>
+      <c r="Q22" s="381"/>
+      <c r="R22" s="381"/>
+      <c r="S22" s="381" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="354"/>
-      <c r="U22" s="354"/>
-      <c r="V22" s="354"/>
+      <c r="T22" s="381"/>
+      <c r="U22" s="381"/>
+      <c r="V22" s="381"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="67"/>
@@ -17888,12 +17914,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="389" t="s">
+      <c r="K23" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="389"/>
-      <c r="M23" s="389"/>
-      <c r="N23" s="389"/>
+      <c r="L23" s="419"/>
+      <c r="M23" s="419"/>
+      <c r="N23" s="419"/>
       <c r="O23" s="35" t="s">
         <v>145</v>
       </c>
@@ -18062,7 +18088,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="385" t="s">
+      <c r="I28" s="415" t="s">
         <v>252</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -18112,7 +18138,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="385"/>
+      <c r="I29" s="415"/>
       <c r="J29" s="82" t="s">
         <v>142</v>
       </c>
@@ -18160,7 +18186,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="385"/>
+      <c r="I30" s="415"/>
       <c r="J30" s="82" t="s">
         <v>141</v>
       </c>
@@ -18208,7 +18234,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="385"/>
+      <c r="I31" s="415"/>
       <c r="J31" s="35" t="s">
         <v>139</v>
       </c>
@@ -18270,7 +18296,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="385" t="s">
+      <c r="I33" s="415" t="s">
         <v>140</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -18318,7 +18344,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="385"/>
+      <c r="I34" s="415"/>
       <c r="J34" t="s">
         <v>253</v>
       </c>
@@ -18674,30 +18700,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="393" t="s">
+      <c r="E6" s="423" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="393"/>
-      <c r="G6" s="393"/>
-      <c r="H6" s="393"/>
-      <c r="I6" s="393"/>
-      <c r="J6" s="393"/>
-      <c r="K6" s="393"/>
-      <c r="L6" s="393"/>
-      <c r="M6" s="393"/>
-      <c r="N6" s="393"/>
-      <c r="O6" s="393"/>
-      <c r="P6" s="393"/>
-      <c r="Q6" s="393"/>
-      <c r="R6" s="393"/>
+      <c r="F6" s="423"/>
+      <c r="G6" s="423"/>
+      <c r="H6" s="423"/>
+      <c r="I6" s="423"/>
+      <c r="J6" s="423"/>
+      <c r="K6" s="423"/>
+      <c r="L6" s="423"/>
+      <c r="M6" s="423"/>
+      <c r="N6" s="423"/>
+      <c r="O6" s="423"/>
+      <c r="P6" s="423"/>
+      <c r="Q6" s="423"/>
+      <c r="R6" s="423"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="390" t="s">
+      <c r="A7" s="420" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="390"/>
-      <c r="C7" s="390"/>
-      <c r="D7" s="390"/>
+      <c r="B7" s="420"/>
+      <c r="C7" s="420"/>
+      <c r="D7" s="420"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -18715,11 +18741,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
-      <c r="B8" s="390" t="s">
+      <c r="B8" s="420" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="390"/>
-      <c r="D8" s="390"/>
+      <c r="C8" s="420"/>
+      <c r="D8" s="420"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -18765,11 +18791,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
-      <c r="B9" s="390" t="s">
+      <c r="B9" s="420" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="390"/>
-      <c r="D9" s="390"/>
+      <c r="C9" s="420"/>
+      <c r="D9" s="420"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -18815,11 +18841,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
-      <c r="B10" s="390" t="s">
+      <c r="B10" s="420" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="390"/>
-      <c r="D10" s="390"/>
+      <c r="C10" s="420"/>
+      <c r="D10" s="420"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -18865,11 +18891,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
-      <c r="B11" s="390" t="s">
+      <c r="B11" s="420" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="390"/>
-      <c r="D11" s="390"/>
+      <c r="C11" s="420"/>
+      <c r="D11" s="420"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -18964,10 +18990,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="390" t="s">
+      <c r="C13" s="420" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="390"/>
+      <c r="D13" s="420"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -19118,11 +19144,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
-      <c r="B19" s="390" t="s">
+      <c r="B19" s="420" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="390"/>
-      <c r="D19" s="390"/>
+      <c r="C19" s="420"/>
+      <c r="D19" s="420"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -19181,11 +19207,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
-      <c r="B20" s="390" t="s">
+      <c r="B20" s="420" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="390"/>
-      <c r="D20" s="390"/>
+      <c r="C20" s="420"/>
+      <c r="D20" s="420"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -19245,11 +19271,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
-      <c r="B21" s="390" t="s">
+      <c r="B21" s="420" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="390"/>
-      <c r="D21" s="390"/>
+      <c r="C21" s="420"/>
+      <c r="D21" s="420"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -19308,11 +19334,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
-      <c r="B22" s="390" t="s">
+      <c r="B22" s="420" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="390"/>
-      <c r="D22" s="390"/>
+      <c r="C22" s="420"/>
+      <c r="D22" s="420"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -19425,21 +19451,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="391" t="s">
+      <c r="H27" s="421" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="391"/>
-      <c r="J27" s="391"/>
-      <c r="K27" s="391"/>
-      <c r="L27" s="391"/>
-      <c r="M27" s="391"/>
-      <c r="N27" s="391"/>
-      <c r="O27" s="391"/>
-      <c r="P27" s="391"/>
-      <c r="Q27" s="391"/>
-      <c r="R27" s="391"/>
-      <c r="S27" s="391"/>
-      <c r="T27" s="391"/>
+      <c r="I27" s="421"/>
+      <c r="J27" s="421"/>
+      <c r="K27" s="421"/>
+      <c r="L27" s="421"/>
+      <c r="M27" s="421"/>
+      <c r="N27" s="421"/>
+      <c r="O27" s="421"/>
+      <c r="P27" s="421"/>
+      <c r="Q27" s="421"/>
+      <c r="R27" s="421"/>
+      <c r="S27" s="421"/>
+      <c r="T27" s="421"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -19755,21 +19781,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="392" t="s">
+      <c r="F37" s="422" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="392"/>
-      <c r="H37" s="392"/>
-      <c r="I37" s="392"/>
-      <c r="J37" s="392"/>
-      <c r="K37" s="392"/>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
-      <c r="P37" s="392"/>
-      <c r="Q37" s="392"/>
-      <c r="R37" s="392"/>
+      <c r="G37" s="422"/>
+      <c r="H37" s="422"/>
+      <c r="I37" s="422"/>
+      <c r="J37" s="422"/>
+      <c r="K37" s="422"/>
+      <c r="L37" s="422"/>
+      <c r="M37" s="422"/>
+      <c r="N37" s="422"/>
+      <c r="O37" s="422"/>
+      <c r="P37" s="422"/>
+      <c r="Q37" s="422"/>
+      <c r="R37" s="422"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -20085,21 +20111,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="391" t="s">
+      <c r="F48" s="421" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="391"/>
-      <c r="H48" s="391"/>
-      <c r="I48" s="391"/>
-      <c r="J48" s="391"/>
-      <c r="K48" s="391"/>
-      <c r="L48" s="391"/>
-      <c r="M48" s="391"/>
-      <c r="N48" s="391"/>
-      <c r="O48" s="391"/>
-      <c r="P48" s="391"/>
-      <c r="Q48" s="391"/>
-      <c r="R48" s="391"/>
+      <c r="G48" s="421"/>
+      <c r="H48" s="421"/>
+      <c r="I48" s="421"/>
+      <c r="J48" s="421"/>
+      <c r="K48" s="421"/>
+      <c r="L48" s="421"/>
+      <c r="M48" s="421"/>
+      <c r="N48" s="421"/>
+      <c r="O48" s="421"/>
+      <c r="P48" s="421"/>
+      <c r="Q48" s="421"/>
+      <c r="R48" s="421"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -20463,50 +20489,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="371" t="s">
+      <c r="A5" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="372"/>
-      <c r="C5" s="372"/>
-      <c r="D5" s="372"/>
-      <c r="E5" s="372"/>
-      <c r="F5" s="372"/>
-      <c r="G5" s="372"/>
-      <c r="H5" s="372"/>
-      <c r="I5" s="372"/>
-      <c r="J5" s="372"/>
-      <c r="K5" s="372"/>
-      <c r="L5" s="372"/>
-      <c r="M5" s="372"/>
-      <c r="N5" s="372"/>
-      <c r="O5" s="372"/>
-      <c r="P5" s="372"/>
-      <c r="Q5" s="372"/>
-      <c r="R5" s="372"/>
-      <c r="S5" s="372"/>
+      <c r="B5" s="402"/>
+      <c r="C5" s="402"/>
+      <c r="D5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="402"/>
+      <c r="J5" s="402"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="402"/>
+      <c r="M5" s="402"/>
+      <c r="N5" s="402"/>
+      <c r="O5" s="402"/>
+      <c r="P5" s="402"/>
+      <c r="Q5" s="402"/>
+      <c r="R5" s="402"/>
+      <c r="S5" s="402"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="373" t="s">
+      <c r="A6" s="403" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="373"/>
-      <c r="C6" s="373"/>
-      <c r="D6" s="373"/>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="373"/>
-      <c r="I6" s="373"/>
-      <c r="J6" s="373"/>
-      <c r="K6" s="373"/>
-      <c r="L6" s="373"/>
-      <c r="M6" s="373"/>
-      <c r="N6" s="373"/>
-      <c r="O6" s="373"/>
-      <c r="P6" s="373"/>
-      <c r="Q6" s="373"/>
-      <c r="R6" s="373"/>
-      <c r="S6" s="373"/>
+      <c r="B6" s="403"/>
+      <c r="C6" s="403"/>
+      <c r="D6" s="403"/>
+      <c r="E6" s="403"/>
+      <c r="F6" s="403"/>
+      <c r="G6" s="403"/>
+      <c r="H6" s="403"/>
+      <c r="I6" s="403"/>
+      <c r="J6" s="403"/>
+      <c r="K6" s="403"/>
+      <c r="L6" s="403"/>
+      <c r="M6" s="403"/>
+      <c r="N6" s="403"/>
+      <c r="O6" s="403"/>
+      <c r="P6" s="403"/>
+      <c r="Q6" s="403"/>
+      <c r="R6" s="403"/>
+      <c r="S6" s="403"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -20546,10 +20572,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="374" t="s">
+      <c r="R8" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="375"/>
+      <c r="S8" s="405"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
@@ -23420,10 +23446,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="394" t="s">
+      <c r="D75" s="424" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="395"/>
+      <c r="E75" s="425"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -24137,151 +24163,151 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="397" t="s">
+      <c r="A6" s="390" t="s">
         <v>677</v>
       </c>
-      <c r="B6" s="397"/>
-      <c r="C6" s="397"/>
-      <c r="D6" s="397"/>
-      <c r="E6" s="397"/>
-      <c r="F6" s="397"/>
-      <c r="G6" s="397"/>
-      <c r="H6" s="397"/>
-      <c r="I6" s="397"/>
-      <c r="J6" s="397"/>
-      <c r="K6" s="397"/>
-      <c r="L6" s="397"/>
-      <c r="M6" s="397"/>
+      <c r="B6" s="390"/>
+      <c r="C6" s="390"/>
+      <c r="D6" s="390"/>
+      <c r="E6" s="390"/>
+      <c r="F6" s="390"/>
+      <c r="G6" s="390"/>
+      <c r="H6" s="390"/>
+      <c r="I6" s="390"/>
+      <c r="J6" s="390"/>
+      <c r="K6" s="390"/>
+      <c r="L6" s="390"/>
+      <c r="M6" s="390"/>
       <c r="N6" s="352"/>
       <c r="O6" s="352"/>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="398" t="s">
+      <c r="A7" s="354" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="399"/>
-      <c r="C7" s="399"/>
-      <c r="D7" s="399"/>
-      <c r="E7" s="400"/>
-      <c r="F7" s="400"/>
-      <c r="G7" s="400"/>
-      <c r="H7" s="400"/>
-      <c r="I7" s="400"/>
-      <c r="J7" s="400"/>
-      <c r="K7" s="400"/>
-      <c r="L7" s="400"/>
-      <c r="M7" s="400"/>
-      <c r="N7" s="400"/>
-      <c r="O7" s="400"/>
+      <c r="B7" s="355"/>
+      <c r="C7" s="355"/>
+      <c r="D7" s="355"/>
+      <c r="E7" s="356"/>
+      <c r="F7" s="356"/>
+      <c r="G7" s="356"/>
+      <c r="H7" s="356"/>
+      <c r="I7" s="356"/>
+      <c r="J7" s="356"/>
+      <c r="K7" s="356"/>
+      <c r="L7" s="356"/>
+      <c r="M7" s="356"/>
+      <c r="N7" s="356"/>
+      <c r="O7" s="356"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="401"/>
-      <c r="B8" s="402"/>
-      <c r="C8" s="402"/>
-      <c r="D8" s="402"/>
-      <c r="E8" s="403"/>
-      <c r="F8" s="403"/>
-      <c r="G8" s="403"/>
-      <c r="H8" s="403"/>
-      <c r="I8" s="403"/>
-      <c r="J8" s="403"/>
-      <c r="K8" s="403"/>
-      <c r="L8" s="403"/>
-      <c r="M8" s="403"/>
-      <c r="N8" s="403"/>
-      <c r="O8" s="403"/>
+      <c r="A8" s="357"/>
+      <c r="B8" s="358"/>
+      <c r="C8" s="358"/>
+      <c r="D8" s="358"/>
+      <c r="E8" s="359"/>
+      <c r="F8" s="359"/>
+      <c r="G8" s="359"/>
+      <c r="H8" s="359"/>
+      <c r="I8" s="359"/>
+      <c r="J8" s="359"/>
+      <c r="K8" s="359"/>
+      <c r="L8" s="359"/>
+      <c r="M8" s="359"/>
+      <c r="N8" s="359"/>
+      <c r="O8" s="359"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="401"/>
-      <c r="B9" s="402"/>
-      <c r="C9" s="402"/>
-      <c r="D9" s="402"/>
-      <c r="E9" s="403"/>
-      <c r="F9" s="403"/>
-      <c r="G9" s="403"/>
-      <c r="H9" s="403"/>
-      <c r="I9" s="403"/>
-      <c r="J9" s="403"/>
-      <c r="K9" s="403"/>
-      <c r="L9" s="403"/>
-      <c r="M9" s="403"/>
-      <c r="N9" s="404" t="s">
+      <c r="A9" s="357"/>
+      <c r="B9" s="358"/>
+      <c r="C9" s="358"/>
+      <c r="D9" s="358"/>
+      <c r="E9" s="359"/>
+      <c r="F9" s="359"/>
+      <c r="G9" s="359"/>
+      <c r="H9" s="359"/>
+      <c r="I9" s="359"/>
+      <c r="J9" s="359"/>
+      <c r="K9" s="359"/>
+      <c r="L9" s="359"/>
+      <c r="M9" s="359"/>
+      <c r="N9" s="391" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="404"/>
+      <c r="O9" s="391"/>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="405"/>
-      <c r="B10" s="406" t="s">
+      <c r="A10" s="360"/>
+      <c r="B10" s="361" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="407"/>
-      <c r="D10" s="407"/>
-      <c r="E10" s="408"/>
-      <c r="F10" s="408"/>
-      <c r="G10" s="408"/>
-      <c r="H10" s="408"/>
-      <c r="I10" s="408"/>
-      <c r="J10" s="408"/>
-      <c r="K10" s="408"/>
-      <c r="L10" s="408"/>
-      <c r="M10" s="408"/>
-      <c r="N10" s="409" t="s">
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
+      <c r="G10" s="363"/>
+      <c r="H10" s="363"/>
+      <c r="I10" s="363"/>
+      <c r="J10" s="363"/>
+      <c r="K10" s="363"/>
+      <c r="L10" s="363"/>
+      <c r="M10" s="363"/>
+      <c r="N10" s="364" t="s">
         <v>678</v>
       </c>
-      <c r="O10" s="409" t="s">
+      <c r="O10" s="364" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="410" t="s">
+      <c r="A11" s="365" t="s">
         <v>679</v>
       </c>
-      <c r="B11" s="411">
+      <c r="B11" s="366">
         <v>2020</v>
       </c>
-      <c r="C11" s="411">
+      <c r="C11" s="366">
         <v>2021</v>
       </c>
-      <c r="D11" s="411">
+      <c r="D11" s="366">
         <v>2022</v>
       </c>
-      <c r="E11" s="411">
+      <c r="E11" s="366">
         <v>2023</v>
       </c>
-      <c r="F11" s="411">
+      <c r="F11" s="366">
         <v>2024</v>
       </c>
-      <c r="G11" s="411">
+      <c r="G11" s="366">
         <v>2025</v>
       </c>
-      <c r="H11" s="411">
+      <c r="H11" s="366">
         <v>2026</v>
       </c>
-      <c r="I11" s="411">
+      <c r="I11" s="366">
         <v>2027</v>
       </c>
-      <c r="J11" s="411">
+      <c r="J11" s="366">
         <v>2028</v>
       </c>
-      <c r="K11" s="411">
+      <c r="K11" s="366">
         <v>2029</v>
       </c>
-      <c r="L11" s="411">
+      <c r="L11" s="366">
         <v>2030</v>
       </c>
-      <c r="M11" s="411">
+      <c r="M11" s="366">
         <v>2031</v>
       </c>
-      <c r="N11" s="411">
+      <c r="N11" s="366">
         <v>2026</v>
       </c>
-      <c r="O11" s="411">
+      <c r="O11" s="366">
         <v>2031</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="31" x14ac:dyDescent="0.2">
-      <c r="A12" s="412" t="s">
+      <c r="A12" s="367" t="s">
         <v>680</v>
       </c>
       <c r="B12" s="43">
@@ -24328,11 +24354,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="413" t="s">
+      <c r="A13" s="368" t="s">
         <v>681</v>
       </c>
       <c r="B13" s="43"/>
-      <c r="C13" s="414">
+      <c r="C13" s="369">
         <f>(425+350)/4</f>
         <v>193.75</v>
       </c>
@@ -24352,7 +24378,7 @@
       <c r="O13" s="43"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="413"/>
+      <c r="A14" s="368"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43">
         <f>C13+C12</f>
@@ -24372,7 +24398,7 @@
       <c r="O14" s="43"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="413"/>
+      <c r="A15" s="368"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -24392,88 +24418,88 @@
       <c r="A16" t="s">
         <v>683</v>
       </c>
-      <c r="B16" s="415" t="s">
+      <c r="B16" s="389" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="415"/>
-      <c r="D16" s="415"/>
-      <c r="E16" s="415"/>
-      <c r="F16" s="415"/>
-      <c r="G16" s="415"/>
-      <c r="H16" s="416"/>
-      <c r="I16" s="416"/>
-      <c r="J16" s="416"/>
-      <c r="K16" s="416"/>
-      <c r="L16" s="416"/>
-      <c r="M16" s="416"/>
-      <c r="N16" s="416"/>
-      <c r="O16" s="416"/>
+      <c r="C16" s="389"/>
+      <c r="D16" s="389"/>
+      <c r="E16" s="389"/>
+      <c r="F16" s="389"/>
+      <c r="G16" s="389"/>
+      <c r="H16" s="370"/>
+      <c r="I16" s="370"/>
+      <c r="J16" s="370"/>
+      <c r="K16" s="370"/>
+      <c r="L16" s="370"/>
+      <c r="M16" s="370"/>
+      <c r="N16" s="370"/>
+      <c r="O16" s="370"/>
     </row>
     <row r="17" spans="1:17" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="417">
+      <c r="B17" s="371">
         <v>2019</v>
       </c>
-      <c r="C17" s="415">
+      <c r="C17" s="389">
         <v>2020</v>
       </c>
-      <c r="D17" s="415"/>
-      <c r="E17" s="415"/>
-      <c r="F17" s="415"/>
-      <c r="G17" s="415">
+      <c r="D17" s="389"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="389"/>
+      <c r="G17" s="389">
         <v>2021</v>
       </c>
-      <c r="H17" s="415"/>
-      <c r="I17" s="415"/>
-      <c r="J17" s="415"/>
-      <c r="K17" s="415">
+      <c r="H17" s="389"/>
+      <c r="I17" s="389"/>
+      <c r="J17" s="389"/>
+      <c r="K17" s="389">
         <v>2022</v>
       </c>
-      <c r="L17" s="415"/>
-      <c r="M17" s="415"/>
-      <c r="N17" s="415"/>
-      <c r="O17" s="416"/>
+      <c r="L17" s="389"/>
+      <c r="M17" s="389"/>
+      <c r="N17" s="389"/>
+      <c r="O17" s="370"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="417" t="s">
+      <c r="B18" s="371" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="417" t="s">
+      <c r="C18" s="371" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="417" t="s">
+      <c r="D18" s="371" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="417" t="s">
+      <c r="E18" s="371" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="417" t="s">
+      <c r="F18" s="371" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="417" t="s">
+      <c r="G18" s="371" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="417" t="s">
+      <c r="H18" s="371" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="417" t="s">
+      <c r="I18" s="371" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="417" t="s">
+      <c r="J18" s="371" t="s">
         <v>134</v>
       </c>
-      <c r="K18" s="417" t="s">
+      <c r="K18" s="371" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="417" t="s">
+      <c r="L18" s="371" t="s">
         <v>110</v>
       </c>
-      <c r="M18" s="417" t="s">
+      <c r="M18" s="371" t="s">
         <v>111</v>
       </c>
-      <c r="N18" s="417" t="s">
+      <c r="N18" s="371" t="s">
         <v>134</v>
       </c>
-      <c r="O18" s="417"/>
+      <c r="O18" s="371"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C19" s="64"/>
@@ -24489,29 +24515,29 @@
       <c r="M19" s="64"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="418" t="s">
+      <c r="A20" s="372" t="s">
         <v>684</v>
       </c>
-      <c r="B20" s="419">
+      <c r="B20" s="373">
         <v>27.9</v>
       </c>
-      <c r="C20" s="419">
+      <c r="C20" s="373">
         <v>43.4</v>
       </c>
-      <c r="D20" s="419">
+      <c r="D20" s="373">
         <v>1084.5999999999999</v>
       </c>
-      <c r="E20" s="419">
+      <c r="E20" s="373">
         <v>775.2</v>
       </c>
-      <c r="F20" s="419">
+      <c r="F20" s="373">
         <v>296.39999999999998</v>
       </c>
-      <c r="G20" s="419">
+      <c r="G20" s="373">
         <v>544.29999999999995</v>
       </c>
       <c r="H20" s="64"/>
-      <c r="I20" s="420"/>
+      <c r="I20" s="374"/>
       <c r="J20" s="64"/>
       <c r="K20" s="64"/>
       <c r="L20" s="64"/>
@@ -24522,19 +24548,19 @@
         <v>685</v>
       </c>
       <c r="B21" s="351"/>
-      <c r="C21" s="419" t="s">
+      <c r="C21" s="373" t="s">
         <v>686</v>
       </c>
-      <c r="D21" s="419" t="s">
+      <c r="D21" s="373" t="s">
         <v>686</v>
       </c>
-      <c r="E21" s="419">
+      <c r="E21" s="373">
         <v>3.1</v>
       </c>
-      <c r="F21" s="419">
+      <c r="F21" s="373">
         <v>11</v>
       </c>
-      <c r="G21" s="419">
+      <c r="G21" s="373">
         <v>18.600000000000001</v>
       </c>
       <c r="H21" s="64"/>
@@ -24545,23 +24571,23 @@
       <c r="M21" s="64"/>
     </row>
     <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="421" t="s">
+      <c r="A22" s="375" t="s">
         <v>687</v>
       </c>
-      <c r="B22" s="422"/>
-      <c r="C22" s="419" t="s">
+      <c r="B22" s="376"/>
+      <c r="C22" s="373" t="s">
         <v>686</v>
       </c>
-      <c r="D22" s="419">
+      <c r="D22" s="373">
         <v>7.2</v>
       </c>
-      <c r="E22" s="419">
+      <c r="E22" s="373">
         <v>23.9</v>
       </c>
-      <c r="F22" s="419">
+      <c r="F22" s="373">
         <v>63.6</v>
       </c>
-      <c r="G22" s="419">
+      <c r="G22" s="373">
         <v>74.099999999999994</v>
       </c>
       <c r="H22" s="64"/>
@@ -24572,23 +24598,23 @@
       <c r="M22" s="64"/>
     </row>
     <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="421" t="s">
+      <c r="A23" s="375" t="s">
         <v>688</v>
       </c>
-      <c r="B23" s="422"/>
-      <c r="C23" s="419" t="s">
+      <c r="B23" s="376"/>
+      <c r="C23" s="373" t="s">
         <v>686</v>
       </c>
-      <c r="D23" s="419">
+      <c r="D23" s="373">
         <v>101.5</v>
       </c>
-      <c r="E23" s="419">
+      <c r="E23" s="373">
         <v>156.1</v>
       </c>
-      <c r="F23" s="419">
+      <c r="F23" s="373">
         <v>110.3</v>
       </c>
-      <c r="G23" s="419">
+      <c r="G23" s="373">
         <v>97.2</v>
       </c>
       <c r="H23" s="64"/>
@@ -24599,23 +24625,23 @@
       <c r="M23" s="64"/>
     </row>
     <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="421" t="s">
+      <c r="A24" s="375" t="s">
         <v>689</v>
       </c>
-      <c r="B24" s="422"/>
-      <c r="C24" s="419" t="s">
+      <c r="B24" s="376"/>
+      <c r="C24" s="373" t="s">
         <v>686</v>
       </c>
-      <c r="D24" s="419">
+      <c r="D24" s="373">
         <v>679.2</v>
       </c>
-      <c r="E24" s="419">
+      <c r="E24" s="373">
         <v>373.1</v>
       </c>
-      <c r="F24" s="419">
+      <c r="F24" s="373">
         <v>13.6</v>
       </c>
-      <c r="G24" s="419">
+      <c r="G24" s="373">
         <v>283.60000000000002</v>
       </c>
       <c r="H24" s="64"/>
@@ -24626,91 +24652,91 @@
       <c r="M24" s="64"/>
     </row>
     <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="423" t="s">
+      <c r="A25" s="377" t="s">
         <v>690</v>
       </c>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
-      <c r="E25" s="419">
+      <c r="E25" s="373">
         <v>106.2</v>
       </c>
-      <c r="F25" s="419">
+      <c r="F25" s="373">
         <v>35.9</v>
       </c>
-      <c r="G25" s="419">
+      <c r="G25" s="373">
         <v>1.6</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H26" s="415" t="s">
+      <c r="H26" s="389" t="s">
         <v>691</v>
       </c>
-      <c r="I26" s="415"/>
-      <c r="J26" s="415"/>
-      <c r="K26" s="415"/>
-      <c r="L26" s="415"/>
-      <c r="M26" s="415"/>
-      <c r="N26" s="415"/>
-      <c r="O26" s="415"/>
+      <c r="I26" s="389"/>
+      <c r="J26" s="389"/>
+      <c r="K26" s="389"/>
+      <c r="L26" s="389"/>
+      <c r="M26" s="389"/>
+      <c r="N26" s="389"/>
+      <c r="O26" s="389"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>692</v>
       </c>
-      <c r="B27" s="420">
+      <c r="B27" s="374">
         <f t="shared" ref="B27:G27" si="0">B20+B25</f>
         <v>27.9</v>
       </c>
-      <c r="C27" s="420">
+      <c r="C27" s="374">
         <f t="shared" si="0"/>
         <v>43.4</v>
       </c>
-      <c r="D27" s="420">
+      <c r="D27" s="374">
         <f t="shared" si="0"/>
         <v>1084.5999999999999</v>
       </c>
-      <c r="E27" s="420">
+      <c r="E27" s="374">
         <f t="shared" si="0"/>
         <v>881.40000000000009</v>
       </c>
-      <c r="F27" s="420">
+      <c r="F27" s="374">
         <f t="shared" si="0"/>
         <v>332.29999999999995</v>
       </c>
-      <c r="G27" s="420">
+      <c r="G27" s="374">
         <f t="shared" si="0"/>
         <v>545.9</v>
       </c>
-      <c r="H27" s="420">
+      <c r="H27" s="374">
         <f>H30+H31</f>
         <v>497.19999999999993</v>
       </c>
-      <c r="I27" s="420">
+      <c r="I27" s="374">
         <f t="shared" ref="I27:O27" si="1">I30+I31</f>
         <v>417.82132622459176</v>
       </c>
-      <c r="J27" s="420">
+      <c r="J27" s="374">
         <f t="shared" si="1"/>
         <v>63.947884038653726</v>
       </c>
-      <c r="K27" s="420">
+      <c r="K27" s="374">
         <f t="shared" si="1"/>
         <v>61.433755414861658</v>
       </c>
-      <c r="L27" s="420">
+      <c r="L27" s="374">
         <f t="shared" si="1"/>
         <v>60.736054648450462</v>
       </c>
-      <c r="M27" s="420">
+      <c r="M27" s="374">
         <f t="shared" si="1"/>
         <v>59.436887704098574</v>
       </c>
-      <c r="N27" s="420">
+      <c r="N27" s="374">
         <f t="shared" si="1"/>
         <v>58.450483172275852</v>
       </c>
-      <c r="O27" s="420">
+      <c r="O27" s="374">
         <f t="shared" si="1"/>
         <v>58.306131289570089</v>
       </c>
@@ -24719,15 +24745,15 @@
       <c r="A28" t="s">
         <v>693</v>
       </c>
-      <c r="E28" s="420">
+      <c r="E28" s="374">
         <f>E21</f>
         <v>3.1</v>
       </c>
-      <c r="F28" s="420">
+      <c r="F28" s="374">
         <f>F21</f>
         <v>11</v>
       </c>
-      <c r="G28" s="420">
+      <c r="G28" s="374">
         <f>G21</f>
         <v>18.600000000000001</v>
       </c>
@@ -24770,23 +24796,23 @@
       <c r="A29" t="s">
         <v>694</v>
       </c>
-      <c r="D29" s="420">
+      <c r="D29" s="374">
         <f>SUM(D21:D24)</f>
         <v>787.90000000000009</v>
       </c>
-      <c r="E29" s="420">
+      <c r="E29" s="374">
         <f>SUM(E21:E24)+E25</f>
         <v>662.40000000000009</v>
       </c>
-      <c r="F29" s="420">
+      <c r="F29" s="374">
         <f>SUM(F21:F24)+F25</f>
         <v>234.39999999999998</v>
       </c>
-      <c r="G29" s="420">
+      <c r="G29" s="374">
         <f>SUM(G21:G24)+G25</f>
         <v>475.1</v>
       </c>
-      <c r="H29" s="420">
+      <c r="H29" s="374">
         <v>425</v>
       </c>
       <c r="I29">
@@ -24818,51 +24844,51 @@
       <c r="A30" t="s">
         <v>696</v>
       </c>
-      <c r="D30" s="420">
+      <c r="D30" s="374">
         <f>D29+D28</f>
         <v>787.90000000000009</v>
       </c>
-      <c r="E30" s="420">
+      <c r="E30" s="374">
         <f t="shared" ref="E30:O30" si="3">E29+E28</f>
         <v>665.50000000000011</v>
       </c>
-      <c r="F30" s="420">
+      <c r="F30" s="374">
         <f t="shared" si="3"/>
         <v>245.39999999999998</v>
       </c>
-      <c r="G30" s="420">
+      <c r="G30" s="374">
         <f t="shared" si="3"/>
         <v>493.70000000000005</v>
       </c>
-      <c r="H30" s="420">
+      <c r="H30" s="374">
         <f t="shared" si="3"/>
         <v>445</v>
       </c>
-      <c r="I30" s="420">
+      <c r="I30" s="374">
         <f t="shared" si="3"/>
         <v>368.78707097634123</v>
       </c>
-      <c r="J30" s="420">
+      <c r="J30" s="374">
         <f t="shared" si="3"/>
         <v>17.714095301566143</v>
       </c>
-      <c r="K30" s="420">
+      <c r="K30" s="374">
         <f t="shared" si="3"/>
         <v>17.017660779740083</v>
       </c>
-      <c r="L30" s="420">
+      <c r="L30" s="374">
         <f t="shared" si="3"/>
         <v>16.824391869376871</v>
       </c>
-      <c r="M30" s="420">
+      <c r="M30" s="374">
         <f t="shared" si="3"/>
         <v>16.464511829390197</v>
       </c>
-      <c r="N30" s="420">
+      <c r="N30" s="374">
         <f t="shared" si="3"/>
         <v>16.191269576807727</v>
       </c>
-      <c r="O30" s="420">
+      <c r="O30" s="374">
         <f t="shared" si="3"/>
         <v>16.1512829056981</v>
       </c>
@@ -24874,63 +24900,63 @@
       <c r="A31" t="s">
         <v>698</v>
       </c>
-      <c r="B31" s="420">
+      <c r="B31" s="374">
         <f>B27</f>
         <v>27.9</v>
       </c>
-      <c r="C31" s="420">
+      <c r="C31" s="374">
         <f>C27</f>
         <v>43.4</v>
       </c>
-      <c r="D31" s="420">
+      <c r="D31" s="374">
         <f>D27-D30</f>
         <v>296.69999999999982</v>
       </c>
-      <c r="E31" s="420">
+      <c r="E31" s="374">
         <f t="shared" ref="E31:G31" si="4">E27-E30</f>
         <v>215.89999999999998</v>
       </c>
-      <c r="F31" s="420">
+      <c r="F31" s="374">
         <f t="shared" si="4"/>
         <v>86.899999999999977</v>
       </c>
-      <c r="G31" s="420">
+      <c r="G31" s="374">
         <f t="shared" si="4"/>
         <v>52.199999999999932</v>
       </c>
-      <c r="H31" s="420">
+      <c r="H31" s="374">
         <f>G31</f>
         <v>52.199999999999932</v>
       </c>
-      <c r="I31" s="420">
+      <c r="I31" s="374">
         <f t="shared" ref="I31:P31" si="5">I34/H34*H31</f>
         <v>49.034255248250524</v>
       </c>
-      <c r="J31" s="420">
+      <c r="J31" s="374">
         <f t="shared" si="5"/>
         <v>46.233788737087579</v>
       </c>
-      <c r="K31" s="420">
+      <c r="K31" s="374">
         <f t="shared" si="5"/>
         <v>44.416094635121574</v>
       </c>
-      <c r="L31" s="420">
+      <c r="L31" s="374">
         <f t="shared" si="5"/>
         <v>43.911662779073588</v>
       </c>
-      <c r="M31" s="420">
+      <c r="M31" s="374">
         <f t="shared" si="5"/>
         <v>42.972375874708376</v>
       </c>
-      <c r="N31" s="420">
+      <c r="N31" s="374">
         <f t="shared" si="5"/>
         <v>42.259213595468125</v>
       </c>
-      <c r="O31" s="420">
+      <c r="O31" s="374">
         <f t="shared" si="5"/>
         <v>42.154848383871993</v>
       </c>
-      <c r="P31" s="420">
+      <c r="P31" s="374">
         <f t="shared" si="5"/>
         <v>41.519960013328841</v>
       </c>
@@ -24942,46 +24968,46 @@
       <c r="A34" t="s">
         <v>700</v>
       </c>
-      <c r="C34" s="424">
+      <c r="C34" s="378">
         <v>3.8</v>
       </c>
-      <c r="D34" s="424">
+      <c r="D34" s="378">
         <v>13.066000000000001</v>
       </c>
-      <c r="E34" s="424">
+      <c r="E34" s="378">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F34" s="424">
+      <c r="F34" s="378">
         <v>6.766</v>
       </c>
-      <c r="G34" s="424">
+      <c r="G34" s="378">
         <v>6.0119999999999996</v>
       </c>
-      <c r="H34" s="424">
+      <c r="H34" s="378">
         <v>6.0019999999999998</v>
       </c>
-      <c r="I34" s="424">
+      <c r="I34" s="378">
         <v>5.6379999999999999</v>
       </c>
-      <c r="J34" s="424">
+      <c r="J34" s="378">
         <v>5.3159999999999998</v>
       </c>
-      <c r="K34" s="424">
+      <c r="K34" s="378">
         <v>5.1070000000000002</v>
       </c>
-      <c r="L34" s="424">
+      <c r="L34" s="378">
         <v>5.0490000000000004</v>
       </c>
-      <c r="M34" s="424">
+      <c r="M34" s="378">
         <v>4.9409999999999998</v>
       </c>
-      <c r="N34" s="424">
+      <c r="N34" s="378">
         <v>4.859</v>
       </c>
-      <c r="O34" s="424">
+      <c r="O34" s="378">
         <v>4.8470000000000004</v>
       </c>
-      <c r="P34" s="424">
+      <c r="P34" s="378">
         <v>4.774</v>
       </c>
       <c r="Q34" t="s">
@@ -24997,7 +25023,7 @@
       <c r="Q36" t="s">
         <v>703</v>
       </c>
-      <c r="R36" s="420">
+      <c r="R36" s="374">
         <f>AVERAGE(F27:I27)-(F25+G25)/4</f>
         <v>438.93033155614791</v>
       </c>
@@ -25006,42 +25032,42 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C41" s="415">
+      <c r="C41" s="389">
         <v>2020</v>
       </c>
-      <c r="D41" s="415"/>
-      <c r="E41" s="415"/>
-      <c r="F41" s="415"/>
-      <c r="G41" s="415">
+      <c r="D41" s="389"/>
+      <c r="E41" s="389"/>
+      <c r="F41" s="389"/>
+      <c r="G41" s="389">
         <v>2021</v>
       </c>
-      <c r="H41" s="415"/>
-      <c r="I41" s="415"/>
-      <c r="J41" s="415"/>
+      <c r="H41" s="389"/>
+      <c r="I41" s="389"/>
+      <c r="J41" s="389"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C42" s="417" t="s">
+      <c r="C42" s="371" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="417" t="s">
+      <c r="D42" s="371" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="417" t="s">
+      <c r="E42" s="371" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="417" t="s">
+      <c r="F42" s="371" t="s">
         <v>134</v>
       </c>
-      <c r="G42" s="417" t="s">
+      <c r="G42" s="371" t="s">
         <v>109</v>
       </c>
-      <c r="H42" s="417" t="s">
+      <c r="H42" s="371" t="s">
         <v>110</v>
       </c>
-      <c r="I42" s="417" t="s">
+      <c r="I42" s="371" t="s">
         <v>111</v>
       </c>
-      <c r="J42" s="417" t="s">
+      <c r="J42" s="371" t="s">
         <v>134</v>
       </c>
     </row>
@@ -25049,47 +25075,47 @@
       <c r="B43" t="s">
         <v>705</v>
       </c>
-      <c r="C43" s="425"/>
-      <c r="D43" s="425">
+      <c r="C43" s="379"/>
+      <c r="D43" s="379">
         <v>788</v>
       </c>
-      <c r="E43" s="425">
+      <c r="E43" s="379">
         <v>662.4</v>
       </c>
-      <c r="F43" s="425">
+      <c r="F43" s="379">
         <v>234.333333333333</v>
       </c>
-      <c r="G43" s="425">
+      <c r="G43" s="379">
         <v>475.13333333333298</v>
       </c>
-      <c r="H43" s="425">
+      <c r="H43" s="379">
         <v>108</v>
       </c>
-      <c r="I43" s="425">
-        <v>0</v>
-      </c>
-      <c r="J43" s="425">
-        <v>0</v>
-      </c>
-      <c r="K43" s="425">
-        <v>0</v>
-      </c>
-      <c r="L43" s="425">
-        <v>0</v>
-      </c>
-      <c r="M43" s="425">
-        <v>0</v>
-      </c>
-      <c r="N43" s="425">
-        <v>0</v>
-      </c>
-      <c r="O43" s="425">
-        <v>0</v>
-      </c>
-      <c r="P43" s="425">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="425">
+      <c r="I43" s="379">
+        <v>0</v>
+      </c>
+      <c r="J43" s="379">
+        <v>0</v>
+      </c>
+      <c r="K43" s="379">
+        <v>0</v>
+      </c>
+      <c r="L43" s="379">
+        <v>0</v>
+      </c>
+      <c r="M43" s="379">
+        <v>0</v>
+      </c>
+      <c r="N43" s="379">
+        <v>0</v>
+      </c>
+      <c r="O43" s="379">
+        <v>0</v>
+      </c>
+      <c r="P43" s="379">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="379">
         <v>0</v>
       </c>
     </row>
@@ -25097,49 +25123,49 @@
       <c r="B44" t="s">
         <v>706</v>
       </c>
-      <c r="C44" s="425">
-        <v>0</v>
-      </c>
-      <c r="D44" s="425">
-        <v>0</v>
-      </c>
-      <c r="E44" s="425">
-        <v>0</v>
-      </c>
-      <c r="F44" s="425">
-        <v>0</v>
-      </c>
-      <c r="G44" s="425">
-        <v>0</v>
-      </c>
-      <c r="H44" s="425">
+      <c r="C44" s="379">
+        <v>0</v>
+      </c>
+      <c r="D44" s="379">
+        <v>0</v>
+      </c>
+      <c r="E44" s="379">
+        <v>0</v>
+      </c>
+      <c r="F44" s="379">
+        <v>0</v>
+      </c>
+      <c r="G44" s="379">
+        <v>0</v>
+      </c>
+      <c r="H44" s="379">
         <v>425.20704000000001</v>
       </c>
-      <c r="I44" s="425">
+      <c r="I44" s="379">
         <v>350</v>
       </c>
-      <c r="J44" s="425">
-        <v>0</v>
-      </c>
-      <c r="K44" s="425">
-        <v>0</v>
-      </c>
-      <c r="L44" s="425">
-        <v>0</v>
-      </c>
-      <c r="M44" s="425">
-        <v>0</v>
-      </c>
-      <c r="N44" s="425">
-        <v>0</v>
-      </c>
-      <c r="O44" s="425">
-        <v>0</v>
-      </c>
-      <c r="P44" s="425">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="425">
+      <c r="J44" s="379">
+        <v>0</v>
+      </c>
+      <c r="K44" s="379">
+        <v>0</v>
+      </c>
+      <c r="L44" s="379">
+        <v>0</v>
+      </c>
+      <c r="M44" s="379">
+        <v>0</v>
+      </c>
+      <c r="N44" s="379">
+        <v>0</v>
+      </c>
+      <c r="O44" s="379">
+        <v>0</v>
+      </c>
+      <c r="P44" s="379">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="379">
         <v>0</v>
       </c>
     </row>
@@ -25147,76 +25173,76 @@
       <c r="B45" t="s">
         <v>707</v>
       </c>
-      <c r="C45" s="425">
+      <c r="C45" s="379">
         <v>43.4</v>
       </c>
-      <c r="D45" s="425">
+      <c r="D45" s="379">
         <v>296.60000000000002</v>
       </c>
-      <c r="E45" s="425">
+      <c r="E45" s="379">
         <v>112.8</v>
       </c>
-      <c r="F45" s="425">
+      <c r="F45" s="379">
         <v>62.066666666666599</v>
       </c>
-      <c r="G45" s="425">
+      <c r="G45" s="379">
         <v>69.1666666666666</v>
       </c>
-      <c r="H45" s="425">
+      <c r="H45" s="379">
         <v>44</v>
       </c>
-      <c r="I45" s="425">
+      <c r="I45" s="379">
         <v>44</v>
       </c>
-      <c r="J45" s="425">
+      <c r="J45" s="379">
         <v>44</v>
       </c>
-      <c r="K45" s="425">
+      <c r="K45" s="379">
         <v>44</v>
       </c>
-      <c r="L45" s="425">
+      <c r="L45" s="379">
         <v>44</v>
       </c>
-      <c r="M45" s="425">
+      <c r="M45" s="379">
         <v>44</v>
       </c>
-      <c r="N45" s="425">
+      <c r="N45" s="379">
         <v>44</v>
       </c>
-      <c r="O45" s="425">
-        <v>0</v>
-      </c>
-      <c r="P45" s="425">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="425">
-        <v>0</v>
-      </c>
-      <c r="R45" s="425">
-        <v>0</v>
-      </c>
-      <c r="S45" s="425">
-        <v>0</v>
-      </c>
-      <c r="T45" s="425">
-        <v>0</v>
-      </c>
-      <c r="U45" s="425">
-        <v>0</v>
-      </c>
-      <c r="V45" s="425">
-        <v>0</v>
-      </c>
-      <c r="W45" s="425">
-        <v>0</v>
-      </c>
-      <c r="X45" s="425">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="425">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="425">
+      <c r="O45" s="379">
+        <v>0</v>
+      </c>
+      <c r="P45" s="379">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="379">
+        <v>0</v>
+      </c>
+      <c r="R45" s="379">
+        <v>0</v>
+      </c>
+      <c r="S45" s="379">
+        <v>0</v>
+      </c>
+      <c r="T45" s="379">
+        <v>0</v>
+      </c>
+      <c r="U45" s="379">
+        <v>0</v>
+      </c>
+      <c r="V45" s="379">
+        <v>0</v>
+      </c>
+      <c r="W45" s="379">
+        <v>0</v>
+      </c>
+      <c r="X45" s="379">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="379">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="379">
         <v>0</v>
       </c>
     </row>
@@ -25867,11 +25893,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AX73"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25890,23 +25916,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="392" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="363"/>
+      <c r="B1" s="393"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="370" t="s">
+      <c r="J1" s="400" t="s">
         <v>273</v>
       </c>
-      <c r="V1" s="354"/>
-      <c r="W1" s="354"/>
-      <c r="X1" s="354"/>
-      <c r="Y1" s="354"/>
+      <c r="V1" s="381"/>
+      <c r="W1" s="381"/>
+      <c r="X1" s="381"/>
+      <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="394" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="126"/>
@@ -25914,68 +25940,68 @@
         <v>190</v>
       </c>
       <c r="I2" s="241"/>
-      <c r="J2" s="370"/>
+      <c r="J2" s="400"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" s="365"/>
+      <c r="A3" s="395"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>191</v>
       </c>
       <c r="I3" s="241"/>
-      <c r="J3" s="370"/>
+      <c r="J3" s="400"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A4" s="365"/>
+      <c r="A4" s="395"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A5" s="366"/>
+      <c r="A5" s="396"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C7" s="367" t="s">
+      <c r="C7" s="397" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="368"/>
-      <c r="E7" s="368"/>
-      <c r="F7" s="369"/>
-      <c r="G7" s="367" t="s">
+      <c r="D7" s="398"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="399"/>
+      <c r="G7" s="397" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="368"/>
-      <c r="I7" s="368"/>
-      <c r="J7" s="369"/>
-      <c r="K7" s="367" t="s">
+      <c r="H7" s="398"/>
+      <c r="I7" s="398"/>
+      <c r="J7" s="399"/>
+      <c r="K7" s="397" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="368"/>
-      <c r="M7" s="368"/>
-      <c r="N7" s="368"/>
-      <c r="O7" s="367" t="s">
+      <c r="L7" s="398"/>
+      <c r="M7" s="398"/>
+      <c r="N7" s="398"/>
+      <c r="O7" s="397" t="s">
         <v>264</v>
       </c>
-      <c r="P7" s="368"/>
-      <c r="Q7" s="368"/>
-      <c r="R7" s="368"/>
-      <c r="S7" s="367" t="s">
+      <c r="P7" s="398"/>
+      <c r="Q7" s="398"/>
+      <c r="R7" s="398"/>
+      <c r="S7" s="397" t="s">
         <v>267</v>
       </c>
-      <c r="T7" s="368"/>
-      <c r="U7" s="368"/>
-      <c r="V7" s="368"/>
-      <c r="W7" s="367" t="s">
+      <c r="T7" s="398"/>
+      <c r="U7" s="398"/>
+      <c r="V7" s="398"/>
+      <c r="W7" s="397" t="s">
         <v>268</v>
       </c>
-      <c r="X7" s="368"/>
-      <c r="Y7" s="368"/>
-      <c r="Z7" s="368"/>
+      <c r="X7" s="398"/>
+      <c r="Y7" s="398"/>
+      <c r="Z7" s="398"/>
       <c r="AA7" s="222" t="s">
         <v>269</v>
       </c>
@@ -26102,130 +26128,130 @@
         <v>171.23699999999999</v>
       </c>
       <c r="I10">
-        <v>175.56274099593</v>
+        <v>172.82521536283099</v>
       </c>
       <c r="J10">
-        <v>179.888481991861</v>
+        <v>175.41685151228401</v>
       </c>
       <c r="K10">
-        <v>180.49888383554401</v>
+        <v>177.19919663936099</v>
       </c>
       <c r="L10">
-        <v>181.10928567922701</v>
+        <v>178.99965150974199</v>
       </c>
       <c r="M10">
-        <v>181.71968752290999</v>
+        <v>180.81840012976599</v>
       </c>
       <c r="N10">
-        <v>182.330089366593</v>
+        <v>182.65562837539201</v>
       </c>
       <c r="O10">
-        <v>180.35508255879</v>
+        <v>243.39764536367201</v>
       </c>
       <c r="P10">
-        <v>178.38007575098601</v>
+        <v>245.82787352613801</v>
       </c>
       <c r="Q10">
-        <v>176.40506894318301</v>
+        <v>248.28236654503999</v>
       </c>
       <c r="R10">
-        <v>174.43006213537899</v>
+        <v>250.76136669526699</v>
       </c>
       <c r="S10">
-        <v>175.461672281072</v>
+        <v>252.23143578933201</v>
       </c>
       <c r="T10">
-        <v>176.49328242676501</v>
+        <v>253.710123049624</v>
       </c>
       <c r="U10">
-        <v>177.52489257245799</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>178.55650271815099</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>181.209999767016</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>183.86349681588001</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>186.51699386474499</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>189.170490913609</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>191.81299452331399</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>194.45549813301801</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>197.098001742723</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>199.74050535242799</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>202.769995751918</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>205.79948615140901</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>208.828976550899</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>211.85846695039001</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>214.91251527445601</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>217.96656359852099</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>221.02061192258699</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>224.074660246653</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>227.23039788294901</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>230.38613551924399</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>233.54187315554</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>236.69761079183601</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>240.02720434904199</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>243.35679790624701</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>246.68639146345299</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>250.01598502065801</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>253.47572671243501</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>256.93546840421197</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>260.39521009599002</v>
+        <v>0</v>
       </c>
       <c r="AX10">
-        <v>263.85495178776699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:50" ht="16" x14ac:dyDescent="0.2">
@@ -26248,130 +26274,130 @@
         <v>145.9</v>
       </c>
       <c r="I11">
-        <v>148.62099511391199</v>
+        <v>159.78078521498699</v>
       </c>
       <c r="J11">
-        <v>147.797019737607</v>
+        <v>170.05794605751399</v>
       </c>
       <c r="K11">
-        <v>159.24265611122399</v>
+        <v>176.79305873756101</v>
       </c>
       <c r="L11">
-        <v>170.909193879409</v>
+        <v>183.67606033524501</v>
       </c>
       <c r="M11">
-        <v>182.80013836844901</v>
+        <v>190.70971432433899</v>
       </c>
       <c r="N11">
-        <v>193.82051361413301</v>
+        <v>196.79829535043001</v>
       </c>
       <c r="O11">
-        <v>214.404660294731</v>
+        <v>202.02066928913399</v>
       </c>
       <c r="P11">
-        <v>234.02054172086099</v>
+        <v>206.201363920483</v>
       </c>
       <c r="Q11">
-        <v>253.77886496758899</v>
+        <v>210.45035330958299</v>
       </c>
       <c r="R11">
-        <v>273.52670175744203</v>
+        <v>214.613968850182</v>
       </c>
       <c r="S11">
-        <v>281.50135302305898</v>
+        <v>222.27985673450101</v>
       </c>
       <c r="T11">
-        <v>289.89524687581797</v>
+        <v>230.33865234119401</v>
       </c>
       <c r="U11">
-        <v>298.67027035325299</v>
+        <v>238.75208832169099</v>
       </c>
       <c r="V11">
-        <v>306.91171235614303</v>
+        <v>246.60529828558899</v>
       </c>
       <c r="W11">
-        <v>308.00438682705601</v>
+        <v>247.05295350988899</v>
       </c>
       <c r="X11">
-        <v>309.05894833550099</v>
+        <v>247.29665334347999</v>
       </c>
       <c r="Y11">
-        <v>310.07539688147898</v>
+        <v>247.33398633849399</v>
       </c>
       <c r="Z11">
-        <v>311.091845427458</v>
+        <v>247.20061894564299</v>
       </c>
       <c r="AA11">
-        <v>312.15287454978699</v>
+        <v>247.60475642239899</v>
       </c>
       <c r="AB11">
-        <v>313.213903672117</v>
+        <v>247.853253102781</v>
       </c>
       <c r="AC11">
-        <v>314.31304575691399</v>
+        <v>247.98209194382099</v>
       </c>
       <c r="AD11">
-        <v>315.41218784171201</v>
+        <v>247.95100082765401</v>
       </c>
       <c r="AE11">
-        <v>314.980134697246</v>
+        <v>246.788242201678</v>
       </c>
       <c r="AF11">
-        <v>314.54808155277999</v>
+        <v>245.43240856255201</v>
       </c>
       <c r="AG11">
-        <v>314.15414137078102</v>
+        <v>243.918748838027</v>
       </c>
       <c r="AH11">
-        <v>313.79831415125</v>
+        <v>242.24435650888699</v>
       </c>
       <c r="AI11">
-        <v>313.342899676483</v>
+        <v>241.03817130229399</v>
       </c>
       <c r="AJ11">
-        <v>312.88748520171401</v>
+        <v>239.64659251988201</v>
       </c>
       <c r="AK11">
-        <v>312.470183689414</v>
+        <v>238.105116499942</v>
       </c>
       <c r="AL11">
-        <v>312.05288217711302</v>
+        <v>236.37297672509101</v>
       </c>
       <c r="AM11">
-        <v>311.26132329602899</v>
+        <v>234.799177029243</v>
       </c>
       <c r="AN11">
-        <v>310.46976441494297</v>
+        <v>233.03804540590599</v>
       </c>
       <c r="AO11">
-        <v>309.67820553385798</v>
+        <v>231.08699755125801</v>
       </c>
       <c r="AP11">
-        <v>308.92475961524099</v>
+        <v>228.98152647264601</v>
       </c>
       <c r="AQ11">
-        <v>307.54251937780498</v>
+        <v>226.773609543596</v>
       </c>
       <c r="AR11">
-        <v>306.19839210283601</v>
+        <v>224.40637610131699</v>
       </c>
       <c r="AS11">
-        <v>304.93049075280197</v>
+        <v>221.91521864234301</v>
       </c>
       <c r="AT11">
-        <v>303.738815327704</v>
+        <v>219.29737921426701</v>
       </c>
       <c r="AU11">
-        <v>302.09558932686201</v>
+        <v>321.72090384488303</v>
       </c>
       <c r="AV11">
-        <v>300.52858925095501</v>
+        <v>416.83962523450401</v>
       </c>
       <c r="AW11">
-        <v>299.07592806244998</v>
+        <v>505.29673765003002</v>
       </c>
       <c r="AX11">
-        <v>297.661379836413</v>
+        <v>587.57149317354003</v>
       </c>
     </row>
     <row r="12" spans="1:50" ht="16" x14ac:dyDescent="0.2">
@@ -26686,130 +26712,130 @@
         <v>1403.2629999999999</v>
       </c>
       <c r="I14">
-        <v>1394.63952711825</v>
+        <v>1386.21726265027</v>
       </c>
       <c r="J14">
-        <v>1386.0160542364999</v>
+        <v>1368.22675839617</v>
       </c>
       <c r="K14">
-        <v>1416.24742986613</v>
+        <v>1401.99671443597</v>
       </c>
       <c r="L14">
-        <v>1446.4788054957501</v>
+        <v>1435.8215732094</v>
       </c>
       <c r="M14">
-        <v>1476.7101811253699</v>
+        <v>1469.7018925626301</v>
       </c>
       <c r="N14">
-        <v>1506.941556755</v>
+        <v>1503.6382360099001</v>
       </c>
       <c r="O14">
-        <v>1519.7601557667999</v>
+        <v>1469.1015839675099</v>
       </c>
       <c r="P14">
-        <v>1532.5787547785901</v>
+        <v>1492.95013480382</v>
       </c>
       <c r="Q14">
-        <v>1545.3973537903901</v>
+        <v>1516.8485678465399</v>
       </c>
       <c r="R14">
-        <v>1558.21595280219</v>
+        <v>1540.7973811495599</v>
       </c>
       <c r="S14">
-        <v>1568.7825477363999</v>
+        <v>1551.2342805167</v>
       </c>
       <c r="T14">
-        <v>1579.34914267061</v>
+        <v>1561.68889658237</v>
       </c>
       <c r="U14">
-        <v>1589.9157376048099</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1600.48233253902</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1639.9186754518</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>1679.35501836459</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>1718.79136127737</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>1758.22770419015</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>1787.6196955994999</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>1817.01168700885</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>1846.4036784181901</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>1875.79566982754</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>1908.2148727936301</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>1940.63407575972</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>1973.0532787258101</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>2005.4724816918999</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>2057.1759873287501</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>2108.8794929656101</v>
+        <v>0</v>
       </c>
       <c r="AK14">
-        <v>2160.5829986024601</v>
+        <v>0</v>
       </c>
       <c r="AL14">
-        <v>2212.28650423931</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>2211.5343138466101</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>2210.7821234539101</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>2210.0299330612002</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>2209.2777426685002</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>2261.6493087725698</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>2314.0208748766299</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>2366.3924409807</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2418.7640070847701</v>
+        <v>0</v>
       </c>
       <c r="AU14">
-        <v>2464.36520513099</v>
+        <v>0</v>
       </c>
       <c r="AV14">
-        <v>2509.9664031771999</v>
+        <v>0</v>
       </c>
       <c r="AW14">
-        <v>2555.5676012234098</v>
+        <v>0</v>
       </c>
       <c r="AX14">
-        <v>2601.1687992696202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:50" ht="16" x14ac:dyDescent="0.2">
@@ -27339,51 +27365,51 @@
       </c>
       <c r="P21" s="104">
         <f>O21*(1+P23)</f>
-        <v>221.97386069442777</v>
+        <v>226.67239275981393</v>
       </c>
       <c r="Q21" s="104">
         <f t="shared" ref="Q21:AA21" si="0">P21*(1+Q23)</f>
-        <v>219.51618774984507</v>
+        <v>228.9356259628934</v>
       </c>
       <c r="R21" s="104">
         <f t="shared" si="0"/>
-        <v>217.0585148052611</v>
+        <v>231.2214566445152</v>
       </c>
       <c r="S21" s="104">
         <f t="shared" si="0"/>
-        <v>218.34223713695627</v>
+        <v>232.576974529018</v>
       </c>
       <c r="T21" s="104">
         <f t="shared" si="0"/>
-        <v>219.62595946865144</v>
+        <v>233.94043903215214</v>
       </c>
       <c r="U21" s="104">
         <f t="shared" si="0"/>
-        <v>220.90968180034659</v>
-      </c>
-      <c r="V21" s="104">
+        <v>0</v>
+      </c>
+      <c r="V21" s="104" t="e">
         <f t="shared" si="0"/>
-        <v>222.19340413204174</v>
-      </c>
-      <c r="W21" s="104">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" s="104" t="e">
         <f t="shared" si="0"/>
-        <v>225.49538156308662</v>
-      </c>
-      <c r="X21" s="104">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" s="104" t="e">
         <f t="shared" si="0"/>
-        <v>228.79735899413026</v>
-      </c>
-      <c r="Y21" s="104">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y21" s="104" t="e">
         <f t="shared" si="0"/>
-        <v>232.09933642517512</v>
-      </c>
-      <c r="Z21" s="104">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z21" s="104" t="e">
         <f t="shared" si="0"/>
-        <v>235.40131385621879</v>
-      </c>
-      <c r="AA21" s="104">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA21" s="104" t="e">
         <f t="shared" si="0"/>
-        <v>238.68961119366364</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB21" s="95"/>
     </row>
@@ -27413,79 +27439,79 @@
       </c>
       <c r="I22" s="104">
         <f t="shared" si="1"/>
-        <v>175.56274099593</v>
+        <v>172.82521536283099</v>
       </c>
       <c r="J22" s="104">
         <f t="shared" si="1"/>
-        <v>179.888481991861</v>
+        <v>175.41685151228401</v>
       </c>
       <c r="K22" s="104">
         <f t="shared" si="1"/>
-        <v>180.49888383554401</v>
+        <v>177.19919663936099</v>
       </c>
       <c r="L22" s="104">
         <f t="shared" si="1"/>
-        <v>181.10928567922701</v>
+        <v>178.99965150974199</v>
       </c>
       <c r="M22" s="104">
         <f t="shared" si="1"/>
-        <v>181.71968752290999</v>
+        <v>180.81840012976599</v>
       </c>
       <c r="N22" s="104">
         <f t="shared" si="1"/>
-        <v>182.330089366593</v>
+        <v>182.65562837539201</v>
       </c>
       <c r="O22" s="104">
         <f t="shared" si="1"/>
-        <v>180.35508255879</v>
+        <v>243.39764536367201</v>
       </c>
       <c r="P22" s="104">
         <f t="shared" si="1"/>
-        <v>178.38007575098601</v>
+        <v>245.82787352613801</v>
       </c>
       <c r="Q22" s="104">
         <f t="shared" si="1"/>
-        <v>176.40506894318301</v>
+        <v>248.28236654503999</v>
       </c>
       <c r="R22" s="104">
         <f t="shared" si="1"/>
-        <v>174.43006213537899</v>
+        <v>250.76136669526699</v>
       </c>
       <c r="S22" s="104">
         <f t="shared" si="1"/>
-        <v>175.461672281072</v>
+        <v>252.23143578933201</v>
       </c>
       <c r="T22" s="104">
         <f t="shared" si="1"/>
-        <v>176.49328242676501</v>
+        <v>253.710123049624</v>
       </c>
       <c r="U22" s="104">
         <f t="shared" si="1"/>
-        <v>177.52489257245799</v>
+        <v>0</v>
       </c>
       <c r="V22" s="104">
         <f t="shared" si="1"/>
-        <v>178.55650271815099</v>
+        <v>0</v>
       </c>
       <c r="W22" s="104">
         <f t="shared" si="1"/>
-        <v>181.209999767016</v>
+        <v>0</v>
       </c>
       <c r="X22" s="104">
         <f t="shared" si="1"/>
-        <v>183.86349681588001</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="104">
         <f t="shared" si="1"/>
-        <v>186.51699386474499</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="104">
         <f t="shared" si="1"/>
-        <v>189.170490913609</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="104">
         <f t="shared" si="1"/>
-        <v>191.81299452331399</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="95"/>
     </row>
@@ -27505,59 +27531,59 @@
       <c r="M23" s="230"/>
       <c r="N23" s="230">
         <f t="shared" ref="N23" si="2">(N22/M22)-1</f>
-        <v>3.3590297892518439E-3</v>
+        <v>1.0160626597224276E-2</v>
       </c>
       <c r="O23" s="246">
         <f t="shared" ref="O23" si="3">(O22/N22)-1</f>
-        <v>-1.0832039926399917E-2</v>
+        <v>0.33254938557624736</v>
       </c>
       <c r="P23" s="230">
         <f t="shared" ref="P23" si="4">(P22/O22)-1</f>
-        <v>-1.0950657889889026E-2</v>
+        <v>9.9846001338053103E-3</v>
       </c>
       <c r="Q23" s="230">
         <f t="shared" ref="Q23" si="5">(Q22/P22)-1</f>
-        <v>-1.1071902506421538E-2</v>
+        <v>9.9846001338046442E-3</v>
       </c>
       <c r="R23" s="230">
         <f t="shared" ref="R23" si="6">(R22/Q22)-1</f>
-        <v>-1.1195861998955059E-2</v>
+        <v>9.9846001338048662E-3</v>
       </c>
       <c r="S23" s="246">
         <f t="shared" ref="S23" si="7">(S22/R22)-1</f>
-        <v>5.9141763355696764E-3</v>
+        <v>5.8624225630876658E-3</v>
       </c>
       <c r="T23" s="230">
         <f t="shared" ref="T23" si="8">(T22/S22)-1</f>
-        <v>5.8794045006049789E-3</v>
+        <v>5.8624225630901083E-3</v>
       </c>
       <c r="U23" s="230">
         <f t="shared" ref="U23" si="9">(U22/T22)-1</f>
-        <v>5.8450391511135624E-3</v>
-      </c>
-      <c r="V23" s="230">
+        <v>-1</v>
+      </c>
+      <c r="V23" s="230" t="e">
         <f t="shared" ref="V23" si="10">(V22/U22)-1</f>
-        <v>5.8110732007452537E-3</v>
-      </c>
-      <c r="W23" s="246">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" s="246" t="e">
         <f t="shared" ref="W23" si="11">(W22/V22)-1</f>
-        <v>1.4860825612458939E-2</v>
-      </c>
-      <c r="X23" s="230">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X23" s="230" t="e">
         <f t="shared" ref="X23" si="12">(X22/W22)-1</f>
-        <v>1.4643215342837745E-2</v>
-      </c>
-      <c r="Y23" s="230">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y23" s="230" t="e">
         <f t="shared" ref="Y23" si="13">(Y22/X22)-1</f>
-        <v>1.4431886126489601E-2</v>
-      </c>
-      <c r="Z23" s="230">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z23" s="230" t="e">
         <f t="shared" ref="Z23" si="14">(Z22/Y22)-1</f>
-        <v>1.4226569889863372E-2</v>
-      </c>
-      <c r="AA23" s="246">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA23" s="246" t="e">
         <f t="shared" ref="AA23" si="15">(AA22/Z22)-1</f>
-        <v>1.3968899678501012E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB23" s="243"/>
     </row>
@@ -27581,79 +27607,79 @@
       </c>
       <c r="I24" s="217">
         <f t="shared" ref="I24" si="19">I21-I22</f>
-        <v>6.7878800857670569</v>
+        <v>9.5254057188660681</v>
       </c>
       <c r="J24" s="217">
         <f t="shared" ref="J24" si="20">J21-J22</f>
-        <v>2.4621390898360573</v>
+        <v>6.9337695694130446</v>
       </c>
       <c r="K24" s="150">
         <f t="shared" ref="K24:AA24" si="21">K21-K22</f>
-        <v>1.8517372461530499</v>
+        <v>5.1514244423360651</v>
       </c>
       <c r="L24" s="217">
         <f t="shared" si="21"/>
-        <v>1.2413354024700425</v>
+        <v>3.3509695719550621</v>
       </c>
       <c r="M24" s="239">
         <f t="shared" si="21"/>
-        <v>42.711846116101725</v>
+        <v>43.613133509245728</v>
       </c>
       <c r="N24" s="217">
         <f t="shared" si="21"/>
-        <v>42.101444272418718</v>
+        <v>41.775905263619705</v>
       </c>
       <c r="O24" s="150">
         <f t="shared" si="21"/>
-        <v>44.076451080221716</v>
+        <v>-18.966111724660294</v>
       </c>
       <c r="P24" s="217">
         <f t="shared" si="21"/>
-        <v>43.593784943441761</v>
+        <v>-19.155480766324075</v>
       </c>
       <c r="Q24" s="217">
         <f t="shared" si="21"/>
-        <v>43.111118806662063</v>
+        <v>-19.346740582146595</v>
       </c>
       <c r="R24" s="217">
         <f t="shared" si="21"/>
-        <v>42.628452669882108</v>
+        <v>-19.539910050751786</v>
       </c>
       <c r="S24" s="150">
         <f t="shared" si="21"/>
-        <v>42.880564855884273</v>
+        <v>-19.654461260314008</v>
       </c>
       <c r="T24" s="217">
         <f t="shared" si="21"/>
-        <v>43.132677041886438</v>
+        <v>-19.76968401747186</v>
       </c>
       <c r="U24" s="217">
         <f t="shared" si="21"/>
-        <v>43.384789227888604</v>
-      </c>
-      <c r="V24" s="217">
+        <v>0</v>
+      </c>
+      <c r="V24" s="217" t="e">
         <f t="shared" si="21"/>
-        <v>43.63690141389074</v>
-      </c>
-      <c r="W24" s="150">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="150" t="e">
         <f t="shared" si="21"/>
-        <v>44.285381796070624</v>
-      </c>
-      <c r="X24" s="217">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24" s="217" t="e">
         <f t="shared" si="21"/>
-        <v>44.933862178250251</v>
-      </c>
-      <c r="Y24" s="217">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" s="217" t="e">
         <f t="shared" si="21"/>
-        <v>45.582342560430135</v>
-      </c>
-      <c r="Z24" s="217">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" s="217" t="e">
         <f t="shared" si="21"/>
-        <v>46.230822942609791</v>
-      </c>
-      <c r="AA24" s="150">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA24" s="150" t="e">
         <f t="shared" si="21"/>
-        <v>46.876616670349648</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB24" s="244"/>
     </row>
@@ -27769,63 +27795,63 @@
       </c>
       <c r="M28" s="104">
         <f>L28*(1 + M30)</f>
-        <v>159.56086992867171</v>
+        <v>154.89434446854423</v>
       </c>
       <c r="N28" s="104">
         <f t="shared" ref="N28:AA28" si="22">M28*(1 + N30)</f>
-        <v>169.1802316908466</v>
+        <v>159.83948724808866</v>
       </c>
       <c r="O28" s="104">
         <f t="shared" si="22"/>
-        <v>187.14752854527001</v>
+        <v>164.08109701962573</v>
       </c>
       <c r="P28" s="104">
         <f t="shared" si="22"/>
-        <v>204.26965510768184</v>
+        <v>167.4766553247714</v>
       </c>
       <c r="Q28" s="104">
         <f t="shared" si="22"/>
-        <v>221.51611495020876</v>
+        <v>170.92768260154213</v>
       </c>
       <c r="R28" s="104">
         <f t="shared" si="22"/>
-        <v>238.75342147263223</v>
+        <v>174.30936927683814</v>
       </c>
       <c r="S28" s="104">
         <f t="shared" si="22"/>
-        <v>245.71426025906086</v>
+        <v>180.53559997944166</v>
       </c>
       <c r="T28" s="104">
         <f t="shared" si="22"/>
-        <v>253.04104358203412</v>
+        <v>187.08095015799515</v>
       </c>
       <c r="U28" s="104">
         <f t="shared" si="22"/>
-        <v>260.70050375641284</v>
+        <v>193.9143390891474</v>
       </c>
       <c r="V28" s="104">
         <f t="shared" si="22"/>
-        <v>267.89421633882517</v>
+        <v>200.29271270079818</v>
       </c>
       <c r="W28" s="104">
         <f t="shared" si="22"/>
-        <v>268.84797978060283</v>
+        <v>200.6562980732661</v>
       </c>
       <c r="X28" s="104">
         <f t="shared" si="22"/>
-        <v>269.76847553723962</v>
+        <v>200.85423096884463</v>
       </c>
       <c r="Y28" s="104">
         <f t="shared" si="22"/>
-        <v>270.65570360873642</v>
+        <v>200.88455281065657</v>
       </c>
       <c r="Z28" s="104">
         <f t="shared" si="22"/>
-        <v>271.54293168023412</v>
+        <v>200.77623187397896</v>
       </c>
       <c r="AA28" s="104">
         <f t="shared" si="22"/>
-        <v>272.46907282700522</v>
+        <v>201.10447215140306</v>
       </c>
       <c r="AB28" s="95"/>
     </row>
@@ -27855,79 +27881,79 @@
       </c>
       <c r="I29" s="104">
         <f t="shared" si="23"/>
-        <v>148.62099511391199</v>
+        <v>159.78078521498699</v>
       </c>
       <c r="J29" s="104">
         <f t="shared" si="23"/>
-        <v>147.797019737607</v>
+        <v>170.05794605751399</v>
       </c>
       <c r="K29" s="104">
         <f t="shared" si="23"/>
-        <v>159.24265611122399</v>
+        <v>176.79305873756101</v>
       </c>
       <c r="L29" s="104">
         <f t="shared" si="23"/>
-        <v>170.909193879409</v>
+        <v>183.67606033524501</v>
       </c>
       <c r="M29" s="104">
         <f t="shared" si="23"/>
-        <v>182.80013836844901</v>
+        <v>190.70971432433899</v>
       </c>
       <c r="N29" s="104">
         <f t="shared" si="23"/>
-        <v>193.82051361413301</v>
+        <v>196.79829535043001</v>
       </c>
       <c r="O29" s="104">
         <f t="shared" si="23"/>
-        <v>214.404660294731</v>
+        <v>202.02066928913399</v>
       </c>
       <c r="P29" s="104">
         <f t="shared" si="23"/>
-        <v>234.02054172086099</v>
+        <v>206.201363920483</v>
       </c>
       <c r="Q29" s="104">
         <f t="shared" si="23"/>
-        <v>253.77886496758899</v>
+        <v>210.45035330958299</v>
       </c>
       <c r="R29" s="104">
         <f t="shared" si="23"/>
-        <v>273.52670175744203</v>
+        <v>214.613968850182</v>
       </c>
       <c r="S29" s="104">
         <f t="shared" si="23"/>
-        <v>281.50135302305898</v>
+        <v>222.27985673450101</v>
       </c>
       <c r="T29" s="104">
         <f t="shared" si="23"/>
-        <v>289.89524687581797</v>
+        <v>230.33865234119401</v>
       </c>
       <c r="U29" s="104">
         <f t="shared" si="23"/>
-        <v>298.67027035325299</v>
+        <v>238.75208832169099</v>
       </c>
       <c r="V29" s="104">
         <f t="shared" ref="V29:AA29" si="24">V11</f>
-        <v>306.91171235614303</v>
+        <v>246.60529828558899</v>
       </c>
       <c r="W29" s="104">
         <f t="shared" si="24"/>
-        <v>308.00438682705601</v>
+        <v>247.05295350988899</v>
       </c>
       <c r="X29" s="104">
         <f t="shared" si="24"/>
-        <v>309.05894833550099</v>
+        <v>247.29665334347999</v>
       </c>
       <c r="Y29" s="104">
         <f t="shared" si="24"/>
-        <v>310.07539688147898</v>
+        <v>247.33398633849399</v>
       </c>
       <c r="Z29" s="104">
         <f t="shared" si="24"/>
-        <v>311.091845427458</v>
+        <v>247.20061894564299</v>
       </c>
       <c r="AA29" s="104">
         <f t="shared" si="24"/>
-        <v>312.15287454978699</v>
+        <v>247.60475642239899</v>
       </c>
       <c r="AB29" s="95"/>
     </row>
@@ -27946,63 +27972,63 @@
       <c r="L30" s="230"/>
       <c r="M30" s="230">
         <f t="shared" ref="M30" si="25">(M29/L29)-1</f>
-        <v>6.9574633284094078E-2</v>
+        <v>3.8293798202423179E-2</v>
       </c>
       <c r="N30" s="230">
         <f t="shared" ref="N30" si="26">(N29/M29)-1</f>
-        <v>6.0286471028109911E-2</v>
+        <v>3.1925909215805293E-2</v>
       </c>
       <c r="O30" s="246">
         <f t="shared" ref="O30" si="27">(O29/N29)-1</f>
-        <v>0.10620210573571121</v>
+        <v>2.6536682796996391E-2</v>
       </c>
       <c r="P30" s="230">
         <f t="shared" ref="P30" si="28">(P29/O29)-1</f>
-        <v>9.1489995596014895E-2</v>
+        <v>2.0694390559441E-2</v>
       </c>
       <c r="Q30" s="230">
         <f t="shared" ref="Q30" si="29">(Q29/P29)-1</f>
-        <v>8.4429867145148663E-2</v>
+        <v>2.0606019806632014E-2</v>
       </c>
       <c r="R30" s="230">
         <f t="shared" ref="R30" si="30">(R29/Q29)-1</f>
-        <v>7.7815135599944796E-2</v>
+        <v>1.9784312428661632E-2</v>
       </c>
       <c r="S30" s="246">
         <f t="shared" ref="S30" si="31">(S29/R29)-1</f>
-        <v>2.9154927889594839E-2</v>
+        <v>3.5719426491154449E-2</v>
       </c>
       <c r="T30" s="230">
         <f t="shared" ref="T30" si="32">(T29/S29)-1</f>
-        <v>2.9818307310485404E-2</v>
+        <v>3.6255177257553894E-2</v>
       </c>
       <c r="U30" s="230">
         <f t="shared" ref="U30" si="33">(U29/T29)-1</f>
-        <v>3.0269635573549003E-2</v>
+        <v>3.6526374948284479E-2</v>
       </c>
       <c r="V30" s="230">
         <f t="shared" ref="V30" si="34">(V29/U29)-1</f>
-        <v>2.7593780904749732E-2</v>
+        <v>3.2892738317399361E-2</v>
       </c>
       <c r="W30" s="246">
         <f t="shared" ref="W30" si="35">(W29/V29)-1</f>
-        <v>3.5602240870007407E-3</v>
+        <v>1.8152700992724036E-3</v>
       </c>
       <c r="X30" s="230">
         <f t="shared" ref="X30" si="36">(X29/W29)-1</f>
-        <v>3.4238522357057377E-3</v>
+        <v>9.8642752547073442E-4</v>
       </c>
       <c r="Y30" s="230">
         <f t="shared" ref="Y30" si="37">(Y29/X29)-1</f>
-        <v>3.2888500768293305E-3</v>
+        <v>1.5096441666018201E-4</v>
       </c>
       <c r="Z30" s="230">
         <f t="shared" ref="Z30" si="38">(Z29/Y29)-1</f>
-        <v>3.278068999352346E-3</v>
+        <v>-5.3921984125737676E-4</v>
       </c>
       <c r="AA30" s="246">
         <f t="shared" ref="AA30" si="39">(AA29/Z29)-1</f>
-        <v>3.4106619569891361E-3</v>
+        <v>1.634856249469463E-3</v>
       </c>
       <c r="AB30" s="243"/>
     </row>
@@ -28026,79 +28052,79 @@
       </c>
       <c r="I31" s="217">
         <f t="shared" ref="I31" si="43">I28-I29</f>
-        <v>-2.7453429326619414</v>
+        <v>-13.905133033736945</v>
       </c>
       <c r="J31" s="217">
         <f t="shared" ref="J31" si="44">J28-J29</f>
-        <v>-1.1919892954507532</v>
+        <v>-23.452915615357739</v>
       </c>
       <c r="K31" s="150">
         <f t="shared" ref="K31:N31" si="45">K28-K29</f>
-        <v>-11.538087940751609</v>
+        <v>-29.088490567088627</v>
       </c>
       <c r="L31" s="239">
         <f t="shared" si="45"/>
-        <v>-21.727580027231852</v>
+        <v>-34.494446483067861</v>
       </c>
       <c r="M31" s="217">
         <f t="shared" si="45"/>
-        <v>-23.239268439777305</v>
+        <v>-35.815369855794756</v>
       </c>
       <c r="N31" s="217">
         <f t="shared" si="45"/>
-        <v>-24.640281923286409</v>
+        <v>-36.958808102341351</v>
       </c>
       <c r="O31" s="150">
         <f t="shared" ref="O31:AA31" si="46">O28-O29</f>
-        <v>-27.257131749460996</v>
+        <v>-37.939572269508261</v>
       </c>
       <c r="P31" s="150">
         <f t="shared" si="46"/>
-        <v>-29.750886613179148</v>
+        <v>-38.724708595711604</v>
       </c>
       <c r="Q31" s="150">
         <f t="shared" si="46"/>
-        <v>-32.262750017380228</v>
+        <v>-39.522670708040863</v>
       </c>
       <c r="R31" s="150">
         <f t="shared" si="46"/>
-        <v>-34.7732802848098</v>
+        <v>-40.304599573343864</v>
       </c>
       <c r="S31" s="150">
         <f t="shared" si="46"/>
-        <v>-35.787092763998118</v>
+        <v>-41.744256755059354</v>
       </c>
       <c r="T31" s="150">
         <f t="shared" si="46"/>
-        <v>-36.854203293783854</v>
+        <v>-43.257702183198859</v>
       </c>
       <c r="U31" s="150">
         <f t="shared" si="46"/>
-        <v>-37.969766596840145</v>
+        <v>-44.837749232543587</v>
       </c>
       <c r="V31" s="150">
         <f t="shared" si="46"/>
-        <v>-39.017496017317853</v>
+        <v>-46.31258558479081</v>
       </c>
       <c r="W31" s="150">
         <f t="shared" si="46"/>
-        <v>-39.156407046453182</v>
+        <v>-46.396655436622893</v>
       </c>
       <c r="X31" s="150">
         <f t="shared" si="46"/>
-        <v>-39.290472798261362</v>
+        <v>-46.442422374635356</v>
       </c>
       <c r="Y31" s="150">
         <f t="shared" si="46"/>
-        <v>-39.419693272742563</v>
+        <v>-46.449433527837414</v>
       </c>
       <c r="Z31" s="150">
         <f t="shared" si="46"/>
-        <v>-39.548913747223878</v>
+        <v>-46.424387071664029</v>
       </c>
       <c r="AA31" s="150">
         <f t="shared" si="46"/>
-        <v>-39.683801722781766</v>
+        <v>-46.500284270995934</v>
       </c>
       <c r="AB31" s="244"/>
     </row>
@@ -28718,71 +28744,71 @@
       </c>
       <c r="K47" s="149">
         <f>J47*(1+K49)</f>
-        <v>1476.4530643714609</v>
+        <v>1480.5998046552752</v>
       </c>
       <c r="L47" s="104">
         <f t="shared" ref="L47:AA47" si="51">K47*(1+L49)</f>
-        <v>1507.9695961915656</v>
+        <v>1516.3210576202514</v>
       </c>
       <c r="M47" s="104">
         <f t="shared" si="51"/>
-        <v>1539.48612801167</v>
+        <v>1552.1008805681472</v>
       </c>
       <c r="N47" s="104">
         <f t="shared" si="51"/>
-        <v>1571.0026598317852</v>
+        <v>1587.9398686066868</v>
       </c>
       <c r="O47" s="149">
         <f t="shared" si="51"/>
-        <v>1584.3661861427986</v>
+        <v>1551.4669156098018</v>
       </c>
       <c r="P47" s="104">
         <f t="shared" si="51"/>
-        <v>1597.7297124538018</v>
+        <v>1576.6525379054699</v>
       </c>
       <c r="Q47" s="104">
         <f t="shared" si="51"/>
-        <v>1611.0932387648152</v>
+        <v>1601.8908390585889</v>
       </c>
       <c r="R47" s="104">
         <f t="shared" si="51"/>
-        <v>1624.4567650758283</v>
+        <v>1627.1823450464915</v>
       </c>
       <c r="S47" s="149">
         <f t="shared" si="51"/>
-        <v>1635.4725530953417</v>
+        <v>1638.204390251791</v>
       </c>
       <c r="T47" s="104">
         <f t="shared" si="51"/>
-        <v>1646.4883411148555</v>
+        <v>1649.2451454441484</v>
       </c>
       <c r="U47" s="104">
         <f t="shared" si="51"/>
-        <v>1657.5041291343584</v>
-      </c>
-      <c r="V47" s="104">
+        <v>0</v>
+      </c>
+      <c r="V47" s="104" t="e">
         <f t="shared" si="51"/>
-        <v>1668.5199171538723</v>
-      </c>
-      <c r="W47" s="149">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W47" s="149" t="e">
         <f t="shared" si="51"/>
-        <v>1709.6327256316122</v>
-      </c>
-      <c r="X47" s="104">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X47" s="104" t="e">
         <f t="shared" si="51"/>
-        <v>1750.7455341093626</v>
-      </c>
-      <c r="Y47" s="104">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y47" s="104" t="e">
         <f t="shared" si="51"/>
-        <v>1791.8583425871025</v>
-      </c>
-      <c r="Z47" s="104">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z47" s="104" t="e">
         <f t="shared" si="51"/>
-        <v>1832.9711510648426</v>
-      </c>
-      <c r="AA47" s="149">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA47" s="149" t="e">
         <f t="shared" si="51"/>
-        <v>1863.6126158747145</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB47" s="95"/>
     </row>
@@ -28812,79 +28838,79 @@
       </c>
       <c r="I48" s="104">
         <f t="shared" si="52"/>
-        <v>1394.63952711825</v>
+        <v>1386.21726265027</v>
       </c>
       <c r="J48" s="104">
         <f t="shared" si="52"/>
-        <v>1386.0160542364999</v>
+        <v>1368.22675839617</v>
       </c>
       <c r="K48" s="104">
         <f t="shared" si="52"/>
-        <v>1416.24742986613</v>
+        <v>1401.99671443597</v>
       </c>
       <c r="L48" s="104">
         <f t="shared" si="52"/>
-        <v>1446.4788054957501</v>
+        <v>1435.8215732094</v>
       </c>
       <c r="M48" s="104">
         <f t="shared" si="52"/>
-        <v>1476.7101811253699</v>
+        <v>1469.7018925626301</v>
       </c>
       <c r="N48" s="104">
         <f t="shared" si="52"/>
-        <v>1506.941556755</v>
+        <v>1503.6382360099001</v>
       </c>
       <c r="O48" s="104">
         <f t="shared" si="52"/>
-        <v>1519.7601557667999</v>
+        <v>1469.1015839675099</v>
       </c>
       <c r="P48" s="104">
         <f t="shared" si="52"/>
-        <v>1532.5787547785901</v>
+        <v>1492.95013480382</v>
       </c>
       <c r="Q48" s="104">
         <f t="shared" si="52"/>
-        <v>1545.3973537903901</v>
+        <v>1516.8485678465399</v>
       </c>
       <c r="R48" s="104">
         <f t="shared" si="52"/>
-        <v>1558.21595280219</v>
+        <v>1540.7973811495599</v>
       </c>
       <c r="S48" s="104">
         <f t="shared" si="52"/>
-        <v>1568.7825477363999</v>
+        <v>1551.2342805167</v>
       </c>
       <c r="T48" s="104">
         <f t="shared" si="52"/>
-        <v>1579.34914267061</v>
+        <v>1561.68889658237</v>
       </c>
       <c r="U48" s="104">
         <f t="shared" si="52"/>
-        <v>1589.9157376048099</v>
+        <v>0</v>
       </c>
       <c r="V48" s="104">
         <f t="shared" si="52"/>
-        <v>1600.48233253902</v>
+        <v>0</v>
       </c>
       <c r="W48" s="104">
         <f t="shared" si="52"/>
-        <v>1639.9186754518</v>
+        <v>0</v>
       </c>
       <c r="X48" s="104">
         <f t="shared" si="52"/>
-        <v>1679.35501836459</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="104">
         <f t="shared" si="52"/>
-        <v>1718.79136127737</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="104">
         <f t="shared" si="52"/>
-        <v>1758.22770419015</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="104">
         <f t="shared" si="52"/>
-        <v>1787.6196955994999</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="95"/>
     </row>
@@ -28901,71 +28927,71 @@
       <c r="J49" s="242"/>
       <c r="K49" s="246">
         <f t="shared" ref="K49" si="53">(K48/J48)-1</f>
-        <v>2.1811706680615162E-2</v>
+        <v>2.468154918954002E-2</v>
       </c>
       <c r="L49" s="230">
         <f t="shared" ref="L49" si="54">(L48/K48)-1</f>
-        <v>2.1346111556564518E-2</v>
+        <v>2.4126204023978692E-2</v>
       </c>
       <c r="M49" s="230">
         <f t="shared" ref="M49" si="55">(M48/L48)-1</f>
-        <v>2.0899978288488441E-2</v>
+        <v>2.3596469077630244E-2</v>
       </c>
       <c r="N49" s="230">
         <f t="shared" ref="N49" si="56">(N48/M48)-1</f>
-        <v>2.0472111600525089E-2</v>
+        <v>2.3090630568691317E-2</v>
       </c>
       <c r="O49" s="246">
         <f t="shared" ref="O49" si="57">(O48/N48)-1</f>
-        <v>8.5063677183361275E-3</v>
+        <v>-2.296872426843688E-2</v>
       </c>
       <c r="P49" s="230">
         <f t="shared" ref="P49" si="58">(P48/O48)-1</f>
-        <v>8.4346197412463741E-3</v>
+        <v>1.6233425310116179E-2</v>
       </c>
       <c r="Q49" s="230">
         <f t="shared" ref="Q49" si="59">(Q48/P48)-1</f>
-        <v>8.3640719746580494E-3</v>
+        <v>1.600752261284355E-2</v>
       </c>
       <c r="R49" s="230">
         <f t="shared" ref="R49" si="60">(R48/Q48)-1</f>
-        <v>8.2946945524138282E-3</v>
+        <v>1.5788532758428175E-2</v>
       </c>
       <c r="S49" s="246">
         <f t="shared" ref="S49" si="61">(S48/R48)-1</f>
-        <v>6.781213422444754E-3</v>
+        <v>6.7737000950465198E-3</v>
       </c>
       <c r="T49" s="230">
         <f t="shared" ref="T49" si="62">(T48/S48)-1</f>
-        <v>6.7355382997196234E-3</v>
+        <v>6.7395468221522759E-3</v>
       </c>
       <c r="U49" s="230">
         <f t="shared" ref="U49" si="63">(U48/T48)-1</f>
-        <v>6.6904743534619282E-3</v>
-      </c>
-      <c r="V49" s="230">
+        <v>-1</v>
+      </c>
+      <c r="V49" s="230" t="e">
         <f t="shared" ref="V49" si="64">(V48/U48)-1</f>
-        <v>6.6460093980380552E-3</v>
-      </c>
-      <c r="W49" s="246">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W49" s="246" t="e">
         <f t="shared" ref="W49" si="65">(W48/V48)-1</f>
-        <v>2.4640286313075244E-2</v>
-      </c>
-      <c r="X49" s="230">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X49" s="230" t="e">
         <f t="shared" ref="X49" si="66">(X48/W48)-1</f>
-        <v>2.4047743039407266E-2</v>
-      </c>
-      <c r="Y49" s="230">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y49" s="230" t="e">
         <f t="shared" ref="Y49" si="67">(Y48/X48)-1</f>
-        <v>2.3483029187708171E-2</v>
-      </c>
-      <c r="Z49" s="230">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z49" s="230" t="e">
         <f t="shared" ref="Z49" si="68">(Z48/Y48)-1</f>
-        <v>2.2944229184088893E-2</v>
-      </c>
-      <c r="AA49" s="246">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA49" s="246" t="e">
         <f t="shared" ref="AA49" si="69">(AA48/Z48)-1</f>
-        <v>1.6716828735722888E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB49" s="243"/>
     </row>
@@ -28989,79 +29015,79 @@
       </c>
       <c r="I50" s="217">
         <f t="shared" ref="I50" si="73">I47-I48</f>
-        <v>27.240230175895476</v>
+        <v>35.662494643875561</v>
       </c>
       <c r="J50" s="239">
         <f t="shared" ref="J50" si="74">J47-J48</f>
-        <v>58.920478314845923</v>
+        <v>76.709774155175865</v>
       </c>
       <c r="K50" s="150">
         <f t="shared" ref="K50:AA50" si="75">K47-K48</f>
-        <v>60.205634505330863</v>
+        <v>78.603090219305159</v>
       </c>
       <c r="L50" s="217">
         <f t="shared" si="75"/>
-        <v>61.490790695815576</v>
+        <v>80.499484410851437</v>
       </c>
       <c r="M50" s="217">
         <f t="shared" si="75"/>
-        <v>62.775946886300062</v>
+        <v>82.39898800551714</v>
       </c>
       <c r="N50" s="217">
         <f t="shared" si="75"/>
-        <v>64.06110307678523</v>
+        <v>84.301632596786703</v>
       </c>
       <c r="O50" s="150">
         <f t="shared" si="75"/>
-        <v>64.606030375998671</v>
+        <v>82.365331642291949</v>
       </c>
       <c r="P50" s="217">
         <f t="shared" si="75"/>
-        <v>65.150957675211657</v>
+        <v>83.702403101649907</v>
       </c>
       <c r="Q50" s="217">
         <f t="shared" si="75"/>
-        <v>65.695884974425098</v>
+        <v>85.042271212048945</v>
       </c>
       <c r="R50" s="217">
         <f t="shared" si="75"/>
-        <v>66.240812273638312</v>
+        <v>86.384963896931595</v>
       </c>
       <c r="S50" s="150">
         <f t="shared" si="75"/>
-        <v>66.690005358941789</v>
+        <v>86.970109735091</v>
       </c>
       <c r="T50" s="217">
         <f t="shared" si="75"/>
-        <v>67.139198444245494</v>
+        <v>87.556248861778386</v>
       </c>
       <c r="U50" s="217">
         <f t="shared" si="75"/>
-        <v>67.588391529548517</v>
-      </c>
-      <c r="V50" s="217">
+        <v>0</v>
+      </c>
+      <c r="V50" s="217" t="e">
         <f t="shared" si="75"/>
-        <v>68.037584614852221</v>
-      </c>
-      <c r="W50" s="150">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W50" s="150" t="e">
         <f t="shared" si="75"/>
-        <v>69.714050179812148</v>
-      </c>
-      <c r="X50" s="217">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X50" s="217" t="e">
         <f t="shared" si="75"/>
-        <v>71.390515744772529</v>
-      </c>
-      <c r="Y50" s="217">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y50" s="217" t="e">
         <f t="shared" si="75"/>
-        <v>73.066981309732455</v>
-      </c>
-      <c r="Z50" s="217">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z50" s="217" t="e">
         <f t="shared" si="75"/>
-        <v>74.743446874692609</v>
-      </c>
-      <c r="AA50" s="150">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA50" s="150" t="e">
         <f t="shared" si="75"/>
-        <v>75.992920275214601</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB50" s="244"/>
     </row>
@@ -30458,12 +30484,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30744,10 +30770,10 @@
         <v>44377</v>
       </c>
       <c r="B6">
-        <v>6.7878800857670569</v>
+        <v>9.5254057188660681</v>
       </c>
       <c r="C6">
-        <v>-2.7453429326619414</v>
+        <v>-13.905133033736945</v>
       </c>
       <c r="D6">
         <v>-27.737459527982537</v>
@@ -30756,7 +30782,7 @@
         <v>-2.6317117073143947</v>
       </c>
       <c r="F6">
-        <v>27.240230175895476</v>
+        <v>35.662494643875561</v>
       </c>
       <c r="G6">
         <v>204.56851838171019</v>
@@ -30787,8 +30813,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f>26.5 + 14/4</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -30799,10 +30824,10 @@
         <v>44469</v>
       </c>
       <c r="B7">
-        <v>2.4621390898360573</v>
+        <v>6.9337695694130446</v>
       </c>
       <c r="C7">
-        <v>-1.1919892954507532</v>
+        <v>-23.452915615357739</v>
       </c>
       <c r="D7">
         <v>-28.139041961662997</v>
@@ -30811,7 +30836,7 @@
         <v>-2.6698135814636288</v>
       </c>
       <c r="F7">
-        <v>58.920478314845923</v>
+        <v>76.709774155175865</v>
       </c>
       <c r="G7">
         <v>250.13699643966515</v>
@@ -30828,11 +30853,11 @@
       </c>
       <c r="K7" s="102">
         <f t="shared" si="1"/>
-        <v>18836.10523158947</v>
+        <v>67.821326224591743</v>
       </c>
       <c r="L7" s="102">
-        <f>main!Q$42</f>
-        <v>18787.07097634122</v>
+        <f>main!Q$42/1000</f>
+        <v>18.787070976341219</v>
       </c>
       <c r="M7" s="102">
         <f>main!Q$46/1000</f>
@@ -30842,8 +30867,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O9" si="2">26.5 + 14/4</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -30854,10 +30878,10 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>1.8517372461530499</v>
+        <v>5.1514244423360651</v>
       </c>
       <c r="C8">
-        <v>-11.538087940751609</v>
+        <v>-29.088490567088627</v>
       </c>
       <c r="D8">
         <v>-28.5131067004138</v>
@@ -30866,7 +30890,7 @@
         <v>-2.7053045950249697</v>
       </c>
       <c r="F8">
-        <v>60.205634505330863</v>
+        <v>78.603090219305159</v>
       </c>
       <c r="G8">
         <v>233.73949568119156</v>
@@ -30883,11 +30907,11 @@
       </c>
       <c r="K8" s="102">
         <f t="shared" si="1"/>
-        <v>17760.329090303232</v>
+        <v>63.947884038653726</v>
       </c>
       <c r="L8" s="102">
-        <f>main!R$42</f>
-        <v>17714.095301566143</v>
+        <f>main!R$42/1000</f>
+        <v>17.714095301566143</v>
       </c>
       <c r="M8" s="102">
         <f>main!R$46/1000</f>
@@ -30897,8 +30921,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -30909,10 +30932,10 @@
         <v>44651</v>
       </c>
       <c r="B9">
-        <v>1.2413354024700425</v>
+        <v>3.3509695719550621</v>
       </c>
       <c r="C9">
-        <v>-21.727580027231852</v>
+        <v>-34.494446483067861</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -30921,7 +30944,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>61.490790695815576</v>
+        <v>80.499484410851437</v>
       </c>
       <c r="G9">
         <v>233.94093969550113</v>
@@ -30952,8 +30975,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -30964,10 +30986,10 @@
         <v>44742</v>
       </c>
       <c r="B10">
-        <v>42.711846116101725</v>
+        <v>43.613133509245728</v>
       </c>
       <c r="C10">
-        <v>-23.239268439777305</v>
+        <v>-35.815369855794756</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -30976,7 +30998,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>62.775946886300062</v>
+        <v>82.39898800551714</v>
       </c>
       <c r="G10">
         <v>233.05631237691114</v>
@@ -31007,8 +31029,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <f>26.5 + 7/4</f>
-        <v>28.25</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -31019,10 +31040,10 @@
         <v>44834</v>
       </c>
       <c r="B11">
-        <v>42.101444272418718</v>
+        <v>41.775905263619705</v>
       </c>
       <c r="C11">
-        <v>-24.640281923286409</v>
+        <v>-36.958808102341351</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -31031,7 +31052,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>64.06110307678523</v>
+        <v>84.301632596786703</v>
       </c>
       <c r="G11">
         <v>230.54660311998441</v>
@@ -31062,8 +31083,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:O13" si="3">26.5 + 7/4</f>
-        <v>28.25</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -31074,10 +31094,10 @@
         <v>44926</v>
       </c>
       <c r="B12">
-        <v>44.076451080221716</v>
+        <v>-18.966111724660294</v>
       </c>
       <c r="C12">
-        <v>-27.257131749460996</v>
+        <v>-37.939572269508261</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -31086,7 +31106,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>64.606030375998671</v>
+        <v>82.365331642291949</v>
       </c>
       <c r="G12">
         <v>233.51529586410925</v>
@@ -31117,8 +31137,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
-        <v>28.25</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -31129,10 +31148,10 @@
         <v>45016</v>
       </c>
       <c r="B13">
-        <v>43.593784943441761</v>
+        <v>-19.155480766324075</v>
       </c>
       <c r="C13">
-        <v>-29.750886613179148</v>
+        <v>-38.724708595711604</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -31141,7 +31160,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>65.150957675211657</v>
+        <v>83.702403101649907</v>
       </c>
       <c r="G13">
         <v>235.06125382975324</v>
@@ -31170,8 +31189,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
-        <v>28.25</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -31182,10 +31200,10 @@
         <v>45107</v>
       </c>
       <c r="B14">
-        <v>43.111118806662063</v>
+        <v>-19.346740582146595</v>
       </c>
       <c r="C14">
-        <v>-32.262750017380228</v>
+        <v>-39.522670708040863</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -31194,7 +31212,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>65.695884974425098</v>
+        <v>85.042271212048945</v>
       </c>
       <c r="G14">
         <v>235.60293089435368</v>
@@ -31223,7 +31241,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -31234,10 +31252,10 @@
         <v>45199</v>
       </c>
       <c r="B15">
-        <v>42.628452669882108</v>
+        <v>-19.539910050751786</v>
       </c>
       <c r="C15">
-        <v>-34.7732802848098</v>
+        <v>-40.304599573343864</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -31246,7 +31264,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>66.240812273638312</v>
+        <v>86.384963896931595</v>
       </c>
       <c r="G15">
         <v>234.98999853168425</v>
@@ -31275,7 +31293,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -31286,10 +31304,10 @@
         <v>45291</v>
       </c>
       <c r="B16">
-        <v>42.880564855884273</v>
+        <v>-19.654461260314008</v>
       </c>
       <c r="C16">
-        <v>-35.787092763998118</v>
+        <v>-41.744256755059354</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -31298,7 +31316,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>66.690005358941789</v>
+        <v>86.970109735091</v>
       </c>
       <c r="G16">
         <v>236.17828674958128</v>
@@ -31327,7 +31345,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -31338,10 +31356,10 @@
         <v>45382</v>
       </c>
       <c r="B17">
-        <v>43.132677041886438</v>
+        <v>-19.76968401747186</v>
       </c>
       <c r="C17">
-        <v>-36.854203293783854</v>
+        <v>-43.257702183198859</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -31350,7 +31368,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>67.139198444245494</v>
+        <v>87.556248861778386</v>
       </c>
       <c r="G17">
         <v>237.51323482264502</v>
@@ -31379,7 +31397,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -31390,10 +31408,10 @@
         <v>45473</v>
       </c>
       <c r="B18">
-        <v>43.384789227888604</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>-37.969766596840145</v>
+        <v>-44.837749232543587</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -31402,7 +31420,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>67.588391529548517</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>238.7869925439345</v>
@@ -31431,7 +31449,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -31441,11 +31459,11 @@
       <c r="A19" s="188">
         <v>45565</v>
       </c>
-      <c r="B19">
-        <v>43.63690141389074</v>
+      <c r="B19" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="C19">
-        <v>-39.017496017317853</v>
+        <v>-46.31258558479081</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -31453,8 +31471,8 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>68.037584614852221</v>
+      <c r="F19" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="G19">
         <v>240.14297325934376</v>
@@ -31483,7 +31501,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -31493,11 +31511,11 @@
       <c r="A20" s="188">
         <v>45657</v>
       </c>
-      <c r="B20">
-        <v>44.285381796070624</v>
+      <c r="B20" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="C20">
-        <v>-39.156407046453182</v>
+        <v>-46.396655436622893</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -31505,8 +31523,8 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>69.714050179812148</v>
+      <c r="F20" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="G20">
         <v>245.7246097197085</v>
@@ -31535,7 +31553,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -31545,11 +31563,11 @@
       <c r="A21" s="188">
         <v>45747</v>
       </c>
-      <c r="B21">
-        <v>44.933862178250251</v>
+      <c r="B21" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="C21">
-        <v>-39.290472798261362</v>
+        <v>-46.442422374635356</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -31557,8 +31575,8 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>71.390515744772529</v>
+      <c r="F21" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="G21">
         <v>250.44014015901371</v>
@@ -31587,7 +31605,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -31597,11 +31615,11 @@
       <c r="A22" s="188">
         <v>45838</v>
       </c>
-      <c r="B22">
-        <v>45.582342560430135</v>
+      <c r="B22" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="C22">
-        <v>-39.419693272742563</v>
+        <v>-46.449433527837414</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -31609,8 +31627,8 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>73.066981309732455</v>
+      <c r="F22" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="G22">
         <v>254.06818473499311</v>
@@ -31639,7 +31657,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -31649,11 +31667,11 @@
       <c r="A23" s="188">
         <v>45930</v>
       </c>
-      <c r="B23">
-        <v>46.230822942609791</v>
+      <c r="B23" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="C23">
-        <v>-39.548913747223878</v>
+        <v>-46.424387071664029</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -31661,8 +31679,8 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>74.743446874692609</v>
+      <c r="F23" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="G23">
         <v>256.71371648194076</v>
@@ -31691,7 +31709,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -31701,11 +31719,11 @@
       <c r="A24" s="188">
         <v>46022</v>
       </c>
-      <c r="B24">
-        <v>46.876616670349648</v>
+      <c r="B24" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="C24">
-        <v>-39.683801722781766</v>
+        <v>-46.500284270995934</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -31713,8 +31731,8 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
-        <v>75.992920275214601</v>
+      <c r="F24" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="G24">
         <v>257.94681940875489</v>
@@ -31743,7 +31761,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -31751,6 +31769,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31769,36 +31788,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D1" s="354" t="s">
+      <c r="D1" s="381" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354" t="s">
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
+      <c r="G1" s="381"/>
+      <c r="H1" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="354"/>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354" t="s">
+      <c r="I1" s="381"/>
+      <c r="J1" s="381"/>
+      <c r="K1" s="381"/>
+      <c r="L1" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
-      <c r="O1" s="354"/>
-      <c r="P1" s="354" t="s">
+      <c r="M1" s="381"/>
+      <c r="N1" s="381"/>
+      <c r="O1" s="381"/>
+      <c r="P1" s="381" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="354"/>
-      <c r="R1" s="354"/>
-      <c r="S1" s="354"/>
-      <c r="T1" s="354" t="s">
+      <c r="Q1" s="381"/>
+      <c r="R1" s="381"/>
+      <c r="S1" s="381"/>
+      <c r="T1" s="381" t="s">
         <v>260</v>
       </c>
-      <c r="U1" s="354"/>
-      <c r="V1" s="354"/>
-      <c r="W1" s="354"/>
+      <c r="U1" s="381"/>
+      <c r="V1" s="381"/>
+      <c r="W1" s="381"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D2" s="197" t="s">
@@ -32208,22 +32227,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="392" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="363"/>
+      <c r="B1" s="393"/>
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="370" t="s">
+      <c r="J1" s="400" t="s">
         <v>273</v>
       </c>
-      <c r="V1" s="354"/>
-      <c r="W1" s="354"/>
-      <c r="X1" s="354"/>
-      <c r="Y1" s="354"/>
+      <c r="V1" s="381"/>
+      <c r="W1" s="381"/>
+      <c r="X1" s="381"/>
+      <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="394" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="126"/>
@@ -32232,20 +32251,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="241"/>
-      <c r="J2" s="370"/>
+      <c r="J2" s="400"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="365"/>
+      <c r="A3" s="395"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>191</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="241"/>
-      <c r="J3" s="370"/>
+      <c r="J3" s="400"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="365"/>
+      <c r="A4" s="395"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>192</v>
@@ -32255,7 +32274,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="366"/>
+      <c r="A5" s="396"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>179</v>
@@ -32270,42 +32289,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="367" t="s">
+      <c r="C7" s="397" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="368"/>
-      <c r="E7" s="368"/>
-      <c r="F7" s="369"/>
-      <c r="G7" s="367" t="s">
+      <c r="D7" s="398"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="399"/>
+      <c r="G7" s="397" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="368"/>
-      <c r="I7" s="368"/>
-      <c r="J7" s="369"/>
-      <c r="K7" s="367" t="s">
+      <c r="H7" s="398"/>
+      <c r="I7" s="398"/>
+      <c r="J7" s="399"/>
+      <c r="K7" s="397" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="368"/>
-      <c r="M7" s="368"/>
-      <c r="N7" s="368"/>
-      <c r="O7" s="367" t="s">
+      <c r="L7" s="398"/>
+      <c r="M7" s="398"/>
+      <c r="N7" s="398"/>
+      <c r="O7" s="397" t="s">
         <v>264</v>
       </c>
-      <c r="P7" s="368"/>
-      <c r="Q7" s="368"/>
-      <c r="R7" s="368"/>
-      <c r="S7" s="367" t="s">
+      <c r="P7" s="398"/>
+      <c r="Q7" s="398"/>
+      <c r="R7" s="398"/>
+      <c r="S7" s="397" t="s">
         <v>267</v>
       </c>
-      <c r="T7" s="368"/>
-      <c r="U7" s="368"/>
-      <c r="V7" s="368"/>
-      <c r="W7" s="367" t="s">
+      <c r="T7" s="398"/>
+      <c r="U7" s="398"/>
+      <c r="V7" s="398"/>
+      <c r="W7" s="397" t="s">
         <v>268</v>
       </c>
-      <c r="X7" s="368"/>
-      <c r="Y7" s="368"/>
-      <c r="Z7" s="368"/>
+      <c r="X7" s="398"/>
+      <c r="Y7" s="398"/>
+      <c r="Z7" s="398"/>
       <c r="AA7" s="222" t="s">
         <v>269</v>
       </c>
@@ -35812,12 +35831,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -36034,16 +36062,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -36060,7 +36087,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36077,12 +36104,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/add_factors.xlsx
+++ b/data/add_factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\fim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FE7C7B-9714-5841-B807-FA19CB3D5B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4EB841-E05D-4565-9FF4-ACCAF2D4F1EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="33600" windowHeight="19720" activeTab="4" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4670,6 +4667,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4691,29 +4703,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5238,33 +5235,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ121"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L78" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P91" sqref="P91"/>
+      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="35" customWidth="1"/>
-    <col min="6" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="22" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.1640625" style="35" customWidth="1"/>
-    <col min="24" max="25" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.83203125" customWidth="1"/>
-    <col min="28" max="32" width="8.83203125" customWidth="1"/>
-    <col min="33" max="33" width="15.5" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="10.5" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="8.83203125" customWidth="1"/>
-    <col min="39" max="39" width="8.6640625" style="146"/>
+    <col min="1" max="1" width="32.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="4" width="10.81640625" style="35" customWidth="1"/>
+    <col min="6" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="22" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" style="35" customWidth="1"/>
+    <col min="24" max="25" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.81640625" customWidth="1"/>
+    <col min="28" max="32" width="8.81640625" customWidth="1"/>
+    <col min="33" max="33" width="15.453125" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="8.81640625" customWidth="1"/>
+    <col min="39" max="39" width="8.6328125" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="382" t="s">
         <v>360</v>
       </c>
@@ -5299,7 +5296,7 @@
       <c r="AO1" s="383"/>
       <c r="AP1" s="383"/>
     </row>
-    <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="381" t="s">
         <v>20</v>
       </c>
@@ -5346,7 +5343,7 @@
       <c r="AK2" s="381"/>
       <c r="AL2" s="385"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="F3" s="197" t="s">
         <v>5</v>
       </c>
@@ -5450,7 +5447,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="380" t="s">
         <v>256</v>
       </c>
@@ -5478,7 +5475,7 @@
       <c r="AK4" s="97"/>
       <c r="AL4" s="97"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -5575,7 +5572,7 @@
       <c r="AK5" s="97"/>
       <c r="AL5" s="97"/>
     </row>
-    <row r="6" spans="1:43" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:43" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="169" t="s">
         <v>210</v>
       </c>
@@ -5663,7 +5660,7 @@
       <c r="AL6" s="174"/>
       <c r="AM6" s="232"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -5760,7 +5757,7 @@
       <c r="AK7" s="97"/>
       <c r="AL7" s="97"/>
     </row>
-    <row r="8" spans="1:43" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:43" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A8" s="169" t="s">
         <v>210</v>
       </c>
@@ -5848,7 +5845,7 @@
       <c r="AL8" s="174"/>
       <c r="AM8" s="232"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="F9" s="197"/>
       <c r="G9" s="197"/>
       <c r="H9" s="197"/>
@@ -5870,7 +5867,7 @@
       <c r="AK9" s="97"/>
       <c r="AL9" s="97"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -5889,7 +5886,7 @@
       <c r="AI10" s="146"/>
       <c r="AJ10" s="146"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" s="176" t="s">
         <v>251</v>
       </c>
@@ -5966,7 +5963,7 @@
       <c r="AI11" s="146"/>
       <c r="AJ11" s="146"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" s="211" t="s">
         <v>24</v>
       </c>
@@ -6080,7 +6077,7 @@
       </c>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="212" t="s">
         <v>365</v>
       </c>
@@ -6143,7 +6140,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:43" s="170" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="212" t="s">
         <v>361</v>
       </c>
@@ -6199,7 +6196,7 @@
       <c r="AL14" s="174"/>
       <c r="AM14" s="232"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" s="211" t="s">
         <v>25</v>
       </c>
@@ -6309,7 +6306,7 @@
       <c r="AP15" s="35"/>
       <c r="AQ15" s="35"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" s="212" t="s">
         <v>365</v>
       </c>
@@ -6377,7 +6374,7 @@
       <c r="AP16" s="35"/>
       <c r="AQ16" s="35"/>
     </row>
-    <row r="17" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="212" t="s">
         <v>210</v>
       </c>
@@ -6433,7 +6430,7 @@
       <c r="AL17" s="184"/>
       <c r="AM17" s="232"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" s="211" t="s">
         <v>26</v>
       </c>
@@ -6547,7 +6544,7 @@
       </c>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="212" t="s">
         <v>365</v>
       </c>
@@ -6610,7 +6607,7 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="212" t="s">
         <v>210</v>
       </c>
@@ -6666,7 +6663,7 @@
       <c r="AL20" s="174"/>
       <c r="AM20" s="232"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" s="176" t="s">
         <v>0</v>
       </c>
@@ -6779,7 +6776,7 @@
         <v>237.052464440053</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="177" t="s">
         <v>365</v>
       </c>
@@ -6841,7 +6838,7 @@
       <c r="AI22" s="95"/>
       <c r="AJ22" s="95"/>
     </row>
-    <row r="23" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="177" t="s">
         <v>210</v>
       </c>
@@ -6899,7 +6896,7 @@
       <c r="AL23" s="174"/>
       <c r="AM23" s="232"/>
     </row>
-    <row r="24" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="169"/>
       <c r="C24" s="269"/>
       <c r="D24" s="269"/>
@@ -6937,7 +6934,7 @@
       <c r="AL24" s="174"/>
       <c r="AM24" s="232"/>
     </row>
-    <row r="25" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>257</v>
       </c>
@@ -6977,7 +6974,7 @@
       <c r="AL25" s="174"/>
       <c r="AM25" s="232"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" s="176" t="s">
         <v>258</v>
       </c>
@@ -7049,7 +7046,7 @@
         <v>2101.8448061361319</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" s="211" t="s">
         <v>21</v>
       </c>
@@ -7118,7 +7115,7 @@
         <v>602.03209021138707</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A28" s="211" t="s">
         <v>22</v>
       </c>
@@ -7187,7 +7184,7 @@
         <v>1476.1176006480282</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A29" s="211" t="s">
         <v>23</v>
       </c>
@@ -7256,7 +7253,7 @@
         <v>23.695115276716287</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" s="176" t="s">
         <v>0</v>
       </c>
@@ -7325,7 +7322,7 @@
         <v>101.96036413772752</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A31" s="177" t="s">
         <v>259</v>
       </c>
@@ -7373,7 +7370,7 @@
       <c r="U31" s="193"/>
       <c r="AM31" s="234"/>
     </row>
-    <row r="32" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="194"/>
       <c r="B32" s="195"/>
       <c r="C32" s="269"/>
@@ -7421,7 +7418,7 @@
       <c r="AL32" s="174"/>
       <c r="AM32" s="232"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>393</v>
       </c>
@@ -7447,7 +7444,7 @@
         <v>2696.6527204036238</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A34" s="86" t="s">
         <v>14</v>
       </c>
@@ -7548,7 +7545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A35" s="86" t="s">
         <v>3</v>
       </c>
@@ -7673,7 +7670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A36" s="93" t="s">
         <v>329</v>
       </c>
@@ -7741,7 +7738,7 @@
       <c r="AL36" s="3"/>
       <c r="AM36" s="182"/>
     </row>
-    <row r="37" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="281" t="s">
         <v>330</v>
       </c>
@@ -7777,7 +7774,7 @@
       <c r="AL37" s="276"/>
       <c r="AM37" s="278"/>
     </row>
-    <row r="38" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="281" t="s">
         <v>337</v>
       </c>
@@ -7813,7 +7810,7 @@
       <c r="AL38" s="276"/>
       <c r="AM38" s="278"/>
     </row>
-    <row r="39" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="281" t="s">
         <v>340</v>
       </c>
@@ -7855,7 +7852,7 @@
       <c r="AL39" s="276"/>
       <c r="AM39" s="278"/>
     </row>
-    <row r="40" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A40" s="86" t="s">
         <v>140</v>
       </c>
@@ -7957,7 +7954,7 @@
       <c r="AL40" s="3"/>
       <c r="AM40" s="182"/>
     </row>
-    <row r="41" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A41" s="115" t="s">
         <v>323</v>
       </c>
@@ -8011,7 +8008,7 @@
       <c r="AL41" s="3"/>
       <c r="AM41" s="182"/>
     </row>
-    <row r="42" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A42" s="117" t="s">
         <v>207</v>
       </c>
@@ -8069,7 +8066,7 @@
       <c r="AL42" s="3"/>
       <c r="AM42" s="182"/>
     </row>
-    <row r="43" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A43" s="270" t="s">
         <v>137</v>
       </c>
@@ -8158,7 +8155,7 @@
       <c r="AL43" s="3"/>
       <c r="AM43" s="182"/>
     </row>
-    <row r="44" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A44" s="270" t="s">
         <v>161</v>
       </c>
@@ -8200,7 +8197,7 @@
       <c r="AL44" s="3"/>
       <c r="AM44" s="182"/>
     </row>
-    <row r="45" spans="1:39" s="274" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" s="274" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="273" t="s">
         <v>335</v>
       </c>
@@ -8241,7 +8238,7 @@
       <c r="AL45" s="276"/>
       <c r="AM45" s="278"/>
     </row>
-    <row r="46" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A46" s="117" t="s">
         <v>138</v>
       </c>
@@ -8330,7 +8327,7 @@
       <c r="AL46" s="3"/>
       <c r="AM46" s="182"/>
     </row>
-    <row r="47" spans="1:39" s="107" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" s="107" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="325" t="s">
         <v>146</v>
       </c>
@@ -8404,7 +8401,7 @@
       <c r="AL47" s="330"/>
       <c r="AM47" s="332"/>
     </row>
-    <row r="48" spans="1:39" s="107" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="333" t="s">
         <v>202</v>
       </c>
@@ -8463,7 +8460,7 @@
       <c r="AL48" s="330"/>
       <c r="AM48" s="332"/>
     </row>
-    <row r="49" spans="1:41" s="107" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="333" t="s">
         <v>371</v>
       </c>
@@ -8522,7 +8519,7 @@
       <c r="AL49" s="330"/>
       <c r="AM49" s="332"/>
     </row>
-    <row r="50" spans="1:41" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="86" t="s">
         <v>148</v>
       </c>
@@ -8639,7 +8636,7 @@
         <v>1719.2313825604638</v>
       </c>
     </row>
-    <row r="51" spans="1:41" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:41" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A51" s="169" t="s">
         <v>210</v>
       </c>
@@ -8702,7 +8699,7 @@
       <c r="AL51" s="174"/>
       <c r="AM51" s="183"/>
     </row>
-    <row r="52" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="169" t="s">
         <v>263</v>
       </c>
@@ -8756,7 +8753,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:41" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53"/>
       <c r="E53"/>
@@ -8794,7 +8791,7 @@
       <c r="AL53" s="44"/>
       <c r="AM53" s="235"/>
     </row>
-    <row r="54" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="141" t="s">
         <v>4</v>
       </c>
@@ -8893,7 +8890,7 @@
       <c r="AF54" s="44"/>
       <c r="AM54" s="233"/>
     </row>
-    <row r="55" spans="1:41" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="134" t="s">
         <v>198</v>
       </c>
@@ -8956,7 +8953,7 @@
       <c r="AG55" s="44"/>
       <c r="AM55" s="233"/>
     </row>
-    <row r="56" spans="1:41" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="219" t="s">
         <v>327</v>
       </c>
@@ -8990,7 +8987,7 @@
       <c r="AG56" s="44"/>
       <c r="AM56" s="233"/>
     </row>
-    <row r="57" spans="1:41" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="271" t="s">
         <v>325</v>
       </c>
@@ -9056,7 +9053,7 @@
       <c r="AG57" s="44"/>
       <c r="AM57" s="233"/>
     </row>
-    <row r="58" spans="1:41" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="113" t="s">
         <v>266</v>
       </c>
@@ -9113,7 +9110,7 @@
       <c r="AG58" s="44"/>
       <c r="AM58" s="233"/>
     </row>
-    <row r="59" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="272" t="s">
         <v>275</v>
       </c>
@@ -9161,7 +9158,7 @@
       <c r="AG59" s="187"/>
       <c r="AM59" s="234"/>
     </row>
-    <row r="60" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="272" t="s">
         <v>276</v>
       </c>
@@ -9212,7 +9209,7 @@
       <c r="AG60" s="187"/>
       <c r="AM60" s="234"/>
     </row>
-    <row r="61" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="272" t="s">
         <v>277</v>
       </c>
@@ -9263,7 +9260,7 @@
       <c r="AG61" s="187"/>
       <c r="AM61" s="234"/>
     </row>
-    <row r="62" spans="1:41" s="185" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="219" t="s">
         <v>328</v>
       </c>
@@ -9299,7 +9296,7 @@
       <c r="AG62" s="187"/>
       <c r="AM62" s="234"/>
     </row>
-    <row r="63" spans="1:41" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="273" t="s">
         <v>326</v>
       </c>
@@ -9339,7 +9336,7 @@
       <c r="AG63" s="276"/>
       <c r="AM63" s="280"/>
     </row>
-    <row r="64" spans="1:41" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" s="274" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="273" t="s">
         <v>387</v>
       </c>
@@ -9381,7 +9378,7 @@
       <c r="AG64" s="276"/>
       <c r="AM64" s="280"/>
     </row>
-    <row r="65" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="273" t="s">
         <v>276</v>
       </c>
@@ -9419,7 +9416,7 @@
       <c r="AG65" s="276"/>
       <c r="AM65" s="280"/>
     </row>
-    <row r="66" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="273" t="s">
         <v>341</v>
       </c>
@@ -9477,7 +9474,7 @@
       <c r="AG66" s="276"/>
       <c r="AM66" s="280"/>
     </row>
-    <row r="67" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="134" t="s">
         <v>671</v>
       </c>
@@ -9550,7 +9547,7 @@
       </c>
       <c r="AM67" s="233"/>
     </row>
-    <row r="68" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
         <v>16</v>
       </c>
@@ -9615,7 +9612,7 @@
       <c r="AF68" s="44"/>
       <c r="AM68" s="233"/>
     </row>
-    <row r="69" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C69"/>
       <c r="D69"/>
       <c r="F69" s="197"/>
@@ -9650,7 +9647,7 @@
       <c r="AF69" s="44"/>
       <c r="AM69" s="233"/>
     </row>
-    <row r="70" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
         <v>222</v>
       </c>
@@ -9713,7 +9710,7 @@
       <c r="AG70" s="44"/>
       <c r="AM70" s="233"/>
     </row>
-    <row r="71" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="136" t="s">
         <v>223</v>
       </c>
@@ -9791,7 +9788,7 @@
       <c r="AG71" s="44"/>
       <c r="AM71" s="233"/>
     </row>
-    <row r="72" spans="1:39" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39" s="138" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="137" t="s">
         <v>205</v>
       </c>
@@ -9844,7 +9841,7 @@
       <c r="AG72" s="140"/>
       <c r="AM72" s="236"/>
     </row>
-    <row r="73" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="134" t="s">
         <v>372</v>
       </c>
@@ -9923,7 +9920,7 @@
       <c r="AG73" s="44"/>
       <c r="AM73" s="233"/>
     </row>
-    <row r="74" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="219" t="s">
         <v>331</v>
       </c>
@@ -9993,7 +9990,7 @@
       <c r="AG74" s="44"/>
       <c r="AM74" s="233"/>
     </row>
-    <row r="75" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="113" t="s">
         <v>195</v>
       </c>
@@ -10059,7 +10056,7 @@
       <c r="AG75" s="44"/>
       <c r="AM75" s="233"/>
     </row>
-    <row r="76" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="334" t="s">
         <v>370</v>
       </c>
@@ -10113,7 +10110,7 @@
       <c r="AG76" s="330"/>
       <c r="AM76" s="338"/>
     </row>
-    <row r="77" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="334" t="s">
         <v>199</v>
       </c>
@@ -10167,7 +10164,7 @@
       <c r="AG77" s="330"/>
       <c r="AM77" s="338"/>
     </row>
-    <row r="78" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="220" t="s">
         <v>332</v>
       </c>
@@ -10237,7 +10234,7 @@
       <c r="AG78" s="44"/>
       <c r="AM78" s="233"/>
     </row>
-    <row r="79" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="282" t="s">
         <v>333</v>
       </c>
@@ -10307,7 +10304,7 @@
       <c r="AG79" s="276"/>
       <c r="AM79" s="280"/>
     </row>
-    <row r="80" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="282" t="s">
         <v>334</v>
       </c>
@@ -10379,7 +10376,7 @@
       <c r="AG80" s="276"/>
       <c r="AM80" s="280"/>
     </row>
-    <row r="81" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="282" t="s">
         <v>338</v>
       </c>
@@ -10449,7 +10446,7 @@
       <c r="AG81" s="276"/>
       <c r="AM81" s="280"/>
     </row>
-    <row r="82" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="282" t="s">
         <v>339</v>
       </c>
@@ -10519,7 +10516,7 @@
       <c r="AG82" s="276"/>
       <c r="AM82" s="280"/>
     </row>
-    <row r="83" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="145" t="s">
         <v>211</v>
       </c>
@@ -10603,7 +10600,7 @@
       <c r="AG83" s="44"/>
       <c r="AM83" s="233"/>
     </row>
-    <row r="84" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F84" s="197"/>
       <c r="G84" s="197"/>
       <c r="H84" s="197"/>
@@ -10634,7 +10631,7 @@
       <c r="AG84" s="44"/>
       <c r="AM84" s="233"/>
     </row>
-    <row r="85" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
         <v>17</v>
       </c>
@@ -10701,7 +10698,7 @@
       <c r="AL85" s="44"/>
       <c r="AM85" s="235"/>
     </row>
-    <row r="86" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="114" t="s">
         <v>201</v>
       </c>
@@ -10780,7 +10777,7 @@
       <c r="AL86" s="44"/>
       <c r="AM86" s="235"/>
     </row>
-    <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="114" t="s">
         <v>369</v>
       </c>
@@ -10847,7 +10844,7 @@
       <c r="AL87" s="44"/>
       <c r="AM87" s="235"/>
     </row>
-    <row r="88" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A88" s="169" t="s">
         <v>200</v>
       </c>
@@ -10912,7 +10909,7 @@
       <c r="AL88" s="187"/>
       <c r="AM88" s="237"/>
     </row>
-    <row r="89" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="114" t="s">
         <v>388</v>
       </c>
@@ -10960,7 +10957,7 @@
       <c r="AL89" s="187"/>
       <c r="AM89" s="237"/>
     </row>
-    <row r="90" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="284" t="s">
         <v>342</v>
       </c>
@@ -11008,7 +11005,7 @@
       <c r="AL90" s="287"/>
       <c r="AM90" s="288"/>
     </row>
-    <row r="91" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="284" t="s">
         <v>343</v>
       </c>
@@ -11056,7 +11053,7 @@
       <c r="AL91" s="287"/>
       <c r="AM91" s="288"/>
     </row>
-    <row r="92" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="284" t="s">
         <v>344</v>
       </c>
@@ -11104,7 +11101,7 @@
       <c r="AL92" s="287"/>
       <c r="AM92" s="288"/>
     </row>
-    <row r="93" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
         <v>389</v>
       </c>
@@ -11215,7 +11212,7 @@
       <c r="AL93" s="84"/>
       <c r="AM93" s="233"/>
     </row>
-    <row r="94" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="141" t="s">
         <v>160</v>
       </c>
@@ -11306,7 +11303,7 @@
       </c>
       <c r="AM94" s="233"/>
     </row>
-    <row r="95" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="141" t="s">
         <v>209</v>
       </c>
@@ -11379,7 +11376,7 @@
       </c>
       <c r="AM95" s="233"/>
     </row>
-    <row r="96" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F96" s="197"/>
       <c r="G96" s="197"/>
       <c r="H96" s="197"/>
@@ -11392,7 +11389,7 @@
       <c r="O96" s="339"/>
       <c r="AM96" s="233"/>
     </row>
-    <row r="97" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
         <v>15</v>
       </c>
@@ -11465,7 +11462,7 @@
       </c>
       <c r="AM97" s="233"/>
     </row>
-    <row r="98" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
         <v>224</v>
       </c>
@@ -11538,7 +11535,7 @@
       </c>
       <c r="AM98" s="233"/>
     </row>
-    <row r="99" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F99" s="203"/>
       <c r="G99" s="197"/>
       <c r="H99" s="197"/>
@@ -11551,7 +11548,7 @@
       <c r="O99" s="339"/>
       <c r="AM99" s="233"/>
     </row>
-    <row r="100" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="35" t="s">
         <v>221</v>
       </c>
@@ -11650,7 +11647,7 @@
       <c r="AL100" s="84"/>
       <c r="AM100" s="233"/>
     </row>
-    <row r="101" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="169" t="s">
         <v>263</v>
       </c>
@@ -11686,7 +11683,7 @@
       <c r="W101" s="175"/>
       <c r="AM101" s="234"/>
     </row>
-    <row r="102" spans="1:39" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:39" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A102" s="153" t="s">
         <v>216</v>
       </c>
@@ -11734,7 +11731,7 @@
       <c r="AJ102" s="155"/>
       <c r="AM102" s="238"/>
     </row>
-    <row r="103" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="35" t="s">
         <v>390</v>
       </c>
@@ -11807,7 +11804,7 @@
       </c>
       <c r="AM103" s="233"/>
     </row>
-    <row r="104" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="169" t="s">
         <v>278</v>
       </c>
@@ -11859,7 +11856,7 @@
       <c r="Y104" s="252"/>
       <c r="AM104" s="234"/>
     </row>
-    <row r="105" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="169" t="s">
         <v>279</v>
       </c>
@@ -11915,7 +11912,7 @@
       </c>
       <c r="AM105" s="234"/>
     </row>
-    <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="35" t="s">
         <v>391</v>
       </c>
@@ -11982,7 +11979,7 @@
       </c>
       <c r="AM106" s="233"/>
     </row>
-    <row r="107" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F107" s="197"/>
       <c r="G107" s="197"/>
       <c r="H107" s="197"/>
@@ -12029,7 +12026,7 @@
       <c r="Y107"/>
       <c r="AM107" s="233"/>
     </row>
-    <row r="108" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="169" t="s">
         <v>278</v>
       </c>
@@ -12069,7 +12066,7 @@
       <c r="Y108" s="252"/>
       <c r="AM108" s="234"/>
     </row>
-    <row r="109" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="169" t="s">
         <v>279</v>
       </c>
@@ -12120,7 +12117,7 @@
       </c>
       <c r="AM109" s="234"/>
     </row>
-    <row r="110" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="169" t="s">
         <v>361</v>
       </c>
@@ -12153,7 +12150,7 @@
       <c r="V110" s="175"/>
       <c r="AM110" s="234"/>
     </row>
-    <row r="111" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="35" t="s">
         <v>392</v>
       </c>
@@ -12238,7 +12235,7 @@
       </c>
       <c r="AM111" s="233"/>
     </row>
-    <row r="112" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="141" t="s">
         <v>208</v>
       </c>
@@ -12325,7 +12322,7 @@
       </c>
       <c r="AM112" s="233"/>
     </row>
-    <row r="113" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="141" t="s">
         <v>225</v>
       </c>
@@ -12412,7 +12409,7 @@
       </c>
       <c r="AM113" s="256"/>
     </row>
-    <row r="114" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114"/>
       <c r="F114" s="213"/>
       <c r="G114" s="213"/>
@@ -12433,7 +12430,7 @@
       <c r="V114"/>
       <c r="AM114" s="233"/>
     </row>
-    <row r="115" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="169"/>
       <c r="F115" s="193"/>
       <c r="G115" s="193"/>
@@ -12453,7 +12450,7 @@
       <c r="U115" s="193"/>
       <c r="AM115" s="234"/>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>157</v>
       </c>
@@ -12481,7 +12478,7 @@
       <c r="AH116" s="35"/>
       <c r="AI116" s="35"/>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.35">
       <c r="L117" s="35"/>
       <c r="M117" s="35"/>
       <c r="N117" s="35"/>
@@ -12506,7 +12503,7 @@
       <c r="AH117" s="35"/>
       <c r="AI117" s="35"/>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.35">
       <c r="L118" s="35"/>
       <c r="M118" s="35"/>
       <c r="N118" s="35"/>
@@ -12531,7 +12528,7 @@
       <c r="AH118" s="35"/>
       <c r="AI118" s="35"/>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.35">
       <c r="L119" s="35"/>
       <c r="M119" s="35"/>
       <c r="N119" s="35"/>
@@ -12556,7 +12553,7 @@
       <c r="AH119" s="35"/>
       <c r="AI119" s="35"/>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.35">
       <c r="L120" s="35"/>
       <c r="M120" s="35"/>
       <c r="N120" s="35"/>
@@ -12581,7 +12578,7 @@
       <c r="AH120" s="35"/>
       <c r="AI120" s="35"/>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.35">
       <c r="L121" s="35"/>
       <c r="M121" s="35"/>
       <c r="N121" s="35"/>
@@ -12638,12 +12635,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="297" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="297" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="350" t="s">
         <v>312</v>
       </c>
@@ -12678,7 +12675,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -12713,7 +12710,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>283</v>
       </c>
@@ -12748,7 +12745,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -12783,7 +12780,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>285</v>
       </c>
@@ -12818,7 +12815,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>286</v>
       </c>
@@ -12853,7 +12850,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>287</v>
       </c>
@@ -12888,7 +12885,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>288</v>
       </c>
@@ -12923,7 +12920,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>289</v>
       </c>
@@ -12958,7 +12955,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>321</v>
       </c>
@@ -12993,7 +12990,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>322</v>
       </c>
@@ -13028,7 +13025,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>291</v>
       </c>
@@ -13063,7 +13060,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>292</v>
       </c>
@@ -13098,7 +13095,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>293</v>
       </c>
@@ -13133,7 +13130,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -13150,7 +13147,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -13185,7 +13182,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -13202,7 +13199,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>297</v>
       </c>
@@ -13219,7 +13216,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>298</v>
       </c>
@@ -13254,7 +13251,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>299</v>
       </c>
@@ -13271,7 +13268,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>300</v>
       </c>
@@ -13288,7 +13285,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>301</v>
       </c>
@@ -13305,7 +13302,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>302</v>
       </c>
@@ -13322,7 +13319,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>303</v>
       </c>
@@ -13357,7 +13354,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>306</v>
       </c>
@@ -13392,7 +13389,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>305</v>
       </c>
@@ -13427,7 +13424,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>307</v>
       </c>
@@ -13462,7 +13459,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>308</v>
       </c>
@@ -13497,7 +13494,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>309</v>
       </c>
@@ -13532,7 +13529,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>310</v>
       </c>
@@ -13567,7 +13564,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>311</v>
       </c>
@@ -13602,7 +13599,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -13637,7 +13634,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>324</v>
       </c>
@@ -13654,7 +13651,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>304</v>
       </c>
@@ -13685,9 +13682,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>250</v>
       </c>
@@ -13695,7 +13692,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="188">
         <v>44104</v>
       </c>
@@ -13703,7 +13700,7 @@
         <v>337800</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="188">
         <v>44196</v>
       </c>
@@ -13711,7 +13708,7 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="188">
         <v>44286</v>
       </c>
@@ -13719,7 +13716,7 @@
         <v>152000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="188">
         <v>44377</v>
       </c>
@@ -13727,7 +13724,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="188">
         <v>44469</v>
       </c>
@@ -13735,7 +13732,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="188">
         <v>44561</v>
       </c>
@@ -13743,7 +13740,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="188">
         <v>44651</v>
       </c>
@@ -13751,7 +13748,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="188">
         <v>44742</v>
       </c>
@@ -13759,7 +13756,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="188">
         <v>44834</v>
       </c>
@@ -13780,25 +13777,25 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="157" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="157" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="157" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" style="157" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="157" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" style="157" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="12" style="157"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="157" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B3" s="157" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="157" t="s">
         <v>228</v>
       </c>
@@ -13842,7 +13839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="157" t="s">
         <v>230</v>
       </c>
@@ -13905,7 +13902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="157" t="s">
         <v>13</v>
       </c>
@@ -13946,7 +13943,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" s="157" t="s">
         <v>231</v>
       </c>
@@ -13999,7 +13996,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="160" t="s">
         <v>232</v>
       </c>
@@ -14009,7 +14006,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" s="157" t="s">
         <v>233</v>
       </c>
@@ -14066,10 +14063,10 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D11" s="163"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="157" t="s">
         <v>234</v>
       </c>
@@ -14101,7 +14098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="157" t="s">
         <v>155</v>
       </c>
@@ -14129,7 +14126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="267" t="s">
         <v>140</v>
       </c>
@@ -14169,7 +14166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="157" t="s">
         <v>19</v>
       </c>
@@ -14215,7 +14212,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="157" t="s">
         <v>231</v>
       </c>
@@ -14252,7 +14249,7 @@
         <v>1.5888244379207488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="157" t="s">
         <v>235</v>
       </c>
@@ -14261,7 +14258,7 @@
         <v>0.86186821348990206</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="161" t="s">
         <v>233</v>
       </c>
@@ -14303,7 +14300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B21" s="161"/>
       <c r="C21" s="161"/>
       <c r="D21" s="166">
@@ -14335,22 +14332,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="157" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="157" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C24" s="157" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" s="157" t="s">
         <v>33</v>
       </c>
@@ -14358,7 +14355,7 @@
         <v>5654.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="157" t="s">
         <v>238</v>
       </c>
@@ -14370,7 +14367,7 @@
         <v>0.18843065822516181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="157" t="s">
         <v>239</v>
       </c>
@@ -14382,7 +14379,7 @@
         <v>0.19065893255048985</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="157" t="s">
         <v>155</v>
       </c>
@@ -14405,25 +14402,25 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="157" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="157" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="157" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" style="157" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="157" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" style="157" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="12" style="157"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="157" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B3" s="157" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="157" t="s">
         <v>228</v>
       </c>
@@ -14467,7 +14464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="157" t="s">
         <v>230</v>
       </c>
@@ -14530,7 +14527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="157" t="s">
         <v>13</v>
       </c>
@@ -14571,7 +14568,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" s="157" t="s">
         <v>231</v>
       </c>
@@ -14624,7 +14621,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="160" t="s">
         <v>232</v>
       </c>
@@ -14634,7 +14631,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" s="157" t="s">
         <v>233</v>
       </c>
@@ -14691,10 +14688,10 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D11" s="163"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="157" t="s">
         <v>234</v>
       </c>
@@ -14726,7 +14723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="157" t="s">
         <v>155</v>
       </c>
@@ -14754,7 +14751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="267" t="s">
         <v>140</v>
       </c>
@@ -14794,7 +14791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="157" t="s">
         <v>19</v>
       </c>
@@ -14840,7 +14837,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="157" t="s">
         <v>231</v>
       </c>
@@ -14877,7 +14874,7 @@
         <v>1.5888244379207488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="157" t="s">
         <v>235</v>
       </c>
@@ -14886,7 +14883,7 @@
         <v>0.86186821348990206</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="161" t="s">
         <v>233</v>
       </c>
@@ -14928,7 +14925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B21" s="161"/>
       <c r="C21" s="161"/>
       <c r="D21" s="166">
@@ -14960,22 +14957,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="157" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="157" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C24" s="157" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" s="157" t="s">
         <v>33</v>
       </c>
@@ -14983,7 +14980,7 @@
         <v>5654.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="157" t="s">
         <v>238</v>
       </c>
@@ -14995,7 +14992,7 @@
         <v>0.18843065822516181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="157" t="s">
         <v>239</v>
       </c>
@@ -15007,7 +15004,7 @@
         <v>0.19065893255048985</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="157" t="s">
         <v>155</v>
       </c>
@@ -15030,9 +15027,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -15041,7 +15038,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -15050,9 +15047,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="401" t="s">
         <v>31</v>
       </c>
@@ -15075,7 +15072,7 @@
       <c r="R5" s="402"/>
       <c r="S5" s="402"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="403" t="s">
         <v>32</v>
       </c>
@@ -15098,7 +15095,7 @@
       <c r="R6" s="403"/>
       <c r="S6" s="403"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -15119,7 +15116,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="130"/>
       <c r="B8" s="130"/>
       <c r="C8" s="11"/>
@@ -15140,7 +15137,7 @@
       <c r="R8" s="404"/>
       <c r="S8" s="405"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
       <c r="B9" s="130"/>
       <c r="C9" s="14"/>
@@ -15163,7 +15160,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -15198,7 +15195,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="130"/>
       <c r="B11" s="28" t="s">
         <v>2</v>
@@ -15235,7 +15232,7 @@
       <c r="R11" s="324"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="130"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -15274,7 +15271,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="130" t="s">
         <v>213</v>
       </c>
@@ -15320,7 +15317,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -15333,7 +15330,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -15366,7 +15363,7 @@
         <v>0.67846773573296415</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -15400,16 +15397,16 @@
       <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="4" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="118" customWidth="1"/>
-    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="118" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="4" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="118" customWidth="1"/>
+    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" style="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="382" t="s">
         <v>203</v>
       </c>
@@ -15431,7 +15428,7 @@
       <c r="AE1" s="381"/>
       <c r="AF1" s="381"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="407" t="s">
         <v>189</v>
       </c>
@@ -15440,28 +15437,28 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="407"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="407"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="407"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C7" s="397" t="s">
         <v>159</v>
       </c>
@@ -15481,7 +15478,7 @@
       <c r="M7" s="398"/>
       <c r="N7" s="399"/>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>197</v>
       </c>
@@ -15516,7 +15513,7 @@
       <c r="M8" s="96"/>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="106" t="s">
         <v>162</v>
       </c>
@@ -15534,7 +15531,7 @@
       <c r="M9" s="78"/>
       <c r="N9" s="78"/>
     </row>
-    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B10" s="86" t="s">
         <v>168</v>
       </c>
@@ -15563,7 +15560,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B11" s="86" t="s">
         <v>169</v>
       </c>
@@ -15592,7 +15589,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B12" s="86" t="s">
         <v>170</v>
       </c>
@@ -15621,7 +15618,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B13" s="86" t="s">
         <v>171</v>
       </c>
@@ -15650,7 +15647,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B14" s="86" t="s">
         <v>172</v>
       </c>
@@ -15679,7 +15676,7 @@
         <v>0.61311927847613501</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B15" s="86" t="s">
         <v>173</v>
       </c>
@@ -15708,7 +15705,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B16" s="86" t="s">
         <v>164</v>
       </c>
@@ -15737,7 +15734,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="86" t="s">
         <v>165</v>
       </c>
@@ -15766,7 +15763,7 @@
         <v>3246.3114308992499</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="86" t="s">
         <v>166</v>
       </c>
@@ -15795,7 +15792,7 @@
         <v>252.77338989879101</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="86" t="s">
         <v>167</v>
       </c>
@@ -15824,7 +15821,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>193</v>
       </c>
@@ -15853,13 +15850,13 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="110" t="s">
         <v>182</v>
       </c>
       <c r="B23" s="110"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>183</v>
       </c>
@@ -15897,7 +15894,7 @@
       </c>
       <c r="L24" s="100"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>184</v>
       </c>
@@ -15924,7 +15921,7 @@
         <v>-46.377972457627124</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>177</v>
       </c>
@@ -15960,7 +15957,7 @@
         <v>193.49039972658653</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>175</v>
       </c>
@@ -15997,7 +15994,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="99" t="s">
         <v>176</v>
       </c>
@@ -16028,7 +16025,7 @@
         <v>121.58520881077312</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
       <c r="F29" s="102"/>
@@ -16038,7 +16035,7 @@
       <c r="J29" s="104"/>
       <c r="K29" s="122"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D30" s="102"/>
       <c r="E30" s="102"/>
       <c r="F30" s="102"/>
@@ -16048,13 +16045,13 @@
       <c r="J30" s="104"/>
       <c r="K30" s="122"/>
     </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="110" t="s">
         <v>185</v>
       </c>
       <c r="B31" s="110"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>183</v>
       </c>
@@ -16092,7 +16089,7 @@
       </c>
       <c r="L32" s="100"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>184</v>
       </c>
@@ -16123,7 +16120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>177</v>
       </c>
@@ -16159,7 +16156,7 @@
         <v>191.84423247697106</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>175</v>
       </c>
@@ -16196,7 +16193,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="99" t="s">
         <v>176</v>
       </c>
@@ -16227,7 +16224,7 @@
         <v>-205.63034758934896</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="99"/>
       <c r="D37" s="103"/>
       <c r="E37" s="103"/>
@@ -16238,7 +16235,7 @@
       <c r="J37" s="103"/>
       <c r="K37" s="123"/>
     </row>
-    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="99"/>
       <c r="D38" s="103"/>
       <c r="E38" s="103"/>
@@ -16249,7 +16246,7 @@
       <c r="J38" s="103"/>
       <c r="K38" s="123"/>
     </row>
-    <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="110" t="s">
         <v>181</v>
       </c>
@@ -16263,7 +16260,7 @@
       <c r="J39" s="104"/>
       <c r="K39" s="122"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>177</v>
       </c>
@@ -16292,7 +16289,7 @@
         <v>1892.015583446143</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>178</v>
       </c>
@@ -16327,7 +16324,7 @@
         <v>1890.9916822863934</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>175</v>
       </c>
@@ -16364,7 +16361,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="99" t="s">
         <v>176</v>
       </c>
@@ -16395,7 +16392,7 @@
         <v>-161.58289086722652</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D44" s="102"/>
       <c r="E44" s="102"/>
       <c r="F44" s="102"/>
@@ -16405,7 +16402,7 @@
       <c r="J44" s="104"/>
       <c r="K44" s="122"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D45" s="102"/>
       <c r="E45" s="102"/>
       <c r="F45" s="102"/>
@@ -16415,7 +16412,7 @@
       <c r="J45" s="104"/>
       <c r="K45" s="122"/>
     </row>
-    <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46" s="110" t="s">
         <v>180</v>
       </c>
@@ -16429,7 +16426,7 @@
       <c r="J46" s="104"/>
       <c r="K46" s="122"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>177</v>
       </c>
@@ -16458,7 +16455,7 @@
         <v>74.827748020610457</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>178</v>
       </c>
@@ -16493,7 +16490,7 @@
         <v>97.788296196225005</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>175</v>
       </c>
@@ -16530,7 +16527,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="99" t="s">
         <v>176</v>
       </c>
@@ -16561,7 +16558,7 @@
         <v>36.308251718988402</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D51" s="102"/>
       <c r="E51" s="102"/>
       <c r="F51" s="102"/>
@@ -16571,13 +16568,13 @@
       <c r="J51" s="104"/>
       <c r="K51" s="122"/>
     </row>
-    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A53" s="105" t="s">
         <v>186</v>
       </c>
       <c r="B53" s="105"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>183</v>
       </c>
@@ -16615,7 +16612,7 @@
       </c>
       <c r="L54" s="100"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>184</v>
       </c>
@@ -16642,7 +16639,7 @@
         <v>77.568110169491518</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>177</v>
       </c>
@@ -16679,7 +16676,7 @@
         <v>1466.8336294397507</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>175</v>
       </c>
@@ -16716,7 +16713,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="99" t="s">
         <v>176</v>
       </c>
@@ -16747,7 +16744,7 @@
         <v>-69.515510906409418</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D59" s="102"/>
       <c r="E59" s="102"/>
       <c r="F59" s="102"/>
@@ -16757,7 +16754,7 @@
       <c r="J59" s="104"/>
       <c r="K59" s="122"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D60" s="102"/>
       <c r="E60" s="102"/>
       <c r="F60" s="102"/>
@@ -16767,13 +16764,13 @@
       <c r="J60" s="104"/>
       <c r="K60" s="122"/>
     </row>
-    <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A61" s="105" t="s">
         <v>187</v>
       </c>
       <c r="B61" s="105"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>183</v>
       </c>
@@ -16811,7 +16808,7 @@
       </c>
       <c r="L62" s="100"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>184</v>
       </c>
@@ -16838,7 +16835,7 @@
         <v>85.98974092242338</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>177</v>
       </c>
@@ -16874,7 +16871,7 @@
         <v>2007.57447036953</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>175</v>
       </c>
@@ -16911,7 +16908,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="99" t="s">
         <v>176</v>
       </c>
@@ -16942,7 +16939,7 @@
         <v>-737.16965721463021</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="99"/>
       <c r="D67" s="103"/>
       <c r="E67" s="103"/>
@@ -16953,7 +16950,7 @@
       <c r="J67" s="103"/>
       <c r="K67" s="123"/>
     </row>
-    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="99"/>
       <c r="D68" s="103"/>
       <c r="E68" s="103"/>
@@ -16964,7 +16961,7 @@
       <c r="J68" s="103"/>
       <c r="K68" s="123"/>
     </row>
-    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A69" s="105" t="s">
         <v>188</v>
       </c>
@@ -16978,7 +16975,7 @@
       <c r="J69" s="104"/>
       <c r="K69" s="122"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>4</v>
       </c>
@@ -17012,7 +17009,7 @@
         <v>77.330250000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>175</v>
       </c>
@@ -17049,7 +17046,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="99" t="s">
         <v>176</v>
       </c>
@@ -17080,7 +17077,7 @@
         <v>-1032.62001713463</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D73" s="102"/>
       <c r="E73" s="102"/>
       <c r="F73" s="102"/>
@@ -17090,7 +17087,7 @@
       <c r="J73" s="104"/>
       <c r="K73" s="122"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D74" s="102"/>
       <c r="E74" s="102"/>
       <c r="F74" s="102"/>
@@ -17100,7 +17097,7 @@
       <c r="J74" s="104"/>
       <c r="K74" s="122"/>
     </row>
-    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A75" s="105" t="s">
         <v>194</v>
       </c>
@@ -17114,7 +17111,7 @@
       <c r="J75" s="104"/>
       <c r="K75" s="122"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>183</v>
       </c>
@@ -17151,7 +17148,7 @@
         <v>3301.0791480964817</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>184</v>
       </c>
@@ -17180,7 +17177,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B78" s="111" t="s">
         <v>195</v>
       </c>
@@ -17199,7 +17196,7 @@
       <c r="J78" s="102"/>
       <c r="K78" s="122"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B79" s="112" t="s">
         <v>196</v>
       </c>
@@ -17218,7 +17215,7 @@
       <c r="J79" s="102"/>
       <c r="K79" s="122"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>177</v>
       </c>
@@ -17255,7 +17252,7 @@
         <v>3421.0791480964817</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>175</v>
       </c>
@@ -17292,7 +17289,7 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B82" s="99" t="s">
         <v>176</v>
       </c>
@@ -17347,102 +17344,102 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="11" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="11" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="L1" s="46"/>
       <c r="M1" s="46"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="408" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="413" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="408"/>
-      <c r="C2" s="408"/>
-      <c r="D2" s="408"/>
-      <c r="E2" s="408"/>
-      <c r="F2" s="408"/>
-      <c r="G2" s="408"/>
-      <c r="H2" s="408"/>
-      <c r="I2" s="408"/>
-      <c r="J2" s="408"/>
+      <c r="B2" s="413"/>
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="413"/>
+      <c r="I2" s="413"/>
+      <c r="J2" s="413"/>
       <c r="K2" s="77"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="408" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="413" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="408"/>
-      <c r="C3" s="408"/>
-      <c r="D3" s="408"/>
-      <c r="E3" s="408"/>
-      <c r="F3" s="408"/>
-      <c r="G3" s="408"/>
-      <c r="H3" s="408"/>
-      <c r="I3" s="408"/>
-      <c r="J3" s="408"/>
+      <c r="B3" s="413"/>
+      <c r="C3" s="413"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="413"/>
+      <c r="F3" s="413"/>
+      <c r="G3" s="413"/>
+      <c r="H3" s="413"/>
+      <c r="I3" s="413"/>
+      <c r="J3" s="413"/>
       <c r="K3" s="77"/>
     </row>
-    <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="409"/>
-      <c r="B4" s="409"/>
-      <c r="C4" s="409"/>
-      <c r="D4" s="409"/>
-      <c r="E4" s="409"/>
-      <c r="F4" s="409"/>
-      <c r="G4" s="409"/>
-      <c r="H4" s="409"/>
-      <c r="I4" s="409"/>
-      <c r="J4" s="409"/>
-      <c r="K4" s="414" t="s">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="414"/>
+      <c r="B4" s="414"/>
+      <c r="C4" s="414"/>
+      <c r="D4" s="414"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="414"/>
+      <c r="G4" s="414"/>
+      <c r="H4" s="414"/>
+      <c r="I4" s="414"/>
+      <c r="J4" s="414"/>
+      <c r="K4" s="419" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="414"/>
-      <c r="M4" s="414"/>
-      <c r="N4" s="414"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L4" s="419"/>
+      <c r="M4" s="419"/>
+      <c r="N4" s="419"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="410" t="s">
+      <c r="C5" s="415" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="411"/>
-      <c r="E5" s="411"/>
-      <c r="F5" s="411"/>
-      <c r="G5" s="411"/>
-      <c r="H5" s="411"/>
-      <c r="I5" s="411"/>
-      <c r="J5" s="412"/>
+      <c r="D5" s="416"/>
+      <c r="E5" s="416"/>
+      <c r="F5" s="416"/>
+      <c r="G5" s="416"/>
+      <c r="H5" s="416"/>
+      <c r="I5" s="416"/>
+      <c r="J5" s="417"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="413" t="s">
+      <c r="L5" s="418" t="s">
         <v>106</v>
       </c>
       <c r="M5" s="381"/>
       <c r="N5" s="381"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="416">
+      <c r="C6" s="409">
         <v>2020</v>
       </c>
-      <c r="D6" s="417"/>
-      <c r="E6" s="417"/>
-      <c r="F6" s="417"/>
-      <c r="G6" s="417"/>
-      <c r="H6" s="417"/>
-      <c r="I6" s="417"/>
-      <c r="J6" s="418"/>
+      <c r="D6" s="410"/>
+      <c r="E6" s="410"/>
+      <c r="F6" s="410"/>
+      <c r="G6" s="410"/>
+      <c r="H6" s="410"/>
+      <c r="I6" s="410"/>
+      <c r="J6" s="411"/>
       <c r="K6" s="78" t="s">
         <v>134</v>
       </c>
@@ -17471,7 +17468,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="50"/>
       <c r="B7" s="51"/>
       <c r="C7" s="52" t="s">
@@ -17498,7 +17495,7 @@
       </c>
       <c r="K7" s="78"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="57">
         <v>23</v>
       </c>
@@ -17543,7 +17540,7 @@
         <v>302.39999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B9" s="74" t="s">
         <v>130</v>
       </c>
@@ -17561,7 +17558,7 @@
       <c r="N9" s="73"/>
       <c r="X9" s="72"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>24</v>
       </c>
@@ -17601,7 +17598,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="57">
         <v>25</v>
       </c>
@@ -17653,7 +17650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>26</v>
       </c>
@@ -17693,7 +17690,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="K13" s="35" t="s">
         <v>139</v>
       </c>
@@ -17710,12 +17707,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="K15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>119</v>
       </c>
@@ -17775,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.35">
       <c r="J18" s="79" t="s">
         <v>138</v>
       </c>
@@ -17832,7 +17829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="65"/>
@@ -17846,7 +17843,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="3:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:23" ht="29" x14ac:dyDescent="0.35">
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="67"/>
@@ -17856,7 +17853,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C21" s="69" t="s">
         <v>120</v>
       </c>
@@ -17865,7 +17862,7 @@
       <c r="F21" s="70"/>
       <c r="G21" s="67"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C22" s="69"/>
       <c r="D22" s="71" t="s">
         <v>121</v>
@@ -17899,7 +17896,7 @@
       <c r="U22" s="381"/>
       <c r="V22" s="381"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
       <c r="D23" s="69" t="s">
         <v>122</v>
@@ -17914,12 +17911,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="419" t="s">
+      <c r="K23" s="412" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="419"/>
-      <c r="M23" s="419"/>
-      <c r="N23" s="419"/>
+      <c r="L23" s="412"/>
+      <c r="M23" s="412"/>
+      <c r="N23" s="412"/>
       <c r="O23" s="35" t="s">
         <v>145</v>
       </c>
@@ -17927,7 +17924,7 @@
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C24" s="67"/>
       <c r="D24" s="69" t="s">
         <v>123</v>
@@ -17979,7 +17976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C25" s="67"/>
       <c r="D25" s="69" t="s">
         <v>57</v>
@@ -18003,7 +18000,7 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C26" s="67"/>
       <c r="D26" s="69"/>
       <c r="E26" s="67"/>
@@ -18062,7 +18059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="67"/>
       <c r="D27" s="69"/>
       <c r="E27" s="216" t="s">
@@ -18087,8 +18084,8 @@
       <c r="R27" s="35"/>
       <c r="S27" s="72"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="415" t="s">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="I28" s="408" t="s">
         <v>252</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -18124,7 +18121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>125</v>
       </c>
@@ -18138,7 +18135,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="415"/>
+      <c r="I29" s="408"/>
       <c r="J29" s="82" t="s">
         <v>142</v>
       </c>
@@ -18170,7 +18167,7 @@
       </c>
       <c r="S29" s="72"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>126</v>
       </c>
@@ -18186,7 +18183,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="415"/>
+      <c r="I30" s="408"/>
       <c r="J30" s="82" t="s">
         <v>141</v>
       </c>
@@ -18218,7 +18215,7 @@
       </c>
       <c r="S30" s="72"/>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C31" s="176" t="s">
         <v>127</v>
       </c>
@@ -18234,7 +18231,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="415"/>
+      <c r="I31" s="408"/>
       <c r="J31" s="35" t="s">
         <v>139</v>
       </c>
@@ -18262,7 +18259,7 @@
       </c>
       <c r="S31" s="72"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C32" s="176" t="s">
         <v>128</v>
       </c>
@@ -18280,7 +18277,7 @@
       </c>
       <c r="N32" s="72"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>144</v>
       </c>
@@ -18296,7 +18293,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="415" t="s">
+      <c r="I33" s="408" t="s">
         <v>140</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -18343,8 +18340,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="415"/>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="I34" s="408"/>
       <c r="J34" t="s">
         <v>253</v>
       </c>
@@ -18390,19 +18387,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:23" x14ac:dyDescent="0.35">
       <c r="N35" s="72">
         <f>SUM(K34:N34)</f>
         <v>137.33333333333337</v>
       </c>
       <c r="R35" s="72"/>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>262</v>
       </c>
@@ -18451,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.35">
       <c r="F38">
         <v>433</v>
       </c>
@@ -18503,19 +18500,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:23" x14ac:dyDescent="0.35">
       <c r="O40" s="72"/>
       <c r="P40" s="72"/>
       <c r="Q40" s="72"/>
       <c r="R40" s="72"/>
       <c r="S40" s="72"/>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:23" x14ac:dyDescent="0.35">
       <c r="O42" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:23" x14ac:dyDescent="0.35">
       <c r="N43" s="82" t="s">
         <v>143</v>
       </c>
@@ -18523,7 +18520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:23" x14ac:dyDescent="0.35">
       <c r="N44" s="82" t="s">
         <v>142</v>
       </c>
@@ -18531,7 +18528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:23" x14ac:dyDescent="0.35">
       <c r="N45" s="82" t="s">
         <v>141</v>
       </c>
@@ -18539,7 +18536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:23" x14ac:dyDescent="0.35">
       <c r="N46" s="35" t="s">
         <v>139</v>
       </c>
@@ -18547,7 +18544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:23" x14ac:dyDescent="0.35">
       <c r="N47" s="316" t="s">
         <v>252</v>
       </c>
@@ -18555,7 +18552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:23" x14ac:dyDescent="0.35">
       <c r="N48" t="s">
         <v>253</v>
       </c>
@@ -18563,7 +18560,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N49" t="s">
         <v>144</v>
       </c>
@@ -18571,7 +18568,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N50" t="s">
         <v>128</v>
       </c>
@@ -18581,6 +18578,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -18588,12 +18591,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18607,19 +18604,19 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>93</v>
       </c>
@@ -18647,7 +18644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -18695,29 +18692,29 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="423" t="s">
+      <c r="E6" s="421" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="423"/>
-      <c r="G6" s="423"/>
-      <c r="H6" s="423"/>
-      <c r="I6" s="423"/>
-      <c r="J6" s="423"/>
-      <c r="K6" s="423"/>
-      <c r="L6" s="423"/>
-      <c r="M6" s="423"/>
-      <c r="N6" s="423"/>
-      <c r="O6" s="423"/>
-      <c r="P6" s="423"/>
-      <c r="Q6" s="423"/>
-      <c r="R6" s="423"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F6" s="421"/>
+      <c r="G6" s="421"/>
+      <c r="H6" s="421"/>
+      <c r="I6" s="421"/>
+      <c r="J6" s="421"/>
+      <c r="K6" s="421"/>
+      <c r="L6" s="421"/>
+      <c r="M6" s="421"/>
+      <c r="N6" s="421"/>
+      <c r="O6" s="421"/>
+      <c r="P6" s="421"/>
+      <c r="Q6" s="421"/>
+      <c r="R6" s="421"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="420" t="s">
         <v>87</v>
       </c>
@@ -18739,7 +18736,7 @@
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
       <c r="B8" s="420" t="s">
         <v>88</v>
@@ -18789,7 +18786,7 @@
         <v>22653.71</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
       <c r="B9" s="420" t="s">
         <v>89</v>
@@ -18839,7 +18836,7 @@
         <v>15406.718999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
       <c r="B10" s="420" t="s">
         <v>90</v>
@@ -18889,7 +18886,7 @@
         <v>3152.433</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
       <c r="B11" s="420" t="s">
         <v>57</v>
@@ -18939,7 +18936,7 @@
         <v>3725.3310000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -18987,7 +18984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="420" t="s">
@@ -19037,7 +19034,7 @@
         <v>44938.192999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -19087,7 +19084,7 @@
         <v>33837.324000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -19137,12 +19134,12 @@
         <v>11100.869000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
       <c r="B19" s="420" t="s">
         <v>88</v>
@@ -19205,7 +19202,7 @@
         <v>22863.275999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="420" t="s">
         <v>89</v>
@@ -19269,7 +19266,7 @@
       </c>
       <c r="S20" s="42"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
       <c r="B21" s="420" t="s">
         <v>90</v>
@@ -19332,7 +19329,7 @@
         <v>3314.95</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
       <c r="B22" s="420" t="s">
         <v>57</v>
@@ -19395,7 +19392,7 @@
         <v>3821.0209999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -19443,7 +19440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="24"/>
       <c r="B27" s="10"/>
       <c r="C27" s="24"/>
@@ -19451,23 +19448,23 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="421" t="s">
+      <c r="H27" s="422" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="421"/>
-      <c r="J27" s="421"/>
-      <c r="K27" s="421"/>
-      <c r="L27" s="421"/>
-      <c r="M27" s="421"/>
-      <c r="N27" s="421"/>
-      <c r="O27" s="421"/>
-      <c r="P27" s="421"/>
-      <c r="Q27" s="421"/>
-      <c r="R27" s="421"/>
-      <c r="S27" s="421"/>
-      <c r="T27" s="421"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I27" s="422"/>
+      <c r="J27" s="422"/>
+      <c r="K27" s="422"/>
+      <c r="L27" s="422"/>
+      <c r="M27" s="422"/>
+      <c r="N27" s="422"/>
+      <c r="O27" s="422"/>
+      <c r="P27" s="422"/>
+      <c r="Q27" s="422"/>
+      <c r="R27" s="422"/>
+      <c r="S27" s="422"/>
+      <c r="T27" s="422"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
         <v>95</v>
       </c>
@@ -19491,7 +19488,7 @@
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
       <c r="B29" s="10" t="s">
         <v>88</v>
@@ -19539,7 +19536,7 @@
         <v>-1551.309</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="24"/>
       <c r="B30" s="10" t="s">
         <v>89</v>
@@ -19587,7 +19584,7 @@
         <v>-656.35500000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="24"/>
       <c r="B31" s="10" t="s">
         <v>90</v>
@@ -19635,7 +19632,7 @@
         <v>-276.72699999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
       <c r="B32" s="10" t="s">
         <v>57</v>
@@ -19683,7 +19680,7 @@
         <v>407.49900000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
       <c r="B33" s="10"/>
       <c r="C33" s="24"/>
@@ -19727,7 +19724,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
       <c r="B34" s="10"/>
       <c r="C34" s="24"/>
@@ -19775,29 +19772,29 @@
         <v>-2076.8919999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="422" t="s">
+      <c r="F37" s="423" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="422"/>
-      <c r="H37" s="422"/>
-      <c r="I37" s="422"/>
-      <c r="J37" s="422"/>
-      <c r="K37" s="422"/>
-      <c r="L37" s="422"/>
-      <c r="M37" s="422"/>
-      <c r="N37" s="422"/>
-      <c r="O37" s="422"/>
-      <c r="P37" s="422"/>
-      <c r="Q37" s="422"/>
-      <c r="R37" s="422"/>
-    </row>
-    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="G37" s="423"/>
+      <c r="H37" s="423"/>
+      <c r="I37" s="423"/>
+      <c r="J37" s="423"/>
+      <c r="K37" s="423"/>
+      <c r="L37" s="423"/>
+      <c r="M37" s="423"/>
+      <c r="N37" s="423"/>
+      <c r="O37" s="423"/>
+      <c r="P37" s="423"/>
+      <c r="Q37" s="423"/>
+      <c r="R37" s="423"/>
+    </row>
+    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>99</v>
       </c>
@@ -19819,7 +19816,7 @@
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="24"/>
       <c r="B39" s="10" t="s">
         <v>88</v>
@@ -19867,7 +19864,7 @@
         <v>114.194</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="24"/>
       <c r="B40" s="10" t="s">
         <v>90</v>
@@ -19915,7 +19912,7 @@
         <v>44.915999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="24"/>
       <c r="B41" s="10" t="s">
         <v>89</v>
@@ -19963,7 +19960,7 @@
         <v>-4.3769999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="24"/>
       <c r="B42" s="10" t="s">
         <v>57</v>
@@ -20011,7 +20008,7 @@
         <v>-1.5840000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
       <c r="B43" s="10"/>
       <c r="C43" s="24"/>
@@ -20057,7 +20054,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="24"/>
       <c r="B44" s="10"/>
       <c r="C44" s="24" t="s">
@@ -20105,29 +20102,29 @@
         <v>153.149</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="24"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="421" t="s">
+      <c r="F48" s="422" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="421"/>
-      <c r="H48" s="421"/>
-      <c r="I48" s="421"/>
-      <c r="J48" s="421"/>
-      <c r="K48" s="421"/>
-      <c r="L48" s="421"/>
-      <c r="M48" s="421"/>
-      <c r="N48" s="421"/>
-      <c r="O48" s="421"/>
-      <c r="P48" s="421"/>
-      <c r="Q48" s="421"/>
-      <c r="R48" s="421"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G48" s="422"/>
+      <c r="H48" s="422"/>
+      <c r="I48" s="422"/>
+      <c r="J48" s="422"/>
+      <c r="K48" s="422"/>
+      <c r="L48" s="422"/>
+      <c r="M48" s="422"/>
+      <c r="N48" s="422"/>
+      <c r="O48" s="422"/>
+      <c r="P48" s="422"/>
+      <c r="Q48" s="422"/>
+      <c r="R48" s="422"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
         <v>95</v>
       </c>
@@ -20149,7 +20146,7 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="24"/>
       <c r="B50" s="10" t="s">
         <v>88</v>
@@ -20197,7 +20194,7 @@
         <v>-323.76</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>90</v>
@@ -20245,7 +20242,7 @@
         <v>-207.43299999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>89</v>
@@ -20293,7 +20290,7 @@
         <v>-109.739</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>57</v>
@@ -20341,7 +20338,7 @@
         <v>-94.105999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -20387,7 +20384,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="24"/>
       <c r="C55" s="10"/>
@@ -20437,12 +20434,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -20451,6 +20442,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20466,9 +20463,9 @@
       <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -20477,7 +20474,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -20486,9 +20483,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="401" t="s">
         <v>31</v>
       </c>
@@ -20511,7 +20508,7 @@
       <c r="R5" s="402"/>
       <c r="S5" s="402"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="403" t="s">
         <v>32</v>
       </c>
@@ -20534,7 +20531,7 @@
       <c r="R6" s="403"/>
       <c r="S6" s="403"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -20555,7 +20552,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -20577,7 +20574,7 @@
       </c>
       <c r="S8" s="405"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="14"/>
@@ -20604,7 +20601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -20653,7 +20650,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -20676,7 +20673,7 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>37</v>
@@ -20727,7 +20724,7 @@
         <v>12876.373</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>38</v>
@@ -20778,7 +20775,7 @@
         <v>1805.0319999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -20827,7 +20824,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -20878,7 +20875,7 @@
         <v>14681.405000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -20899,7 +20896,7 @@
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
@@ -20922,7 +20919,7 @@
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="28" t="s">
         <v>43</v>
@@ -20973,7 +20970,7 @@
         <v>12109.843000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="28" t="s">
         <v>2</v>
@@ -21024,7 +21021,7 @@
         <v>5805.7169999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="28" t="s">
         <v>44</v>
@@ -21075,7 +21072,7 @@
         <v>601.34900000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="28" t="s">
         <v>45</v>
@@ -21126,7 +21123,7 @@
         <v>168.07</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -21175,7 +21172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -21227,7 +21224,7 @@
       </c>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -21251,7 +21248,7 @@
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>47</v>
       </c>
@@ -21274,7 +21271,7 @@
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
     </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>48</v>
@@ -21325,7 +21322,7 @@
         <v>930.94100000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>49</v>
@@ -21376,7 +21373,7 @@
         <v>875.31100000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>50</v>
@@ -21427,7 +21424,7 @@
         <v>682.72</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>51</v>
@@ -21478,7 +21475,7 @@
         <v>610.42399999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>52</v>
@@ -21529,7 +21526,7 @@
         <v>340.57900000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>53</v>
@@ -21580,7 +21577,7 @@
         <v>298.62400000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -21629,7 +21626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -21680,7 +21677,7 @@
         <v>3738.5990000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -21711,7 +21708,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>54</v>
       </c>
@@ -21747,7 +21744,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>55</v>
@@ -21811,7 +21808,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>56</v>
@@ -21875,7 +21872,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>57</v>
@@ -21939,7 +21936,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -21988,7 +21985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -22052,7 +22049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -22086,7 +22083,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>58</v>
       </c>
@@ -22122,7 +22119,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>59</v>
@@ -22178,7 +22175,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>57</v>
@@ -22229,7 +22226,7 @@
         <v>183.27699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -22278,7 +22275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -22329,7 +22326,7 @@
         <v>1517.9280000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="89"/>
       <c r="B47" s="89"/>
       <c r="C47" s="89"/>
@@ -22362,7 +22359,7 @@
       <c r="R47" s="90"/>
       <c r="S47" s="90"/>
     </row>
-    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="89" t="s">
         <v>147</v>
       </c>
@@ -22388,7 +22385,7 @@
       <c r="R48" s="90"/>
       <c r="S48" s="90"/>
     </row>
-    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="89" t="s">
         <v>155</v>
       </c>
@@ -22420,7 +22417,7 @@
       <c r="R49" s="90"/>
       <c r="S49" s="90"/>
     </row>
-    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="89" t="s">
         <v>156</v>
       </c>
@@ -22452,7 +22449,7 @@
       <c r="R50" s="90"/>
       <c r="S50" s="90"/>
     </row>
-    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="89"/>
       <c r="B51" s="89"/>
       <c r="C51" s="89"/>
@@ -22473,7 +22470,7 @@
       <c r="R51" s="92"/>
       <c r="S51" s="92"/>
     </row>
-    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>60</v>
       </c>
@@ -22496,7 +22493,7 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
     </row>
-    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>61</v>
@@ -22547,7 +22544,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>62</v>
@@ -22598,7 +22595,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>63</v>
@@ -22649,7 +22646,7 @@
         <v>179.15</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>64</v>
@@ -22700,7 +22697,7 @@
         <v>-42.021999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>65</v>
@@ -22751,7 +22748,7 @@
         <v>140.99100000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="28" t="s">
         <v>66</v>
@@ -22802,7 +22799,7 @@
         <v>51.79</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>67</v>
@@ -22853,7 +22850,7 @@
         <v>29.829000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>57</v>
@@ -22904,7 +22901,7 @@
         <v>697.76099999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -22953,7 +22950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -23004,7 +23001,7 @@
         <v>1057.6969999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -23025,7 +23022,7 @@
       <c r="R63" s="25"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>68</v>
       </c>
@@ -23048,7 +23045,7 @@
       <c r="R64" s="25"/>
       <c r="S64" s="25"/>
     </row>
-    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>69</v>
       </c>
@@ -23099,7 +23096,7 @@
         <v>41712.921000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -23120,7 +23117,7 @@
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>70</v>
       </c>
@@ -23143,7 +23140,7 @@
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>71</v>
@@ -23194,7 +23191,7 @@
         <v>-2166.04</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>72</v>
@@ -23217,7 +23214,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>73</v>
@@ -23240,7 +23237,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="28" t="s">
@@ -23291,7 +23288,7 @@
         <v>-537.75800000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="28" t="s">
@@ -23342,7 +23339,7 @@
         <v>-265.04899999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="28" t="s">
@@ -23393,7 +23390,7 @@
         <v>-210.17099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -23442,7 +23439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -23493,7 +23490,7 @@
         <v>-1012.978</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="28"/>
       <c r="C76" s="10"/>
@@ -23514,7 +23511,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="28" t="s">
         <v>76</v>
@@ -23565,7 +23562,7 @@
         <v>-120.02500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="28" t="s">
         <v>65</v>
@@ -23616,7 +23613,7 @@
         <v>-108.732</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="28" t="s">
         <v>66</v>
@@ -23667,7 +23664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="28" t="s">
         <v>57</v>
@@ -23718,7 +23715,7 @@
         <v>-326.91500000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -23767,7 +23764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="28"/>
       <c r="C82" s="10"/>
@@ -23818,7 +23815,7 @@
         <v>-3734.69</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -23839,7 +23836,7 @@
       <c r="R83" s="24"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -23862,7 +23859,7 @@
       <c r="R84" s="24"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -23914,7 +23911,7 @@
       </c>
       <c r="T85" s="25"/>
     </row>
-    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -23936,7 +23933,7 @@
       <c r="S86" s="25"/>
       <c r="T86" s="25"/>
     </row>
-    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
         <v>79</v>
       </c>
@@ -23960,7 +23957,7 @@
       <c r="S87" s="25"/>
       <c r="T87" s="25"/>
     </row>
-    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>80</v>
       </c>
@@ -23983,7 +23980,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>81</v>
@@ -24034,7 +24031,7 @@
         <v>9943.8029999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
       <c r="B90" s="19" t="s">
         <v>82</v>
@@ -24085,7 +24082,7 @@
         <v>16518.938999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="31"/>
@@ -24128,41 +24125,41 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="1" max="1" width="45.1796875" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="22" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="22" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="390" t="s">
         <v>677</v>
       </c>
@@ -24181,7 +24178,7 @@
       <c r="N6" s="352"/>
       <c r="O6" s="352"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="354" t="s">
         <v>32</v>
       </c>
@@ -24200,7 +24197,7 @@
       <c r="N7" s="356"/>
       <c r="O7" s="356"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="357"/>
       <c r="B8" s="358"/>
       <c r="C8" s="358"/>
@@ -24217,7 +24214,7 @@
       <c r="N8" s="359"/>
       <c r="O8" s="359"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="357"/>
       <c r="B9" s="358"/>
       <c r="C9" s="358"/>
@@ -24236,7 +24233,7 @@
       </c>
       <c r="O9" s="391"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="360"/>
       <c r="B10" s="361" t="s">
         <v>34</v>
@@ -24259,7 +24256,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="365" t="s">
         <v>679</v>
       </c>
@@ -24306,7 +24303,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A12" s="367" t="s">
         <v>680</v>
       </c>
@@ -24353,7 +24350,7 @@
         <v>374.51799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="368" t="s">
         <v>681</v>
       </c>
@@ -24377,7 +24374,7 @@
       <c r="N13" s="43"/>
       <c r="O13" s="43"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="368"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43">
@@ -24397,7 +24394,7 @@
       <c r="N14" s="43"/>
       <c r="O14" s="43"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="368"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
@@ -24414,7 +24411,7 @@
       <c r="N15" s="43"/>
       <c r="O15" s="43"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>683</v>
       </c>
@@ -24435,7 +24432,7 @@
       <c r="N16" s="370"/>
       <c r="O16" s="370"/>
     </row>
-    <row r="17" spans="1:17" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="371">
         <v>2019</v>
       </c>
@@ -24459,7 +24456,7 @@
       <c r="N17" s="389"/>
       <c r="O17" s="370"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B18" s="371" t="s">
         <v>134</v>
       </c>
@@ -24501,7 +24498,7 @@
       </c>
       <c r="O18" s="371"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -24514,7 +24511,7 @@
       <c r="L19" s="64"/>
       <c r="M19" s="64"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="372" t="s">
         <v>684</v>
       </c>
@@ -24543,7 +24540,7 @@
       <c r="L20" s="64"/>
       <c r="M20" s="64"/>
     </row>
-    <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="115" t="s">
         <v>685</v>
       </c>
@@ -24570,7 +24567,7 @@
       <c r="L21" s="64"/>
       <c r="M21" s="64"/>
     </row>
-    <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="375" t="s">
         <v>687</v>
       </c>
@@ -24597,7 +24594,7 @@
       <c r="L22" s="64"/>
       <c r="M22" s="64"/>
     </row>
-    <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="375" t="s">
         <v>688</v>
       </c>
@@ -24624,7 +24621,7 @@
       <c r="L23" s="64"/>
       <c r="M23" s="64"/>
     </row>
-    <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="375" t="s">
         <v>689</v>
       </c>
@@ -24651,7 +24648,7 @@
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
     </row>
-    <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="377" t="s">
         <v>690</v>
       </c>
@@ -24668,7 +24665,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H26" s="389" t="s">
         <v>691</v>
       </c>
@@ -24680,7 +24677,7 @@
       <c r="N26" s="389"/>
       <c r="O26" s="389"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>692</v>
       </c>
@@ -24741,7 +24738,7 @@
         <v>58.306131289570089</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>693</v>
       </c>
@@ -24792,7 +24789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>694</v>
       </c>
@@ -24840,7 +24837,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>696</v>
       </c>
@@ -24896,7 +24893,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>698</v>
       </c>
@@ -24964,7 +24961,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>700</v>
       </c>
@@ -25014,12 +25011,12 @@
         <v>701</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Q35" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Q36" t="s">
         <v>703</v>
       </c>
@@ -25031,7 +25028,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C41" s="389">
         <v>2020</v>
       </c>
@@ -25045,7 +25042,7 @@
       <c r="I41" s="389"/>
       <c r="J41" s="389"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C42" s="371" t="s">
         <v>109</v>
       </c>
@@ -25071,7 +25068,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>705</v>
       </c>
@@ -25119,7 +25116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>706</v>
       </c>
@@ -25169,7 +25166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>707</v>
       </c>
@@ -25246,7 +25243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>13</v>
       </c>
@@ -25323,12 +25320,12 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>373</v>
       </c>
@@ -25357,7 +25354,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>377</v>
       </c>
@@ -25375,7 +25372,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>373</v>
       </c>
@@ -25404,7 +25401,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>374</v>
       </c>
@@ -25433,7 +25430,7 @@
         <v>15.166666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>375</v>
       </c>
@@ -25462,7 +25459,7 @@
         <v>14.333333333333334</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>376</v>
       </c>
@@ -25491,7 +25488,7 @@
         <v>13.666666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -25532,7 +25529,7 @@
         <v>13.666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>109</v>
       </c>
@@ -25546,7 +25543,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>383</v>
       </c>
@@ -25563,7 +25560,7 @@
         <v>339.33333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="86" t="s">
         <v>382</v>
       </c>
@@ -25580,7 +25577,7 @@
         <v>422.54150702426563</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>384</v>
       </c>
@@ -25593,7 +25590,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>385</v>
       </c>
@@ -25606,7 +25603,7 @@
         <v>408.42911877394636</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>386</v>
       </c>
@@ -25625,14 +25622,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
         <v>345</v>
       </c>
@@ -25643,7 +25640,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="289" t="s">
         <v>349</v>
       </c>
@@ -25655,7 +25652,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="289" t="s">
         <v>350</v>
       </c>
@@ -25667,7 +25664,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="289" t="s">
         <v>19</v>
       </c>
@@ -25679,7 +25676,7 @@
         <v>166000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="289" t="s">
         <v>196</v>
       </c>
@@ -25691,7 +25688,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="289" t="s">
         <v>351</v>
       </c>
@@ -25703,7 +25700,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="291" t="s">
         <v>342</v>
       </c>
@@ -25715,7 +25712,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="176" t="s">
         <v>343</v>
       </c>
@@ -25727,7 +25724,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="176" t="s">
         <v>344</v>
       </c>
@@ -25739,7 +25736,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="291" t="s">
         <v>57</v>
       </c>
@@ -25752,7 +25749,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="292" t="s">
         <v>352</v>
       </c>
@@ -25764,7 +25761,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="291" t="s">
         <v>353</v>
       </c>
@@ -25776,7 +25773,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="291" t="s">
         <v>57</v>
       </c>
@@ -25789,7 +25786,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="292" t="s">
         <v>354</v>
       </c>
@@ -25801,7 +25798,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="291" t="s">
         <v>337</v>
       </c>
@@ -25813,7 +25810,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="291" t="s">
         <v>57</v>
       </c>
@@ -25826,7 +25823,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="292" t="s">
         <v>355</v>
       </c>
@@ -25838,7 +25835,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="291" t="s">
         <v>356</v>
       </c>
@@ -25850,7 +25847,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="291" t="s">
         <v>357</v>
       </c>
@@ -25862,7 +25859,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="293" t="s">
         <v>358</v>
       </c>
@@ -25874,7 +25871,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="292" t="s">
         <v>33</v>
       </c>
@@ -25893,29 +25890,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AX73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="146" customWidth="1"/>
-    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="146" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="146"/>
-    <col min="19" max="19" width="8.6640625" style="146"/>
-    <col min="23" max="23" width="8.6640625" style="146"/>
-    <col min="27" max="27" width="8.6640625" style="146"/>
+    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="146" customWidth="1"/>
+    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" style="146" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.6328125" customWidth="1"/>
+    <col min="15" max="15" width="8.6328125" style="146"/>
+    <col min="19" max="19" width="8.6328125" style="146"/>
+    <col min="23" max="23" width="8.6328125" style="146"/>
+    <col min="27" max="27" width="8.6328125" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="392" t="s">
         <v>203</v>
       </c>
@@ -25931,7 +25928,7 @@
       <c r="X1" s="381"/>
       <c r="Y1" s="381"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" s="394" t="s">
         <v>189</v>
       </c>
@@ -25942,7 +25939,7 @@
       <c r="I2" s="241"/>
       <c r="J2" s="400"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="395"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -25951,21 +25948,21 @@
       <c r="I3" s="241"/>
       <c r="J3" s="400"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" s="395"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" s="396"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C7" s="397" t="s">
         <v>159</v>
       </c>
@@ -26006,7 +26003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>197</v>
       </c>
@@ -26086,7 +26083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="106" t="s">
         <v>162</v>
       </c>
@@ -26108,7 +26105,7 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B10" s="86" t="s">
         <v>168</v>
       </c>
@@ -26254,7 +26251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B11" s="86" t="s">
         <v>169</v>
       </c>
@@ -26400,7 +26397,7 @@
         <v>587.57149317354003</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B12" s="86" t="s">
         <v>170</v>
       </c>
@@ -26546,7 +26543,7 @@
         <v>3002.7649625415902</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B13" s="86" t="s">
         <v>171</v>
       </c>
@@ -26692,7 +26689,7 @@
         <v>147.60933050812599</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B14" s="86" t="s">
         <v>173</v>
       </c>
@@ -26838,7 +26835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B15" s="86" t="s">
         <v>164</v>
       </c>
@@ -26984,7 +26981,7 @@
         <v>1830.5610473035799</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B16" s="86" t="s">
         <v>167</v>
       </c>
@@ -27130,7 +27127,7 @@
         <v>485.57408577230001</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>193</v>
       </c>
@@ -27276,7 +27273,7 @@
         <v>376.32595184241501</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="E19" s="95"/>
       <c r="F19" s="95"/>
       <c r="L19" s="95"/>
@@ -27293,7 +27290,7 @@
       <c r="Z19" s="95"/>
       <c r="AB19" s="95"/>
     </row>
-    <row r="20" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="110" t="s">
         <v>182</v>
       </c>
@@ -27314,7 +27311,7 @@
       <c r="Z20" s="95"/>
       <c r="AB20" s="95"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>182</v>
       </c>
@@ -27413,7 +27410,7 @@
       </c>
       <c r="AB21" s="95"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>175</v>
       </c>
@@ -27515,7 +27512,7 @@
       </c>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:50" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:50" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B23" s="210" t="s">
         <v>271</v>
       </c>
@@ -27587,7 +27584,7 @@
       </c>
       <c r="AB23" s="243"/>
     </row>
-    <row r="24" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="99" t="s">
         <v>176</v>
       </c>
@@ -27683,7 +27680,7 @@
       </c>
       <c r="AB24" s="244"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="D25" s="102"/>
       <c r="E25" s="104"/>
       <c r="F25" s="104"/>
@@ -27706,7 +27703,7 @@
       <c r="Z25" s="95"/>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="D26" s="102"/>
       <c r="E26" s="104"/>
       <c r="F26" s="104"/>
@@ -27729,7 +27726,7 @@
       <c r="Z26" s="95"/>
       <c r="AB26" s="95"/>
     </row>
-    <row r="27" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="110" t="s">
         <v>185</v>
       </c>
@@ -27756,7 +27753,7 @@
       <c r="Z27" s="95"/>
       <c r="AB27" s="95"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>185</v>
       </c>
@@ -27855,7 +27852,7 @@
       </c>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>175</v>
       </c>
@@ -27957,7 +27954,7 @@
       </c>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:50" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:50" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B30" s="210" t="s">
         <v>271</v>
       </c>
@@ -28032,7 +28029,7 @@
       </c>
       <c r="AB30" s="243"/>
     </row>
-    <row r="31" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="99" t="s">
         <v>176</v>
       </c>
@@ -28128,7 +28125,7 @@
       </c>
       <c r="AB31" s="244"/>
     </row>
-    <row r="32" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="99"/>
       <c r="D32" s="103"/>
       <c r="E32" s="217"/>
@@ -28156,7 +28153,7 @@
       <c r="AA32" s="181"/>
       <c r="AB32" s="244"/>
     </row>
-    <row r="33" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="99"/>
       <c r="D33" s="103"/>
       <c r="E33" s="217"/>
@@ -28184,7 +28181,7 @@
       <c r="AA33" s="181"/>
       <c r="AB33" s="244"/>
     </row>
-    <row r="34" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="110" t="s">
         <v>181</v>
       </c>
@@ -28211,7 +28208,7 @@
       <c r="Z34" s="95"/>
       <c r="AB34" s="95"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>265</v>
       </c>
@@ -28258,7 +28255,7 @@
       <c r="Z35" s="95"/>
       <c r="AB35" s="95"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>175</v>
       </c>
@@ -28308,7 +28305,7 @@
       <c r="Z36" s="95"/>
       <c r="AB36" s="95"/>
     </row>
-    <row r="37" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="99" t="s">
         <v>176</v>
       </c>
@@ -28388,7 +28385,7 @@
       </c>
       <c r="AB37" s="244"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D38" s="102"/>
       <c r="E38" s="104"/>
       <c r="F38" s="104"/>
@@ -28411,7 +28408,7 @@
       <c r="Z38" s="95"/>
       <c r="AB38" s="95"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D39" s="102"/>
       <c r="E39" s="104"/>
       <c r="F39" s="104"/>
@@ -28434,7 +28431,7 @@
       <c r="Z39" s="95"/>
       <c r="AB39" s="95"/>
     </row>
-    <row r="40" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="110" t="s">
         <v>180</v>
       </c>
@@ -28461,7 +28458,7 @@
       <c r="Z40" s="95"/>
       <c r="AB40" s="95"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>265</v>
       </c>
@@ -28508,7 +28505,7 @@
       <c r="Z41" s="95"/>
       <c r="AB41" s="95"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>175</v>
       </c>
@@ -28560,7 +28557,7 @@
       <c r="Z42" s="95"/>
       <c r="AB42" s="95"/>
     </row>
-    <row r="43" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="99" t="s">
         <v>176</v>
       </c>
@@ -28640,7 +28637,7 @@
       </c>
       <c r="AB43" s="244"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D44" s="102"/>
       <c r="E44" s="104"/>
       <c r="F44" s="104"/>
@@ -28663,7 +28660,7 @@
       <c r="Z44" s="95"/>
       <c r="AB44" s="95"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D45" s="102"/>
       <c r="E45" s="104"/>
       <c r="F45" s="104"/>
@@ -28686,7 +28683,7 @@
       <c r="Z45" s="95"/>
       <c r="AB45" s="95"/>
     </row>
-    <row r="46" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46" s="105" t="s">
         <v>186</v>
       </c>
@@ -28713,7 +28710,7 @@
       <c r="Z46" s="95"/>
       <c r="AB46" s="95"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>186</v>
       </c>
@@ -28812,7 +28809,7 @@
       </c>
       <c r="AB47" s="95"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>175</v>
       </c>
@@ -28914,7 +28911,7 @@
       </c>
       <c r="AB48" s="95"/>
     </row>
-    <row r="49" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B49" s="210" t="s">
         <v>271</v>
       </c>
@@ -28995,7 +28992,7 @@
       </c>
       <c r="AB49" s="243"/>
     </row>
-    <row r="50" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="99" t="s">
         <v>176</v>
       </c>
@@ -29091,7 +29088,7 @@
       </c>
       <c r="AB50" s="244"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D51" s="102"/>
       <c r="E51" s="104"/>
       <c r="F51" s="104"/>
@@ -29114,7 +29111,7 @@
       <c r="Z51" s="95"/>
       <c r="AB51" s="95"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D52" s="102"/>
       <c r="E52" s="104"/>
       <c r="F52" s="104"/>
@@ -29137,7 +29134,7 @@
       <c r="Z52" s="95"/>
       <c r="AB52" s="95"/>
     </row>
-    <row r="53" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A53" s="105" t="s">
         <v>187</v>
       </c>
@@ -29164,7 +29161,7 @@
       <c r="Z53" s="95"/>
       <c r="AB53" s="95"/>
     </row>
-    <row r="54" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B54" s="86" t="s">
         <v>187</v>
       </c>
@@ -29266,7 +29263,7 @@
       </c>
       <c r="AB54" s="95"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>175</v>
       </c>
@@ -29368,7 +29365,7 @@
       </c>
       <c r="AB55" s="95"/>
     </row>
-    <row r="56" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B56" s="210" t="s">
         <v>271</v>
       </c>
@@ -29446,7 +29443,7 @@
       </c>
       <c r="AB56" s="243"/>
     </row>
-    <row r="57" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B57" s="99" t="s">
         <v>176</v>
       </c>
@@ -29542,7 +29539,7 @@
       </c>
       <c r="AB57" s="244"/>
     </row>
-    <row r="58" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="99"/>
       <c r="D58" s="103"/>
       <c r="E58" s="217"/>
@@ -29570,7 +29567,7 @@
       <c r="AA58" s="181"/>
       <c r="AB58" s="244"/>
     </row>
-    <row r="59" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="99"/>
       <c r="D59" s="103"/>
       <c r="E59" s="217"/>
@@ -29598,7 +29595,7 @@
       <c r="AA59" s="181"/>
       <c r="AB59" s="244"/>
     </row>
-    <row r="60" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="105" t="s">
         <v>188</v>
       </c>
@@ -29625,7 +29622,7 @@
       <c r="Z60" s="95"/>
       <c r="AB60" s="95"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>206</v>
       </c>
@@ -29724,7 +29721,7 @@
       </c>
       <c r="AB61" s="95"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>175</v>
       </c>
@@ -29826,7 +29823,7 @@
       </c>
       <c r="AB62" s="95"/>
     </row>
-    <row r="63" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B63" s="210" t="s">
         <v>271</v>
       </c>
@@ -29901,7 +29898,7 @@
       </c>
       <c r="AB63" s="243"/>
     </row>
-    <row r="64" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="99" t="s">
         <v>176</v>
       </c>
@@ -30001,7 +29998,7 @@
       <c r="AE64" s="150"/>
       <c r="AF64" s="150"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D65" s="102"/>
       <c r="E65" s="104"/>
       <c r="F65" s="104"/>
@@ -30024,7 +30021,7 @@
       <c r="Z65" s="95"/>
       <c r="AB65" s="95"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D66" s="102"/>
       <c r="E66" s="104"/>
       <c r="F66" s="104"/>
@@ -30047,7 +30044,7 @@
       <c r="Z66" s="95"/>
       <c r="AB66" s="95"/>
     </row>
-    <row r="67" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A67" s="105" t="s">
         <v>194</v>
       </c>
@@ -30074,7 +30071,7 @@
       <c r="Z67" s="95"/>
       <c r="AB67" s="95"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>204</v>
       </c>
@@ -30170,7 +30167,7 @@
       </c>
       <c r="AB68" s="95"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>175</v>
       </c>
@@ -30272,7 +30269,7 @@
       </c>
       <c r="AB69" s="95"/>
     </row>
-    <row r="70" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B70" s="210" t="s">
         <v>271</v>
       </c>
@@ -30335,7 +30332,7 @@
       </c>
       <c r="AB70" s="243"/>
     </row>
-    <row r="71" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="99" t="s">
         <v>176</v>
       </c>
@@ -30431,7 +30428,7 @@
       </c>
       <c r="AB71" s="244"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="E72" s="95"/>
       <c r="F72" s="95"/>
       <c r="L72" s="95"/>
@@ -30448,7 +30445,7 @@
       <c r="Z72" s="95"/>
       <c r="AB72" s="95"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="E73" s="95"/>
       <c r="F73" s="95"/>
       <c r="L73" s="95"/>
@@ -30492,13 +30489,13 @@
       <selection pane="topRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>250</v>
       </c>
@@ -30548,7 +30545,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="188">
         <v>44012</v>
       </c>
@@ -30600,7 +30597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="188">
         <v>44104</v>
       </c>
@@ -30660,7 +30657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="188">
         <v>44196</v>
       </c>
@@ -30712,7 +30709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="188">
         <v>44286</v>
       </c>
@@ -30765,7 +30762,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="188">
         <v>44377</v>
       </c>
@@ -30819,7 +30816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="188">
         <v>44469</v>
       </c>
@@ -30873,7 +30870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="188">
         <v>44561</v>
       </c>
@@ -30927,7 +30924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="188">
         <v>44651</v>
       </c>
@@ -30981,7 +30978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="188">
         <v>44742</v>
       </c>
@@ -31035,7 +31032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="188">
         <v>44834</v>
       </c>
@@ -31089,7 +31086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="188">
         <v>44926</v>
       </c>
@@ -31143,7 +31140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="188">
         <v>45016</v>
       </c>
@@ -31195,7 +31192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="188">
         <v>45107</v>
       </c>
@@ -31247,7 +31244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="188">
         <v>45199</v>
       </c>
@@ -31299,7 +31296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="188">
         <v>45291</v>
       </c>
@@ -31351,7 +31348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="188">
         <v>45382</v>
       </c>
@@ -31403,7 +31400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="188">
         <v>45473</v>
       </c>
@@ -31455,7 +31452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="188">
         <v>45565</v>
       </c>
@@ -31507,7 +31504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="188">
         <v>45657</v>
       </c>
@@ -31559,7 +31556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="188">
         <v>45747</v>
       </c>
@@ -31611,7 +31608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="188">
         <v>45838</v>
       </c>
@@ -31663,7 +31660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="188">
         <v>45930</v>
       </c>
@@ -31715,7 +31712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="188">
         <v>46022</v>
       </c>
@@ -31781,13 +31778,13 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="23" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D1" s="381" t="s">
         <v>20</v>
       </c>
@@ -31819,7 +31816,7 @@
       <c r="V1" s="381"/>
       <c r="W1" s="381"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="197" t="s">
         <v>5</v>
       </c>
@@ -31881,7 +31878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
@@ -31958,7 +31955,7 @@
       <c r="W3" s="255"/>
       <c r="AJ3" s="233"/>
     </row>
-    <row r="4" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>209</v>
       </c>
@@ -32044,7 +32041,7 @@
       </c>
       <c r="AJ4" s="233"/>
     </row>
-    <row r="5" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
@@ -32121,7 +32118,7 @@
       <c r="W5" s="262"/>
       <c r="AJ5" s="258"/>
     </row>
-    <row r="6" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>208</v>
       </c>
@@ -32215,18 +32212,18 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="146"/>
-    <col min="11" max="11" width="10.83203125" style="146"/>
-    <col min="15" max="15" width="10.83203125" style="146"/>
-    <col min="19" max="19" width="10.83203125" style="146"/>
-    <col min="23" max="23" width="10.83203125" style="146"/>
-    <col min="27" max="27" width="12.1640625" style="146" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="146"/>
+    <col min="11" max="11" width="10.81640625" style="146"/>
+    <col min="15" max="15" width="10.81640625" style="146"/>
+    <col min="19" max="19" width="10.81640625" style="146"/>
+    <col min="23" max="23" width="10.81640625" style="146"/>
+    <col min="27" max="27" width="12.1796875" style="146" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="392" t="s">
         <v>203</v>
       </c>
@@ -32241,7 +32238,7 @@
       <c r="X1" s="381"/>
       <c r="Y1" s="381"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="394" t="s">
         <v>189</v>
       </c>
@@ -32253,7 +32250,7 @@
       <c r="I2" s="241"/>
       <c r="J2" s="400"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="395"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -32263,7 +32260,7 @@
       <c r="I3" s="241"/>
       <c r="J3" s="400"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="395"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
@@ -32273,7 +32270,7 @@
       <c r="I4" s="95"/>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="396"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
@@ -32283,12 +32280,12 @@
       <c r="I5" s="95"/>
       <c r="J5" s="95"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="H6" s="95"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C7" s="397" t="s">
         <v>159</v>
       </c>
@@ -32329,7 +32326,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="257" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" s="257" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="257" t="s">
         <v>197</v>
       </c>
@@ -32409,7 +32406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="257" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="257" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="106" t="s">
         <v>162</v>
       </c>
@@ -32431,7 +32428,7 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B10" s="86" t="s">
         <v>168</v>
       </c>
@@ -32508,7 +32505,7 @@
         <v>828.6749765144433</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B11" s="86" t="s">
         <v>169</v>
       </c>
@@ -32585,7 +32582,7 @@
         <v>169.9444832776542</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B12" s="86" t="s">
         <v>170</v>
       </c>
@@ -32662,7 +32659,7 @@
         <v>2355.9885775604512</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B13" s="86" t="s">
         <v>171</v>
       </c>
@@ -32739,7 +32736,7 @@
         <v>80.167011412978511</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B14" s="86" t="s">
         <v>172</v>
       </c>
@@ -32816,7 +32813,7 @@
         <v>0.65670630121913887</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B15" s="86" t="s">
         <v>173</v>
       </c>
@@ -32893,7 +32890,7 @@
         <v>1151.8062286849761</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B16" s="86" t="s">
         <v>164</v>
       </c>
@@ -32970,7 +32967,7 @@
         <v>1961.095884519679</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B17" s="86" t="s">
         <v>165</v>
       </c>
@@ -33047,7 +33044,7 @@
         <v>4091.8476387732821</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B18" s="86" t="s">
         <v>166</v>
       </c>
@@ -33124,7 +33121,7 @@
         <v>587.36016206119621</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B19" s="86" t="s">
         <v>167</v>
       </c>
@@ -33201,7 +33198,7 @@
         <v>1326.2183753120521</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>193</v>
       </c>
@@ -33278,12 +33275,12 @@
         <v>869.9054194417273</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="H21" s="95"/>
       <c r="I21" s="95"/>
       <c r="J21" s="95"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="E22" s="95"/>
       <c r="F22" s="95"/>
       <c r="H22" s="95"/>
@@ -33303,7 +33300,7 @@
       <c r="Z22" s="95"/>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="110" t="s">
         <v>182</v>
       </c>
@@ -33327,7 +33324,7 @@
       <c r="Z23" s="95"/>
       <c r="AB23" s="95"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>182</v>
       </c>
@@ -33429,7 +33426,7 @@
       </c>
       <c r="AB24" s="95"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>175</v>
       </c>
@@ -33531,7 +33528,7 @@
       </c>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B26" s="210" t="s">
         <v>271</v>
       </c>
@@ -33603,7 +33600,7 @@
       </c>
       <c r="AB26" s="243"/>
     </row>
-    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="99" t="s">
         <v>176</v>
       </c>
@@ -33699,7 +33696,7 @@
       </c>
       <c r="AB27" s="244"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D28" s="102"/>
       <c r="E28" s="104"/>
       <c r="F28" s="104"/>
@@ -33722,7 +33719,7 @@
       <c r="Z28" s="95"/>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D29" s="102"/>
       <c r="E29" s="104"/>
       <c r="F29" s="104"/>
@@ -33745,7 +33742,7 @@
       <c r="Z29" s="95"/>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="110" t="s">
         <v>185</v>
       </c>
@@ -33772,7 +33769,7 @@
       <c r="Z30" s="95"/>
       <c r="AB30" s="95"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>185</v>
       </c>
@@ -33871,7 +33868,7 @@
       </c>
       <c r="AB31" s="95"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>175</v>
       </c>
@@ -33973,7 +33970,7 @@
       </c>
       <c r="AB32" s="95"/>
     </row>
-    <row r="33" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B33" s="210" t="s">
         <v>271</v>
       </c>
@@ -34048,7 +34045,7 @@
       </c>
       <c r="AB33" s="243"/>
     </row>
-    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="99" t="s">
         <v>176</v>
       </c>
@@ -34144,7 +34141,7 @@
       </c>
       <c r="AB34" s="244"/>
     </row>
-    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="99"/>
       <c r="D35" s="103"/>
       <c r="E35" s="217"/>
@@ -34172,7 +34169,7 @@
       <c r="AA35" s="181"/>
       <c r="AB35" s="244"/>
     </row>
-    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="99"/>
       <c r="D36" s="103"/>
       <c r="E36" s="217"/>
@@ -34200,7 +34197,7 @@
       <c r="AA36" s="181"/>
       <c r="AB36" s="244"/>
     </row>
-    <row r="37" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37" s="105" t="s">
         <v>186</v>
       </c>
@@ -34227,7 +34224,7 @@
       <c r="Z37" s="95"/>
       <c r="AB37" s="95"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>186</v>
       </c>
@@ -34326,7 +34323,7 @@
       </c>
       <c r="AB38" s="95"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>175</v>
       </c>
@@ -34428,7 +34425,7 @@
       </c>
       <c r="AB39" s="95"/>
     </row>
-    <row r="40" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B40" s="210" t="s">
         <v>271</v>
       </c>
@@ -34509,7 +34506,7 @@
       </c>
       <c r="AB40" s="243"/>
     </row>
-    <row r="41" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="99" t="s">
         <v>176</v>
       </c>
@@ -34605,7 +34602,7 @@
       </c>
       <c r="AB41" s="244"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D42" s="102"/>
       <c r="E42" s="104"/>
       <c r="F42" s="104"/>
@@ -34628,7 +34625,7 @@
       <c r="Z42" s="95"/>
       <c r="AB42" s="95"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D43" s="102"/>
       <c r="E43" s="104"/>
       <c r="F43" s="104"/>
@@ -34651,7 +34648,7 @@
       <c r="Z43" s="95"/>
       <c r="AB43" s="95"/>
     </row>
-    <row r="44" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A44" s="105" t="s">
         <v>187</v>
       </c>
@@ -34678,7 +34675,7 @@
       <c r="Z44" s="95"/>
       <c r="AB44" s="95"/>
     </row>
-    <row r="45" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B45" s="86" t="s">
         <v>187</v>
       </c>
@@ -34780,7 +34777,7 @@
       </c>
       <c r="AB45" s="95"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>175</v>
       </c>
@@ -34882,7 +34879,7 @@
       </c>
       <c r="AB46" s="95"/>
     </row>
-    <row r="47" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B47" s="210" t="s">
         <v>271</v>
       </c>
@@ -34960,7 +34957,7 @@
       </c>
       <c r="AB47" s="243"/>
     </row>
-    <row r="48" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="99" t="s">
         <v>176</v>
       </c>
@@ -35056,7 +35053,7 @@
       </c>
       <c r="AB48" s="244"/>
     </row>
-    <row r="49" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="99"/>
       <c r="D49" s="103"/>
       <c r="E49" s="217"/>
@@ -35084,7 +35081,7 @@
       <c r="AA49" s="181"/>
       <c r="AB49" s="244"/>
     </row>
-    <row r="50" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="99"/>
       <c r="D50" s="103"/>
       <c r="E50" s="217"/>
@@ -35137,20 +35134,20 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="259" t="s">
         <v>250</v>
       </c>
@@ -35179,7 +35176,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="260">
         <v>44104</v>
       </c>
@@ -35216,7 +35213,7 @@
         <v>49.271999999999991</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="260">
         <v>44196</v>
       </c>
@@ -35245,7 +35242,7 @@
         <v>68.24199999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="260">
         <v>44286</v>
       </c>
@@ -35274,7 +35271,7 @@
         <v>60.199795999999935</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="260">
         <v>44377</v>
       </c>
@@ -35303,7 +35300,7 @@
         <v>67.261751256205002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="260">
         <v>44469</v>
       </c>
@@ -35332,7 +35329,7 @@
         <v>63.106744514582999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="260">
         <v>44561</v>
       </c>
@@ -35361,7 +35358,7 @@
         <v>60.548462812038906</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="260">
         <v>44651</v>
       </c>
@@ -35390,7 +35387,7 @@
         <v>48.756826209861401</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="260">
         <v>44742</v>
       </c>
@@ -35419,7 +35416,7 @@
         <v>47.075168778347972</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="260">
         <v>44834</v>
       </c>
@@ -35448,7 +35445,7 @@
         <v>45.38228634829386</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="260">
         <v>44926</v>
       </c>
@@ -35477,7 +35474,7 @@
         <v>43.63461153540959</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="260">
         <v>45016</v>
       </c>
@@ -35506,7 +35503,7 @@
         <v>41.889691937128021</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="260">
         <v>45107</v>
       </c>
@@ -35535,7 +35532,7 @@
         <v>56.635167119177311</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="260">
         <v>45199</v>
       </c>
@@ -35564,7 +35561,7 @@
         <v>53.981408433973343</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="260">
         <v>45291</v>
       </c>
@@ -35593,7 +35590,7 @@
         <v>51.263606932646326</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="260">
         <v>45382</v>
       </c>
@@ -35622,7 +35619,7 @@
         <v>51.772414448603058</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="260">
         <v>45473</v>
       </c>
@@ -35651,7 +35648,7 @@
         <v>52.284929603149124</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="260">
         <v>45565</v>
       </c>
@@ -35680,7 +35677,7 @@
         <v>52.803713366615796</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="260">
         <v>45657</v>
       </c>
@@ -35709,7 +35706,7 @@
         <v>53.328135492352658</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="260">
         <v>45747</v>
       </c>
@@ -35738,7 +35735,7 @@
         <v>53.854882752932838</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="260">
         <v>45838</v>
       </c>
@@ -35767,7 +35764,7 @@
         <v>54.384605669423934</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="260">
         <v>45930</v>
       </c>
@@ -35796,7 +35793,7 @@
         <v>54.916846529514942</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="260">
         <v>46022</v>
       </c>
@@ -35840,12 +35837,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -36062,6 +36053,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
@@ -36071,23 +36068,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36104,4 +36084,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>